--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -376,7 +376,7 @@
   <dimension ref="B1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:L17"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>[1]Sheet1!$A$1+1</f>
         <v>3</v>
@@ -709,7 +709,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>[1]Sheet1!$A$1+[1]Sheet1!$A$2</f>
         <v>4</v>
@@ -723,20 +723,24 @@
       <c r="J18" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f ca="1">IFERROR(INDIRECT("ab")+1, 33)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E19">
         <f>D16*3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H20">
         <f t="array" ref="H20:H24">IF(G9:G12&lt;&gt;H10:H13,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F21">
         <f>C19+1</f>
         <v>1</v>
@@ -744,20 +748,32 @@
       <c r="H21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L21" t="b">
+        <f>ISERROR(J18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L23" t="b">
+        <f>ISERR(J16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H24" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="L24" t="b">
+        <f>ISERR(K12)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sandboxes\excel2py\formulas\test\test_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16305" tabRatio="500"/>
   </bookViews>
@@ -21,7 +26,7 @@
     <definedName name="f">Sheet1!$G$2:$H$5</definedName>
     <definedName name="g">Sheet2!$B$2:$B$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,9 +36,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ca</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>ACOS</t>
+  </si>
+  <si>
+    <t>ACOSH</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>COSH</t>
+  </si>
+  <si>
+    <t>ASIN</t>
+  </si>
+  <si>
+    <t>ASINH</t>
+  </si>
+  <si>
+    <t>ATAN</t>
+  </si>
+  <si>
+    <t>ATAN2</t>
+  </si>
+  <si>
+    <t>ATANH</t>
+  </si>
+  <si>
+    <t>SINH</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>TANH</t>
   </si>
 </sst>
 </file>
@@ -81,6 +134,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -365,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -373,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N24"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -693,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>[1]Sheet1!$A$1+1</f>
         <v>3</v>
@@ -709,7 +765,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>[1]Sheet1!$A$1+[1]Sheet1!$A$2</f>
         <v>4</v>
@@ -728,19 +784,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E19">
         <f>D16*3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H20">
         <f t="array" ref="H20:H24">IF(G9:G12&lt;&gt;H10:H13,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F21">
         <f>C19+1</f>
         <v>1</v>
@@ -753,12 +809,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>1</v>
       </c>
@@ -767,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H24" t="e">
         <v>#N/A</v>
       </c>
@@ -776,8 +832,710 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2.5</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <f>LN(B26)</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>LN(C26)</f>
+        <v>0.91629073187415511</v>
+      </c>
+      <c r="J26">
+        <f>LN(D26)</f>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="K26">
+        <f>LN(E26)</f>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="L26" t="e">
+        <f>LN(F26)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N26">
+        <f t="array" ref="N26">SUM(LN(B26:E26))</f>
+        <v>4.317488113536311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2.5</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <f>LOG(B27)</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:L29" si="0">LOG(C27)</f>
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L27" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N27">
+        <f t="array" ref="N27">SUM(LOG(B27:E27))</f>
+        <v>1.8750612633917001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2.5</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <f>EXP(B28)</f>
+        <v>2.7182818284590451</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28:K28" si="1">EXP(C28)</f>
+        <v>12.182493960703473</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>20.085536923187668</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>22026.465794806718</v>
+      </c>
+      <c r="L28" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N28">
+        <f t="array" ref="N28">SUM(EXP(B28:E28))</f>
+        <v>22061.452107519068</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0.2</v>
+      </c>
+      <c r="D29">
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <f>ACOS(B29)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:L29" si="2">ACOS(C29)</f>
+        <v>1.3694384060045657</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N29">
+        <f t="array" ref="N29">SUM(ACOS(B29:E29))</f>
+        <v>3.9874322839960596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="H30">
+        <f>ACOSH(B30)</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30:L30" si="3">ACOSH(C30)</f>
+        <v>1.3169578969248166</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>1.7627471740390861</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>2.0634370688955608</v>
+      </c>
+      <c r="L30" t="e">
+        <f>ACOSH(F30)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N30">
+        <f t="array" ref="N30">SUM(ACOSH(B30:E30))</f>
+        <v>5.1431421398594637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0.2</v>
+      </c>
+      <c r="D31">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <f>ASIN(B31)</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31:L31" si="4">ASIN(C31)</f>
+        <v>0.20135792079033082</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>0.52359877559829893</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="L31" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N31">
+        <f t="array" ref="N31">SUM(ASIN(B31:E31))</f>
+        <v>2.2957530231835266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>-5</v>
+      </c>
+      <c r="C32">
+        <v>-1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <f>ASINH(B32)</f>
+        <v>-2.3124383412727525</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32:L32" si="5">ASINH(C32)</f>
+        <v>-0.88137358701954294</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>3.6895038689889059</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>5.2983423656105888</v>
+      </c>
+      <c r="N32">
+        <f t="array" ref="N32">SUM(ASINH(B32:E32))</f>
+        <v>0.49569194069661027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0.2</v>
+      </c>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>-10</v>
+      </c>
+      <c r="H33">
+        <f>ATAN(B33)</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33:L33" si="6">ATAN(C33)</f>
+        <v>0.19739555984988078</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="6"/>
+        <v>0.46364760900080609</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>-1.4711276743037347</v>
+      </c>
+      <c r="N33">
+        <f t="array" ref="N33">SUM(ATAN(B33:E33))</f>
+        <v>1.4464413322481351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0.2</v>
+      </c>
+      <c r="D34">
+        <v>0.5</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <f>ATAN2(B34,C34)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:L34" si="7">ATAN2(C34,D34)</f>
+        <v>1.1902899496825317</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="7"/>
+        <v>1.1071487177940904</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="7"/>
+        <v>1.1071487177940904</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="array" ref="N34">SUM(ATAN2(B34:E34,C34:F34))</f>
+        <v>4.975383712065609</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0.1</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+      <c r="E35">
+        <v>0.95</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f>ATANH(B35)</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>ATANH(C35)</f>
+        <v>0.10033534773107562</v>
+      </c>
+      <c r="J35">
+        <f>ATANH(D35)</f>
+        <v>0.54930614433405489</v>
+      </c>
+      <c r="K35">
+        <f>ATANH(E35)</f>
+        <v>1.8317808230648227</v>
+      </c>
+      <c r="L35" t="e">
+        <f>ATANH(F35)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N35">
+        <f t="array" ref="N35">SUM(ATANH(B35:E35))</f>
+        <v>2.4814223151299535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <f>COS(B36)</f>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:L36" si="8">COS(C36)</f>
+        <v>0.87758256189037276</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="8"/>
+        <v>0.54030230586813977</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="8"/>
+        <v>0.54030230586813977</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="8"/>
+        <v>-0.83907152907645244</v>
+      </c>
+      <c r="N36">
+        <f t="array" ref="N36">SUM(COS(B36:E36))</f>
+        <v>2.9581871736266523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0.5</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <f>COSH(B37)</f>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ref="I37:L37" si="9">COSH(C37)</f>
+        <v>1.1276259652063807</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="9"/>
+        <v>1.5430806348152437</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="9"/>
+        <v>1.5430806348152437</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="9"/>
+        <v>11013.232920103324</v>
+      </c>
+      <c r="N37">
+        <f t="array" ref="N37">SUM(COSH(B37:E37))</f>
+        <v>5.2137872348368681</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0.5</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <f>SIN(B38)</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38:L38" si="10">SIN(C38)</f>
+        <v>0.47942553860420301</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="10"/>
+        <v>0.8414709848078965</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="10"/>
+        <v>-0.8414709848078965</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="10"/>
+        <v>-0.54402111088936977</v>
+      </c>
+      <c r="N38">
+        <f t="array" ref="N38">SUM(SIN(B38:E38))</f>
+        <v>0.47942553860420301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0.5</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <f>SINH(B39)</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:L39" si="11">SINH(C39)</f>
+        <v>0.52109530549374738</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="11"/>
+        <v>1.1752011936438014</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="11"/>
+        <v>-1.1752011936438014</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="11"/>
+        <v>11013.232874703393</v>
+      </c>
+      <c r="N39">
+        <f t="array" ref="N39">SUM(SINH(B39:E39))</f>
+        <v>0.5210953054937475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <f>TAN(B40)</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40:L40" si="12">TAN(C40)</f>
+        <v>0.54630248984379048</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="12"/>
+        <v>1.5574077246549023</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="12"/>
+        <v>-1.5574077246549023</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="12"/>
+        <v>0.64836082745908663</v>
+      </c>
+      <c r="N40">
+        <f t="array" ref="N40">SUM(TAN(B40:E40))</f>
+        <v>0.54630248984379071</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.5</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <f>TANH(B41)</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41:L41" si="13">TANH(C41)</f>
+        <v>0.46211715726000979</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="13"/>
+        <v>0.76159415595576485</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="13"/>
+        <v>-0.76159415595576485</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="13"/>
+        <v>0.99999999587769262</v>
+      </c>
+      <c r="N41">
+        <f t="array" ref="N41">SUM(TANH(B41:E41))</f>
+        <v>0.46211715726000979</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>ca</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>TANH</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
   </si>
 </sst>
 </file>
@@ -122,9 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -749,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>[1]Sheet1!$A$1+1</f>
         <v>3</v>
@@ -765,7 +780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>[1]Sheet1!$A$1+[1]Sheet1!$A$2</f>
         <v>4</v>
@@ -784,19 +799,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E19">
         <f>D16*3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H20">
         <f t="array" ref="H20:H24">IF(G9:G12&lt;&gt;H10:H13,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F21">
         <f>C19+1</f>
         <v>1</v>
@@ -809,12 +824,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>1</v>
       </c>
@@ -823,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H24" t="e">
         <v>#N/A</v>
       </c>
@@ -832,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -848,35 +863,42 @@
       <c r="E26">
         <v>10</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26">
         <v>-1</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f>LN(B26)</f>
         <v>0</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f>LN(C26)</f>
         <v>0.91629073187415511</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f>LN(D26)</f>
         <v>1.0986122886681098</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <f>LN(E26)</f>
         <v>2.3025850929940459</v>
       </c>
-      <c r="L26" t="e">
+      <c r="M26" t="e">
         <f>LN(F26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N26" t="e">
+        <f>LN(G26)</f>
         <v>#NUM!</v>
       </c>
-      <c r="N26">
-        <f t="array" ref="N26">SUM(LN(B26:E26))</f>
+      <c r="O26">
+        <f t="array" ref="O26">SUM(LN(B26:E26))</f>
         <v>4.317488113536311</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -892,35 +914,42 @@
       <c r="E27">
         <v>10</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27">
         <v>-1</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f>LOG(B27)</f>
         <v>0</v>
       </c>
-      <c r="I27">
-        <f t="shared" ref="I27:L29" si="0">LOG(C27)</f>
+      <c r="J27">
+        <f>LOG(C27)</f>
         <v>0.3979400086720376</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
+      <c r="K27">
+        <f>LOG(D27)</f>
         <v>0.47712125471966244</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L27" t="e">
-        <f t="shared" si="0"/>
+      <c r="L27">
+        <f>LOG(E27)</f>
+        <v>1</v>
+      </c>
+      <c r="M27" t="e">
+        <f>LOG(F27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N27" t="e">
+        <f>LOG(G27)</f>
         <v>#NUM!</v>
       </c>
-      <c r="N27">
-        <f t="array" ref="N27">SUM(LOG(B27:E27))</f>
+      <c r="O27">
+        <f t="array" ref="O27">SUM(LOG(B27:E27))</f>
         <v>1.8750612633917001</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -936,32 +965,42 @@
       <c r="E28">
         <v>10</v>
       </c>
-      <c r="H28">
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <f>EXP(B28)</f>
         <v>2.7182818284590451</v>
       </c>
-      <c r="I28">
-        <f t="shared" ref="I28:K28" si="1">EXP(C28)</f>
+      <c r="J28">
+        <f>EXP(C28)</f>
         <v>12.182493960703473</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="1"/>
+      <c r="K28">
+        <f>EXP(D28)</f>
         <v>20.085536923187668</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="1"/>
+      <c r="L28">
+        <f>EXP(E28)</f>
         <v>22026.465794806718</v>
       </c>
-      <c r="L28" t="e">
-        <f t="shared" si="0"/>
+      <c r="M28" t="e">
+        <f>EXP(F28)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N28" t="e">
+        <f>LOG(G28)</f>
         <v>#NUM!</v>
       </c>
-      <c r="N28">
-        <f t="array" ref="N28">SUM(EXP(B28:E28))</f>
+      <c r="O28">
+        <f t="array" ref="O28">SUM(EXP(B28:E28))</f>
         <v>22061.452107519068</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -977,35 +1016,42 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29">
         <v>2</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f>ACOS(B29)</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="I29">
-        <f t="shared" ref="I29:L29" si="2">ACOS(C29)</f>
+      <c r="J29">
+        <f>ACOS(C29)</f>
         <v>1.3694384060045657</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="2"/>
+      <c r="K29">
+        <f>ACOS(D29)</f>
         <v>1.0471975511965976</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L29" t="e">
-        <f t="shared" si="2"/>
+      <c r="L29">
+        <f>ACOS(E29)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" t="e">
+        <f>ACOS(F29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N29" t="e">
+        <f>ACOS(G29)</f>
         <v>#NUM!</v>
       </c>
-      <c r="N29">
-        <f t="array" ref="N29">SUM(ACOS(B29:E29))</f>
+      <c r="O29">
+        <f t="array" ref="O29">SUM(ACOS(B29:E29))</f>
         <v>3.9874322839960596</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1021,35 +1067,42 @@
       <c r="E30">
         <v>4</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30">
         <v>0.5</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f>ACOSH(B30)</f>
         <v>0</v>
       </c>
-      <c r="I30">
-        <f t="shared" ref="I30:L30" si="3">ACOSH(C30)</f>
+      <c r="J30">
+        <f>ACOSH(C30)</f>
         <v>1.3169578969248166</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="3"/>
+      <c r="K30">
+        <f>ACOSH(D30)</f>
         <v>1.7627471740390861</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="3"/>
+      <c r="L30">
+        <f>ACOSH(E30)</f>
         <v>2.0634370688955608</v>
       </c>
-      <c r="L30" t="e">
+      <c r="M30" t="e">
         <f>ACOSH(F30)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N30" t="e">
+        <f>ACOSH(G30)</f>
         <v>#NUM!</v>
       </c>
-      <c r="N30">
-        <f t="array" ref="N30">SUM(ACOSH(B30:E30))</f>
+      <c r="O30">
+        <f t="array" ref="O30">SUM(ACOSH(B30:E30))</f>
         <v>5.1431421398594637</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1065,35 +1118,42 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31">
         <v>2</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f>ASIN(B31)</f>
         <v>0</v>
       </c>
-      <c r="I31">
-        <f t="shared" ref="I31:L31" si="4">ASIN(C31)</f>
+      <c r="J31">
+        <f>ASIN(C31)</f>
         <v>0.20135792079033082</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="4"/>
+      <c r="K31">
+        <f>ASIN(D31)</f>
         <v>0.52359877559829893</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="4"/>
+      <c r="L31">
+        <f>ASIN(E31)</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="L31" t="e">
-        <f t="shared" si="4"/>
+      <c r="M31" t="e">
+        <f>ASIN(F31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N31" t="e">
+        <f>ASIN(G31)</f>
         <v>#NUM!</v>
       </c>
-      <c r="N31">
-        <f t="array" ref="N31">SUM(ASIN(B31:E31))</f>
+      <c r="O31">
+        <f t="array" ref="O31">SUM(ASIN(B31:E31))</f>
         <v>2.2957530231835266</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1109,35 +1169,35 @@
       <c r="E32">
         <v>20</v>
       </c>
-      <c r="F32">
-        <v>100</v>
-      </c>
-      <c r="H32">
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32">
         <f>ASINH(B32)</f>
         <v>-2.3124383412727525</v>
       </c>
-      <c r="I32">
-        <f t="shared" ref="I32:L32" si="5">ASINH(C32)</f>
+      <c r="J32">
+        <f>ASINH(C32)</f>
         <v>-0.88137358701954294</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="K32">
-        <f t="shared" si="5"/>
+        <f>ASINH(D32)</f>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f>ASINH(E32)</f>
         <v>3.6895038689889059</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="5"/>
-        <v>5.2983423656105888</v>
-      </c>
-      <c r="N32">
-        <f t="array" ref="N32">SUM(ASINH(B32:E32))</f>
+      <c r="M32" t="e">
+        <f>ASINH(F32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O32">
+        <f t="array" ref="O32">SUM(ASINH(B32:E32))</f>
         <v>0.49569194069661027</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1153,35 +1213,35 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33">
-        <v>-10</v>
-      </c>
-      <c r="H33">
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33">
         <f>ATAN(B33)</f>
         <v>0</v>
       </c>
-      <c r="I33">
-        <f t="shared" ref="I33:L33" si="6">ATAN(C33)</f>
+      <c r="J33">
+        <f>ATAN(C33)</f>
         <v>0.19739555984988078</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="6"/>
+      <c r="K33">
+        <f>ATAN(D33)</f>
         <v>0.46364760900080609</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="6"/>
+      <c r="L33">
+        <f>ATAN(E33)</f>
         <v>0.78539816339744828</v>
       </c>
-      <c r="L33">
-        <f t="shared" si="6"/>
-        <v>-1.4711276743037347</v>
-      </c>
-      <c r="N33">
-        <f t="array" ref="N33">SUM(ATAN(B33:E33))</f>
+      <c r="M33" t="e">
+        <f>ATAN(F33)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O33">
+        <f t="array" ref="O33">SUM(ATAN(B33:E33))</f>
         <v>1.4464413322481351</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1189,43 +1249,43 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="H34">
+        <v>-4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34">
         <f>ATAN2(B34,C34)</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="I34">
-        <f t="shared" ref="I34:L34" si="7">ATAN2(C34,D34)</f>
-        <v>1.1902899496825317</v>
-      </c>
       <c r="J34">
-        <f t="shared" si="7"/>
+        <f>ATAN2(C34,D34)</f>
         <v>1.1071487177940904</v>
       </c>
       <c r="K34">
-        <f t="shared" si="7"/>
-        <v>1.1071487177940904</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <f t="array" ref="N34">SUM(ATAN2(B34:E34,C34:F34))</f>
-        <v>4.975383712065609</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <f>ATAN2(D34,E34)</f>
+        <v>-1.1071487177940904</v>
+      </c>
+      <c r="L34" t="e">
+        <f>ATAN2(E34,F34)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M34" t="e">
+        <f>ATAN2(F34,G34)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O34">
+        <f t="array" ref="O34">SUM(ATAN2(B34:D34,C34:E34))</f>
+        <v>1.5707963267948966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1236,40 +1296,40 @@
         <v>0.1</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="E35">
-        <v>0.95</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35">
         <f>ATANH(B35)</f>
         <v>0</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <f>ATANH(C35)</f>
         <v>0.10033534773107562</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <f>ATANH(D35)</f>
-        <v>0.54930614433405489</v>
-      </c>
-      <c r="K35">
+        <v>2.6466524123622457</v>
+      </c>
+      <c r="L35" t="e">
         <f>ATANH(E35)</f>
-        <v>1.8317808230648227</v>
-      </c>
-      <c r="L35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M35" t="e">
         <f>ATANH(F35)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N35">
-        <f t="array" ref="N35">SUM(ATANH(B35:E35))</f>
-        <v>2.4814223151299535</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O35">
+        <f t="array" ref="O35">SUM(ATANH(B35:D35))</f>
+        <v>2.7469877600933215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1285,35 +1345,35 @@
       <c r="E36">
         <v>-1</v>
       </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="H36">
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36">
         <f>COS(B36)</f>
         <v>1</v>
       </c>
-      <c r="I36">
-        <f t="shared" ref="I36:L36" si="8">COS(C36)</f>
+      <c r="J36">
+        <f>COS(C36)</f>
         <v>0.87758256189037276</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="8"/>
+      <c r="K36">
+        <f>COS(D36)</f>
         <v>0.54030230586813977</v>
       </c>
-      <c r="K36">
-        <f t="shared" si="8"/>
+      <c r="L36">
+        <f>COS(E36)</f>
         <v>0.54030230586813977</v>
       </c>
-      <c r="L36">
-        <f t="shared" si="8"/>
-        <v>-0.83907152907645244</v>
-      </c>
-      <c r="N36">
-        <f t="array" ref="N36">SUM(COS(B36:E36))</f>
+      <c r="M36" t="e">
+        <f>COS(F36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O36">
+        <f t="array" ref="O36">SUM(COS(B36:E36))</f>
         <v>2.9581871736266523</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1329,35 +1389,35 @@
       <c r="E37">
         <v>-1</v>
       </c>
-      <c r="F37">
-        <v>10</v>
-      </c>
-      <c r="H37">
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37">
         <f>COSH(B37)</f>
         <v>1</v>
       </c>
-      <c r="I37">
-        <f t="shared" ref="I37:L37" si="9">COSH(C37)</f>
+      <c r="J37">
+        <f>COSH(C37)</f>
         <v>1.1276259652063807</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="9"/>
+      <c r="K37">
+        <f>COSH(D37)</f>
         <v>1.5430806348152437</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="9"/>
+      <c r="L37">
+        <f>COSH(E37)</f>
         <v>1.5430806348152437</v>
       </c>
-      <c r="L37">
-        <f t="shared" si="9"/>
-        <v>11013.232920103324</v>
-      </c>
-      <c r="N37">
-        <f t="array" ref="N37">SUM(COSH(B37:E37))</f>
+      <c r="M37" t="e">
+        <f>COSH(F37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O37">
+        <f t="array" ref="O37">SUM(COSH(B37:E37))</f>
         <v>5.2137872348368681</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1373,35 +1433,35 @@
       <c r="E38">
         <v>-1</v>
       </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-      <c r="H38">
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38">
         <f>SIN(B38)</f>
         <v>0</v>
       </c>
-      <c r="I38">
-        <f t="shared" ref="I38:L38" si="10">SIN(C38)</f>
+      <c r="J38">
+        <f>SIN(C38)</f>
         <v>0.47942553860420301</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="10"/>
+      <c r="K38">
+        <f>SIN(D38)</f>
         <v>0.8414709848078965</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="10"/>
+      <c r="L38">
+        <f>SIN(E38)</f>
         <v>-0.8414709848078965</v>
       </c>
-      <c r="L38">
-        <f t="shared" si="10"/>
-        <v>-0.54402111088936977</v>
-      </c>
-      <c r="N38">
-        <f t="array" ref="N38">SUM(SIN(B38:E38))</f>
+      <c r="M38" t="e">
+        <f>SIN(F38)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O38">
+        <f t="array" ref="O38">SUM(SIN(B38:E38))</f>
         <v>0.47942553860420301</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1417,35 +1477,35 @@
       <c r="E39">
         <v>-1</v>
       </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="H39">
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39">
         <f>SINH(B39)</f>
         <v>0</v>
       </c>
-      <c r="I39">
-        <f t="shared" ref="I39:L39" si="11">SINH(C39)</f>
+      <c r="J39">
+        <f>SINH(C39)</f>
         <v>0.52109530549374738</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="11"/>
+      <c r="K39">
+        <f>SINH(D39)</f>
         <v>1.1752011936438014</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="11"/>
+      <c r="L39">
+        <f>SINH(E39)</f>
         <v>-1.1752011936438014</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="11"/>
-        <v>11013.232874703393</v>
-      </c>
-      <c r="N39">
-        <f t="array" ref="N39">SUM(SINH(B39:E39))</f>
+      <c r="M39" t="e">
+        <f>SINH(F39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O39">
+        <f t="array" ref="O39">SUM(SINH(B39:E39))</f>
         <v>0.5210953054937475</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -1461,35 +1521,35 @@
       <c r="E40">
         <v>-1</v>
       </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-      <c r="H40">
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40">
         <f>TAN(B40)</f>
         <v>0</v>
       </c>
-      <c r="I40">
-        <f t="shared" ref="I40:L40" si="12">TAN(C40)</f>
+      <c r="J40">
+        <f>TAN(C40)</f>
         <v>0.54630248984379048</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="12"/>
+      <c r="K40">
+        <f>TAN(D40)</f>
         <v>1.5574077246549023</v>
       </c>
-      <c r="K40">
-        <f t="shared" si="12"/>
+      <c r="L40">
+        <f>TAN(E40)</f>
         <v>-1.5574077246549023</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="12"/>
-        <v>0.64836082745908663</v>
-      </c>
-      <c r="N40">
-        <f t="array" ref="N40">SUM(TAN(B40:E40))</f>
+      <c r="M40" t="e">
+        <f>TAN(F40)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O40">
+        <f t="array" ref="O40">SUM(TAN(B40:E40))</f>
         <v>0.54630248984379071</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1500,38 +1560,133 @@
         <v>0.5</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E41">
-        <v>-1</v>
-      </c>
-      <c r="F41">
         <v>10</v>
       </c>
-      <c r="H41">
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41">
         <f>TANH(B41)</f>
         <v>0</v>
       </c>
-      <c r="I41">
-        <f t="shared" ref="I41:L41" si="13">TANH(C41)</f>
+      <c r="J41">
+        <f>TANH(C41)</f>
         <v>0.46211715726000979</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="13"/>
-        <v>0.76159415595576485</v>
-      </c>
       <c r="K41">
-        <f t="shared" si="13"/>
+        <f>TANH(D41)</f>
         <v>-0.76159415595576485</v>
       </c>
       <c r="L41">
-        <f t="shared" si="13"/>
+        <f>TANH(E41)</f>
         <v>0.99999999587769262</v>
       </c>
-      <c r="N41">
-        <f t="array" ref="N41">SUM(TANH(B41:E41))</f>
-        <v>0.46211715726000979</v>
-      </c>
+      <c r="M41" t="e">
+        <f>TANH(F41)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O41">
+        <f t="array" ref="O41">SUM(TANH(B41:E41))</f>
+        <v>0.70052299718193756</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>-10</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>-1.5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42">
+        <f>ABS(B42)</f>
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <f>ABS(C42)</f>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f>ABS(D42)</f>
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <f>ABS(E42)</f>
+        <v>1.5</v>
+      </c>
+      <c r="M42" t="e">
+        <f>ABS(F42)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O42">
+        <f t="array" ref="O42">SUM(ABS(B42:E42))</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>-10</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43">
+        <f>MAX(B43:F43)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>-10</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44">
+        <f>MIN(B44:F44)</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>ca</t>
   </si>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>MIN</t>
+  </si>
+  <si>
+    <t>RADIANS</t>
+  </si>
+  <si>
+    <t>DEGREES</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>SQRT</t>
   </si>
 </sst>
 </file>
@@ -444,13 +459,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="7" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F1">
@@ -1249,40 +1267,40 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E34">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
       </c>
       <c r="I34">
         <f>ATAN2(B34,C34)</f>
-        <v>1.5707963267948966</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="J34">
-        <f>ATAN2(C34,D34)</f>
-        <v>1.1071487177940904</v>
+        <f t="shared" ref="J34:M34" si="0">ATAN2(C34,D34)</f>
+        <v>1.9513027039072615</v>
       </c>
       <c r="K34">
-        <f>ATAN2(D34,E34)</f>
-        <v>-1.1071487177940904</v>
+        <f t="shared" si="0"/>
+        <v>-1.3258176636680326</v>
       </c>
       <c r="L34" t="e">
-        <f>ATAN2(E34,F34)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="M34" t="e">
-        <f>ATAN2(F34,G34)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="O34">
         <f t="array" ref="O34">SUM(ATAN2(B34:D34,C34:E34))</f>
-        <v>1.5707963267948966</v>
+        <v>-0.94531128655566765</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -1685,8 +1703,256 @@
         <v>-10</v>
       </c>
     </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="C45">
+        <f>-PI()/4</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="D45">
+        <v>120</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45">
+        <f>DEGREES(B45)</f>
+        <v>180</v>
+      </c>
+      <c r="J45">
+        <f>DEGREES(C45)</f>
+        <v>-45</v>
+      </c>
+      <c r="K45">
+        <f>DEGREES(D45)</f>
+        <v>6875.4935415698783</v>
+      </c>
+      <c r="L45">
+        <f>DEGREES(E45)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" t="e">
+        <f>DEGREES(F45)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O45">
+        <f t="array" ref="O45">SUM(DEGREES(B45:E45))</f>
+        <v>7010.4935415698783</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46">
+        <v>120</v>
+      </c>
+      <c r="C46">
+        <v>-45</v>
+      </c>
+      <c r="D46">
+        <v>-720</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46">
+        <f>RADIANS(B46)</f>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46:M46" si="1">RADIANS(C46)</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>-12.566370614359172</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M46" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O46">
+        <f t="array" ref="O46">SUM(RADIANS(B46:E46))</f>
+        <v>-11.257373675363425</v>
+      </c>
+    </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F47" s="2"/>
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>3.5</v>
+      </c>
+      <c r="D47">
+        <v>-0.5</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47">
+        <f>POWER(B47,C47)</f>
+        <v>11.313708498984759</v>
+      </c>
+      <c r="J47">
+        <f>POWER(C47,D47)</f>
+        <v>0.53452248382484879</v>
+      </c>
+      <c r="K47">
+        <f>POWER(D47,E47)</f>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="L47" t="e">
+        <f>POWER(E47,F47)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M47" t="e">
+        <f>POWER(F47,G47)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O47">
+        <f t="array" ref="O47">SUM(POWER(B47:D47,C47:E47))</f>
+        <v>11.846277857809609</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>31.5</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>6.7</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48">
+        <f>MOD(B48,C48)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J48">
+        <f>MOD(C48,D48)</f>
+        <v>3.3</v>
+      </c>
+      <c r="K48">
+        <f>MOD(D48,E48)</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="L48" t="e">
+        <f>MOD(E48,F48)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M48" t="e">
+        <f>MOD(F48,G48)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O48">
+        <f t="array" ref="O48">SUM(MOD(B48:D48,C48:E48))</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>3.5</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>-0.5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49">
+        <f>SQRT(B49)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J49:M49" si="2">SQRT(C49)</f>
+        <v>1.8708286933869707</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L49" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M49" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O49">
+        <f t="array" ref="O49">SUM(SQRT(B49:D49))</f>
+        <v>6.2850422557600663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H60" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sandboxes\excel2py\formulas\test\test_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16305" tabRatio="500"/>
   </bookViews>
@@ -26,7 +21,7 @@
     <definedName name="f">Sheet1!$G$2:$H$5</definedName>
     <definedName name="g">Sheet2!$B$2:$B$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -451,7 +446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,15 +454,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD66"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
@@ -782,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>[1]Sheet1!$A$1+1</f>
         <v>3</v>
@@ -798,7 +795,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>[1]Sheet1!$A$1+[1]Sheet1!$A$2</f>
         <v>4</v>
@@ -817,19 +814,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E19">
         <f>D16*3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H20">
         <f t="array" ref="H20:H24">IF(G9:G12&lt;&gt;H10:H13,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F21">
         <f>C19+1</f>
         <v>1</v>
@@ -842,12 +839,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>1</v>
       </c>
@@ -856,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H24" t="e">
         <v>#N/A</v>
       </c>
@@ -865,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -892,31 +889,41 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <f>LN(C26)</f>
+        <f t="shared" ref="I26:N26" si="0">LN(C26)</f>
         <v>0.91629073187415511</v>
       </c>
       <c r="K26">
-        <f>LN(D26)</f>
+        <f t="shared" si="0"/>
         <v>1.0986122886681098</v>
       </c>
       <c r="L26">
-        <f>LN(E26)</f>
+        <f t="shared" si="0"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="M26" t="e">
-        <f>LN(F26)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="N26" t="e">
-        <f>LN(G26)</f>
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="O26">
         <f t="array" ref="O26">SUM(LN(B26:E26))</f>
         <v>4.317488113536311</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f t="array" ref="P26:R26">LN(B26:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0.91629073187415511</v>
+      </c>
+      <c r="R26">
+        <v>1.0986122886681098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -943,31 +950,44 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <f>LOG(C27)</f>
+        <f t="shared" ref="I27:P27" si="1">LOG(C27)</f>
         <v>0.3979400086720376</v>
       </c>
       <c r="K27">
-        <f>LOG(D27)</f>
+        <f t="shared" si="1"/>
         <v>0.47712125471966244</v>
       </c>
       <c r="L27">
-        <f>LOG(E27)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M27" t="e">
-        <f>LOG(F27)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="N27" t="e">
-        <f>LOG(G27)</f>
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
       <c r="O27">
         <f t="array" ref="O27">SUM(LOG(B27:E27))</f>
         <v>1.8750612633917001</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <f t="array" ref="P27:S27">LOG(B27:E27)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="R27">
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1017,8 +1037,21 @@
         <f t="array" ref="O28">SUM(EXP(B28:E28))</f>
         <v>22061.452107519068</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <f t="array" ref="P28:S28">EXP(B28:E28)</f>
+        <v>2.7182818284590451</v>
+      </c>
+      <c r="Q28">
+        <v>12.182493960703473</v>
+      </c>
+      <c r="R28">
+        <v>20.085536923187668</v>
+      </c>
+      <c r="S28">
+        <v>22026.465794806718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1041,35 +1074,48 @@
         <v>2</v>
       </c>
       <c r="I29">
-        <f>ACOS(B29)</f>
+        <f t="shared" ref="I29:P29" si="2">ACOS(B29)</f>
         <v>1.5707963267948966</v>
       </c>
       <c r="J29">
-        <f>ACOS(C29)</f>
+        <f t="shared" si="2"/>
         <v>1.3694384060045657</v>
       </c>
       <c r="K29">
-        <f>ACOS(D29)</f>
+        <f t="shared" si="2"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="L29">
-        <f>ACOS(E29)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M29" t="e">
-        <f>ACOS(F29)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="N29" t="e">
-        <f>ACOS(G29)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="O29">
         <f t="array" ref="O29">SUM(ACOS(B29:E29))</f>
         <v>3.9874322839960596</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <f t="array" ref="P29:S29">ACOS(B29:E29)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="Q29">
+        <v>1.3694384060045657</v>
+      </c>
+      <c r="R29">
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1092,35 +1138,48 @@
         <v>0.5</v>
       </c>
       <c r="I30">
-        <f>ACOSH(B30)</f>
+        <f t="shared" ref="I30:P30" si="3">ACOSH(B30)</f>
         <v>0</v>
       </c>
       <c r="J30">
-        <f>ACOSH(C30)</f>
+        <f t="shared" si="3"/>
         <v>1.3169578969248166</v>
       </c>
       <c r="K30">
-        <f>ACOSH(D30)</f>
+        <f t="shared" si="3"/>
         <v>1.7627471740390861</v>
       </c>
       <c r="L30">
-        <f>ACOSH(E30)</f>
+        <f t="shared" si="3"/>
         <v>2.0634370688955608</v>
       </c>
       <c r="M30" t="e">
-        <f>ACOSH(F30)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="N30" t="e">
-        <f>ACOSH(G30)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="O30">
         <f t="array" ref="O30">SUM(ACOSH(B30:E30))</f>
         <v>5.1431421398594637</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <f t="array" ref="P30:S30">ACOSH(B30:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1.3169578969248166</v>
+      </c>
+      <c r="R30">
+        <v>1.7627471740390861</v>
+      </c>
+      <c r="S30">
+        <v>2.0634370688955608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1143,35 +1202,48 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <f>ASIN(B31)</f>
+        <f t="shared" ref="I31:P31" si="4">ASIN(B31)</f>
         <v>0</v>
       </c>
       <c r="J31">
-        <f>ASIN(C31)</f>
+        <f t="shared" si="4"/>
         <v>0.20135792079033082</v>
       </c>
       <c r="K31">
-        <f>ASIN(D31)</f>
+        <f t="shared" si="4"/>
         <v>0.52359877559829893</v>
       </c>
       <c r="L31">
-        <f>ASIN(E31)</f>
+        <f t="shared" si="4"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="M31" t="e">
-        <f>ASIN(F31)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="N31" t="e">
-        <f>ASIN(G31)</f>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="O31">
         <f t="array" ref="O31">SUM(ASIN(B31:E31))</f>
         <v>2.2957530231835266</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <f t="array" ref="P31:S31">ASIN(B31:E31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0.20135792079033082</v>
+      </c>
+      <c r="R31">
+        <v>0.52359877559829893</v>
+      </c>
+      <c r="S31">
+        <v>1.5707963267948966</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1214,8 +1286,21 @@
         <f t="array" ref="O32">SUM(ASINH(B32:E32))</f>
         <v>0.49569194069661027</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <f t="array" ref="P32:S32">ASINH(B32:E32)</f>
+        <v>-2.3124383412727525</v>
+      </c>
+      <c r="Q32">
+        <v>-0.88137358701954294</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>3.6895038689889059</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1223,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="D33">
         <v>0.5</v>
@@ -1240,7 +1325,7 @@
       </c>
       <c r="J33">
         <f>ATAN(C33)</f>
-        <v>0.19739555984988078</v>
+        <v>-0.78539816339744828</v>
       </c>
       <c r="K33">
         <f>ATAN(D33)</f>
@@ -1256,10 +1341,23 @@
       </c>
       <c r="O33">
         <f t="array" ref="O33">SUM(ATAN(B33:E33))</f>
-        <v>1.4464413322481351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.46364760900080609</v>
+      </c>
+      <c r="P33">
+        <f t="array" ref="P33:S33">ATAN(B33:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="R33">
+        <v>0.46364760900080609</v>
+      </c>
+      <c r="S33">
+        <v>0.78539816339744828</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1267,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>2.5</v>
@@ -1278,32 +1376,39 @@
       <c r="F34" t="s">
         <v>18</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="e">
         <f>ATAN2(B34,C34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:M34" si="5">ATAN2(C34,D34)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>-1.3258176636680326</v>
+      </c>
+      <c r="L34" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M34" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O34" t="e">
+        <f t="array" ref="O34">SUM(ATAN2(B34:D34,C34:E34))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P34">
+        <f t="array" ref="P34:Q34">ATAN2(B34:C34,D34:E34)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="Q34">
         <v>-1.5707963267948966</v>
       </c>
-      <c r="J34">
-        <f t="shared" ref="J34:M34" si="0">ATAN2(C34,D34)</f>
-        <v>1.9513027039072615</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="0"/>
-        <v>-1.3258176636680326</v>
-      </c>
-      <c r="L34" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M34" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O34">
-        <f t="array" ref="O34">SUM(ATAN2(B34:D34,C34:E34))</f>
-        <v>-0.94531128655566765</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1346,8 +1451,21 @@
         <f t="array" ref="O35">SUM(ATANH(B35:D35))</f>
         <v>2.7469877600933215</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <f t="array" ref="P35:S35">ATANH(B35:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0.10033534773107562</v>
+      </c>
+      <c r="R35">
+        <v>2.6466524123622457</v>
+      </c>
+      <c r="S35" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1390,8 +1508,21 @@
         <f t="array" ref="O36">SUM(COS(B36:E36))</f>
         <v>2.9581871736266523</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <f t="array" ref="P36:S36">COS(B36:E36)</f>
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>0.87758256189037276</v>
+      </c>
+      <c r="R36">
+        <v>0.54030230586813977</v>
+      </c>
+      <c r="S36">
+        <v>0.54030230586813977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1434,8 +1565,21 @@
         <f t="array" ref="O37">SUM(COSH(B37:E37))</f>
         <v>5.2137872348368681</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <f t="array" ref="P37:S37">COSH(B37:E37)</f>
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1.1276259652063807</v>
+      </c>
+      <c r="R37">
+        <v>1.5430806348152437</v>
+      </c>
+      <c r="S37">
+        <v>1.5430806348152437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1478,8 +1622,21 @@
         <f t="array" ref="O38">SUM(SIN(B38:E38))</f>
         <v>0.47942553860420301</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <f t="array" ref="P38:S38">SIN(B38:E38)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0.47942553860420301</v>
+      </c>
+      <c r="R38">
+        <v>0.8414709848078965</v>
+      </c>
+      <c r="S38">
+        <v>-0.8414709848078965</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1522,8 +1679,21 @@
         <f t="array" ref="O39">SUM(SINH(B39:E39))</f>
         <v>0.5210953054937475</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <f t="array" ref="P39:S39">SINH(B39:E39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0.52109530549374738</v>
+      </c>
+      <c r="R39">
+        <v>1.1752011936438014</v>
+      </c>
+      <c r="S39">
+        <v>-1.1752011936438014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -1566,8 +1736,21 @@
         <f t="array" ref="O40">SUM(TAN(B40:E40))</f>
         <v>0.54630248984379071</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <f t="array" ref="P40:S40">TAN(B40:E40)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0.54630248984379048</v>
+      </c>
+      <c r="R40">
+        <v>1.5574077246549023</v>
+      </c>
+      <c r="S40">
+        <v>-1.5574077246549023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1610,8 +1793,24 @@
         <f t="array" ref="O41">SUM(TANH(B41:E41))</f>
         <v>0.70052299718193756</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <f t="array" ref="P41:T41">TANH(B41:F41)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0.46211715726000979</v>
+      </c>
+      <c r="R41">
+        <v>-0.76159415595576485</v>
+      </c>
+      <c r="S41">
+        <v>0.99999999587769262</v>
+      </c>
+      <c r="T41" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1654,8 +1853,21 @@
         <f t="array" ref="O42">SUM(ABS(B42:E42))</f>
         <v>21.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <f t="array" ref="P42:S42">ABS(B42:E42)</f>
+        <v>10</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>10</v>
+      </c>
+      <c r="S42">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1678,8 +1890,12 @@
         <f>MAX(B43:F43)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <f>MAX(B26:F49)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -1702,8 +1918,12 @@
         <f>MIN(B44:F44)</f>
         <v>-10</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <f>MIN(B26:F49)</f>
+        <v>-720</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -1745,8 +1965,21 @@
         <f t="array" ref="O45">SUM(DEGREES(B45:E45))</f>
         <v>7010.4935415698783</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <f t="array" ref="P45:S45">DEGREES(B45:E45)</f>
+        <v>180</v>
+      </c>
+      <c r="Q45">
+        <v>-45</v>
+      </c>
+      <c r="R45">
+        <v>6875.4935415698783</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -1767,71 +2000,100 @@
         <v>2.0943951023931953</v>
       </c>
       <c r="J46">
-        <f t="shared" ref="J46:M46" si="1">RADIANS(C46)</f>
+        <f t="shared" ref="J46:M46" si="6">RADIANS(C46)</f>
         <v>-0.78539816339744828</v>
       </c>
       <c r="K46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-12.566370614359172</v>
       </c>
       <c r="L46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M46" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="O46">
         <f t="array" ref="O46">SUM(RADIANS(B46:E46))</f>
         <v>-11.257373675363425</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <f t="array" ref="P46:S46">RADIANS(B46:E46)</f>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="Q46">
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="R46">
+        <v>-12.566370614359172</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>23</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="D47">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>-1</v>
+      </c>
+      <c r="G47" t="s">
         <v>18</v>
       </c>
       <c r="I47">
         <f>POWER(B47,C47)</f>
-        <v>11.313708498984759</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J47">
         <f>POWER(C47,D47)</f>
-        <v>0.53452248382484879</v>
-      </c>
-      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="e">
         <f>POWER(D47,E47)</f>
-        <v>-1.953125E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="L47" t="e">
         <f>POWER(E47,F47)</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M47" t="e">
         <f>POWER(F47,G47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O47">
+      <c r="O47" t="e">
         <f t="array" ref="O47">SUM(POWER(B47:D47,C47:E47))</f>
-        <v>11.846277857809609</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>#NUM!</v>
+      </c>
+      <c r="P47">
+        <f t="array" ref="P47:S47">POWER(B47:C47,D47:E47)</f>
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S47" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -1839,7 +2101,7 @@
         <v>31.5</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>6.7</v>
@@ -1850,13 +2112,13 @@
       <c r="F48" t="s">
         <v>18</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="e">
         <f>MOD(B48,C48)</f>
-        <v>1.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J48">
         <f>MOD(C48,D48)</f>
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <f>MOD(D48,E48)</f>
@@ -1870,12 +2132,25 @@
         <f>MOD(F48,G48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O48">
+      <c r="O48" t="e">
         <f t="array" ref="O48">SUM(MOD(B48:D48,C48:E48))</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P48">
+        <f t="array" ref="P48:S48">MOD(B48:C48,D48:E48)</f>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S48" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -1899,59 +2174,72 @@
         <v>1.4142135623730951</v>
       </c>
       <c r="J49">
-        <f t="shared" ref="J49:M49" si="2">SQRT(C49)</f>
+        <f t="shared" ref="J49:M49" si="7">SQRT(C49)</f>
         <v>1.8708286933869707</v>
       </c>
       <c r="K49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="L49" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
       <c r="M49" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="O49">
         <f t="array" ref="O49">SUM(SQRT(B49:D49))</f>
         <v>6.2850422557600663</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <f t="array" ref="P49:S49">SQRT(B49:E49)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="Q49">
+        <v>1.8708286933869707</v>
+      </c>
+      <c r="R49">
+        <v>3</v>
+      </c>
+      <c r="S49" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H60" s="2"/>
     </row>
   </sheetData>

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>ca</t>
   </si>
@@ -109,19 +109,28 @@
   </si>
   <si>
     <t>SQRT</t>
+  </si>
+  <si>
+    <t>SUMPRODUCT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,12 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -889,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="I26:N26" si="0">LN(C26)</f>
+        <f t="shared" ref="J26:N26" si="0">LN(C26)</f>
         <v>0.91629073187415511</v>
       </c>
       <c r="K26">
@@ -950,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" ref="I27:P27" si="1">LOG(C27)</f>
+        <f t="shared" ref="J27:N27" si="1">LOG(C27)</f>
         <v>0.3979400086720376</v>
       </c>
       <c r="K27">
@@ -1074,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29:P29" si="2">ACOS(B29)</f>
+        <f t="shared" ref="I29:N29" si="2">ACOS(B29)</f>
         <v>1.5707963267948966</v>
       </c>
       <c r="J29">
@@ -1138,7 +1148,7 @@
         <v>0.5</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30:P30" si="3">ACOSH(B30)</f>
+        <f t="shared" ref="I30:N30" si="3">ACOSH(B30)</f>
         <v>0</v>
       </c>
       <c r="J30">
@@ -1202,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I31:P31" si="4">ASIN(B31)</f>
+        <f t="shared" ref="I31:N31" si="4">ASIN(B31)</f>
         <v>0</v>
       </c>
       <c r="J31">
@@ -1300,7 +1310,7 @@
         <v>3.6895038689889059</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1357,7 +1367,7 @@
         <v>0.78539816339744828</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1407,8 +1417,15 @@
       <c r="Q34">
         <v>-1.5707963267948966</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <f t="array" ref="T34:U34">ATAN2(B34:C34,D34)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="U34">
+        <v>1.5707963267948966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1465,7 +1482,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1522,7 +1539,7 @@
         <v>0.54030230586813977</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1579,7 +1596,7 @@
         <v>1.5430806348152437</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1636,7 +1653,7 @@
         <v>-0.8414709848078965</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1693,7 +1710,7 @@
         <v>-1.1752011936438014</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -1750,7 +1767,7 @@
         <v>-1.5574077246549023</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1810,7 +1827,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1867,7 +1884,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1895,7 +1912,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -1923,7 +1940,7 @@
         <v>-720</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -1979,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2033,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -2093,7 +2110,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -2149,6 +2166,10 @@
       <c r="S48" t="e">
         <v>#N/A</v>
       </c>
+      <c r="T48" s="3">
+        <f t="array" ref="T48">SUM(MOD(B48:E48,2))</f>
+        <v>3.2</v>
+      </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -2205,6 +2226,42 @@
       </c>
       <c r="S49" t="e">
         <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50">
+        <f>SUMPRODUCT(B50:C50,C50:D50,D50:E50)</f>
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <f>SUMPRODUCT(C50:D50,D50:E50,E50:F50)</f>
+        <v>6</v>
+      </c>
+      <c r="K50">
+        <f>SUMPRODUCT(D50:E50,E50:F50,F50:G50)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" t="e">
+        <f>SUMPRODUCT(E50:F50,F50:G50,G50)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -477,12 +477,12 @@
     <col min="23" max="24" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -556,7 +556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J6" t="e">
         <f>J4:K5</f>
         <v>#VALUE!</v>
@@ -605,7 +605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>SUM(B2:E5)</f>
         <v>40</v>
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J8">
         <f t="array" ref="J8:K10">G2:H2</f>
         <v>5</v>
@@ -645,8 +645,20 @@
       <c r="K8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <f>IFERROR(SUM(B2:E4),2)</f>
+        <v>26</v>
+      </c>
+      <c r="Q8" t="b">
+        <f>ISERR(#VALUE!)</f>
+        <v>1</v>
+      </c>
+      <c r="R8" t="b">
+        <f>ISERROR(SUM(D2:G4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>SUM(a,b,d,e,f,g)</f>
         <v>104</v>
@@ -680,8 +692,20 @@
       <c r="K9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <f>IFERROR(SUM(J4:M6),2)</f>
+        <v>2</v>
+      </c>
+      <c r="Q9" t="b">
+        <f>ISERR(#N/A)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
+        <f>ISERROR(SUM(J6:M8))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D10">
         <f>SUM(B2:E5)</f>
         <v>40</v>
@@ -702,8 +726,12 @@
       <c r="K10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="R10" t="b">
+        <f>ISERROR(SUM(H16:K18))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F11">
         <f>SUM(G10:G11,G12)</f>
         <v>25</v>
@@ -714,8 +742,12 @@
       <c r="H11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="R11" t="e">
+        <f>SUM(H16:K18)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>9</v>
       </c>
@@ -726,8 +758,12 @@
         <f>J8:K10 L6:M7</f>
         <v>#NULL!</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="R12" t="e">
+        <f>MIN(H16:J18)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -735,8 +771,12 @@
         <f>"ciao"&amp;B13&amp;" cc" &amp;C13</f>
         <v>ciao ccca</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="R13" t="e">
+        <f>SUMPRODUCT(H16:J18)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E14" t="str">
         <f>"ciao"&amp;B13&amp;" cc" &amp;C13</f>
         <v>ciao ccca</v>
@@ -753,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
@@ -771,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H16">
         <f t="array" ref="H16:J18">G11:H12</f>
         <v>9</v>

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenzoarcidiacono/PycharmProjects/formulas/test/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AAF700-3DF2-A241-84B3-1FD2345FDC4A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8854CD8D-3D22-174E-9245-BF0B9BB0C4DE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25640" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATH &amp; TRIG" sheetId="3" r:id="rId1"/>
-    <sheet name="STATISTICAL" sheetId="5" r:id="rId2"/>
-    <sheet name="INFORMATION" sheetId="6" r:id="rId3"/>
-    <sheet name="LOGICAL" sheetId="8" r:id="rId4"/>
-    <sheet name="CORE" sheetId="1" r:id="rId5"/>
-    <sheet name="REF" sheetId="2" r:id="rId6"/>
+    <sheet name="FINANCIAL" sheetId="9" r:id="rId2"/>
+    <sheet name="STATISTICAL" sheetId="5" r:id="rId3"/>
+    <sheet name="INFORMATION" sheetId="6" r:id="rId4"/>
+    <sheet name="LOGICAL" sheetId="8" r:id="rId5"/>
+    <sheet name="CORE" sheetId="1" r:id="rId6"/>
+    <sheet name="REF" sheetId="2" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="a">CORE!$B$2:$C$3</definedName>
@@ -32,7 +33,6 @@
     <definedName name="g">REF!$B$2:$B$5</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="292">
   <si>
     <t>ca</t>
   </si>
@@ -753,6 +753,171 @@
   </si>
   <si>
     <t xml:space="preserve">XOR </t>
+  </si>
+  <si>
+    <t>ACCRINT</t>
+  </si>
+  <si>
+    <t>ACCRINTM</t>
+  </si>
+  <si>
+    <t>AMORDEGRC</t>
+  </si>
+  <si>
+    <t>AMORLINC</t>
+  </si>
+  <si>
+    <t>COUPDAYBS</t>
+  </si>
+  <si>
+    <t>COUPDAYS</t>
+  </si>
+  <si>
+    <t>COUPDAYSNC</t>
+  </si>
+  <si>
+    <t>COUPNCD</t>
+  </si>
+  <si>
+    <t>COUPNUM</t>
+  </si>
+  <si>
+    <t>COUPPCD</t>
+  </si>
+  <si>
+    <t>CUMIPMT</t>
+  </si>
+  <si>
+    <t>CUMPRINC</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>DDB</t>
+  </si>
+  <si>
+    <t>DISC</t>
+  </si>
+  <si>
+    <t>DOLLARDE</t>
+  </si>
+  <si>
+    <t>DOLLARFR</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>EFFECT</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>FVSCHEDULE</t>
+  </si>
+  <si>
+    <t>INTRATE</t>
+  </si>
+  <si>
+    <t>IPMT</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>ISPMT</t>
+  </si>
+  <si>
+    <t>MDURATION</t>
+  </si>
+  <si>
+    <t>MIRR</t>
+  </si>
+  <si>
+    <t>NOMINAL</t>
+  </si>
+  <si>
+    <t>NPER</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>ODDFPRICE</t>
+  </si>
+  <si>
+    <t>ODDFYIELD</t>
+  </si>
+  <si>
+    <t>ODDLPRICE</t>
+  </si>
+  <si>
+    <t>ODDLYIELD</t>
+  </si>
+  <si>
+    <t>PDURATION</t>
+  </si>
+  <si>
+    <t>PMT</t>
+  </si>
+  <si>
+    <t>PPMT</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>PRICEDISC</t>
+  </si>
+  <si>
+    <t>PRICEMAT</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>RECEIVED</t>
+  </si>
+  <si>
+    <t>RRI</t>
+  </si>
+  <si>
+    <t>SLN</t>
+  </si>
+  <si>
+    <t>SYD</t>
+  </si>
+  <si>
+    <t>TBILLEQ</t>
+  </si>
+  <si>
+    <t>TBILLPRICE</t>
+  </si>
+  <si>
+    <t>TBILLYIELD</t>
+  </si>
+  <si>
+    <t>VDB</t>
+  </si>
+  <si>
+    <t>XIRR</t>
+  </si>
+  <si>
+    <t>XNPV</t>
+  </si>
+  <si>
+    <t>YIELD</t>
+  </si>
+  <si>
+    <t>YIELDDISC</t>
+  </si>
+  <si>
+    <t>YIELDMAT</t>
   </si>
 </sst>
 </file>
@@ -851,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -877,6 +1042,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52929E63-D802-7443-B5FD-6A6404B94706}">
   <dimension ref="A1:AV81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1221,134 +1390,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="19" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AG2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -1399,63 +1568,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q3" s="6">
-        <f>ABS(B3)</f>
+        <f t="shared" ref="Q3:AE3" si="0">ABS(B3)</f>
         <v>0</v>
       </c>
       <c r="R3" s="6">
-        <f>ABS(C3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S3" s="6">
-        <f>ABS(D3)</f>
+        <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="T3" s="6">
-        <f>ABS(E3)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="U3" s="6">
-        <f>ABS(F3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="V3" s="6">
-        <f>ABS(G3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3" s="6" t="e">
-        <f>ABS(H3)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="X3" s="6">
-        <f>ABS(I3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y3" s="6" t="e">
-        <f>ABS(J3)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z3" s="6" t="e">
-        <f>ABS(K3)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="AA3" s="6" t="e">
-        <f>ABS(L3)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB3" s="6" t="e">
-        <f>ABS(M3)</f>
+        <f t="shared" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="AC3" s="6" t="e">
-        <f>ABS(N3)</f>
+        <f t="shared" si="0"/>
         <v>#NULL!</v>
       </c>
       <c r="AD3" s="6" t="e">
-        <f>ABS(O3)</f>
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="AE3" s="6" t="e">
-        <f>ABS(P3)</f>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="AF3" s="10"/>
@@ -1557,63 +1726,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q4" s="6">
-        <f>ACOS(B4)</f>
+        <f t="shared" ref="Q4:AE4" si="1">ACOS(B4)</f>
         <v>1.5707963267948966</v>
       </c>
       <c r="R4" s="6">
-        <f>ACOS(C4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S4" s="6" t="e">
-        <f>ACOS(D4)</f>
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
       <c r="T4" s="6" t="e">
-        <f>ACOS(E4)</f>
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
       <c r="U4" s="6">
-        <f>ACOS(F4)</f>
+        <f t="shared" si="1"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="V4" s="6">
-        <f>ACOS(G4)</f>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="W4" s="6" t="e">
-        <f>ACOS(H4)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="X4" s="6">
-        <f>ACOS(I4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y4" s="6" t="e">
-        <f>ACOS(J4)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z4" s="6" t="e">
-        <f>ACOS(K4)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="AA4" s="6" t="e">
-        <f>ACOS(L4)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB4" s="6" t="e">
-        <f>ACOS(M4)</f>
+        <f t="shared" si="1"/>
         <v>#NAME?</v>
       </c>
       <c r="AC4" s="6" t="e">
-        <f>ACOS(N4)</f>
+        <f t="shared" si="1"/>
         <v>#NULL!</v>
       </c>
       <c r="AD4" s="6" t="e">
-        <f>ACOS(O4)</f>
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
       <c r="AE4" s="6" t="e">
-        <f>ACOS(P4)</f>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="AF4" s="10"/>
@@ -1715,63 +1884,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q5" s="6" t="e">
-        <f>ACOSH(B5)</f>
+        <f t="shared" ref="Q5:AE5" si="2">ACOSH(B5)</f>
         <v>#NUM!</v>
       </c>
       <c r="R5" s="6">
-        <f>ACOSH(C5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S5" s="6">
-        <f>ACOSH(D5)</f>
+        <f t="shared" si="2"/>
         <v>1.4750447812414251</v>
       </c>
       <c r="T5" s="6">
-        <f>ACOSH(E5)</f>
+        <f t="shared" si="2"/>
         <v>2.9932228461263808</v>
       </c>
       <c r="U5" s="6" t="e">
-        <f>ACOSH(F5)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="V5" s="6" t="e">
-        <f>ACOSH(G5)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="W5" s="6" t="e">
-        <f>ACOSH(H5)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="X5" s="6">
-        <f>ACOSH(I5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y5" s="6" t="e">
-        <f>ACOSH(J5)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z5" s="6" t="e">
-        <f>ACOSH(K5)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AA5" s="6" t="e">
-        <f>ACOSH(L5)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB5" s="6" t="e">
-        <f>ACOSH(M5)</f>
+        <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
       <c r="AC5" s="6" t="e">
-        <f>ACOSH(N5)</f>
+        <f t="shared" si="2"/>
         <v>#NULL!</v>
       </c>
       <c r="AD5" s="6" t="e">
-        <f>ACOSH(O5)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="AE5" s="6" t="e">
-        <f>ACOSH(P5)</f>
+        <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="AF5" s="10"/>
@@ -1873,63 +2042,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q6" s="6">
-        <f>_xlfn.ACOT(B6)</f>
+        <f t="shared" ref="Q6:AE6" si="3">_xlfn.ACOT(B6)</f>
         <v>1.5707963267948966</v>
       </c>
       <c r="R6" s="6">
-        <f>_xlfn.ACOT(C6)</f>
+        <f t="shared" si="3"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="S6" s="6">
-        <f>_xlfn.ACOT(D6)</f>
+        <f t="shared" si="3"/>
         <v>0.41012734054149103</v>
       </c>
       <c r="T6" s="6">
-        <f>_xlfn.ACOT(E6)</f>
+        <f t="shared" si="3"/>
         <v>9.9668652491162038E-2</v>
       </c>
       <c r="U6" s="6">
-        <f>_xlfn.ACOT(F6)</f>
+        <f t="shared" si="3"/>
         <v>2.3561944901923448</v>
       </c>
       <c r="V6" s="6">
-        <f>_xlfn.ACOT(G6)</f>
+        <f t="shared" si="3"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="W6" s="6" t="e">
-        <f>_xlfn.ACOT(H6)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="X6" s="6">
-        <f>_xlfn.ACOT(I6)</f>
+        <f t="shared" si="3"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="Y6" s="6" t="e">
-        <f>_xlfn.ACOT(J6)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z6" s="6" t="e">
-        <f>_xlfn.ACOT(K6)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="AA6" s="6" t="e">
-        <f>_xlfn.ACOT(L6)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB6" s="6" t="e">
-        <f>_xlfn.ACOT(M6)</f>
+        <f t="shared" si="3"/>
         <v>#NAME?</v>
       </c>
       <c r="AC6" s="6" t="e">
-        <f>_xlfn.ACOT(N6)</f>
+        <f t="shared" si="3"/>
         <v>#NULL!</v>
       </c>
       <c r="AD6" s="6" t="e">
-        <f>_xlfn.ACOT(O6)</f>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AE6" s="6" t="e">
-        <f>_xlfn.ACOT(P6)</f>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="AF6" s="10"/>
@@ -2031,63 +2200,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q7" s="6" t="e">
-        <f>_xlfn.ACOTH(B7)</f>
+        <f t="shared" ref="Q7:AE7" si="4">_xlfn.ACOTH(B7)</f>
         <v>#NUM!</v>
       </c>
       <c r="R7" s="6" t="e">
-        <f>_xlfn.ACOTH(C7)</f>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="S7" s="6">
-        <f>_xlfn.ACOTH(D7)</f>
+        <f t="shared" si="4"/>
         <v>0.4657791020024718</v>
       </c>
       <c r="T7" s="6">
-        <f>_xlfn.ACOTH(E7)</f>
+        <f t="shared" si="4"/>
         <v>0.10033534773107559</v>
       </c>
       <c r="U7" s="6" t="e">
-        <f>_xlfn.ACOTH(F7)</f>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="V7" s="6" t="e">
-        <f>_xlfn.ACOTH(G7)</f>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="W7" s="6" t="e">
-        <f>_xlfn.ACOTH(H7)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="X7" s="6" t="e">
-        <f>_xlfn.ACOTH(I7)</f>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="Y7" s="6" t="e">
-        <f>_xlfn.ACOTH(J7)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z7" s="6" t="e">
-        <f>_xlfn.ACOTH(K7)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="AA7" s="6" t="e">
-        <f>_xlfn.ACOTH(L7)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB7" s="6" t="e">
-        <f>_xlfn.ACOTH(M7)</f>
+        <f t="shared" si="4"/>
         <v>#NAME?</v>
       </c>
       <c r="AC7" s="6" t="e">
-        <f>_xlfn.ACOTH(N7)</f>
+        <f t="shared" si="4"/>
         <v>#NULL!</v>
       </c>
       <c r="AD7" s="6" t="e">
-        <f>_xlfn.ACOTH(O7)</f>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AE7" s="6" t="e">
-        <f>_xlfn.ACOTH(P7)</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="AF7" s="10"/>
@@ -2240,23 +2409,23 @@
         <v>#REF!</v>
       </c>
       <c r="Q9" s="6" t="e">
-        <f t="shared" ref="Q9:U9" si="0">_xlfn.ARABIC(B9)</f>
+        <f t="shared" ref="Q9:U9" si="5">_xlfn.ARABIC(B9)</f>
         <v>#VALUE!</v>
       </c>
       <c r="R9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="S9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="T9" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="U9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1046</v>
       </c>
       <c r="V9" s="6">
@@ -2268,35 +2437,35 @@
         <v>#VALUE!</v>
       </c>
       <c r="X9" s="6" t="e">
-        <f t="shared" ref="X9:AE9" si="1">_xlfn.ARABIC(I9)</f>
+        <f t="shared" ref="X9:AE9" si="6">_xlfn.ARABIC(I9)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y9" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z9" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AA9" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB9" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#NAME?</v>
       </c>
       <c r="AC9" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#NULL!</v>
       </c>
       <c r="AD9" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="AE9" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="AF9" s="10"/>
@@ -2398,63 +2567,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q10" s="6">
-        <f>ASIN(B10)</f>
+        <f t="shared" ref="Q10:AE10" si="7">ASIN(B10)</f>
         <v>0</v>
       </c>
       <c r="R10" s="6">
-        <f>ASIN(C10)</f>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="S10" s="6" t="e">
-        <f>ASIN(D10)</f>
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
       <c r="T10" s="6" t="e">
-        <f>ASIN(E10)</f>
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
       <c r="U10" s="6">
-        <f>ASIN(F10)</f>
+        <f t="shared" si="7"/>
         <v>-1.5707963267948966</v>
       </c>
       <c r="V10" s="6">
-        <f>ASIN(G10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W10" s="6" t="e">
-        <f>ASIN(H10)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="X10" s="6">
-        <f>ASIN(I10)</f>
+        <f t="shared" si="7"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="Y10" s="6" t="e">
-        <f>ASIN(J10)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z10" s="6" t="e">
-        <f>ASIN(K10)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AA10" s="6" t="e">
-        <f>ASIN(L10)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB10" s="6" t="e">
-        <f>ASIN(M10)</f>
+        <f t="shared" si="7"/>
         <v>#NAME?</v>
       </c>
       <c r="AC10" s="6" t="e">
-        <f>ASIN(N10)</f>
+        <f t="shared" si="7"/>
         <v>#NULL!</v>
       </c>
       <c r="AD10" s="6" t="e">
-        <f>ASIN(O10)</f>
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
       <c r="AE10" s="6" t="e">
-        <f>ASIN(P10)</f>
+        <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
       <c r="AF10" s="10"/>
@@ -2556,63 +2725,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q11" s="6">
-        <f>ASINH(B11)</f>
+        <f t="shared" ref="Q11:AE11" si="8">ASINH(B11)</f>
         <v>0</v>
       </c>
       <c r="R11" s="6">
-        <f>ASINH(C11)</f>
+        <f t="shared" si="8"/>
         <v>0.88137358701954294</v>
       </c>
       <c r="S11" s="6">
-        <f>ASINH(D11)</f>
+        <f t="shared" si="8"/>
         <v>1.5702785434849782</v>
       </c>
       <c r="T11" s="6">
-        <f>ASINH(E11)</f>
+        <f t="shared" si="8"/>
         <v>2.9982229502979698</v>
       </c>
       <c r="U11" s="6">
-        <f>ASINH(F11)</f>
+        <f t="shared" si="8"/>
         <v>-0.88137358701954294</v>
       </c>
       <c r="V11" s="6">
-        <f>ASINH(G11)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W11" s="6" t="e">
-        <f>ASINH(H11)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="X11" s="6">
-        <f>ASINH(I11)</f>
+        <f t="shared" si="8"/>
         <v>0.88137358701954294</v>
       </c>
       <c r="Y11" s="6" t="e">
-        <f>ASINH(J11)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z11" s="6" t="e">
-        <f>ASINH(K11)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AA11" s="6" t="e">
-        <f>ASINH(L11)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB11" s="6" t="e">
-        <f>ASINH(M11)</f>
+        <f t="shared" si="8"/>
         <v>#NAME?</v>
       </c>
       <c r="AC11" s="6" t="e">
-        <f>ASINH(N11)</f>
+        <f t="shared" si="8"/>
         <v>#NULL!</v>
       </c>
       <c r="AD11" s="6" t="e">
-        <f>ASINH(O11)</f>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="AE11" s="6" t="e">
-        <f>ASINH(P11)</f>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="AF11" s="10"/>
@@ -2714,63 +2883,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q12" s="6">
-        <f>ATAN(B12)</f>
+        <f t="shared" ref="Q12:AE12" si="9">ATAN(B12)</f>
         <v>0</v>
       </c>
       <c r="R12" s="6">
-        <f>ATAN(C12)</f>
+        <f t="shared" si="9"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="S12" s="6">
-        <f>ATAN(D12)</f>
+        <f t="shared" si="9"/>
         <v>1.1606689862534056</v>
       </c>
       <c r="T12" s="6">
-        <f>ATAN(E12)</f>
+        <f t="shared" si="9"/>
         <v>1.4711276743037347</v>
       </c>
       <c r="U12" s="6">
-        <f>ATAN(F12)</f>
+        <f t="shared" si="9"/>
         <v>-0.78539816339744828</v>
       </c>
       <c r="V12" s="6">
-        <f>ATAN(G12)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W12" s="6" t="e">
-        <f>ATAN(H12)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="X12" s="6">
-        <f>ATAN(I12)</f>
+        <f t="shared" si="9"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="Y12" s="6" t="e">
-        <f>ATAN(J12)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z12" s="6" t="e">
-        <f>ATAN(K12)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="AA12" s="6" t="e">
-        <f>ATAN(L12)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB12" s="6" t="e">
-        <f>ATAN(M12)</f>
+        <f t="shared" si="9"/>
         <v>#NAME?</v>
       </c>
       <c r="AC12" s="6" t="e">
-        <f>ATAN(N12)</f>
+        <f t="shared" si="9"/>
         <v>#NULL!</v>
       </c>
       <c r="AD12" s="6" t="e">
-        <f>ATAN(O12)</f>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="AE12" s="6" t="e">
-        <f>ATAN(P12)</f>
+        <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
       <c r="AF12" s="10"/>
@@ -2904,31 +3073,31 @@
         <v>#N/A</v>
       </c>
       <c r="Y13" s="6" t="e">
-        <f>ATAN2(J13,K13)</f>
+        <f t="shared" ref="Y13:AE13" si="10">ATAN2(J13,K13)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z13" s="6" t="e">
-        <f>ATAN2(K13,L13)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AA13" s="6" t="e">
-        <f>ATAN2(L13,M13)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB13" s="6" t="e">
-        <f>ATAN2(M13,N13)</f>
+        <f t="shared" si="10"/>
         <v>#NAME?</v>
       </c>
       <c r="AC13" s="6" t="e">
-        <f>ATAN2(N13,O13)</f>
+        <f t="shared" si="10"/>
         <v>#NULL!</v>
       </c>
       <c r="AD13" s="6" t="e">
-        <f>ATAN2(O13,P13)</f>
+        <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
       <c r="AE13" s="6" t="e">
-        <f>ATAN2(P13,Q13)</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="AF13" s="10"/>
@@ -3030,63 +3199,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q14" s="6">
-        <f>ATANH(B14)</f>
+        <f t="shared" ref="Q14:AE14" si="11">ATANH(B14)</f>
         <v>0</v>
       </c>
       <c r="R14" s="6" t="e">
-        <f>ATANH(C14)</f>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="S14" s="6">
-        <f>ATANH(D14)</f>
+        <f t="shared" si="11"/>
         <v>0.20273255405408211</v>
       </c>
       <c r="T14" s="6" t="e">
-        <f>ATANH(E14)</f>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="U14" s="6">
-        <f>ATANH(F14)</f>
+        <f t="shared" si="11"/>
         <v>-0.10033534773107562</v>
       </c>
       <c r="V14" s="6">
-        <f>ATANH(G14)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W14" s="6" t="e">
-        <f>ATANH(H14)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="X14" s="6" t="e">
-        <f>ATANH(I14)</f>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="Y14" s="6" t="e">
-        <f>ATANH(J14)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z14" s="6" t="e">
-        <f>ATANH(K14)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="AA14" s="6" t="e">
-        <f>ATANH(L14)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB14" s="6" t="e">
-        <f>ATANH(M14)</f>
+        <f t="shared" si="11"/>
         <v>#NAME?</v>
       </c>
       <c r="AC14" s="6" t="e">
-        <f>ATANH(N14)</f>
+        <f t="shared" si="11"/>
         <v>#NULL!</v>
       </c>
       <c r="AD14" s="6" t="e">
-        <f>ATANH(O14)</f>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="AE14" s="6" t="e">
-        <f>ATANH(P14)</f>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="AF14" s="10"/>
@@ -3271,31 +3440,31 @@
         <v>0</v>
       </c>
       <c r="Y16" s="6" t="e">
-        <f>CEILING(2.3,J16)</f>
+        <f t="shared" ref="Y16:AE16" si="12">CEILING(2.3,J16)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z16" s="6" t="e">
-        <f>CEILING(2.3,K16)</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AA16" s="6" t="e">
-        <f>CEILING(2.3,L16)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB16" s="6" t="e">
-        <f>CEILING(2.3,M16)</f>
+        <f t="shared" si="12"/>
         <v>#NAME?</v>
       </c>
       <c r="AC16" s="6" t="e">
-        <f>CEILING(2.3,N16)</f>
+        <f t="shared" si="12"/>
         <v>#NULL!</v>
       </c>
       <c r="AD16" s="6" t="e">
-        <f>CEILING(2.3,O16)</f>
+        <f t="shared" si="12"/>
         <v>#NUM!</v>
       </c>
       <c r="AE16" s="6" t="e">
-        <f>CEILING(2.3,P16)</f>
+        <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
       <c r="AF16" s="10"/>
@@ -3417,43 +3586,43 @@
         <v>-2</v>
       </c>
       <c r="V17" s="6">
-        <f>_xlfn.CEILING.MATH(G17)</f>
+        <f t="shared" ref="V17:AE17" si="13">_xlfn.CEILING.MATH(G17)</f>
         <v>0</v>
       </c>
       <c r="W17" s="6" t="e">
-        <f>_xlfn.CEILING.MATH(H17)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="X17" s="6">
-        <f>_xlfn.CEILING.MATH(I17)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Y17" s="6" t="e">
-        <f>_xlfn.CEILING.MATH(J17)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z17" s="6" t="e">
-        <f>_xlfn.CEILING.MATH(K17)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="AA17" s="6" t="e">
-        <f>_xlfn.CEILING.MATH(L17)</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB17" s="6" t="e">
-        <f>_xlfn.CEILING.MATH(M17)</f>
+        <f t="shared" si="13"/>
         <v>#NAME?</v>
       </c>
       <c r="AC17" s="6" t="e">
-        <f>_xlfn.CEILING.MATH(N17)</f>
+        <f t="shared" si="13"/>
         <v>#NULL!</v>
       </c>
       <c r="AD17" s="6" t="e">
-        <f>_xlfn.CEILING.MATH(O17)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="AE17" s="6" t="e">
-        <f>_xlfn.CEILING.MATH(P17)</f>
+        <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="AF17" s="10"/>
@@ -3587,31 +3756,31 @@
         <v>1</v>
       </c>
       <c r="Y18" s="6" t="e">
-        <f t="shared" ref="Y18:AE18" si="2">_xlfn.CEILING.PRECISE(J18)</f>
+        <f t="shared" ref="Y18:AE18" si="14">_xlfn.CEILING.PRECISE(J18)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z18" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AA18" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB18" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>#NAME?</v>
       </c>
       <c r="AC18" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>#NULL!</v>
       </c>
       <c r="AD18" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="AE18" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
       <c r="AF18" s="10"/>
@@ -3815,63 +3984,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q21" s="6">
-        <f>COS(B21)</f>
+        <f t="shared" ref="Q21:AE21" si="15">COS(B21)</f>
         <v>1</v>
       </c>
       <c r="R21" s="6">
-        <f>COS(C21)</f>
+        <f t="shared" si="15"/>
         <v>0.54030230586813977</v>
       </c>
       <c r="S21" s="6">
-        <f>COS(D21)</f>
+        <f t="shared" si="15"/>
         <v>-0.6662760212798241</v>
       </c>
       <c r="T21" s="6">
-        <f>COS(E21)</f>
+        <f t="shared" si="15"/>
         <v>-0.83907152907645244</v>
       </c>
       <c r="U21" s="6">
-        <f>COS(F21)</f>
+        <f t="shared" si="15"/>
         <v>0.54030230586813977</v>
       </c>
       <c r="V21" s="6">
-        <f>COS(G21)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="W21" s="6" t="e">
-        <f>COS(H21)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="X21" s="6">
-        <f>COS(I21)</f>
+        <f t="shared" si="15"/>
         <v>0.54030230586813977</v>
       </c>
       <c r="Y21" s="6" t="e">
-        <f>COS(J21)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z21" s="6" t="e">
-        <f>COS(K21)</f>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="AA21" s="6" t="e">
-        <f>COS(L21)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB21" s="6" t="e">
-        <f>COS(M21)</f>
+        <f t="shared" si="15"/>
         <v>#NAME?</v>
       </c>
       <c r="AC21" s="6" t="e">
-        <f>COS(N21)</f>
+        <f t="shared" si="15"/>
         <v>#NULL!</v>
       </c>
       <c r="AD21" s="6" t="e">
-        <f>COS(O21)</f>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
       <c r="AE21" s="6" t="e">
-        <f>COS(P21)</f>
+        <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
       <c r="AF21" s="10"/>
@@ -3973,63 +4142,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q22" s="6">
-        <f>COSH(B22)</f>
+        <f t="shared" ref="Q22:AE22" si="16">COSH(B22)</f>
         <v>1</v>
       </c>
       <c r="R22" s="6">
-        <f>COSH(C22)</f>
+        <f t="shared" si="16"/>
         <v>1.5430806348152437</v>
       </c>
       <c r="S22" s="6">
-        <f>COSH(D22)</f>
+        <f t="shared" si="16"/>
         <v>5.037220649268761</v>
       </c>
       <c r="T22" s="6">
-        <f>COSH(E22)</f>
+        <f t="shared" si="16"/>
         <v>11013.232920103324</v>
       </c>
       <c r="U22" s="6">
-        <f>COSH(F22)</f>
+        <f t="shared" si="16"/>
         <v>1.5430806348152437</v>
       </c>
       <c r="V22" s="6">
-        <f>COSH(G22)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W22" s="6" t="e">
-        <f>COSH(H22)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="X22" s="6">
-        <f>COSH(I22)</f>
+        <f t="shared" si="16"/>
         <v>1.5430806348152437</v>
       </c>
       <c r="Y22" s="6" t="e">
-        <f>COSH(J22)</f>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z22" s="6" t="e">
-        <f>COSH(K22)</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA22" s="6" t="e">
-        <f>COSH(L22)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB22" s="6" t="e">
-        <f>COSH(M22)</f>
+        <f t="shared" si="16"/>
         <v>#NAME?</v>
       </c>
       <c r="AC22" s="6" t="e">
-        <f>COSH(N22)</f>
+        <f t="shared" si="16"/>
         <v>#NULL!</v>
       </c>
       <c r="AD22" s="6" t="e">
-        <f>COSH(O22)</f>
+        <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
       <c r="AE22" s="6" t="e">
-        <f>COSH(P22)</f>
+        <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
       <c r="AF22" s="10"/>
@@ -4131,63 +4300,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q23" s="6" t="e">
-        <f>_xlfn.COT(B23)</f>
+        <f t="shared" ref="Q23:X23" si="17">_xlfn.COT(B23)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R23" s="6">
-        <f>_xlfn.COT(C23)</f>
+        <f t="shared" si="17"/>
         <v>0.64209261593433065</v>
       </c>
       <c r="S23" s="6">
-        <f>_xlfn.COT(D23)</f>
+        <f t="shared" si="17"/>
         <v>-0.8934844632974448</v>
       </c>
       <c r="T23" s="6">
-        <f>_xlfn.COT(E23)</f>
+        <f t="shared" si="17"/>
         <v>1.5423510453569202</v>
       </c>
       <c r="U23" s="6">
-        <f>_xlfn.COT(F23)</f>
+        <f t="shared" si="17"/>
         <v>-0.64209261593433065</v>
       </c>
       <c r="V23" s="6" t="e">
-        <f>_xlfn.COT(G23)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W23" s="6" t="e">
-        <f>_xlfn.COT(H23)</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="X23" s="6">
-        <f>_xlfn.COT(I23)</f>
+        <f t="shared" si="17"/>
         <v>0.64209261593433065</v>
       </c>
       <c r="Y23" s="6" t="e">
-        <f t="shared" ref="Y23:AE23" si="3">_xlfn.COT(J23)</f>
+        <f t="shared" ref="Y23:AE23" si="18">_xlfn.COT(J23)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z23" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="AA23" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB23" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>#NAME?</v>
       </c>
       <c r="AC23" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>#NULL!</v>
       </c>
       <c r="AD23" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="AE23" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
       <c r="AF23" s="10"/>
@@ -4289,63 +4458,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q24" s="6" t="e">
-        <f>_xlfn.COTH(B24)</f>
+        <f t="shared" ref="Q24:X24" si="19">_xlfn.COTH(B24)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="6">
-        <f>_xlfn.COTH(C24)</f>
+        <f t="shared" si="19"/>
         <v>1.3130352854993315</v>
       </c>
       <c r="S24" s="6">
-        <f>_xlfn.COTH(D24)</f>
+        <f t="shared" si="19"/>
         <v>1.0203078021811263</v>
       </c>
       <c r="T24" s="6">
-        <f>_xlfn.COTH(E24)</f>
+        <f t="shared" si="19"/>
         <v>1.0000000041223074</v>
       </c>
       <c r="U24" s="6">
-        <f>_xlfn.COTH(F24)</f>
+        <f t="shared" si="19"/>
         <v>-1.3130352854993315</v>
       </c>
       <c r="V24" s="6" t="e">
-        <f>_xlfn.COTH(G24)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W24" s="6" t="e">
-        <f>_xlfn.COTH(H24)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="X24" s="6">
-        <f>_xlfn.COTH(I24)</f>
+        <f t="shared" si="19"/>
         <v>1.3130352854993315</v>
       </c>
       <c r="Y24" s="6" t="e">
-        <f t="shared" ref="Y24:AE24" si="4">_xlfn.COTH(J24)</f>
+        <f t="shared" ref="Y24:AE24" si="20">_xlfn.COTH(J24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z24" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AA24" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB24" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>#NAME?</v>
       </c>
       <c r="AC24" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>#NULL!</v>
       </c>
       <c r="AD24" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>#NUM!</v>
       </c>
       <c r="AE24" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>#REF!</v>
       </c>
       <c r="AF24" s="10"/>
@@ -4447,63 +4616,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q25" s="6" t="e">
-        <f>_xlfn.CSC(B25)</f>
+        <f t="shared" ref="Q25:X25" si="21">_xlfn.CSC(B25)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R25" s="6">
-        <f>_xlfn.CSC(C25)</f>
+        <f t="shared" si="21"/>
         <v>1.1883951057781212</v>
       </c>
       <c r="S25" s="6">
-        <f>_xlfn.CSC(D25)</f>
+        <f t="shared" si="21"/>
         <v>1.3410124854578809</v>
       </c>
       <c r="T25" s="6">
-        <f>_xlfn.CSC(E25)</f>
+        <f t="shared" si="21"/>
         <v>-1.8381639608896658</v>
       </c>
       <c r="U25" s="6">
-        <f>_xlfn.CSC(F25)</f>
+        <f t="shared" si="21"/>
         <v>-1.1883951057781212</v>
       </c>
       <c r="V25" s="6" t="e">
-        <f>_xlfn.CSC(G25)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W25" s="6" t="e">
-        <f>_xlfn.CSC(H25)</f>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="X25" s="6">
-        <f>_xlfn.CSC(I25)</f>
+        <f t="shared" si="21"/>
         <v>1.1883951057781212</v>
       </c>
       <c r="Y25" s="6" t="e">
-        <f t="shared" ref="Y25:AE25" si="5">_xlfn.CSC(J25)</f>
+        <f t="shared" ref="Y25:AE25" si="22">_xlfn.CSC(J25)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z25" s="6" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AA25" s="6" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB25" s="6" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>#NAME?</v>
       </c>
       <c r="AC25" s="6" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>#NULL!</v>
       </c>
       <c r="AD25" s="6" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>#NUM!</v>
       </c>
       <c r="AE25" s="6" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>#REF!</v>
       </c>
       <c r="AF25" s="10"/>
@@ -4605,63 +4774,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q26" s="6" t="e">
-        <f>_xlfn.CSCH(B26)</f>
+        <f t="shared" ref="Q26:X26" si="23">_xlfn.CSCH(B26)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R26" s="6">
-        <f>_xlfn.CSCH(C26)</f>
+        <f t="shared" si="23"/>
         <v>0.85091812823932156</v>
       </c>
       <c r="S26" s="6">
-        <f>_xlfn.CSCH(D26)</f>
+        <f t="shared" si="23"/>
         <v>0.20255372421083867</v>
       </c>
       <c r="T26" s="6">
-        <f>_xlfn.CSCH(E26)</f>
+        <f t="shared" si="23"/>
         <v>9.0799859712122167E-5</v>
       </c>
       <c r="U26" s="6">
-        <f>_xlfn.CSCH(F26)</f>
+        <f t="shared" si="23"/>
         <v>-0.85091812823932156</v>
       </c>
       <c r="V26" s="6" t="e">
-        <f>_xlfn.CSCH(G26)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W26" s="6" t="e">
-        <f>_xlfn.CSCH(H26)</f>
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
       <c r="X26" s="6">
-        <f>_xlfn.CSCH(I26)</f>
+        <f t="shared" si="23"/>
         <v>0.85091812823932156</v>
       </c>
       <c r="Y26" s="6" t="e">
-        <f t="shared" ref="Y26:AE26" si="6">_xlfn.CSCH(J26)</f>
+        <f t="shared" ref="Y26:AE26" si="24">_xlfn.CSCH(J26)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z26" s="6" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AA26" s="6" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB26" s="6" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>#NAME?</v>
       </c>
       <c r="AC26" s="6" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>#NULL!</v>
       </c>
       <c r="AD26" s="6" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>#NUM!</v>
       </c>
       <c r="AE26" s="6" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>#REF!</v>
       </c>
       <c r="AF26" s="10"/>
@@ -4795,27 +4964,27 @@
         <v>#NUM!</v>
       </c>
       <c r="Y27" s="6" t="e">
-        <f t="shared" ref="Y27" si="7">_xlfn.DECIMAL("FF",J27)</f>
+        <f t="shared" ref="Y27" si="25">_xlfn.DECIMAL("FF",J27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z27" s="6" t="e">
-        <f t="shared" ref="Z27" si="8">_xlfn.DECIMAL("FF",K27)</f>
+        <f t="shared" ref="Z27" si="26">_xlfn.DECIMAL("FF",K27)</f>
         <v>#N/A</v>
       </c>
       <c r="AA27" s="6" t="e">
-        <f t="shared" ref="AA27" si="9">_xlfn.DECIMAL("FF",L27)</f>
+        <f t="shared" ref="AA27" si="27">_xlfn.DECIMAL("FF",L27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB27" s="6" t="e">
-        <f t="shared" ref="AB27" si="10">_xlfn.DECIMAL("FF",M27)</f>
+        <f t="shared" ref="AB27" si="28">_xlfn.DECIMAL("FF",M27)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC27" s="6" t="e">
-        <f t="shared" ref="AC27" si="11">_xlfn.DECIMAL("FF",N27)</f>
+        <f t="shared" ref="AC27" si="29">_xlfn.DECIMAL("FF",N27)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD27" s="6" t="e">
-        <f t="shared" ref="AD27" si="12">_xlfn.DECIMAL("FF",O27)</f>
+        <f t="shared" ref="AD27" si="30">_xlfn.DECIMAL("FF",O27)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE27" s="6" t="e">
@@ -4921,63 +5090,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q28" s="6">
-        <f>DEGREES(B28)</f>
+        <f t="shared" ref="Q28:AE28" si="31">DEGREES(B28)</f>
         <v>0</v>
       </c>
       <c r="R28" s="6">
-        <f>DEGREES(C28)</f>
+        <f t="shared" si="31"/>
         <v>57.295779513082323</v>
       </c>
       <c r="S28" s="6">
-        <f>DEGREES(D28)</f>
+        <f t="shared" si="31"/>
         <v>131.78029288008932</v>
       </c>
       <c r="T28" s="6">
-        <f>DEGREES(E28)</f>
+        <f t="shared" si="31"/>
         <v>572.95779513082323</v>
       </c>
       <c r="U28" s="6">
-        <f>DEGREES(F28)</f>
+        <f t="shared" si="31"/>
         <v>-57.295779513082323</v>
       </c>
       <c r="V28" s="6">
-        <f>DEGREES(G28)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W28" s="6" t="e">
-        <f>DEGREES(H28)</f>
+        <f t="shared" si="31"/>
         <v>#VALUE!</v>
       </c>
       <c r="X28" s="6">
-        <f>DEGREES(I28)</f>
+        <f t="shared" si="31"/>
         <v>57.295779513082323</v>
       </c>
       <c r="Y28" s="6" t="e">
-        <f>DEGREES(J28)</f>
+        <f t="shared" si="31"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z28" s="6" t="e">
-        <f>DEGREES(K28)</f>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="AA28" s="6" t="e">
-        <f>DEGREES(L28)</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB28" s="6" t="e">
-        <f>DEGREES(M28)</f>
+        <f t="shared" si="31"/>
         <v>#NAME?</v>
       </c>
       <c r="AC28" s="6" t="e">
-        <f>DEGREES(N28)</f>
+        <f t="shared" si="31"/>
         <v>#NULL!</v>
       </c>
       <c r="AD28" s="6" t="e">
-        <f>DEGREES(O28)</f>
+        <f t="shared" si="31"/>
         <v>#NUM!</v>
       </c>
       <c r="AE28" s="6" t="e">
-        <f>DEGREES(P28)</f>
+        <f t="shared" si="31"/>
         <v>#REF!</v>
       </c>
       <c r="AF28" s="10"/>
@@ -5083,59 +5252,59 @@
         <v>0</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" ref="R29:AE29" si="13">EVEN(C29)</f>
+        <f t="shared" ref="R29:AE29" si="32">EVEN(C29)</f>
         <v>2</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="T29" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>-2</v>
       </c>
       <c r="U29" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>-2</v>
       </c>
       <c r="V29" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W29" s="6" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="X29" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="Y29" s="6" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z29" s="6" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="AA29" s="6" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB29" s="6" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>#NAME?</v>
       </c>
       <c r="AC29" s="6" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>#NULL!</v>
       </c>
       <c r="AD29" s="6" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>#NUM!</v>
       </c>
       <c r="AE29" s="6" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>#REF!</v>
       </c>
       <c r="AF29" s="10"/>
@@ -5237,63 +5406,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q30" s="6">
-        <f>EXP(B30)</f>
+        <f t="shared" ref="Q30:AE30" si="33">EXP(B30)</f>
         <v>1</v>
       </c>
       <c r="R30" s="6">
-        <f>EXP(C30)</f>
+        <f t="shared" si="33"/>
         <v>2.7182818284590451</v>
       </c>
       <c r="S30" s="6">
-        <f>EXP(D30)</f>
+        <f t="shared" si="33"/>
         <v>9.9741824548147182</v>
       </c>
       <c r="T30" s="6">
-        <f>EXP(E30)</f>
+        <f t="shared" si="33"/>
         <v>22026.465794806718</v>
       </c>
       <c r="U30" s="6">
-        <f>EXP(F30)</f>
+        <f t="shared" si="33"/>
         <v>0.36787944117144233</v>
       </c>
       <c r="V30" s="6">
-        <f>EXP(G30)</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="W30" s="6" t="e">
-        <f>EXP(H30)</f>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="X30" s="6">
-        <f>EXP(I30)</f>
+        <f t="shared" si="33"/>
         <v>2.7182818284590451</v>
       </c>
       <c r="Y30" s="6" t="e">
-        <f>EXP(J30)</f>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z30" s="6" t="e">
-        <f>EXP(K30)</f>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="AA30" s="6" t="e">
-        <f>EXP(L30)</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB30" s="6" t="e">
-        <f>EXP(M30)</f>
+        <f t="shared" si="33"/>
         <v>#NAME?</v>
       </c>
       <c r="AC30" s="6" t="e">
-        <f>EXP(N30)</f>
+        <f t="shared" si="33"/>
         <v>#NULL!</v>
       </c>
       <c r="AD30" s="6" t="e">
-        <f>EXP(O30)</f>
+        <f t="shared" si="33"/>
         <v>#NUM!</v>
       </c>
       <c r="AE30" s="6" t="e">
-        <f>EXP(P30)</f>
+        <f t="shared" si="33"/>
         <v>#REF!</v>
       </c>
       <c r="AF30" s="10"/>
@@ -5399,15 +5568,15 @@
         <v>1</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" ref="R31:AE31" si="14">FACT(C31)</f>
+        <f t="shared" ref="R31:AE31" si="34">FACT(C31)</f>
         <v>1</v>
       </c>
       <c r="S31" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="T31" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>120</v>
       </c>
       <c r="U31" s="6" t="e">
@@ -5415,43 +5584,43 @@
         <v>#NUM!</v>
       </c>
       <c r="V31" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="W31" s="6" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="X31" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y31" s="6" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z31" s="6" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="AA31" s="6" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB31" s="6" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>#NAME?</v>
       </c>
       <c r="AC31" s="6" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>#NULL!</v>
       </c>
       <c r="AD31" s="6" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>#NUM!</v>
       </c>
       <c r="AE31" s="6" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>#REF!</v>
       </c>
       <c r="AF31" s="10"/>
@@ -5557,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" ref="R32:AE32" si="15">FACTDOUBLE(C32)</f>
+        <f t="shared" ref="R32:AE32" si="35">FACTDOUBLE(C32)</f>
         <v>2</v>
       </c>
       <c r="S32" s="6" t="e">
@@ -5581,35 +5750,35 @@
         <v>#VALUE!</v>
       </c>
       <c r="X32" s="6" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y32" s="6" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z32" s="6" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
       <c r="AA32" s="6" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB32" s="6" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>#NAME?</v>
       </c>
       <c r="AC32" s="6" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>#NULL!</v>
       </c>
       <c r="AD32" s="6" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>#NUM!</v>
       </c>
       <c r="AE32" s="6" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="35"/>
         <v>#REF!</v>
       </c>
       <c r="AF32" s="10"/>
@@ -5751,23 +5920,23 @@
         <v>#N/A</v>
       </c>
       <c r="AA33" s="6" t="e">
-        <f t="shared" ref="AA33:AE33" si="16">FLOOR(2.3,L33)</f>
+        <f t="shared" ref="AA33:AE33" si="36">FLOOR(2.3,L33)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB33" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>#NAME?</v>
       </c>
       <c r="AC33" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>#NULL!</v>
       </c>
       <c r="AD33" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>#NUM!</v>
       </c>
       <c r="AE33" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="AF33" s="10"/>
@@ -5905,27 +6074,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z34" s="6" t="e">
-        <f t="shared" ref="Z34:AE34" si="17">_xlfn.FLOOR.MATH(K34)</f>
+        <f t="shared" ref="Z34:AE34" si="37">_xlfn.FLOOR.MATH(K34)</f>
         <v>#N/A</v>
       </c>
       <c r="AA34" s="6" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB34" s="6" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#NAME?</v>
       </c>
       <c r="AC34" s="6" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#NULL!</v>
       </c>
       <c r="AD34" s="6" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#NUM!</v>
       </c>
       <c r="AE34" s="6" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="37"/>
         <v>#REF!</v>
       </c>
       <c r="AF34" s="10"/>
@@ -6063,27 +6232,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z35" s="6" t="e">
-        <f t="shared" ref="Z35:AE35" si="18">_xlfn.FLOOR.PRECISE(K35)</f>
+        <f t="shared" ref="Z35:AE35" si="38">_xlfn.FLOOR.PRECISE(K35)</f>
         <v>#N/A</v>
       </c>
       <c r="AA35" s="6" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB35" s="6" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>#NAME?</v>
       </c>
       <c r="AC35" s="6" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>#NULL!</v>
       </c>
       <c r="AD35" s="6" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>#NUM!</v>
       </c>
       <c r="AE35" s="6" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>#REF!</v>
       </c>
       <c r="AF35" s="10"/>
@@ -6236,63 +6405,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q37" s="6">
-        <f>INT(B37)</f>
+        <f t="shared" ref="Q37:AE37" si="39">INT(B37)</f>
         <v>0</v>
       </c>
       <c r="R37" s="6">
-        <f>INT(C37)</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="S37" s="6">
-        <f>INT(D37)</f>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="T37" s="6">
-        <f>INT(E37)</f>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="U37" s="6">
-        <f>INT(F37)</f>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="V37" s="6">
-        <f>INT(G37)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W37" s="6" t="e">
-        <f>INT(H37)</f>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="X37" s="6">
-        <f>INT(I37)</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Y37" s="6" t="e">
-        <f>INT(J37)</f>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z37" s="6" t="e">
-        <f>INT(K37)</f>
+        <f t="shared" si="39"/>
         <v>#N/A</v>
       </c>
       <c r="AA37" s="6" t="e">
-        <f>INT(L37)</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB37" s="6" t="e">
-        <f>INT(M37)</f>
+        <f t="shared" si="39"/>
         <v>#NAME?</v>
       </c>
       <c r="AC37" s="6" t="e">
-        <f>INT(N37)</f>
+        <f t="shared" si="39"/>
         <v>#NULL!</v>
       </c>
       <c r="AD37" s="6" t="e">
-        <f>INT(O37)</f>
+        <f t="shared" si="39"/>
         <v>#NUM!</v>
       </c>
       <c r="AE37" s="6" t="e">
-        <f>INT(P37)</f>
+        <f t="shared" si="39"/>
         <v>#REF!</v>
       </c>
       <c r="AF37" s="10"/>
@@ -6426,31 +6595,31 @@
         <v>0</v>
       </c>
       <c r="Y38" s="6" t="e">
-        <f>ISO.CEILING(2.3,J38)</f>
+        <f t="shared" ref="Y38:AE38" si="40">ISO.CEILING(2.3,J38)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z38" s="6" t="e">
-        <f>ISO.CEILING(2.3,K38)</f>
+        <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
       <c r="AA38" s="6" t="e">
-        <f>ISO.CEILING(2.3,L38)</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB38" s="6" t="e">
-        <f>ISO.CEILING(2.3,M38)</f>
+        <f t="shared" si="40"/>
         <v>#NAME?</v>
       </c>
       <c r="AC38" s="6" t="e">
-        <f>ISO.CEILING(2.3,N38)</f>
+        <f t="shared" si="40"/>
         <v>#NULL!</v>
       </c>
       <c r="AD38" s="6" t="e">
-        <f>ISO.CEILING(2.3,O38)</f>
+        <f t="shared" si="40"/>
         <v>#NUM!</v>
       </c>
       <c r="AE38" s="6" t="e">
-        <f>ISO.CEILING(2.3,P38)</f>
+        <f t="shared" si="40"/>
         <v>#REF!</v>
       </c>
       <c r="AF38" s="10"/>
@@ -6569,63 +6738,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q40" s="6" t="e">
-        <f>LN(B40)</f>
+        <f t="shared" ref="Q40:AE40" si="41">LN(B40)</f>
         <v>#NUM!</v>
       </c>
       <c r="R40" s="6">
-        <f>LN(C40)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S40" s="6">
-        <f>LN(D40)</f>
+        <f t="shared" si="41"/>
         <v>0.83290912293510388</v>
       </c>
       <c r="T40" s="6">
-        <f>LN(E40)</f>
+        <f t="shared" si="41"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="U40" s="6" t="e">
-        <f>LN(F40)</f>
+        <f t="shared" si="41"/>
         <v>#NUM!</v>
       </c>
       <c r="V40" s="6" t="e">
-        <f>LN(G40)</f>
+        <f t="shared" si="41"/>
         <v>#NUM!</v>
       </c>
       <c r="W40" s="6" t="e">
-        <f>LN(H40)</f>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="X40" s="6">
-        <f>LN(I40)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y40" s="6" t="e">
-        <f>LN(J40)</f>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z40" s="6" t="e">
-        <f>LN(K40)</f>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="AA40" s="6" t="e">
-        <f>LN(L40)</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB40" s="6" t="e">
-        <f>LN(M40)</f>
+        <f t="shared" si="41"/>
         <v>#NAME?</v>
       </c>
       <c r="AC40" s="6" t="e">
-        <f>LN(N40)</f>
+        <f t="shared" si="41"/>
         <v>#NULL!</v>
       </c>
       <c r="AD40" s="6" t="e">
-        <f>LN(O40)</f>
+        <f t="shared" si="41"/>
         <v>#NUM!</v>
       </c>
       <c r="AE40" s="6" t="e">
-        <f>LN(P40)</f>
+        <f t="shared" si="41"/>
         <v>#REF!</v>
       </c>
       <c r="AF40" s="10"/>
@@ -6759,31 +6928,31 @@
         <v>0</v>
       </c>
       <c r="Y41" s="6" t="e">
-        <f t="shared" ref="Y41:AE41" si="19">LOG(J41,3)</f>
+        <f t="shared" ref="Y41:AE41" si="42">LOG(J41,3)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z41" s="6" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="AA41" s="6" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB41" s="6" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>#NAME?</v>
       </c>
       <c r="AC41" s="6" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>#NULL!</v>
       </c>
       <c r="AD41" s="6" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>#NUM!</v>
       </c>
       <c r="AE41" s="6" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>#REF!</v>
       </c>
       <c r="AF41" s="10"/>
@@ -6885,63 +7054,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q42" s="6" t="e">
-        <f>LOG10(B42)</f>
+        <f t="shared" ref="Q42:X42" si="43">LOG10(B42)</f>
         <v>#NUM!</v>
       </c>
       <c r="R42" s="6">
-        <f>LOG10(C42)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="S42" s="6">
-        <f>LOG10(D42)</f>
+        <f t="shared" si="43"/>
         <v>0.36172783601759284</v>
       </c>
       <c r="T42" s="6">
-        <f>LOG10(E42)</f>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="U42" s="6" t="e">
-        <f>LOG10(F42)</f>
+        <f t="shared" si="43"/>
         <v>#NUM!</v>
       </c>
       <c r="V42" s="6" t="e">
-        <f>LOG10(G42)</f>
+        <f t="shared" si="43"/>
         <v>#NUM!</v>
       </c>
       <c r="W42" s="6" t="e">
-        <f>LOG10(H42)</f>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="X42" s="6">
-        <f>LOG10(I42)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Y42" s="6" t="e">
-        <f t="shared" ref="Y42:AE42" si="20">LOG10(J42)</f>
+        <f t="shared" ref="Y42:AE42" si="44">LOG10(J42)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z42" s="6" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="AA42" s="6" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB42" s="6" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>#NAME?</v>
       </c>
       <c r="AC42" s="6" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>#NULL!</v>
       </c>
       <c r="AD42" s="6" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>#NUM!</v>
       </c>
       <c r="AE42" s="6" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>#REF!</v>
       </c>
       <c r="AF42" s="10"/>
@@ -7228,27 +7397,27 @@
         <v>0.79999999999999982</v>
       </c>
       <c r="Y46" s="6" t="e">
-        <f>MOD(J46,K46)</f>
+        <f t="shared" ref="Y46:AD46" si="45">MOD(J46,K46)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z46" s="6" t="e">
-        <f>MOD(K46,L46)</f>
+        <f t="shared" si="45"/>
         <v>#N/A</v>
       </c>
       <c r="AA46" s="6" t="e">
-        <f>MOD(L46,M46)</f>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB46" s="6" t="e">
-        <f>MOD(M46,N46)</f>
+        <f t="shared" si="45"/>
         <v>#NAME?</v>
       </c>
       <c r="AC46" s="6" t="e">
-        <f>MOD(N46,O46)</f>
+        <f t="shared" si="45"/>
         <v>#NULL!</v>
       </c>
       <c r="AD46" s="6" t="e">
-        <f>MOD(O46,P46)</f>
+        <f t="shared" si="45"/>
         <v>#NUM!</v>
       </c>
       <c r="AE46" s="6" t="e">
@@ -7390,27 +7559,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z47" s="6" t="e">
-        <f t="shared" ref="Z47:AE47" si="21">MROUND(K47,J47)</f>
+        <f t="shared" ref="Z47:AE47" si="46">MROUND(K47,J47)</f>
         <v>#N/A</v>
       </c>
       <c r="AA47" s="6" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB47" s="6" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>#NAME?</v>
       </c>
       <c r="AC47" s="6" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>#NULL!</v>
       </c>
       <c r="AD47" s="6" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>#NUM!</v>
       </c>
       <c r="AE47" s="6" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>#REF!</v>
       </c>
       <c r="AF47" s="10"/>
@@ -7619,59 +7788,59 @@
         <v>1</v>
       </c>
       <c r="R50" s="6">
-        <f t="shared" ref="R50:AE50" si="22">ODD(C50)</f>
+        <f t="shared" ref="R50:AE50" si="47">ODD(C50)</f>
         <v>3</v>
       </c>
       <c r="S50" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="T50" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
       <c r="U50" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="V50" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="W50" s="6" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="X50" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="Y50" s="6" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z50" s="6" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
       <c r="AA50" s="6" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB50" s="6" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>#NAME?</v>
       </c>
       <c r="AC50" s="6" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>#NULL!</v>
       </c>
       <c r="AD50" s="6" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>#NUM!</v>
       </c>
       <c r="AE50" s="6" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>#REF!</v>
       </c>
       <c r="AF50" s="10"/>
@@ -7893,27 +8062,27 @@
         <v>1</v>
       </c>
       <c r="Y52" s="6" t="e">
-        <f>POWER(J52,K52)</f>
+        <f t="shared" ref="Y52:AD52" si="48">POWER(J52,K52)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z52" s="6" t="e">
-        <f>POWER(K52,L52)</f>
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
       <c r="AA52" s="6" t="e">
-        <f>POWER(L52,M52)</f>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB52" s="6" t="e">
-        <f>POWER(M52,N52)</f>
+        <f t="shared" si="48"/>
         <v>#NAME?</v>
       </c>
       <c r="AC52" s="6" t="e">
-        <f>POWER(N52,O52)</f>
+        <f t="shared" si="48"/>
         <v>#NULL!</v>
       </c>
       <c r="AD52" s="6" t="e">
-        <f>POWER(O52,P52)</f>
+        <f t="shared" si="48"/>
         <v>#NUM!</v>
       </c>
       <c r="AE52" s="6" t="e">
@@ -8121,63 +8290,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q55" s="6">
-        <f>RADIANS(B55)</f>
+        <f t="shared" ref="Q55:AE55" si="49">RADIANS(B55)</f>
         <v>0</v>
       </c>
       <c r="R55" s="6">
-        <f>RADIANS(C55)</f>
+        <f t="shared" si="49"/>
         <v>1.7453292519943295E-2</v>
       </c>
       <c r="S55" s="6">
-        <f>RADIANS(D55)</f>
+        <f t="shared" si="49"/>
         <v>4.014257279586958E-2</v>
       </c>
       <c r="T55" s="6">
-        <f>RADIANS(E55)</f>
+        <f t="shared" si="49"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="U55" s="6">
-        <f>RADIANS(F55)</f>
+        <f t="shared" si="49"/>
         <v>-1.7453292519943295E-2</v>
       </c>
       <c r="V55" s="6">
-        <f>RADIANS(G55)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W55" s="6" t="e">
-        <f>RADIANS(H55)</f>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="X55" s="6">
-        <f>RADIANS(I55)</f>
+        <f t="shared" si="49"/>
         <v>1.7453292519943295E-2</v>
       </c>
       <c r="Y55" s="6" t="e">
-        <f>RADIANS(J55)</f>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z55" s="6" t="e">
-        <f>RADIANS(K55)</f>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="AA55" s="6" t="e">
-        <f>RADIANS(L55)</f>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB55" s="6" t="e">
-        <f>RADIANS(M55)</f>
+        <f t="shared" si="49"/>
         <v>#NAME?</v>
       </c>
       <c r="AC55" s="6" t="e">
-        <f>RADIANS(N55)</f>
+        <f t="shared" si="49"/>
         <v>#NULL!</v>
       </c>
       <c r="AD55" s="6" t="e">
-        <f>RADIANS(O55)</f>
+        <f t="shared" si="49"/>
         <v>#NUM!</v>
       </c>
       <c r="AE55" s="6" t="e">
-        <f>RADIANS(P55)</f>
+        <f t="shared" si="49"/>
         <v>#REF!</v>
       </c>
       <c r="AF55" s="10"/>
@@ -8366,7 +8535,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y57" s="6" t="e">
-        <f t="shared" ref="Y57:AE57" ca="1" si="23">RANDBETWEEN(J57,K57)</f>
+        <f t="shared" ref="Y57:AC57" ca="1" si="50">RANDBETWEEN(J57,K57)</f>
         <v>#N/A</v>
       </c>
       <c r="Z57" s="6" t="e">
@@ -8378,11 +8547,11 @@
         <v>#NAME?</v>
       </c>
       <c r="AB57" s="6" t="e">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="50"/>
         <v>#NULL!</v>
       </c>
       <c r="AC57" s="6" t="e">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="50"/>
         <v>#NUM!</v>
       </c>
       <c r="AD57" s="6" t="e">
@@ -8467,15 +8636,15 @@
         <v>LMVLIV</v>
       </c>
       <c r="S58" s="6" t="str">
-        <f t="shared" ref="S58:AE58" si="24">ROMAN(999.9,D58)</f>
+        <f t="shared" ref="S58:AE58" si="51">ROMAN(999.9,D58)</f>
         <v>XMIX</v>
       </c>
       <c r="T58" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>VMIV</v>
       </c>
       <c r="U58" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>IM</v>
       </c>
       <c r="V58" s="6" t="str">
@@ -8483,7 +8652,7 @@
         <v>CMXCIX</v>
       </c>
       <c r="W58" s="6" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>#VALUE!</v>
       </c>
       <c r="X58" s="6" t="str">
@@ -8491,31 +8660,31 @@
         <v>CMXCIX</v>
       </c>
       <c r="Y58" s="6" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z58" s="6" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="AA58" s="6" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB58" s="6" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>#NAME?</v>
       </c>
       <c r="AC58" s="6" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>#NULL!</v>
       </c>
       <c r="AD58" s="6" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>#NUM!</v>
       </c>
       <c r="AE58" s="6" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="AF58" s="10"/>
@@ -8653,23 +8822,23 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z59" s="6" t="e">
-        <f t="shared" ref="Y59:AD59" si="25">ROUND(K59,J59)</f>
+        <f t="shared" ref="Z59:AD59" si="52">ROUND(K59,J59)</f>
         <v>#N/A</v>
       </c>
       <c r="AA59" s="6" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB59" s="6" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>#NAME?</v>
       </c>
       <c r="AC59" s="6" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>#NULL!</v>
       </c>
       <c r="AD59" s="6" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="52"/>
         <v>#NUM!</v>
       </c>
       <c r="AE59" s="6" t="e">
@@ -8807,31 +8976,31 @@
         <v>1</v>
       </c>
       <c r="Y60" s="6" t="e">
-        <f>ROUNDDOWN(J60,I60)</f>
+        <f t="shared" ref="Y60:AE60" si="53">ROUNDDOWN(J60,I60)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z60" s="6" t="e">
-        <f>ROUNDDOWN(K60,J60)</f>
+        <f t="shared" si="53"/>
         <v>#N/A</v>
       </c>
       <c r="AA60" s="6" t="e">
-        <f>ROUNDDOWN(L60,K60)</f>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB60" s="6" t="e">
-        <f>ROUNDDOWN(M60,L60)</f>
+        <f t="shared" si="53"/>
         <v>#NAME?</v>
       </c>
       <c r="AC60" s="6" t="e">
-        <f>ROUNDDOWN(N60,M60)</f>
+        <f t="shared" si="53"/>
         <v>#NULL!</v>
       </c>
       <c r="AD60" s="6" t="e">
-        <f>ROUNDDOWN(O60,N60)</f>
+        <f t="shared" si="53"/>
         <v>#NUM!</v>
       </c>
       <c r="AE60" s="6" t="e">
-        <f>ROUNDDOWN(P60,O60)</f>
+        <f t="shared" si="53"/>
         <v>#REF!</v>
       </c>
       <c r="AF60" s="10"/>
@@ -8965,31 +9134,31 @@
         <v>1</v>
       </c>
       <c r="Y61" s="6" t="e">
-        <f>ROUNDUP(J61,I61)</f>
+        <f t="shared" ref="Y61:AE61" si="54">ROUNDUP(J61,I61)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z61" s="6" t="e">
-        <f>ROUNDUP(K61,J61)</f>
+        <f t="shared" si="54"/>
         <v>#N/A</v>
       </c>
       <c r="AA61" s="6" t="e">
-        <f>ROUNDUP(L61,K61)</f>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB61" s="6" t="e">
-        <f>ROUNDUP(M61,L61)</f>
+        <f t="shared" si="54"/>
         <v>#NAME?</v>
       </c>
       <c r="AC61" s="6" t="e">
-        <f>ROUNDUP(N61,M61)</f>
+        <f t="shared" si="54"/>
         <v>#NULL!</v>
       </c>
       <c r="AD61" s="6" t="e">
-        <f>ROUNDUP(O61,N61)</f>
+        <f t="shared" si="54"/>
         <v>#NUM!</v>
       </c>
       <c r="AE61" s="6" t="e">
-        <f>ROUNDUP(P61,O61)</f>
+        <f t="shared" si="54"/>
         <v>#REF!</v>
       </c>
       <c r="AF61" s="10"/>
@@ -9095,59 +9264,59 @@
         <v>1</v>
       </c>
       <c r="R62" s="6">
-        <f t="shared" ref="R62:AE62" si="26">_xlfn.SEC(C62)</f>
+        <f t="shared" ref="R62:AE62" si="55">_xlfn.SEC(C62)</f>
         <v>1.8508157176809255</v>
       </c>
       <c r="S62" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>-1.500879467460255</v>
       </c>
       <c r="T62" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>-1.1917935066878957</v>
       </c>
       <c r="U62" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>1.8508157176809255</v>
       </c>
       <c r="V62" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="W62" s="6" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="X62" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>1.8508157176809255</v>
       </c>
       <c r="Y62" s="6" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z62" s="6" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>#N/A</v>
       </c>
       <c r="AA62" s="6" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB62" s="6" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>#NAME?</v>
       </c>
       <c r="AC62" s="6" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>#NULL!</v>
       </c>
       <c r="AD62" s="6" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>#NUM!</v>
       </c>
       <c r="AE62" s="6" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>#REF!</v>
       </c>
       <c r="AF62" s="10"/>
@@ -9253,59 +9422,59 @@
         <v>1</v>
       </c>
       <c r="R63" s="6">
-        <f t="shared" ref="R63:AE63" si="27">_xlfn.SECH(C63)</f>
+        <f t="shared" ref="R63:AE63" si="56">_xlfn.SECH(C63)</f>
         <v>0.64805427366388546</v>
       </c>
       <c r="S63" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="56"/>
         <v>0.19852217514933898</v>
       </c>
       <c r="T63" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="56"/>
         <v>9.0799859337817237E-5</v>
       </c>
       <c r="U63" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="56"/>
         <v>0.64805427366388546</v>
       </c>
       <c r="V63" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="W63" s="6" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="X63" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="56"/>
         <v>0.64805427366388546</v>
       </c>
       <c r="Y63" s="6" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z63" s="6" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="56"/>
         <v>#N/A</v>
       </c>
       <c r="AA63" s="6" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB63" s="6" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="56"/>
         <v>#NAME?</v>
       </c>
       <c r="AC63" s="6" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="56"/>
         <v>#NULL!</v>
       </c>
       <c r="AD63" s="6" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="56"/>
         <v>#NUM!</v>
       </c>
       <c r="AE63" s="6" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="56"/>
         <v>#REF!</v>
       </c>
       <c r="AF63" s="10"/>
@@ -9463,23 +9632,23 @@
         <v>0</v>
       </c>
       <c r="R65" s="6">
-        <f t="shared" ref="R65:AE65" si="28">SIGN(C65)</f>
+        <f t="shared" ref="R65:AE65" si="57">SIGN(C65)</f>
         <v>1</v>
       </c>
       <c r="S65" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="T65" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="U65" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="57"/>
         <v>-1</v>
       </c>
       <c r="V65" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W65" s="6" t="e">
@@ -9487,35 +9656,35 @@
         <v>#VALUE!</v>
       </c>
       <c r="X65" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="Y65" s="6" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z65" s="6" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="57"/>
         <v>#N/A</v>
       </c>
       <c r="AA65" s="6" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB65" s="6" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="57"/>
         <v>#NAME?</v>
       </c>
       <c r="AC65" s="6" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="57"/>
         <v>#NULL!</v>
       </c>
       <c r="AD65" s="6" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="57"/>
         <v>#NUM!</v>
       </c>
       <c r="AE65" s="6" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="57"/>
         <v>#REF!</v>
       </c>
       <c r="AF65" s="10"/>
@@ -9617,63 +9786,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q66" s="6">
-        <f>SIN(B66)</f>
+        <f t="shared" ref="Q66:AE66" si="58">SIN(B66)</f>
         <v>0</v>
       </c>
       <c r="R66" s="6">
-        <f>SIN(C66)</f>
+        <f t="shared" si="58"/>
         <v>0.8414709848078965</v>
       </c>
       <c r="S66" s="6">
-        <f>SIN(D66)</f>
+        <f t="shared" si="58"/>
         <v>0.74570521217672026</v>
       </c>
       <c r="T66" s="6">
-        <f>SIN(E66)</f>
+        <f t="shared" si="58"/>
         <v>-0.54402111088936977</v>
       </c>
       <c r="U66" s="6">
-        <f>SIN(F66)</f>
+        <f t="shared" si="58"/>
         <v>-0.8414709848078965</v>
       </c>
       <c r="V66" s="6">
-        <f>SIN(G66)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="W66" s="6" t="e">
-        <f>SIN(H66)</f>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="X66" s="6">
-        <f>SIN(I66)</f>
+        <f t="shared" si="58"/>
         <v>0.8414709848078965</v>
       </c>
       <c r="Y66" s="6" t="e">
-        <f>SIN(J66)</f>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z66" s="6" t="e">
-        <f>SIN(K66)</f>
+        <f t="shared" si="58"/>
         <v>#N/A</v>
       </c>
       <c r="AA66" s="6" t="e">
-        <f>SIN(L66)</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB66" s="6" t="e">
-        <f>SIN(M66)</f>
+        <f t="shared" si="58"/>
         <v>#NAME?</v>
       </c>
       <c r="AC66" s="6" t="e">
-        <f>SIN(N66)</f>
+        <f t="shared" si="58"/>
         <v>#NULL!</v>
       </c>
       <c r="AD66" s="6" t="e">
-        <f>SIN(O66)</f>
+        <f t="shared" si="58"/>
         <v>#NUM!</v>
       </c>
       <c r="AE66" s="6" t="e">
-        <f>SIN(P66)</f>
+        <f t="shared" si="58"/>
         <v>#REF!</v>
       </c>
       <c r="AF66" s="10"/>
@@ -9775,63 +9944,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q67" s="6">
-        <f>SINH(B67)</f>
+        <f t="shared" ref="Q67:AE67" si="59">SINH(B67)</f>
         <v>0</v>
       </c>
       <c r="R67" s="6">
-        <f>SINH(C67)</f>
+        <f t="shared" si="59"/>
         <v>1.1752011936438014</v>
       </c>
       <c r="S67" s="6">
-        <f>SINH(D67)</f>
+        <f t="shared" si="59"/>
         <v>4.9369618055459572</v>
       </c>
       <c r="T67" s="6">
-        <f>SINH(E67)</f>
+        <f t="shared" si="59"/>
         <v>11013.232874703393</v>
       </c>
       <c r="U67" s="6">
-        <f>SINH(F67)</f>
+        <f t="shared" si="59"/>
         <v>-1.1752011936438014</v>
       </c>
       <c r="V67" s="6">
-        <f>SINH(G67)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="W67" s="6" t="e">
-        <f>SINH(H67)</f>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="X67" s="6">
-        <f>SINH(I67)</f>
+        <f t="shared" si="59"/>
         <v>1.1752011936438014</v>
       </c>
       <c r="Y67" s="6" t="e">
-        <f>SINH(J67)</f>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z67" s="6" t="e">
-        <f>SINH(K67)</f>
+        <f t="shared" si="59"/>
         <v>#N/A</v>
       </c>
       <c r="AA67" s="6" t="e">
-        <f>SINH(L67)</f>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB67" s="6" t="e">
-        <f>SINH(M67)</f>
+        <f t="shared" si="59"/>
         <v>#NAME?</v>
       </c>
       <c r="AC67" s="6" t="e">
-        <f>SINH(N67)</f>
+        <f t="shared" si="59"/>
         <v>#NULL!</v>
       </c>
       <c r="AD67" s="6" t="e">
-        <f>SINH(O67)</f>
+        <f t="shared" si="59"/>
         <v>#NUM!</v>
       </c>
       <c r="AE67" s="6" t="e">
-        <f>SINH(P67)</f>
+        <f t="shared" si="59"/>
         <v>#REF!</v>
       </c>
       <c r="AF67" s="10"/>
@@ -9933,63 +10102,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q68" s="6">
-        <f>SQRT(B68)</f>
+        <f t="shared" ref="Q68:AE68" si="60">SQRT(B68)</f>
         <v>0</v>
       </c>
       <c r="R68" s="6">
-        <f>SQRT(C68)</f>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="S68" s="6">
-        <f>SQRT(D68)</f>
+        <f t="shared" si="60"/>
         <v>1.51657508881031</v>
       </c>
       <c r="T68" s="6">
-        <f>SQRT(E68)</f>
+        <f t="shared" si="60"/>
         <v>3.1622776601683795</v>
       </c>
       <c r="U68" s="6" t="e">
-        <f>SQRT(F68)</f>
+        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="V68" s="6">
-        <f>SQRT(G68)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="W68" s="6" t="e">
-        <f>SQRT(H68)</f>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="X68" s="6">
-        <f>SQRT(I68)</f>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="Y68" s="6" t="e">
-        <f>SQRT(J68)</f>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z68" s="6" t="e">
-        <f>SQRT(K68)</f>
+        <f t="shared" si="60"/>
         <v>#N/A</v>
       </c>
       <c r="AA68" s="6" t="e">
-        <f>SQRT(L68)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB68" s="6" t="e">
-        <f>SQRT(M68)</f>
+        <f t="shared" si="60"/>
         <v>#NAME?</v>
       </c>
       <c r="AC68" s="6" t="e">
-        <f>SQRT(N68)</f>
+        <f t="shared" si="60"/>
         <v>#NULL!</v>
       </c>
       <c r="AD68" s="6" t="e">
-        <f>SQRT(O68)</f>
+        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="AE68" s="6" t="e">
-        <f>SQRT(P68)</f>
+        <f t="shared" si="60"/>
         <v>#REF!</v>
       </c>
       <c r="AF68" s="10"/>
@@ -10095,19 +10264,19 @@
         <v>0</v>
       </c>
       <c r="R69" s="6">
-        <f t="shared" ref="R69:AE69" si="29">SQRTPI(C69)</f>
+        <f t="shared" ref="R69:AE69" si="61">SQRTPI(C69)</f>
         <v>1.7724538509055159</v>
       </c>
       <c r="S69" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="61"/>
         <v>2.6880593563492088</v>
       </c>
       <c r="T69" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="61"/>
         <v>5.604991216397929</v>
       </c>
       <c r="U69" s="6" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="61"/>
         <v>#NUM!</v>
       </c>
       <c r="V69" s="6">
@@ -10123,31 +10292,31 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y69" s="6" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z69" s="6" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="61"/>
         <v>#N/A</v>
       </c>
       <c r="AA69" s="6" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB69" s="6" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="61"/>
         <v>#NAME?</v>
       </c>
       <c r="AC69" s="6" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="61"/>
         <v>#NULL!</v>
       </c>
       <c r="AD69" s="6" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="61"/>
         <v>#NUM!</v>
       </c>
       <c r="AE69" s="6" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="61"/>
         <v>#REF!</v>
       </c>
       <c r="AF69" s="10"/>
@@ -10930,63 +11099,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q79" s="6">
-        <f>TAN(B79)</f>
+        <f t="shared" ref="Q79:AE79" si="62">TAN(B79)</f>
         <v>0</v>
       </c>
       <c r="R79" s="6">
-        <f>TAN(C79)</f>
+        <f t="shared" si="62"/>
         <v>1.5574077246549023</v>
       </c>
       <c r="S79" s="6">
-        <f>TAN(D79)</f>
+        <f t="shared" si="62"/>
         <v>-1.1192136417341325</v>
       </c>
       <c r="T79" s="6">
-        <f>TAN(E79)</f>
+        <f t="shared" si="62"/>
         <v>0.64836082745908663</v>
       </c>
       <c r="U79" s="6">
-        <f>TAN(F79)</f>
+        <f t="shared" si="62"/>
         <v>-1.5574077246549023</v>
       </c>
       <c r="V79" s="6">
-        <f>TAN(G79)</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W79" s="6" t="e">
-        <f>TAN(H79)</f>
+        <f t="shared" si="62"/>
         <v>#VALUE!</v>
       </c>
       <c r="X79" s="6">
-        <f>TAN(I79)</f>
+        <f t="shared" si="62"/>
         <v>1.5574077246549023</v>
       </c>
       <c r="Y79" s="6" t="e">
-        <f>TAN(J79)</f>
+        <f t="shared" si="62"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z79" s="6" t="e">
-        <f>TAN(K79)</f>
+        <f t="shared" si="62"/>
         <v>#N/A</v>
       </c>
       <c r="AA79" s="6" t="e">
-        <f>TAN(L79)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB79" s="6" t="e">
-        <f>TAN(M79)</f>
+        <f t="shared" si="62"/>
         <v>#NAME?</v>
       </c>
       <c r="AC79" s="6" t="e">
-        <f>TAN(N79)</f>
+        <f t="shared" si="62"/>
         <v>#NULL!</v>
       </c>
       <c r="AD79" s="6" t="e">
-        <f>TAN(O79)</f>
+        <f t="shared" si="62"/>
         <v>#NUM!</v>
       </c>
       <c r="AE79" s="6" t="e">
-        <f>TAN(P79)</f>
+        <f t="shared" si="62"/>
         <v>#REF!</v>
       </c>
       <c r="AF79" s="10"/>
@@ -11088,63 +11257,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q80" s="6">
-        <f>TANH(B80)</f>
+        <f t="shared" ref="Q80:AE80" si="63">TANH(B80)</f>
         <v>0</v>
       </c>
       <c r="R80" s="6">
-        <f>TANH(C80)</f>
+        <f t="shared" si="63"/>
         <v>0.76159415595576485</v>
       </c>
       <c r="S80" s="6">
-        <f>TANH(D80)</f>
+        <f t="shared" si="63"/>
         <v>0.98009639626619138</v>
       </c>
       <c r="T80" s="6">
-        <f>TANH(E80)</f>
+        <f t="shared" si="63"/>
         <v>0.99999999587769262</v>
       </c>
       <c r="U80" s="6">
-        <f>TANH(F80)</f>
+        <f t="shared" si="63"/>
         <v>-0.76159415595576485</v>
       </c>
       <c r="V80" s="6">
-        <f>TANH(G80)</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W80" s="6" t="e">
-        <f>TANH(H80)</f>
+        <f t="shared" si="63"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="6">
-        <f>TANH(I80)</f>
+        <f t="shared" si="63"/>
         <v>0.76159415595576485</v>
       </c>
       <c r="Y80" s="6" t="e">
-        <f>TANH(J80)</f>
+        <f t="shared" si="63"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z80" s="6" t="e">
-        <f>TANH(K80)</f>
+        <f t="shared" si="63"/>
         <v>#N/A</v>
       </c>
       <c r="AA80" s="6" t="e">
-        <f>TANH(L80)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB80" s="6" t="e">
-        <f>TANH(M80)</f>
+        <f t="shared" si="63"/>
         <v>#NAME?</v>
       </c>
       <c r="AC80" s="6" t="e">
-        <f>TANH(N80)</f>
+        <f t="shared" si="63"/>
         <v>#NULL!</v>
       </c>
       <c r="AD80" s="6" t="e">
-        <f>TANH(O80)</f>
+        <f t="shared" si="63"/>
         <v>#NUM!</v>
       </c>
       <c r="AE80" s="6" t="e">
-        <f>TANH(P80)</f>
+        <f t="shared" si="63"/>
         <v>#REF!</v>
       </c>
       <c r="AF80" s="10"/>
@@ -11278,31 +11447,31 @@
         <v>1</v>
       </c>
       <c r="Y81" s="6" t="e">
-        <f>TRUNC(J81,I81)</f>
+        <f t="shared" ref="Y81:AE81" si="64">TRUNC(J81,I81)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z81" s="6" t="e">
-        <f>TRUNC(K81,J81)</f>
+        <f t="shared" si="64"/>
         <v>#N/A</v>
       </c>
       <c r="AA81" s="6" t="e">
-        <f>TRUNC(L81,K81)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB81" s="6" t="e">
-        <f>TRUNC(M81,L81)</f>
+        <f t="shared" si="64"/>
         <v>#NAME?</v>
       </c>
       <c r="AC81" s="6" t="e">
-        <f>TRUNC(N81,M81)</f>
+        <f t="shared" si="64"/>
         <v>#NULL!</v>
       </c>
       <c r="AD81" s="6" t="e">
-        <f>TRUNC(O81,N81)</f>
+        <f t="shared" si="64"/>
         <v>#NUM!</v>
       </c>
       <c r="AE81" s="6" t="e">
-        <f>TRUNC(P81,O81)</f>
+        <f t="shared" si="64"/>
         <v>#REF!</v>
       </c>
       <c r="AF81" s="10"/>
@@ -11361,14 +11530,14 @@
     <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="8">
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AV2"/>
+    <mergeCell ref="Q1:AV1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AG2:AV2"/>
-    <mergeCell ref="Q1:AV1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11376,32 +11545,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4887B114-1BCA-D646-899C-1AFFF9D0F422}">
-  <dimension ref="A1:AV188"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1752443E-D395-6347-A5AF-550B6945E519}">
+  <dimension ref="A1:BJ82"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M12" zoomScale="200" workbookViewId="0">
+      <selection activeCell="AM26" sqref="AM26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="1.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -11410,2445 +11582,188 @@
     <col min="30" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="38" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="48" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-    </row>
-    <row r="2" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-    </row>
-    <row r="3" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="14">
-        <v>-0.1</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K4" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L4" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N4" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O4" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P4" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q4" s="6">
-        <f>AVERAGE(B4:C4,C4:D4,D4:E4)</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="R4" s="6">
-        <f>AVERAGE(C4:D4,D4:E4,E4:F4)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="S4" s="6">
-        <f>AVERAGE(D4:E4,E4:F4,F4:G4)</f>
-        <v>0.12000000000000002</v>
-      </c>
-      <c r="T4" s="6">
-        <f>AVERAGE(E4:F4,F4:G4,G4:H4)</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="U4" s="6">
-        <f>AVERAGE(F4:G4,G4:H4,H4:I4)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="V4" s="6">
-        <f>AVERAGE(F4:G4)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="W4" s="6">
-        <f>AVERAGE(H4,F4)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="X4" s="6">
-        <f>AVERAGE(I4,F4)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="Y4" s="6" t="e">
-        <f>AVERAGE(J4:K4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z4" s="6" t="e">
-        <f>AVERAGE(K4:L4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA4" s="6" t="e">
-        <f>AVERAGE(L4:M4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB4" s="6" t="e">
-        <f>AVERAGE(M4:N4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC4" s="6" t="e">
-        <f>AVERAGE(N4:O4)</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD4" s="6" t="e">
-        <f>AVERAGE(O4:P4)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE4" s="6" t="e">
-        <f>AVERAGE(P4:Q4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF4" s="6" t="e">
-        <f>AVERAGE(G4:I4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG4" s="6">
-        <f t="array" ref="AG4:AL4">AVERAGE(B4:I4)</f>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="AH4" s="6">
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="AI4" s="6">
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="AJ4" s="6">
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="AK4" s="6">
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="AL4" s="6">
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="AM4" s="6" t="e">
-        <f t="array" ref="AM4:AV4">AVERAGE(I4:P4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV4" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A22" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A24" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A28" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A30" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A31" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A32" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A33" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A34" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A35" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A36" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A37" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A38" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A39" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A40" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A41" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A42" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A44" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A45" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A46" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A47" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A48" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A49" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A50" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A51" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A52" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A53" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A54" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A55" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A56" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A57" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A58" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A59" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A60" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A61" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="14">
-        <v>0</v>
-      </c>
-      <c r="C61" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D61" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E61" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F61" s="14">
-        <v>-0.1</v>
-      </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K61" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L61" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M61" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N61" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O61" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P61" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q61" s="6">
-        <f>MAX(B61:C61,C61:D61,D61:E61)</f>
-        <v>0.3</v>
-      </c>
-      <c r="R61" s="6">
-        <f t="shared" ref="R61:AE61" si="0">MAX(C61:D61,D61:E61,E61:F61)</f>
-        <v>0.3</v>
-      </c>
-      <c r="S61" s="6">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="T61" s="6">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="U61" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.1</v>
-      </c>
-      <c r="V61" s="6">
-        <f>MAX(F61:G61)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="W61" s="6">
-        <f>MAX(H61,F61)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="X61" s="6">
-        <f>MAX(I61,F61)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="Y61" s="6" t="e">
-        <f>MAX(J61:K61)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z61" s="6" t="e">
-        <f t="shared" ref="Z61:AE61" si="1">MAX(K61:L61)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA61" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB61" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC61" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD61" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE61" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF61" s="6">
-        <f>MAX(G61:I61)</f>
-        <v>0</v>
-      </c>
-      <c r="AG61" s="6">
-        <f t="array" ref="AG61:AL61">MAX(B61:I61)</f>
-        <v>0.3</v>
-      </c>
-      <c r="AH61" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AI61" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AJ61" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AK61" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AL61" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AM61" s="6" t="e">
-        <f t="array" ref="AM61:AV61">MAX(I61:P61)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV61" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A62" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A63" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A64" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A65" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="14">
-        <v>0</v>
-      </c>
-      <c r="C65" s="14">
-        <v>-0.1</v>
-      </c>
-      <c r="D65" s="14">
-        <v>-0.2</v>
-      </c>
-      <c r="E65" s="14">
-        <v>-0.3</v>
-      </c>
-      <c r="F65" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K65" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L65" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M65" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N65" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O65" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P65" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q65" s="6">
-        <f>MIN(B65:C65,C65:D65,D65:E65)</f>
-        <v>-0.3</v>
-      </c>
-      <c r="R65" s="6">
-        <f>MIN(C65:D65,D65:E65,E65:F65)</f>
-        <v>-0.3</v>
-      </c>
-      <c r="S65" s="6">
-        <f>MIN(D65:E65,E65:F65,F65:G65)</f>
-        <v>-0.3</v>
-      </c>
-      <c r="T65" s="6">
-        <f>MIN(E65:F65,F65:G65,G65:H65)</f>
-        <v>-0.3</v>
-      </c>
-      <c r="U65" s="6">
-        <f>MIN(F65:G65,G65:H65,H65:I65)</f>
-        <v>0.1</v>
-      </c>
-      <c r="V65" s="6">
-        <f>MIN(F65:G65)</f>
-        <v>0.1</v>
-      </c>
-      <c r="W65" s="6">
-        <f>MIN(H65,F65)</f>
-        <v>0.1</v>
-      </c>
-      <c r="X65" s="6">
-        <f>MIN(I65,F65)</f>
-        <v>0.1</v>
-      </c>
-      <c r="Y65" s="6" t="e">
-        <f>MIN(J65:K65)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z65" s="6" t="e">
-        <f>MIN(K65:L65)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA65" s="6" t="e">
-        <f>MIN(L65:M65)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB65" s="6" t="e">
-        <f>MIN(M65:N65)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC65" s="6" t="e">
-        <f>MIN(N65:O65)</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD65" s="6" t="e">
-        <f>MIN(O65:P65)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE65" s="6" t="e">
-        <f>MIN(P65:Q65)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF65" s="6">
-        <f>MIN(G65:I65)</f>
-        <v>0</v>
-      </c>
-      <c r="AG65" s="6">
-        <f t="array" ref="AG65:AL65">MIN(B65:I65)</f>
-        <v>-0.3</v>
-      </c>
-      <c r="AH65" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="AI65" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="AJ65" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="AK65" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="AL65" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="AM65" s="6" t="e">
-        <f t="array" ref="AM65:AV65">MIN(I65:P65)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV65" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A66" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A67" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A68" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A69" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A70" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A71" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A72" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="73" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A73" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A74" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A75" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="76" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A76" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A77" s="16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A78" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="79" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A79" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="80" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A80" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A81" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A82" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A83" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A84" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A85" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A86" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A87" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A88" s="16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A89" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A90" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A91" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A92" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A93" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A94" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A95" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A96" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A97" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A98" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A99" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A100" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A101" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A102" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A103" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A104" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A105" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A106" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A107" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A108" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A109" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A110" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A111" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A112" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A113" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="115" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="116" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="117" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="118" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="119" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="120" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="121" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="122" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="123" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="124" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="125" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="126" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="127" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="11" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="Q1:AV1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AG2:AV2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDD8423-8F47-454D-B912-8DBA0D9B36C0}">
-  <dimension ref="A1:AV82"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="1.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="40" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="47" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-    </row>
-    <row r="2" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-    </row>
-    <row r="3" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="14">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E7" s="14">
-        <v>10</v>
-      </c>
-      <c r="F7" s="14">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L7" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N7" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O7" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P7" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q7" s="6" t="b">
-        <f>ISERR(B7)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="6" t="b">
-        <f>ISERR(C7)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="6" t="b">
-        <f>ISERR(D7)</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="6" t="b">
-        <f>ISERR(E7)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="6" t="b">
-        <f>ISERR(F7)</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="6" t="b">
-        <f>ISERR(G7)</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="6" t="b">
-        <f>ISERR(H7)</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="6" t="b">
-        <f>ISERR(I7)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="6" t="b">
-        <f>ISERR(J7)</f>
-        <v>1</v>
-      </c>
-      <c r="Z7" s="6" t="b">
-        <f>ISERR(K7)</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="6" t="b">
-        <f>ISERR(L7)</f>
-        <v>1</v>
-      </c>
-      <c r="AB7" s="6" t="b">
-        <f>ISERR(M7)</f>
-        <v>1</v>
-      </c>
-      <c r="AC7" s="6" t="b">
-        <f>ISERR(N7)</f>
-        <v>1</v>
-      </c>
-      <c r="AD7" s="6" t="b">
-        <f>ISERR(O7)</f>
-        <v>1</v>
-      </c>
-      <c r="AE7" s="6" t="b">
-        <f>ISERR(P7)</f>
-        <v>1</v>
-      </c>
-      <c r="AF7" s="6" t="b">
-        <f>ISERR(B7:D7)</f>
-        <v>1</v>
-      </c>
-      <c r="AG7" s="6" t="b">
-        <f t="array" ref="AG7:AV7">ISERR(B7:P7)</f>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="14">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E8" s="14">
-        <v>10</v>
-      </c>
-      <c r="F8" s="14">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K8" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L8" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N8" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O8" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P8" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q8" s="6" t="b">
-        <f>ISERROR(B8)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="6" t="b">
-        <f>ISERROR(C8)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="6" t="b">
-        <f>ISERROR(D8)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="6" t="b">
-        <f>ISERROR(E8)</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="6" t="b">
-        <f>ISERROR(F8)</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="6" t="b">
-        <f>ISERROR(G8)</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="6" t="b">
-        <f>ISERROR(H8)</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="6" t="b">
-        <f>ISERROR(I8)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="6" t="b">
-        <f>ISERROR(J8)</f>
-        <v>1</v>
-      </c>
-      <c r="Z8" s="6" t="b">
-        <f>ISERROR(K8)</f>
-        <v>1</v>
-      </c>
-      <c r="AA8" s="6" t="b">
-        <f>ISERROR(L8)</f>
-        <v>1</v>
-      </c>
-      <c r="AB8" s="6" t="b">
-        <f>ISERROR(M8)</f>
-        <v>1</v>
-      </c>
-      <c r="AC8" s="6" t="b">
-        <f>ISERROR(N8)</f>
-        <v>1</v>
-      </c>
-      <c r="AD8" s="6" t="b">
-        <f>ISERROR(O8)</f>
-        <v>1</v>
-      </c>
-      <c r="AE8" s="6" t="b">
-        <f>ISERROR(P8)</f>
-        <v>1</v>
-      </c>
-      <c r="AF8" s="6" t="b">
-        <f>ISERR(B8:D8)</f>
-        <v>1</v>
-      </c>
-      <c r="AG8" s="6" t="b">
-        <f t="array" ref="AG8:AV8">ISERROR(B8:P8)</f>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A22" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="11" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="Q1:AV1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AG2:AV2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C129EE31-5C14-1646-A8F3-56742C665F7C}">
-  <dimension ref="A1:BJ82"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="1.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="49" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="11" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
     </row>
     <row r="2" spans="1:62" ht="11" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="19" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AG2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
     </row>
     <row r="3" spans="1:62" ht="11" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:62" ht="11" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:62" ht="11" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="14">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E5" s="14">
-        <v>10</v>
-      </c>
-      <c r="F5" s="14">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6" t="e">
-        <f>#VALUE!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L5" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N5" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O5" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P5" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q5" s="6" t="b">
-        <f>IF(B5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="6">
-        <f t="shared" ref="R5:AE5" si="0">IF(C5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="S5" s="6" t="b">
-        <f>IF(D5=1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V5" s="6">
-        <f>IF(G5,1,2)</f>
-        <v>2</v>
-      </c>
-      <c r="W5" s="6" t="e">
-        <f>IF(H5,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA5" s="6" t="e">
-        <f>IF(L5,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF5" s="11" t="e">
-        <f>IF(B5:F5,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG5" s="6" t="b">
-        <f t="array" ref="AG5:AH5">IF(B5:C5,C5:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AI5" s="6">
-        <f t="array" ref="AI5:AJ5">IF(B5:C5,2,C5:D5)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="6">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="6">
-        <f t="array" ref="AK5:AL5">IF(B5:C5,C5:D5,E5:F5)</f>
-        <v>10</v>
-      </c>
-      <c r="AL5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AM5" s="6" t="e">
-        <f t="array" ref="AM5:AO5">IF(H5:J5,C5:E5,E5:G5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AO5" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP5" s="6">
-        <f t="array" ref="AP5:AR5">IF(B5:D5,C5:E5,D5:F5)</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AQ5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AR5" s="6">
-        <v>10</v>
-      </c>
-      <c r="AS5" s="6" t="b">
-        <f t="array" ref="AS5:AV5">IF(B5:C5,C5:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="AT5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AU5" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV5" s="4" t="e">
-        <v>#N/A</v>
+      <c r="A5" s="16" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:62" ht="11" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E6" s="14">
-        <v>10</v>
-      </c>
-      <c r="F6" s="14">
-        <v>-1</v>
-      </c>
+      <c r="A6" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6" t="e">
-        <f>#VALUE!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L6" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N6" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O6" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P6" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>IFERROR(B6,C6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <f t="shared" ref="R6:V6" si="1">IFERROR(C6,D6)</f>
-        <v>1</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U6" s="4">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="V6" s="4">
-        <f>IFERROR(G6,H6)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="str">
-        <f t="shared" ref="W6" si="2">IFERROR(H6,I6)</f>
-        <v>ciao</v>
-      </c>
-      <c r="X6" s="4" t="b">
-        <f t="shared" ref="X6" si="3">IFERROR(I6,J6)</f>
-        <v>1</v>
-      </c>
-      <c r="Y6" s="4" t="e">
-        <f>IFERROR(J6,K6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z6" s="4" t="e">
-        <f t="shared" ref="Z6:AA6" si="4">IFERROR(K6,L6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA6" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB6" s="4" t="e">
-        <f t="shared" ref="AB6" si="5">IFERROR(M6,N6)</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="AC6" s="4" t="e">
-        <f t="shared" ref="AC6" si="6">IFERROR(N6,O6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD6" s="4" t="e">
-        <f t="shared" ref="AD6" si="7">IFERROR(O6,P6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AE6" s="4">
-        <f t="shared" ref="AE6" si="8">IFERROR(P6,Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4">
-        <f>IFERROR(C6:D6,Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="4" t="str">
-        <f t="array" ref="AG6:AH6">IFERROR(J6:K6,H6:I6)</f>
-        <v>ciao</v>
-      </c>
-      <c r="AH6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="4">
-        <f t="array" ref="AI6:AJ6">IFERROR(C6:D6,Q6)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AK6" s="4">
-        <f t="array" ref="AK6:AV6">IFERROR(F6:P6,Q6)</f>
-        <v>-1</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="4" t="str">
-        <v>ciao</v>
-      </c>
-      <c r="AN6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="4" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:62" ht="11" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -13914,7 +11829,7 @@
     </row>
     <row r="8" spans="1:62" ht="11" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -13965,98 +11880,417 @@
     </row>
     <row r="9" spans="1:62" ht="11" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:62" ht="11" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:62" ht="11" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:62" ht="11" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:62" ht="11" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:62" ht="11" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
+      <c r="A14" s="16" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="15" spans="1:62" ht="11" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
+      <c r="A15" s="16" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="16" spans="1:62" ht="11" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-    </row>
-    <row r="17" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-    </row>
-    <row r="18" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-    </row>
-    <row r="19" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-    </row>
-    <row r="20" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-    </row>
-    <row r="21" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-    </row>
-    <row r="22" spans="1:1" ht="11" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-    </row>
-    <row r="23" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="11" x14ac:dyDescent="0.15"/>
+      <c r="A16" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A21" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A22" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A23" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A26" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>4</v>
+      </c>
+      <c r="F26" s="14">
+        <v>5</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K26" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L26" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N26" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O26" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P26" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q26" s="6">
+        <f>IRR({-7,2,-1,4,-3;7,2,-1,4,4})</f>
+        <v>0.19086464188385688</v>
+      </c>
+      <c r="R26" s="6" t="e">
+        <f>IRR({7,2,-1,4,-3;7,2,-1,4,4},C26)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S26" s="6">
+        <f>IRR({-7,2,1,4,-3;-7,2,-1,4,4},D26)</f>
+        <v>-2.1126011550582802E-2</v>
+      </c>
+      <c r="T26" s="6">
+        <f>IRR({-7,2,-1,4,-3,7,2,1,4},E26)</f>
+        <v>0.18158629375365587</v>
+      </c>
+      <c r="U26" s="6">
+        <f>IRR(B26:F26,F26)</f>
+        <v>19.105109618637595</v>
+      </c>
+      <c r="V26" s="6">
+        <f>IRR(B26:G26)</f>
+        <v>19.105109618587242</v>
+      </c>
+      <c r="W26" s="6">
+        <f>IRR(B26:H26)</f>
+        <v>19.105109618587242</v>
+      </c>
+      <c r="X26" s="6">
+        <f>IRR(B26:I26)</f>
+        <v>19.105109618587242</v>
+      </c>
+      <c r="Y26" s="6" t="e">
+        <f>IRR(B26:J26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z26" s="6" t="e">
+        <f>IRR({-7,2,-1,4,-3,7,2,1,3},J26)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" s="6" t="e">
+        <f>IRR({-7,2,-1,4,-3,7,2,1,3},L26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB26" s="6" t="e">
+        <f>IRR({-7,2,-1,4,-3,7,2,1,3},M26)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC26" s="6" t="e">
+        <f>IRR({-7,2,-1,4,-3,7,2,1,3},N26)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD26" s="6" t="e">
+        <f>IRR({-7,2,-1,4,-3,7,2,1,3},O26)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE26" s="6" t="e">
+        <f>IRR({-7,2,-1,4,-3,7,2,1,3},P26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF26" s="11" t="e">
+        <f>IRR(C26:F26)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AG26" s="6">
+        <f t="array" ref="AG26:AV26">IRR(B26:F26,B26:P26)</f>
+        <v>19.105109618635709</v>
+      </c>
+      <c r="AH26" s="6">
+        <v>19.105109618617355</v>
+      </c>
+      <c r="AI26" s="6">
+        <v>19.105109618638089</v>
+      </c>
+      <c r="AJ26" s="6">
+        <v>19.105109618596039</v>
+      </c>
+      <c r="AK26" s="6">
+        <v>19.105109618637595</v>
+      </c>
+      <c r="AL26" s="6">
+        <v>19.105109618638089</v>
+      </c>
+      <c r="AM26" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN26" s="6">
+        <v>19.105109618608335</v>
+      </c>
+      <c r="AO26" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP26" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ26" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR26" s="6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS26" s="6" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT26" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU26" s="6" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV26" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A27" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="Q27" s="20"/>
+    </row>
+    <row r="28" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A28" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A29" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A30" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A31" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A32" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A33" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A34" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A35" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A36" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A37" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A38" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A39" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A40" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A41" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A42" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A43" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A44" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A45" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A46" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A47" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A48" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A49" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A50" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A51" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A52" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A53" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A54" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A55" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A56" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A57" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
     <row r="65" ht="11" x14ac:dyDescent="0.15"/>
     <row r="66" ht="11" x14ac:dyDescent="0.15"/>
     <row r="67" ht="11" x14ac:dyDescent="0.15"/>
@@ -14087,15 +12321,2536 @@
     <mergeCell ref="AG2:AV2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4887B114-1BCA-D646-899C-1AFFF9D0F422}">
+  <dimension ref="A1:AV113"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="48" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L4" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N4" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O4" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P4" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>AVERAGE(B4:C4,C4:D4,D4:E4)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="R4" s="6">
+        <f>AVERAGE(C4:D4,D4:E4,E4:F4)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S4" s="6">
+        <f>AVERAGE(D4:E4,E4:F4,F4:G4)</f>
+        <v>0.12000000000000002</v>
+      </c>
+      <c r="T4" s="6">
+        <f>AVERAGE(E4:F4,F4:G4,G4:H4)</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="U4" s="6">
+        <f>AVERAGE(F4:G4,G4:H4,H4:I4)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="V4" s="6">
+        <f>AVERAGE(F4:G4)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="W4" s="6">
+        <f>AVERAGE(H4,F4)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="X4" s="6">
+        <f>AVERAGE(I4,F4)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="Y4" s="6" t="e">
+        <f t="shared" ref="Y4:AE4" si="0">AVERAGE(J4:K4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF4" s="6" t="e">
+        <f>AVERAGE(G4:I4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG4" s="6">
+        <f t="array" ref="AG4:AL4">AVERAGE(B4:I4)</f>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AK4" s="6">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AM4" s="6" t="e">
+        <f t="array" ref="AM4:AV4">AVERAGE(I4:P4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV4" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A49" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A50" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A51" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A52" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A53" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A54" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A55" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A56" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A57" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A58" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A59" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A60" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A61" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="14">
+        <v>0</v>
+      </c>
+      <c r="C61" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="E61" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F61" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K61" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L61" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M61" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N61" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O61" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P61" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q61" s="6">
+        <f>MAX(B61:C61,C61:D61,D61:E61)</f>
+        <v>0.3</v>
+      </c>
+      <c r="R61" s="6">
+        <f t="shared" ref="R61:U61" si="1">MAX(C61:D61,D61:E61,E61:F61)</f>
+        <v>0.3</v>
+      </c>
+      <c r="S61" s="6">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="T61" s="6">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="U61" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="V61" s="6">
+        <f>MAX(F61:G61)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="W61" s="6">
+        <f>MAX(H61,F61)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="X61" s="6">
+        <f>MAX(I61,F61)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="Y61" s="6" t="e">
+        <f>MAX(J61:K61)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z61" s="6" t="e">
+        <f t="shared" ref="Z61:AE61" si="2">MAX(K61:L61)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA61" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB61" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC61" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD61" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE61" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF61" s="6">
+        <f>MAX(G61:I61)</f>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="6">
+        <f t="array" ref="AG61:AL61">MAX(B61:I61)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AH61" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AI61" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AJ61" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AK61" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AL61" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AM61" s="6" t="e">
+        <f t="array" ref="AM61:AV61">MAX(I61:P61)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV61" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A62" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A63" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A64" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A65" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="14">
+        <v>0</v>
+      </c>
+      <c r="C65" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="D65" s="14">
+        <v>-0.2</v>
+      </c>
+      <c r="E65" s="14">
+        <v>-0.3</v>
+      </c>
+      <c r="F65" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K65" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L65" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M65" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N65" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O65" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P65" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q65" s="6">
+        <f>MIN(B65:C65,C65:D65,D65:E65)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="R65" s="6">
+        <f>MIN(C65:D65,D65:E65,E65:F65)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="S65" s="6">
+        <f>MIN(D65:E65,E65:F65,F65:G65)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="T65" s="6">
+        <f>MIN(E65:F65,F65:G65,G65:H65)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="U65" s="6">
+        <f>MIN(F65:G65,G65:H65,H65:I65)</f>
+        <v>0.1</v>
+      </c>
+      <c r="V65" s="6">
+        <f>MIN(F65:G65)</f>
+        <v>0.1</v>
+      </c>
+      <c r="W65" s="6">
+        <f>MIN(H65,F65)</f>
+        <v>0.1</v>
+      </c>
+      <c r="X65" s="6">
+        <f>MIN(I65,F65)</f>
+        <v>0.1</v>
+      </c>
+      <c r="Y65" s="6" t="e">
+        <f t="shared" ref="Y65:AE65" si="3">MIN(J65:K65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z65" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA65" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB65" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC65" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD65" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE65" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF65" s="6">
+        <f>MIN(G65:I65)</f>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="6">
+        <f t="array" ref="AG65:AL65">MIN(B65:I65)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="AH65" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="AI65" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="AJ65" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="AK65" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="AL65" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="AM65" s="6" t="e">
+        <f t="array" ref="AM65:AV65">MIN(I65:P65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV65" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A66" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A67" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A68" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A69" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A70" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A71" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A72" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A73" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A74" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A75" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A76" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A77" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A78" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A79" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A80" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="Q1:AV1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AV2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDD8423-8F47-454D-B912-8DBA0D9B36C0}">
+  <dimension ref="A1:AV22"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="1.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="40" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="47" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E7" s="14">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N7" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O7" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P7" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q7" s="6" t="b">
+        <f t="shared" ref="Q7:AE7" si="0">ISERR(B7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF7" s="6" t="b">
+        <f>ISERR(B7:D7)</f>
+        <v>1</v>
+      </c>
+      <c r="AG7" s="6" t="b">
+        <f t="array" ref="AG7:AV7">ISERR(B7:P7)</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E8" s="14">
+        <v>10</v>
+      </c>
+      <c r="F8" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N8" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O8" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P8" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q8" s="6" t="b">
+        <f t="shared" ref="Q8:AE8" si="1">ISERROR(B8)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AF8" s="6" t="b">
+        <f>ISERR(B8:D8)</f>
+        <v>1</v>
+      </c>
+      <c r="AG8" s="6" t="b">
+        <f t="array" ref="AG8:AV8">ISERROR(B8:P8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="Q1:AV1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AV2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C129EE31-5C14-1646-A8F3-56742C665F7C}">
+  <dimension ref="A1:BJ22"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="1.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E5" s="14">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N5" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O5" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P5" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q5" s="6" t="b">
+        <f>IF(B5,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" ref="R5:AE5" si="0">IF(C5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="6" t="b">
+        <f>IF(D5=1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="6">
+        <f>IF(G5,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W5" s="6" t="e">
+        <f>IF(H5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA5" s="6" t="e">
+        <f>IF(L5,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF5" s="11" t="e">
+        <f>IF(B5:F5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG5" s="6" t="b">
+        <f t="array" ref="AG5:AH5">IF(B5:C5,C5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI5" s="6">
+        <f t="array" ref="AI5:AJ5">IF(B5:C5,2,C5:D5)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="6">
+        <f t="array" ref="AK5:AL5">IF(B5:C5,C5:D5,E5:F5)</f>
+        <v>10</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AM5" s="6" t="e">
+        <f t="array" ref="AM5:AO5">IF(H5:J5,C5:E5,E5:G5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AO5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP5" s="6">
+        <f t="array" ref="AP5:AR5">IF(B5:D5,C5:E5,D5:F5)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AQ5" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AR5" s="6">
+        <v>10</v>
+      </c>
+      <c r="AS5" s="6" t="b">
+        <f t="array" ref="AS5:AV5">IF(B5:C5,C5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AU5" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV5" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E6" s="14">
+        <v>10</v>
+      </c>
+      <c r="F6" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N6" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O6" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P6" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>IFERROR(B6,C6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" ref="R6:U6" si="1">IFERROR(C6,D6)</f>
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="V6" s="4">
+        <f>IFERROR(G6,H6)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="str">
+        <f t="shared" ref="W6" si="2">IFERROR(H6,I6)</f>
+        <v>ciao</v>
+      </c>
+      <c r="X6" s="4" t="b">
+        <f t="shared" ref="X6" si="3">IFERROR(I6,J6)</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4" t="e">
+        <f>IFERROR(J6,K6)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z6" s="4" t="e">
+        <f t="shared" ref="Z6:AA6" si="4">IFERROR(K6,L6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA6" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB6" s="4" t="e">
+        <f t="shared" ref="AB6" si="5">IFERROR(M6,N6)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AC6" s="4" t="e">
+        <f t="shared" ref="AC6" si="6">IFERROR(N6,O6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AD6" s="4" t="e">
+        <f t="shared" ref="AD6" si="7">IFERROR(O6,P6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="shared" ref="AE6" si="8">IFERROR(P6,Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>IFERROR(C6:D6,Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4" t="str">
+        <f t="array" ref="AG6:AH6">IFERROR(J6:K6,H6:I6)</f>
+        <v>ciao</v>
+      </c>
+      <c r="AH6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="4">
+        <f t="array" ref="AI6:AJ6">IFERROR(C6:D6,Q6)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AK6" s="4">
+        <f t="array" ref="AK6:AV6">IFERROR(F6:P6,Q6)</f>
+        <v>-1</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4" t="str">
+        <v>ciao</v>
+      </c>
+      <c r="AN6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A14" s="16"/>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="Q1:AV1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AV2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T60"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14584,7 +15339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B5"/>
   <sheetViews>

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenzoarcidiacono/PycharmProjects/formulas/test/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8854CD8D-3D22-174E-9245-BF0B9BB0C4DE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6FA74F-4A01-864F-87AF-C84E8CC16FDF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATH &amp; TRIG" sheetId="3" r:id="rId1"/>
     <sheet name="FINANCIAL" sheetId="9" r:id="rId2"/>
-    <sheet name="STATISTICAL" sheetId="5" r:id="rId3"/>
-    <sheet name="INFORMATION" sheetId="6" r:id="rId4"/>
-    <sheet name="LOGICAL" sheetId="8" r:id="rId5"/>
-    <sheet name="CORE" sheetId="1" r:id="rId6"/>
-    <sheet name="REF" sheetId="2" r:id="rId7"/>
+    <sheet name="TEXT" sheetId="11" r:id="rId3"/>
+    <sheet name="STATISTICAL" sheetId="5" r:id="rId4"/>
+    <sheet name="INFORMATION" sheetId="6" r:id="rId5"/>
+    <sheet name="LOGICAL" sheetId="8" r:id="rId6"/>
+    <sheet name="CORE" sheetId="1" r:id="rId7"/>
+    <sheet name="REF" sheetId="2" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="a">CORE!$B$2:$C$3</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="331">
   <si>
     <t>ca</t>
   </si>
@@ -918,6 +919,123 @@
   </si>
   <si>
     <t>YIELDMAT</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>BAHTTEXT</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>CLEAN</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>CONCAT</t>
+  </si>
+  <si>
+    <t>CONCATENATE</t>
+  </si>
+  <si>
+    <t>DBCS</t>
+  </si>
+  <si>
+    <t>DOLLAR</t>
+  </si>
+  <si>
+    <t>EXACT</t>
+  </si>
+  <si>
+    <t>FIND</t>
+  </si>
+  <si>
+    <t>FINDB</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>LEFTB</t>
+  </si>
+  <si>
+    <t>LEN</t>
+  </si>
+  <si>
+    <t>LENB</t>
+  </si>
+  <si>
+    <t>LOWER</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>MIDB</t>
+  </si>
+  <si>
+    <t>NUMBERVALUE</t>
+  </si>
+  <si>
+    <t>PHONETIC</t>
+  </si>
+  <si>
+    <t>PROPER</t>
+  </si>
+  <si>
+    <t>REPLACE</t>
+  </si>
+  <si>
+    <t>REPLACEB</t>
+  </si>
+  <si>
+    <t>REPT</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>RIGHTB</t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>SEARCHB</t>
+  </si>
+  <si>
+    <t>SUBSTITUTE</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>TEXTJOIN</t>
+  </si>
+  <si>
+    <t>TRIM</t>
+  </si>
+  <si>
+    <t>UNICHAR</t>
+  </si>
+  <si>
+    <t>UNICODE</t>
+  </si>
+  <si>
+    <t>UPPER</t>
+  </si>
+  <si>
+    <t>VALUE</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52929E63-D802-7443-B5FD-6A6404B94706}">
   <dimension ref="A1:AV81"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11548,8 +11666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1752443E-D395-6347-A5AF-550B6945E519}">
   <dimension ref="A1:BJ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M12" zoomScale="200" workbookViewId="0">
-      <selection activeCell="AM26" sqref="AM26"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -12326,8 +12444,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4887B114-1BCA-D646-899C-1AFFF9D0F422}">
-  <dimension ref="A1:AV113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3D4B1B-14FD-7D4D-8EE7-6D4D6B6B833E}">
+  <dimension ref="A1:BJ41"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -12335,9 +12453,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="1.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -12348,9 +12468,9 @@
     <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -12360,12 +12480,22 @@
     <col min="30" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="38" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="48" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="42" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="49" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
@@ -12421,7 +12551,7 @@
       <c r="AU1" s="19"/>
       <c r="AV1" s="19"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A2" s="19"/>
       <c r="B2" s="19" t="s">
         <v>27</v>
@@ -12495,2175 +12625,90 @@
       <c r="AU2" s="19"/>
       <c r="AV2" s="19"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="14">
-        <v>-0.1</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K4" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L4" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N4" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O4" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P4" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q4" s="6">
-        <f>AVERAGE(B4:C4,C4:D4,D4:E4)</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="R4" s="6">
-        <f>AVERAGE(C4:D4,D4:E4,E4:F4)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="S4" s="6">
-        <f>AVERAGE(D4:E4,E4:F4,F4:G4)</f>
-        <v>0.12000000000000002</v>
-      </c>
-      <c r="T4" s="6">
-        <f>AVERAGE(E4:F4,F4:G4,G4:H4)</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="U4" s="6">
-        <f>AVERAGE(F4:G4,G4:H4,H4:I4)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="V4" s="6">
-        <f>AVERAGE(F4:G4)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="W4" s="6">
-        <f>AVERAGE(H4,F4)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="X4" s="6">
-        <f>AVERAGE(I4,F4)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="Y4" s="6" t="e">
-        <f t="shared" ref="Y4:AE4" si="0">AVERAGE(J4:K4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z4" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA4" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB4" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC4" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD4" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE4" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF4" s="6" t="e">
-        <f>AVERAGE(G4:I4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG4" s="6">
-        <f t="array" ref="AG4:AL4">AVERAGE(B4:I4)</f>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="AH4" s="6">
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="AI4" s="6">
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="AJ4" s="6">
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="AK4" s="6">
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="AL4" s="6">
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="AM4" s="6" t="e">
-        <f t="array" ref="AM4:AV4">AVERAGE(I4:P4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU4" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV4" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A49" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A50" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A51" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A52" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A53" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A54" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A55" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A56" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A57" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A58" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A59" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A60" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A61" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="14">
-        <v>0</v>
-      </c>
-      <c r="C61" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D61" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E61" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F61" s="14">
-        <v>-0.1</v>
-      </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K61" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L61" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M61" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N61" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O61" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P61" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q61" s="6">
-        <f>MAX(B61:C61,C61:D61,D61:E61)</f>
-        <v>0.3</v>
-      </c>
-      <c r="R61" s="6">
-        <f t="shared" ref="R61:U61" si="1">MAX(C61:D61,D61:E61,E61:F61)</f>
-        <v>0.3</v>
-      </c>
-      <c r="S61" s="6">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="T61" s="6">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="U61" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.1</v>
-      </c>
-      <c r="V61" s="6">
-        <f>MAX(F61:G61)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="W61" s="6">
-        <f>MAX(H61,F61)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="X61" s="6">
-        <f>MAX(I61,F61)</f>
-        <v>-0.1</v>
-      </c>
-      <c r="Y61" s="6" t="e">
-        <f>MAX(J61:K61)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z61" s="6" t="e">
-        <f t="shared" ref="Z61:AE61" si="2">MAX(K61:L61)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA61" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB61" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC61" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD61" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE61" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF61" s="6">
-        <f>MAX(G61:I61)</f>
-        <v>0</v>
-      </c>
-      <c r="AG61" s="6">
-        <f t="array" ref="AG61:AL61">MAX(B61:I61)</f>
-        <v>0.3</v>
-      </c>
-      <c r="AH61" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AI61" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AJ61" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AK61" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AL61" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AM61" s="6" t="e">
-        <f t="array" ref="AM61:AV61">MAX(I61:P61)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU61" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV61" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A62" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A63" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A64" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A65" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="14">
-        <v>0</v>
-      </c>
-      <c r="C65" s="14">
-        <v>-0.1</v>
-      </c>
-      <c r="D65" s="14">
-        <v>-0.2</v>
-      </c>
-      <c r="E65" s="14">
-        <v>-0.3</v>
-      </c>
-      <c r="F65" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K65" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L65" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M65" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N65" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O65" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P65" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q65" s="6">
-        <f>MIN(B65:C65,C65:D65,D65:E65)</f>
-        <v>-0.3</v>
-      </c>
-      <c r="R65" s="6">
-        <f>MIN(C65:D65,D65:E65,E65:F65)</f>
-        <v>-0.3</v>
-      </c>
-      <c r="S65" s="6">
-        <f>MIN(D65:E65,E65:F65,F65:G65)</f>
-        <v>-0.3</v>
-      </c>
-      <c r="T65" s="6">
-        <f>MIN(E65:F65,F65:G65,G65:H65)</f>
-        <v>-0.3</v>
-      </c>
-      <c r="U65" s="6">
-        <f>MIN(F65:G65,G65:H65,H65:I65)</f>
-        <v>0.1</v>
-      </c>
-      <c r="V65" s="6">
-        <f>MIN(F65:G65)</f>
-        <v>0.1</v>
-      </c>
-      <c r="W65" s="6">
-        <f>MIN(H65,F65)</f>
-        <v>0.1</v>
-      </c>
-      <c r="X65" s="6">
-        <f>MIN(I65,F65)</f>
-        <v>0.1</v>
-      </c>
-      <c r="Y65" s="6" t="e">
-        <f t="shared" ref="Y65:AE65" si="3">MIN(J65:K65)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z65" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA65" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB65" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC65" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD65" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE65" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF65" s="6">
-        <f>MIN(G65:I65)</f>
-        <v>0</v>
-      </c>
-      <c r="AG65" s="6">
-        <f t="array" ref="AG65:AL65">MIN(B65:I65)</f>
-        <v>-0.3</v>
-      </c>
-      <c r="AH65" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="AI65" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="AJ65" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="AK65" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="AL65" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="AM65" s="6" t="e">
-        <f t="array" ref="AM65:AV65">MIN(I65:P65)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU65" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV65" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A66" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A67" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A68" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A69" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A70" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A71" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A72" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A73" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A74" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A75" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A76" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A77" s="16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A78" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A79" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A80" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A85" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" s="16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A89" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A93" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A95" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A103" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A105" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A107" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A109" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A111" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A112" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="Q1:AV1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AG2:AV2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDD8423-8F47-454D-B912-8DBA0D9B36C0}">
-  <dimension ref="A1:AV22"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="1.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="40" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="47" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="14">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E7" s="14">
-        <v>10</v>
-      </c>
-      <c r="F7" s="14">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L7" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N7" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O7" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P7" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q7" s="6" t="b">
-        <f t="shared" ref="Q7:AE7" si="0">ISERR(B7)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z7" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB7" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC7" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD7" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE7" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AF7" s="6" t="b">
-        <f>ISERR(B7:D7)</f>
-        <v>1</v>
-      </c>
-      <c r="AG7" s="6" t="b">
-        <f t="array" ref="AG7:AV7">ISERR(B7:P7)</f>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="14">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E8" s="14">
-        <v>10</v>
-      </c>
-      <c r="F8" s="14">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K8" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L8" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N8" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O8" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P8" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q8" s="6" t="b">
-        <f t="shared" ref="Q8:AE8" si="1">ISERROR(B8)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z8" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA8" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB8" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC8" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD8" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE8" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF8" s="6" t="b">
-        <f>ISERR(B8:D8)</f>
-        <v>1</v>
-      </c>
-      <c r="AG8" s="6" t="b">
-        <f t="array" ref="AG8:AV8">ISERROR(B8:P8)</f>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="Q1:AV1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AG2:AV2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C129EE31-5C14-1646-A8F3-56742C665F7C}">
-  <dimension ref="A1:BJ22"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="1.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-    </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-    </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="14">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E5" s="14">
-        <v>10</v>
-      </c>
-      <c r="F5" s="14">
-        <v>-1</v>
-      </c>
+      <c r="A5" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6" t="e">
-        <f>#VALUE!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L5" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N5" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O5" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P5" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q5" s="6" t="b">
-        <f>IF(B5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="6">
-        <f t="shared" ref="R5:AE5" si="0">IF(C5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="S5" s="6" t="b">
-        <f>IF(D5=1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V5" s="6">
-        <f>IF(G5,1,2)</f>
-        <v>2</v>
-      </c>
-      <c r="W5" s="6" t="e">
-        <f>IF(H5,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA5" s="6" t="e">
-        <f>IF(L5,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF5" s="11" t="e">
-        <f>IF(B5:F5,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG5" s="6" t="b">
-        <f t="array" ref="AG5:AH5">IF(B5:C5,C5:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AI5" s="6">
-        <f t="array" ref="AI5:AJ5">IF(B5:C5,2,C5:D5)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="6">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="6">
-        <f t="array" ref="AK5:AL5">IF(B5:C5,C5:D5,E5:F5)</f>
-        <v>10</v>
-      </c>
-      <c r="AL5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AM5" s="6" t="e">
-        <f t="array" ref="AM5:AO5">IF(H5:J5,C5:E5,E5:G5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AO5" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP5" s="6">
-        <f t="array" ref="AP5:AR5">IF(B5:D5,C5:E5,D5:F5)</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AQ5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AR5" s="6">
-        <v>10</v>
-      </c>
-      <c r="AS5" s="6" t="b">
-        <f t="array" ref="AS5:AV5">IF(B5:C5,C5:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="AT5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AU5" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV5" s="4" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E6" s="14">
-        <v>10</v>
-      </c>
-      <c r="F6" s="14">
-        <v>-1</v>
-      </c>
+      <c r="A6" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6" t="e">
-        <f>#VALUE!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L6" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N6" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O6" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P6" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>IFERROR(B6,C6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <f t="shared" ref="R6:U6" si="1">IFERROR(C6,D6)</f>
-        <v>1</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U6" s="4">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="V6" s="4">
-        <f>IFERROR(G6,H6)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="str">
-        <f t="shared" ref="W6" si="2">IFERROR(H6,I6)</f>
-        <v>ciao</v>
-      </c>
-      <c r="X6" s="4" t="b">
-        <f t="shared" ref="X6" si="3">IFERROR(I6,J6)</f>
-        <v>1</v>
-      </c>
-      <c r="Y6" s="4" t="e">
-        <f>IFERROR(J6,K6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z6" s="4" t="e">
-        <f t="shared" ref="Z6:AA6" si="4">IFERROR(K6,L6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA6" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB6" s="4" t="e">
-        <f t="shared" ref="AB6" si="5">IFERROR(M6,N6)</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="AC6" s="4" t="e">
-        <f t="shared" ref="AC6" si="6">IFERROR(N6,O6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD6" s="4" t="e">
-        <f t="shared" ref="AD6" si="7">IFERROR(O6,P6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AE6" s="4">
-        <f t="shared" ref="AE6" si="8">IFERROR(P6,Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4">
-        <f>IFERROR(C6:D6,Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="4" t="str">
-        <f t="array" ref="AG6:AH6">IFERROR(J6:K6,H6:I6)</f>
-        <v>ciao</v>
-      </c>
-      <c r="AH6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="4">
-        <f t="array" ref="AI6:AJ6">IFERROR(C6:D6,Q6)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AK6" s="4">
-        <f t="array" ref="AK6:AV6">IFERROR(F6:P6,Q6)</f>
-        <v>-1</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="4" t="str">
-        <v>ciao</v>
-      </c>
-      <c r="AN6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="4" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -14729,7 +12774,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -14780,55 +12825,3410 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>3</v>
+      </c>
+      <c r="E13" s="14">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N13" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O13" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P13" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q13" s="4" t="e">
+        <f>FIND("ia",B13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R13" s="4">
+        <f>FIND("ia","ciao",C13)</f>
+        <v>2</v>
+      </c>
+      <c r="S13" s="4" t="e">
+        <f>FIND("ia","ciao",D13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T13" s="4" t="e">
+        <f>FIND("q","ciao",E13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U13" s="4" t="e">
+        <f>FIND("v","ciao",F13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V13" s="4" t="e">
+        <f>FIND("ia","ciao",G13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W13" s="4" t="e">
+        <f>FIND("ia","ciao",H13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" ref="X13:AE13" si="0">FIND("ia","ciao",I13)</f>
+        <v>2</v>
+      </c>
+      <c r="Y13" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z13" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA13" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB13" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC13" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD13" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE13" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF13" s="4">
+        <f>FIND("ia",{"ciao","bau"},1)</f>
+        <v>2</v>
+      </c>
+      <c r="AG13" s="4">
+        <f t="array" ref="AG13:AI13">FIND({"a","b"},{"ciao","bau"})</f>
+        <v>3</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ13" s="4" t="e">
+        <f t="array" ref="AJ13:AV13">FIND("ia", "ciao",B13:P13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM13" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN13" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO13" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP13" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR13" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS13" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AT13" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU13" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AV13" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="D16" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E16" s="14">
+        <v>10</v>
+      </c>
+      <c r="F16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L16" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N16" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O16" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P16" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q16" s="4" t="str">
+        <f>LEFT("ciao",B16)</f>
+        <v/>
+      </c>
+      <c r="R16" s="4" t="str">
+        <f t="shared" ref="R16:U16" si="1">LEFT("ciao",C16)</f>
+        <v>c</v>
+      </c>
+      <c r="S16" s="4" t="str">
+        <f>LEFT(D16,2)</f>
+        <v>2.</v>
+      </c>
+      <c r="T16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>ciao</v>
+      </c>
+      <c r="U16" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V16" s="4" t="str">
+        <f>LEFT("ciao",G16)</f>
+        <v/>
+      </c>
+      <c r="W16" s="4" t="e">
+        <f>LEFT("ciao",H16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X16" s="4" t="str">
+        <f>LEFT("ciao",I16)</f>
+        <v>c</v>
+      </c>
+      <c r="Y16" s="4" t="e">
+        <f t="shared" ref="Y16:AE16" si="2">LEFT("ciao",J16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z16" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA16" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB16" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC16" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD16" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE16" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF16" s="4" t="str">
+        <f>LEFT({TRUE,"bau"},3)</f>
+        <v>TRU</v>
+      </c>
+      <c r="AG16" s="4" t="str">
+        <f t="array" ref="AG16:AI16">LEFT({"ciao","bau"},B16:C16)</f>
+        <v/>
+      </c>
+      <c r="AH16" s="4" t="str">
+        <v>b</v>
+      </c>
+      <c r="AI16" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ16" s="4" t="str">
+        <f t="array" ref="AJ16:AV16">LEFT("ciao",B16:P16)</f>
+        <v/>
+      </c>
+      <c r="AK16" s="4" t="str">
+        <v>c</v>
+      </c>
+      <c r="AL16" s="4" t="str">
+        <v>ci</v>
+      </c>
+      <c r="AM16" s="4" t="str">
+        <v>ciao</v>
+      </c>
+      <c r="AN16" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO16" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AP16" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ16" s="4" t="str">
+        <v>c</v>
+      </c>
+      <c r="AR16" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS16" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AT16" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU16" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AV16" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E18" s="14">
+        <v>10</v>
+      </c>
+      <c r="F18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L18" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N18" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O18" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P18" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>LEN(B18)</f>
+        <v>1</v>
+      </c>
+      <c r="R18" s="4">
+        <f t="shared" ref="R18:AE18" si="3">LEN(C18)</f>
+        <v>3</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y18" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z18" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA18" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB18" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC18" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD18" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE18" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF18" s="4" t="e">
+        <f>LEN(B18:C18)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG18" s="4">
+        <f t="array" ref="AG18:AV18">LEN(B18:P18)</f>
+        <v>1</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>3</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>4</v>
+      </c>
+      <c r="AO18" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP18" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ18" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR18" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS18" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT18" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU18" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV18" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E20" s="14">
+        <v>10</v>
+      </c>
+      <c r="F20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L20" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N20" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O20" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P20" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q20" s="4" t="str">
+        <f>LOWER(B20)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="4" t="str">
+        <f t="shared" ref="R20:AE20" si="4">LOWER(C20)</f>
+        <v>1.9</v>
+      </c>
+      <c r="S20" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2.3</v>
+      </c>
+      <c r="T20" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="U20" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="V20" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W20" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>ciao</v>
+      </c>
+      <c r="X20" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>true</v>
+      </c>
+      <c r="Y20" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z20" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA20" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB20" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC20" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD20" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE20" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF20" s="4" t="e">
+        <f>LOWER(B20:C20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG20" s="4" t="str">
+        <f t="array" ref="AG20:AV20">LOWER(B20:P20)</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="4" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="AI20" s="4" t="str">
+        <v>2.3</v>
+      </c>
+      <c r="AJ20" s="4" t="str">
+        <v>10</v>
+      </c>
+      <c r="AK20" s="4" t="str">
+        <v>-1</v>
+      </c>
+      <c r="AL20" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AM20" s="4" t="str">
+        <v>ciao</v>
+      </c>
+      <c r="AN20" s="4" t="str">
+        <v>true</v>
+      </c>
+      <c r="AO20" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP20" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ20" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR20" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS20" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT20" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU20" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV20" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="D21" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E21" s="14">
+        <v>10</v>
+      </c>
+      <c r="F21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L21" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N21" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O21" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P21" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q21" s="4" t="str">
+        <f>MID("ciao",2,B21)</f>
+        <v/>
+      </c>
+      <c r="R21" s="4" t="str">
+        <f>MID("ciao",C21,2)</f>
+        <v>ci</v>
+      </c>
+      <c r="S21" s="4" t="str">
+        <f>MID(D21,1,2)</f>
+        <v>2.</v>
+      </c>
+      <c r="T21" s="4" t="str">
+        <f>MID("ciao",E21,2)</f>
+        <v/>
+      </c>
+      <c r="U21" s="4" t="e">
+        <f>MID("ciao",2,F21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V21" s="4" t="e">
+        <f>MID("ciao",G21,2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W21" s="4" t="e">
+        <f>MID("ciao",H21,D21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X21" s="4" t="str">
+        <f>MID("ciao",I21,G21)</f>
+        <v/>
+      </c>
+      <c r="Y21" s="4" t="e">
+        <f>MID("ciao",J21,2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z21" s="4" t="e">
+        <f t="shared" ref="Z21:AE21" si="5">MID("ciao",K21,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA21" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB21" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC21" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD21" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE21" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF21" s="4" t="str">
+        <f>MID({"ciao","bau"},3,2)</f>
+        <v>ao</v>
+      </c>
+      <c r="AG21" s="4" t="e">
+        <f t="array" ref="AG21:AI21">MID({"ciao","bau"},B21:C21,C21:D21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH21" s="4" t="str">
+        <v>ba</v>
+      </c>
+      <c r="AI21" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ21" s="4" t="str">
+        <f t="array" ref="AJ21:AV21">MID("ciao",1,B21:P21)</f>
+        <v/>
+      </c>
+      <c r="AK21" s="4" t="str">
+        <v>c</v>
+      </c>
+      <c r="AL21" s="4" t="str">
+        <v>ci</v>
+      </c>
+      <c r="AM21" s="4" t="str">
+        <v>ciao</v>
+      </c>
+      <c r="AN21" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO21" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AP21" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ21" s="4" t="str">
+        <v>c</v>
+      </c>
+      <c r="AR21" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS21" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AT21" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU21" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AV21" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A22" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A23" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A26" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="14">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="D26" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E26" s="14">
+        <v>10</v>
+      </c>
+      <c r="F26" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N26" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O26" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P26" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q26" s="4" t="str">
+        <f>REPLACE("ciao",2,B26,"vvv")</f>
+        <v>cvvviao</v>
+      </c>
+      <c r="R26" s="4" t="str">
+        <f>REPLACE("ciao",C26,2,"cc")</f>
+        <v>ccao</v>
+      </c>
+      <c r="S26" s="4" t="str">
+        <f>REPLACE(D26,1,2,"c")</f>
+        <v>c3</v>
+      </c>
+      <c r="T26" s="4" t="str">
+        <f>REPLACE("ciao",E26,2,3)</f>
+        <v>ciao3</v>
+      </c>
+      <c r="U26" s="4" t="e">
+        <f>REPLACE("ciao",2,F26,TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V26" s="4" t="e">
+        <f>REPLACE("ciao",G26,2,2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W26" s="4" t="e">
+        <f>REPLACE("ciao",H26,D26,2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X26" s="4" t="str">
+        <f>REPLACE("ciao",I26,G26,"a")</f>
+        <v>aciao</v>
+      </c>
+      <c r="Y26" s="4" t="e">
+        <f>REPLACE("ciao",J26,2,"vv")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z26" s="4" t="e">
+        <f t="shared" ref="Z26:AE26" si="6">REPLACE("ciao",K26,2,"vv")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB26" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC26" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD26" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE26" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF26" s="4" t="str">
+        <f>REPLACE({"ciao","bau"},3,2,{"ss","ee"})</f>
+        <v>ciss</v>
+      </c>
+      <c r="AG26" s="4" t="str">
+        <f t="array" ref="AG26:AI26">REPLACE({"ciao","bau"},2,C26:D26, {"ss","ee"})</f>
+        <v>cssao</v>
+      </c>
+      <c r="AH26" s="4" t="str">
+        <v>bee</v>
+      </c>
+      <c r="AI26" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ26" s="4" t="str">
+        <f t="array" ref="AJ26:AV26">REPLACE("ciao",1,B26:P26,"cc")</f>
+        <v>ccciao</v>
+      </c>
+      <c r="AK26" s="4" t="str">
+        <v>cciao</v>
+      </c>
+      <c r="AL26" s="4" t="str">
+        <v>ccao</v>
+      </c>
+      <c r="AM26" s="4" t="str">
+        <v>cc</v>
+      </c>
+      <c r="AN26" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO26" s="4" t="str">
+        <v>ccciao</v>
+      </c>
+      <c r="AP26" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ26" s="4" t="str">
+        <v>cciao</v>
+      </c>
+      <c r="AR26" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS26" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AT26" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU26" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AV26" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A27" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A28" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A29" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B29" s="14">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E29" s="14">
+        <v>10</v>
+      </c>
+      <c r="F29" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N29" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O29" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P29" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q29" s="4" t="str">
+        <f>RIGHT("ciao",B29)</f>
+        <v/>
+      </c>
+      <c r="R29" s="4" t="str">
+        <f>RIGHT("ciao",C29)</f>
+        <v>o</v>
+      </c>
+      <c r="S29" s="4" t="str">
+        <f>RIGHT(D29,1)</f>
+        <v>3</v>
+      </c>
+      <c r="T29" s="4" t="str">
+        <f>RIGHT("ciao",E29)</f>
+        <v>ciao</v>
+      </c>
+      <c r="U29" s="4" t="e">
+        <f>RIGHT("ciao",F29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V29" s="4" t="str">
+        <f>RIGHT("ciao",G29)</f>
+        <v/>
+      </c>
+      <c r="W29" s="4" t="e">
+        <f>RIGHT("ciao",H29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X29" s="4" t="str">
+        <f>RIGHT("ciao",I29)</f>
+        <v>o</v>
+      </c>
+      <c r="Y29" s="4" t="e">
+        <f>RIGHT("ciao",J29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z29" s="4" t="e">
+        <f>RIGHT("ciao",K29)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA29" s="4" t="e">
+        <f>RIGHT("ciao",L29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB29" s="4" t="e">
+        <f>RIGHT("ciao",M29)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC29" s="4" t="e">
+        <f>RIGHT("ciao",N29)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD29" s="4" t="e">
+        <f>RIGHT("ciao",O29)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE29" s="4" t="e">
+        <f>RIGHT("ciao",P29)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF29" s="4" t="str">
+        <f>RIGHT({"ciao","bau"},3)</f>
+        <v>iao</v>
+      </c>
+      <c r="AG29" s="4" t="str">
+        <f t="array" ref="AG29:AI29">RIGHT({"ciao","bau"},B29:C29)</f>
+        <v/>
+      </c>
+      <c r="AH29" s="4" t="str">
+        <v>u</v>
+      </c>
+      <c r="AI29" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ29" s="4" t="str">
+        <f t="array" ref="AJ29:AV29">RIGHT("ciao",B29:P29)</f>
+        <v/>
+      </c>
+      <c r="AK29" s="4" t="str">
+        <v>o</v>
+      </c>
+      <c r="AL29" s="4" t="str">
+        <v>ao</v>
+      </c>
+      <c r="AM29" s="4" t="str">
+        <v>ciao</v>
+      </c>
+      <c r="AN29" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO29" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AP29" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ29" s="4" t="str">
+        <v>o</v>
+      </c>
+      <c r="AR29" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS29" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AT29" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU29" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AV29" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A30" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A31" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A32" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A33" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A34" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A35" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A36" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A37" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="B37" s="14">
+        <v>0</v>
+      </c>
+      <c r="C37" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="D37" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E37" s="14">
+        <v>10</v>
+      </c>
+      <c r="F37" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K37" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L37" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N37" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O37" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P37" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q37" s="4" t="str">
+        <f>TRIM(B37)</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="4" t="str">
+        <f t="shared" ref="R37:AF37" si="7">TRIM(C37)</f>
+        <v>1.9</v>
+      </c>
+      <c r="S37" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>2.3</v>
+      </c>
+      <c r="T37" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="U37" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="V37" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W37" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>ciao</v>
+      </c>
+      <c r="X37" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>TRUE</v>
+      </c>
+      <c r="Y37" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z37" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA37" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB37" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC37" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD37" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE37" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF37" s="4" t="e">
+        <f>TRIM(B37:C37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG37" s="4" t="str">
+        <f t="array" ref="AG37:AV37">TRIM(B37:P37)</f>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="4" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="AI37" s="4" t="str">
+        <v>2.3</v>
+      </c>
+      <c r="AJ37" s="4" t="str">
+        <v>10</v>
+      </c>
+      <c r="AK37" s="4" t="str">
+        <v>-1</v>
+      </c>
+      <c r="AL37" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AM37" s="4" t="str">
+        <v>ciao</v>
+      </c>
+      <c r="AN37" s="4" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="AO37" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP37" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ37" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR37" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS37" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT37" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU37" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV37" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A38" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A39" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A40" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" s="14">
+        <v>0</v>
+      </c>
+      <c r="C40" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="D40" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E40" s="14">
+        <v>10</v>
+      </c>
+      <c r="F40" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K40" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L40" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N40" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O40" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P40" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q40" s="4" t="str">
+        <f>UPPER(B40)</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="4" t="str">
+        <f t="shared" ref="R40:AE40" si="8">UPPER(C40)</f>
+        <v>1.9</v>
+      </c>
+      <c r="S40" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>2.3</v>
+      </c>
+      <c r="T40" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="U40" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="V40" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="W40" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>CIAO</v>
+      </c>
+      <c r="X40" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>TRUE</v>
+      </c>
+      <c r="Y40" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z40" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA40" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB40" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC40" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD40" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE40" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF40" s="4" t="e">
+        <f>UPPER(B40:C40)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG40" s="4" t="str">
+        <f t="array" ref="AG40:AV40">UPPER(B40:P40)</f>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="4" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="AI40" s="4" t="str">
+        <v>2.3</v>
+      </c>
+      <c r="AJ40" s="4" t="str">
+        <v>10</v>
+      </c>
+      <c r="AK40" s="4" t="str">
+        <v>-1</v>
+      </c>
+      <c r="AL40" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AM40" s="4" t="str">
+        <v>CIAO</v>
+      </c>
+      <c r="AN40" s="4" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="AO40" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP40" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ40" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR40" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS40" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT40" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU40" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV40" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A41" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="Q1:AV1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AV2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4887B114-1BCA-D646-899C-1AFFF9D0F422}">
+  <dimension ref="A1:AV113"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="48" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L4" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N4" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O4" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P4" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>AVERAGE(B4:C4,C4:D4,D4:E4)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="R4" s="6">
+        <f>AVERAGE(C4:D4,D4:E4,E4:F4)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S4" s="6">
+        <f>AVERAGE(D4:E4,E4:F4,F4:G4)</f>
+        <v>0.12000000000000002</v>
+      </c>
+      <c r="T4" s="6">
+        <f>AVERAGE(E4:F4,F4:G4,G4:H4)</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="U4" s="6">
+        <f>AVERAGE(F4:G4,G4:H4,H4:I4)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="V4" s="6">
+        <f>AVERAGE(F4:G4)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="W4" s="6">
+        <f>AVERAGE(H4,F4)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="X4" s="6">
+        <f>AVERAGE(I4,F4)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="Y4" s="6" t="e">
+        <f t="shared" ref="Y4:AE4" si="0">AVERAGE(J4:K4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF4" s="6" t="e">
+        <f>AVERAGE(G4:I4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG4" s="6">
+        <f t="array" ref="AG4:AL4">AVERAGE(B4:I4)</f>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AK4" s="6">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AM4" s="6" t="e">
+        <f t="array" ref="AM4:AV4">AVERAGE(I4:P4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV4" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-    </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-    </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
+      <c r="A17" s="16" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
+      <c r="A18" s="16" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
+      <c r="A19" s="16" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
+      <c r="A20" s="16" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
+      <c r="A21" s="16" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
+      <c r="A22" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A49" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A50" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A51" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A52" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A53" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A54" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A55" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A56" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A57" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A58" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A59" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A60" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A61" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="14">
+        <v>0</v>
+      </c>
+      <c r="C61" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="E61" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F61" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K61" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L61" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M61" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N61" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O61" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P61" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q61" s="6">
+        <f>MAX(B61:C61,C61:D61,D61:E61)</f>
+        <v>0.3</v>
+      </c>
+      <c r="R61" s="6">
+        <f t="shared" ref="R61:U61" si="1">MAX(C61:D61,D61:E61,E61:F61)</f>
+        <v>0.3</v>
+      </c>
+      <c r="S61" s="6">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="T61" s="6">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="U61" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="V61" s="6">
+        <f>MAX(F61:G61)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="W61" s="6">
+        <f>MAX(H61,F61)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="X61" s="6">
+        <f>MAX(I61,F61)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="Y61" s="6" t="e">
+        <f>MAX(J61:K61)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z61" s="6" t="e">
+        <f t="shared" ref="Z61:AE61" si="2">MAX(K61:L61)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA61" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB61" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC61" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD61" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE61" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF61" s="6">
+        <f>MAX(G61:I61)</f>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="6">
+        <f t="array" ref="AG61:AL61">MAX(B61:I61)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AH61" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AI61" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AJ61" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AK61" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AL61" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AM61" s="6" t="e">
+        <f t="array" ref="AM61:AV61">MAX(I61:P61)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU61" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV61" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A62" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A63" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A64" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A65" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="14">
+        <v>0</v>
+      </c>
+      <c r="C65" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="D65" s="14">
+        <v>-0.2</v>
+      </c>
+      <c r="E65" s="14">
+        <v>-0.3</v>
+      </c>
+      <c r="F65" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K65" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L65" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M65" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N65" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O65" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P65" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q65" s="6">
+        <f>MIN(B65:C65,C65:D65,D65:E65)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="R65" s="6">
+        <f>MIN(C65:D65,D65:E65,E65:F65)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="S65" s="6">
+        <f>MIN(D65:E65,E65:F65,F65:G65)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="T65" s="6">
+        <f>MIN(E65:F65,F65:G65,G65:H65)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="U65" s="6">
+        <f>MIN(F65:G65,G65:H65,H65:I65)</f>
+        <v>0.1</v>
+      </c>
+      <c r="V65" s="6">
+        <f>MIN(F65:G65)</f>
+        <v>0.1</v>
+      </c>
+      <c r="W65" s="6">
+        <f>MIN(H65,F65)</f>
+        <v>0.1</v>
+      </c>
+      <c r="X65" s="6">
+        <f>MIN(I65,F65)</f>
+        <v>0.1</v>
+      </c>
+      <c r="Y65" s="6" t="e">
+        <f t="shared" ref="Y65:AE65" si="3">MIN(J65:K65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z65" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA65" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB65" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC65" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD65" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE65" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF65" s="6">
+        <f>MIN(G65:I65)</f>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="6">
+        <f t="array" ref="AG65:AL65">MIN(B65:I65)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="AH65" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="AI65" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="AJ65" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="AK65" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="AL65" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="AM65" s="6" t="e">
+        <f t="array" ref="AM65:AV65">MIN(I65:P65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU65" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV65" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A66" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A67" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A68" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A69" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A70" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A71" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A72" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A73" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A74" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A75" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A76" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A77" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A78" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A79" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A80" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="Q1:AV1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AV2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDD8423-8F47-454D-B912-8DBA0D9B36C0}">
+  <dimension ref="A1:AV22"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="1.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="40" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="47" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E7" s="14">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N7" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O7" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P7" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q7" s="6" t="b">
+        <f t="shared" ref="Q7:AE7" si="0">ISERR(B7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF7" s="6" t="b">
+        <f>ISERR(B7:D7)</f>
+        <v>1</v>
+      </c>
+      <c r="AG7" s="6" t="b">
+        <f t="array" ref="AG7:AV7">ISERR(B7:P7)</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E8" s="14">
+        <v>10</v>
+      </c>
+      <c r="F8" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N8" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O8" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P8" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q8" s="6" t="b">
+        <f t="shared" ref="Q8:AE8" si="1">ISERROR(B8)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE8" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AF8" s="6" t="b">
+        <f>ISERR(B8:D8)</f>
+        <v>1</v>
+      </c>
+      <c r="AG8" s="6" t="b">
+        <f t="array" ref="AG8:AV8">ISERROR(B8:P8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="16" t="s">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14846,11 +16246,721 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C129EE31-5C14-1646-A8F3-56742C665F7C}">
+  <dimension ref="A1:BJ22"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="1.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E5" s="14">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N5" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O5" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P5" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q5" s="6" t="b">
+        <f>IF(B5,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" ref="R5:AE5" si="0">IF(C5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="6" t="b">
+        <f>IF(D5=1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="6">
+        <f>IF(G5,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W5" s="6" t="e">
+        <f>IF(H5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA5" s="6" t="e">
+        <f>IF(L5,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF5" s="11" t="e">
+        <f>IF(B5:F5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG5" s="6" t="b">
+        <f t="array" ref="AG5:AH5">IF(B5:C5,C5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI5" s="6">
+        <f t="array" ref="AI5:AJ5">IF(B5:C5,2,C5:D5)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="6">
+        <f t="array" ref="AK5:AL5">IF(B5:C5,C5:D5,E5:F5)</f>
+        <v>10</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AM5" s="6" t="e">
+        <f t="array" ref="AM5:AO5">IF(H5:J5,C5:E5,E5:G5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AO5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP5" s="6">
+        <f t="array" ref="AP5:AR5">IF(B5:D5,C5:E5,D5:F5)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AQ5" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AR5" s="6">
+        <v>10</v>
+      </c>
+      <c r="AS5" s="6" t="b">
+        <f t="array" ref="AS5:AV5">IF(B5:C5,C5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AU5" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV5" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E6" s="14">
+        <v>10</v>
+      </c>
+      <c r="F6" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N6" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O6" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P6" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>IFERROR(B6,C6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" ref="R6:U6" si="1">IFERROR(C6,D6)</f>
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="V6" s="4">
+        <f>IFERROR(G6,H6)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="str">
+        <f t="shared" ref="W6" si="2">IFERROR(H6,I6)</f>
+        <v>ciao</v>
+      </c>
+      <c r="X6" s="4" t="b">
+        <f t="shared" ref="X6" si="3">IFERROR(I6,J6)</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4" t="e">
+        <f>IFERROR(J6,K6)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z6" s="4" t="e">
+        <f t="shared" ref="Z6:AA6" si="4">IFERROR(K6,L6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA6" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB6" s="4" t="e">
+        <f t="shared" ref="AB6" si="5">IFERROR(M6,N6)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AC6" s="4" t="e">
+        <f t="shared" ref="AC6" si="6">IFERROR(N6,O6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AD6" s="4" t="e">
+        <f t="shared" ref="AD6" si="7">IFERROR(O6,P6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="shared" ref="AE6" si="8">IFERROR(P6,Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>IFERROR(C6:D6,Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4" t="str">
+        <f t="array" ref="AG6:AH6">IFERROR(J6:K6,H6:I6)</f>
+        <v>ciao</v>
+      </c>
+      <c r="AH6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="4">
+        <f t="array" ref="AI6:AJ6">IFERROR(C6:D6,Q6)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AK6" s="4">
+        <f t="array" ref="AK6:AV6">IFERROR(F6:P6,Q6)</f>
+        <v>-1</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4" t="str">
+        <v>ciao</v>
+      </c>
+      <c r="AN6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A14" s="16"/>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="Q1:AV1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AV2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T60"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15339,7 +17449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B5"/>
   <sheetViews>

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenzoarcidiacono/PycharmProjects/formulas/test/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6FA74F-4A01-864F-87AF-C84E8CC16FDF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712D14F9-CDFB-134D-BF52-38C1272C860A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATH &amp; TRIG" sheetId="3" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <sheet name="TEXT" sheetId="11" r:id="rId3"/>
     <sheet name="STATISTICAL" sheetId="5" r:id="rId4"/>
     <sheet name="INFORMATION" sheetId="6" r:id="rId5"/>
-    <sheet name="LOGICAL" sheetId="8" r:id="rId6"/>
-    <sheet name="CORE" sheetId="1" r:id="rId7"/>
-    <sheet name="REF" sheetId="2" r:id="rId8"/>
+    <sheet name="LOOKUP" sheetId="12" r:id="rId6"/>
+    <sheet name="LOGICAL" sheetId="8" r:id="rId7"/>
+    <sheet name="CORE" sheetId="1" r:id="rId8"/>
+    <sheet name="REF" sheetId="2" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="a">CORE!$B$2:$C$3</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="354">
   <si>
     <t>ca</t>
   </si>
@@ -1036,6 +1037,75 @@
   </si>
   <si>
     <t>VALUE</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>AREAS</t>
+  </si>
+  <si>
+    <t>CHOOSE</t>
+  </si>
+  <si>
+    <t>COLUMN</t>
+  </si>
+  <si>
+    <t>COLUMNS</t>
+  </si>
+  <si>
+    <t>FORMULATEXT</t>
+  </si>
+  <si>
+    <t>GETPIVOTDATA</t>
+  </si>
+  <si>
+    <t>HLOOKUP</t>
+  </si>
+  <si>
+    <t>HYPERLINK</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>INDIRECT</t>
+  </si>
+  <si>
+    <t>LOOKUP</t>
+  </si>
+  <si>
+    <t>OFFSET</t>
+  </si>
+  <si>
+    <t>ROW</t>
+  </si>
+  <si>
+    <t>ROWS</t>
+  </si>
+  <si>
+    <t>RTD</t>
+  </si>
+  <si>
+    <t>TRANSPOSE</t>
+  </si>
+  <si>
+    <t>VLOOKUP</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>*b?u*</t>
+  </si>
+  <si>
+    <t>MATCH match_type=0</t>
+  </si>
+  <si>
+    <t>MATCH match_type=1</t>
+  </si>
+  <si>
+    <t>MATCH match_type=-1</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1164,6 +1234,24 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52929E63-D802-7443-B5FD-6A6404B94706}">
   <dimension ref="A1:AV81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1508,70 +1596,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -1581,22 +1669,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -1606,36 +1694,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="19" t="s">
+      <c r="AG2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -11664,13 +11752,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1752443E-D395-6347-A5AF-550B6945E519}">
-  <dimension ref="A1:BJ82"/>
+  <dimension ref="A1:BJ57"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -11714,71 +11802,71 @@
     <col min="49" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="11" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-    </row>
-    <row r="2" spans="1:62" ht="11" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19" t="s">
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -11788,22 +11876,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -11813,53 +11901,53 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="19" t="s">
+      <c r="AG2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-    </row>
-    <row r="3" spans="1:62" ht="11" x14ac:dyDescent="0.15">
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>240</v>
       </c>
@@ -11879,7 +11967,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:62" ht="11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>241</v>
       </c>
@@ -11945,7 +12033,7 @@
       <c r="BI7" s="6"/>
       <c r="BJ7" s="6"/>
     </row>
-    <row r="8" spans="1:62" ht="11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>242</v>
       </c>
@@ -11996,92 +12084,92 @@
       <c r="AT8" s="6"/>
       <c r="AU8" s="6"/>
     </row>
-    <row r="9" spans="1:62" ht="11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:62" ht="11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:62" ht="11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:62" ht="11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:62" ht="11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:62" ht="11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:62" ht="11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A26" s="21" t="s">
         <v>260</v>
       </c>
@@ -12243,7 +12331,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>261</v>
       </c>
@@ -12252,181 +12340,156 @@
       <c r="F27" s="14"/>
       <c r="Q27" s="20"/>
     </row>
-    <row r="28" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="61" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="1:1" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="11" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:A2"/>
@@ -12496,70 +12559,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -12569,22 +12632,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -12594,36 +12657,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="19" t="s">
+      <c r="AG2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -13943,51 +14006,51 @@
         <v>3</v>
       </c>
       <c r="T29" s="4" t="str">
-        <f>RIGHT("ciao",E29)</f>
+        <f t="shared" ref="T29:AE29" si="7">RIGHT("ciao",E29)</f>
         <v>ciao</v>
       </c>
       <c r="U29" s="4" t="e">
-        <f>RIGHT("ciao",F29)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="V29" s="4" t="str">
-        <f>RIGHT("ciao",G29)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W29" s="4" t="e">
-        <f>RIGHT("ciao",H29)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="X29" s="4" t="str">
-        <f>RIGHT("ciao",I29)</f>
+        <f t="shared" si="7"/>
         <v>o</v>
       </c>
       <c r="Y29" s="4" t="e">
-        <f>RIGHT("ciao",J29)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z29" s="4" t="e">
-        <f>RIGHT("ciao",K29)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AA29" s="4" t="e">
-        <f>RIGHT("ciao",L29)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB29" s="4" t="e">
-        <f>RIGHT("ciao",M29)</f>
+        <f t="shared" si="7"/>
         <v>#NAME?</v>
       </c>
       <c r="AC29" s="4" t="e">
-        <f>RIGHT("ciao",N29)</f>
+        <f t="shared" si="7"/>
         <v>#NULL!</v>
       </c>
       <c r="AD29" s="4" t="e">
-        <f>RIGHT("ciao",O29)</f>
+        <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
       <c r="AE29" s="4" t="e">
-        <f>RIGHT("ciao",P29)</f>
+        <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
       <c r="AF29" s="4" t="str">
@@ -14133,59 +14196,59 @@
         <v>0</v>
       </c>
       <c r="R37" s="4" t="str">
-        <f t="shared" ref="R37:AF37" si="7">TRIM(C37)</f>
+        <f t="shared" ref="R37:AE37" si="8">TRIM(C37)</f>
         <v>1.9</v>
       </c>
       <c r="S37" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3</v>
       </c>
       <c r="T37" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="U37" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="V37" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="W37" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ciao</v>
       </c>
       <c r="X37" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>TRUE</v>
       </c>
       <c r="Y37" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z37" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AA37" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB37" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NAME?</v>
       </c>
       <c r="AC37" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NULL!</v>
       </c>
       <c r="AD37" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="AE37" s="4" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="AF37" s="4" t="e">
@@ -14305,59 +14368,59 @@
         <v>0</v>
       </c>
       <c r="R40" s="4" t="str">
-        <f t="shared" ref="R40:AE40" si="8">UPPER(C40)</f>
+        <f t="shared" ref="R40:AE40" si="9">UPPER(C40)</f>
         <v>1.9</v>
       </c>
       <c r="S40" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3</v>
       </c>
       <c r="T40" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="U40" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="V40" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W40" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>CIAO</v>
       </c>
       <c r="X40" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>TRUE</v>
       </c>
       <c r="Y40" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z40" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="AA40" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB40" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NAME?</v>
       </c>
       <c r="AC40" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NULL!</v>
       </c>
       <c r="AD40" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="AE40" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
       <c r="AF40" s="4" t="e">
@@ -14476,70 +14539,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -14549,22 +14612,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -14574,36 +14637,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="19" t="s">
+      <c r="AG2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -15689,70 +15752,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -15762,22 +15825,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -15787,36 +15850,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="19" t="s">
+      <c r="AG2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -16246,20 +16309,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C129EE31-5C14-1646-A8F3-56742C665F7C}">
-  <dimension ref="A1:BJ22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E2B3E2-41CF-7F41-B469-7D8B638E9FCE}">
+  <dimension ref="A1:BJ68"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="1.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -16270,510 +16331,204 @@
     <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="49" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="18" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="18" t="s">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="19" t="s">
+      <c r="AG2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
-        <v>226</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>227</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="14">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E5" s="14">
-        <v>10</v>
-      </c>
-      <c r="F5" s="14">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6" t="e">
-        <f>#VALUE!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L5" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N5" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O5" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P5" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q5" s="6" t="b">
-        <f>IF(B5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="6">
-        <f t="shared" ref="R5:AE5" si="0">IF(C5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="S5" s="6" t="b">
-        <f>IF(D5=1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V5" s="6">
-        <f>IF(G5,1,2)</f>
-        <v>2</v>
-      </c>
-      <c r="W5" s="6" t="e">
-        <f>IF(H5,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA5" s="6" t="e">
-        <f>IF(L5,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE5" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF5" s="11" t="e">
-        <f>IF(B5:F5,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG5" s="6" t="b">
-        <f t="array" ref="AG5:AH5">IF(B5:C5,C5:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AI5" s="6">
-        <f t="array" ref="AI5:AJ5">IF(B5:C5,2,C5:D5)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="6">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="6">
-        <f t="array" ref="AK5:AL5">IF(B5:C5,C5:D5,E5:F5)</f>
-        <v>10</v>
-      </c>
-      <c r="AL5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AM5" s="6" t="e">
-        <f t="array" ref="AM5:AO5">IF(H5:J5,C5:E5,E5:G5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AO5" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP5" s="6">
-        <f t="array" ref="AP5:AR5">IF(B5:D5,C5:E5,D5:F5)</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AQ5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AR5" s="6">
-        <v>10</v>
-      </c>
-      <c r="AS5" s="6" t="b">
-        <f t="array" ref="AS5:AV5">IF(B5:C5,C5:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="AT5" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AU5" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV5" s="4" t="e">
-        <v>#N/A</v>
+      <c r="A5" s="16" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E6" s="14">
-        <v>10</v>
-      </c>
-      <c r="F6" s="14">
-        <v>-1</v>
-      </c>
+      <c r="A6" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6" t="e">
-        <f>#VALUE!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L6" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="9" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N6" s="9" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O6" s="9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P6" s="9" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>IFERROR(B6,C6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <f t="shared" ref="R6:U6" si="1">IFERROR(C6,D6)</f>
-        <v>1</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U6" s="4">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="V6" s="4">
-        <f>IFERROR(G6,H6)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="str">
-        <f t="shared" ref="W6" si="2">IFERROR(H6,I6)</f>
-        <v>ciao</v>
-      </c>
-      <c r="X6" s="4" t="b">
-        <f t="shared" ref="X6" si="3">IFERROR(I6,J6)</f>
-        <v>1</v>
-      </c>
-      <c r="Y6" s="4" t="e">
-        <f>IFERROR(J6,K6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z6" s="4" t="e">
-        <f t="shared" ref="Z6:AA6" si="4">IFERROR(K6,L6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA6" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="AB6" s="4" t="e">
-        <f t="shared" ref="AB6" si="5">IFERROR(M6,N6)</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="AC6" s="4" t="e">
-        <f t="shared" ref="AC6" si="6">IFERROR(N6,O6)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD6" s="4" t="e">
-        <f t="shared" ref="AD6" si="7">IFERROR(O6,P6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AE6" s="4">
-        <f t="shared" ref="AE6" si="8">IFERROR(P6,Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4">
-        <f>IFERROR(C6:D6,Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="4" t="str">
-        <f t="array" ref="AG6:AH6">IFERROR(J6:K6,H6:I6)</f>
-        <v>ciao</v>
-      </c>
-      <c r="AH6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="4">
-        <f t="array" ref="AI6:AJ6">IFERROR(C6:D6,Q6)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AK6" s="4">
-        <f t="array" ref="AK6:AV6">IFERROR(F6:P6,Q6)</f>
-        <v>-1</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="4" t="str">
-        <v>ciao</v>
-      </c>
-      <c r="AN6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="4" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -16839,7 +16594,7 @@
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>231</v>
+        <v>336</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -16890,6 +16645,6045 @@
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A10" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" s="24">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C10" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="D10" s="24">
+        <v>3</v>
+      </c>
+      <c r="E10" s="25">
+        <v>4</v>
+      </c>
+      <c r="F10" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="I10" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N10" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O10" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P10" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>HLOOKUP(B10,{-1.1,2.1,3.1,4.1;5,6,7,8},2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="R10" s="4">
+        <f>HLOOKUP(C10,{-1.1,2.1,3.1,4.1;5,6,7,8},2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="S10" s="4" t="e">
+        <f>HLOOKUP(D10,{-1.1,2.1,3.1,4.1;5,6,7,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T10" s="4" t="e">
+        <f>HLOOKUP(E10,{-1.1,2.1,3.1,4.1;5,6,7,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U10" s="4">
+        <f>HLOOKUP(F10,{-1.1,2.1,3.1,4.1;5,6,7,8},2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="V10" s="4" t="e">
+        <f>HLOOKUP(G10,{-1.1,2.1,3.1,4.1;5,6,7,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W10" s="4" t="e">
+        <f>HLOOKUP(H10,{-1.1,2.1,3.1,4.1;5,6,7,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X10" s="4" t="e">
+        <f>HLOOKUP(I10,{-1.1,2.1,3.1,4.1;5,6,7,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y10" s="4" t="e">
+        <f>HLOOKUP(J10,{-1.1,2.1,3.1,4.1;5,6,7,8},2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z10" s="4" t="e">
+        <f>HLOOKUP(K10,{-1.1,2.1,3.1,4.1;5,6,7,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA10" s="4" t="e">
+        <f>HLOOKUP(L10,{-1.1,2.1,3.1,4.1;5,6,7,8},2,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB10" s="4" t="e">
+        <f>HLOOKUP(M10,{-1.1,2.1,3.1,4.1;5,6,7,8},2,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC10" s="4" t="e">
+        <f>HLOOKUP(N10,{-1.1,2.1,3.1,4.1;5,6,7,8},2,0)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD10" s="4" t="e">
+        <f>HLOOKUP(O10,{-1.1,2.1,3.1,4.1;5,6,7,8},2,0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE10" s="4" t="e">
+        <f>HLOOKUP(P10,{-1.1,2.1,3.1,4.1;5,6,7,8},2,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AG10" s="4">
+        <f t="array" ref="AG10:AV10">HLOOKUP(B10:P10,{-1.1,2.1,3.1,4.1;5,6,7,8},{2,1},0)</f>
+        <v>5</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>6</v>
+      </c>
+      <c r="AI10" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ10" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>8</v>
+      </c>
+      <c r="AL10" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM10" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AN10" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO10" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP10" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ10" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR10" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS10" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT10" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU10" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV10" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C11" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="D11" s="24">
+        <v>3</v>
+      </c>
+      <c r="E11" s="25">
+        <v>4</v>
+      </c>
+      <c r="F11" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="I11" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N11" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O11" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P11" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>HLOOKUP(B11,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>5</v>
+      </c>
+      <c r="R11" s="4">
+        <f>HLOOKUP(C11,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>6</v>
+      </c>
+      <c r="S11" s="4">
+        <f>HLOOKUP(D11,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>6</v>
+      </c>
+      <c r="T11" s="4">
+        <f>HLOOKUP(E11,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>7</v>
+      </c>
+      <c r="U11" s="4">
+        <f>HLOOKUP(F11,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>8</v>
+      </c>
+      <c r="V11" s="4">
+        <f>HLOOKUP(G11,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>5</v>
+      </c>
+      <c r="W11" s="4" t="e">
+        <f>HLOOKUP(H11,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X11" s="4" t="e">
+        <f>HLOOKUP(I11,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y11" s="4" t="e">
+        <f>HLOOKUP(J11,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z11" s="4" t="e">
+        <f>HLOOKUP(K11,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA11" s="4" t="e">
+        <f>HLOOKUP(L11,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB11" s="4" t="e">
+        <f>HLOOKUP(M11,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC11" s="4" t="e">
+        <f>HLOOKUP(N11,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD11" s="4" t="e">
+        <f>HLOOKUP(O11,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE11" s="4" t="e">
+        <f>HLOOKUP(P11,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C12" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="D12" s="24">
+        <v>3</v>
+      </c>
+      <c r="E12" s="25">
+        <v>4</v>
+      </c>
+      <c r="F12" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="I12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N12" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O12" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P12" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>HLOOKUP(B12,{-1.1,2.1,3.1,4.1;5,6,7,8},{2,3},-2)</f>
+        <v>5</v>
+      </c>
+      <c r="R12" s="4">
+        <f>HLOOKUP(C12,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>6</v>
+      </c>
+      <c r="S12" s="4">
+        <f>HLOOKUP(D12,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>6</v>
+      </c>
+      <c r="T12" s="4">
+        <f>HLOOKUP(E12,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>7</v>
+      </c>
+      <c r="U12" s="4">
+        <f>HLOOKUP(F12,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>8</v>
+      </c>
+      <c r="V12" s="4">
+        <f>HLOOKUP(G12,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>5</v>
+      </c>
+      <c r="W12" s="4" t="e">
+        <f>HLOOKUP(H12,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X12" s="4" t="e">
+        <f>HLOOKUP(I12,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y12" s="4" t="e">
+        <f>HLOOKUP(J12,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z12" s="4" t="e">
+        <f>HLOOKUP(K12,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA12" s="4" t="e">
+        <f>HLOOKUP(L12,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB12" s="4" t="e">
+        <f>HLOOKUP(M12,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC12" s="4" t="e">
+        <f>HLOOKUP(N12,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD12" s="4" t="e">
+        <f>HLOOKUP(O12,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE12" s="4" t="e">
+        <f>HLOOKUP(P12,{-1.1,2.1,3.1,4.1;5,6,7,8},2,-2)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A16" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="24">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C16" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="D16" s="24">
+        <v>3</v>
+      </c>
+      <c r="E16" s="25">
+        <v>4</v>
+      </c>
+      <c r="F16" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="I16" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L16" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N16" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O16" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P16" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q16" s="6" t="e">
+        <f>LOOKUP(-2,{-1.1,2.1,3.1,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R16" s="6">
+        <f>LOOKUP(2,{-1.1,2.1,3.1,4.1})</f>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="S16" s="6">
+        <f>LOOKUP(D16,{-1.1,2.1,3.1,4.1})</f>
+        <v>2.1</v>
+      </c>
+      <c r="T16" s="6">
+        <f>LOOKUP(E16,{-1.1,2.1,3.1,4.1})</f>
+        <v>3.1</v>
+      </c>
+      <c r="U16" s="6">
+        <f>LOOKUP(F16,{-1.1,2.1,3.1,4.1})</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V16" s="6">
+        <f>LOOKUP(20,{-1.1,2.1,3.1,4.1})</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W16" s="6" t="e">
+        <f>LOOKUP(H16,{-1.1,2.1,3.1,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X16" s="6" t="e">
+        <f>LOOKUP(I16,{-1.1,2.1,3.1,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y16" s="6" t="e">
+        <f>LOOKUP(J16,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z16" s="6" t="e">
+        <f>LOOKUP(K16,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA16" s="6" t="e">
+        <f>LOOKUP(L16,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB16" s="6" t="e">
+        <f>LOOKUP(M16,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC16" s="6" t="e">
+        <f>LOOKUP(N16,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD16" s="6" t="e">
+        <f>LOOKUP(O16,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE16" s="6" t="e">
+        <f>LOOKUP(P16,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF16" s="6" t="str">
+        <f>LOOKUP(20,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>R</v>
+      </c>
+      <c r="AG16" s="6" t="str">
+        <f t="array" ref="AG16:AV16">LOOKUP(B16:P16,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>L</v>
+      </c>
+      <c r="AH16" s="6" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AI16" s="6" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AJ16" s="6" t="str">
+        <v>MR</v>
+      </c>
+      <c r="AK16" s="6" t="str">
+        <v>R</v>
+      </c>
+      <c r="AL16" s="6" t="str">
+        <v>L</v>
+      </c>
+      <c r="AM16" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AN16" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO16" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP16" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ16" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR16" s="6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS16" s="6" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT16" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU16" s="6" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV16" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="6" t="e">
+        <f>LOOKUP(-2,{"a",2.1,"b",4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R17" s="6" t="e">
+        <f>LOOKUP(2,{"a",2.1,"b",4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S17" s="6">
+        <f>LOOKUP(D16,{"a",2.1,"b",4.1})</f>
+        <v>2.1</v>
+      </c>
+      <c r="T17" s="6">
+        <f>LOOKUP(E16,{"a",2.1,"b",4.1})</f>
+        <v>2.1</v>
+      </c>
+      <c r="U17" s="6">
+        <f>LOOKUP(F16,{"a",2.1,"b",4.1})</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V17" s="6" t="e">
+        <f>LOOKUP(G16,{"a",2.1,"b",4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W17" s="6" t="str">
+        <f>LOOKUP(H16,{"a",2.1,"b",4.1})</f>
+        <v>b</v>
+      </c>
+      <c r="X17" s="6" t="e">
+        <f>LOOKUP(I16,{"a",2.1,"b",4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y17" s="6" t="e">
+        <f>LOOKUP(J16,{"a",2.1,"b",4.1})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z17" s="6" t="e">
+        <f>LOOKUP(K16,{"a",2.1,"b",4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA17" s="6" t="e">
+        <f>LOOKUP(L16,{"a",2.1,"b",4.1})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB17" s="6" t="e">
+        <f>LOOKUP(M16,{"a",2.1,"b",4.1})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC17" s="6" t="e">
+        <f>LOOKUP(N16,{"a",2.1,"b",4.1})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD17" s="6" t="e">
+        <f>LOOKUP(O16,{"a",2.1,"b",4.1})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE17" s="6" t="e">
+        <f>LOOKUP(P16,{"a",2.1,"b",4.1})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF17" s="6" t="str">
+        <f>LOOKUP(20,{"a",2.1,"b",4.1},{"L","ML","MR","R"})</f>
+        <v>R</v>
+      </c>
+      <c r="AG17" s="6" t="e">
+        <f t="array" ref="AG17:AV17">LOOKUP(B16:P16,{"a",2.1,"b",4.1},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH17" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AI17" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AJ17" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AK17" s="4" t="str">
+        <v>R</v>
+      </c>
+      <c r="AL17" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM17" s="4" t="str">
+        <v>MR</v>
+      </c>
+      <c r="AN17" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO17" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP17" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ17" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR17" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS17" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT17" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU17" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV17" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="6" t="e">
+        <f>LOOKUP(-2,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R18" s="6" t="e">
+        <f>LOOKUP(2,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S18" s="6">
+        <f>LOOKUP(D16,{FALSE,2.1,TRUE,4.1})</f>
+        <v>2.1</v>
+      </c>
+      <c r="T18" s="6">
+        <f>LOOKUP(E16,{FALSE,2.1,TRUE,4.1})</f>
+        <v>2.1</v>
+      </c>
+      <c r="U18" s="6">
+        <f>LOOKUP(F16,{FALSE,2.1,TRUE,4.1})</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V18" s="6" t="e">
+        <f>LOOKUP(G16,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W18" s="6" t="e">
+        <f>LOOKUP(H16,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X18" s="6" t="b">
+        <f>LOOKUP(I16,{FALSE,2.1,TRUE,4.1})</f>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="6" t="e">
+        <f>LOOKUP(J16,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z18" s="6" t="e">
+        <f>LOOKUP(K16,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA18" s="6" t="e">
+        <f>LOOKUP(L16,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB18" s="6" t="e">
+        <f>LOOKUP(M16,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC18" s="6" t="e">
+        <f>LOOKUP(N16,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD18" s="6" t="e">
+        <f>LOOKUP(O16,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE18" s="6" t="e">
+        <f>LOOKUP(P16,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF18" s="6" t="str">
+        <f>LOOKUP(20,{FALSE,2.1,TRUE,4.1},{"L","ML","MR","R"})</f>
+        <v>R</v>
+      </c>
+      <c r="AG18" s="6" t="e">
+        <f t="array" ref="AG18:AV18">LOOKUP(B16:P16,{FALSE,2.1,TRUE,4.1},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH18" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AI18" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AJ18" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AK18" s="4" t="str">
+        <v>R</v>
+      </c>
+      <c r="AL18" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM18" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AN18" s="4" t="str">
+        <v>MR</v>
+      </c>
+      <c r="AO18" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP18" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ18" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR18" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS18" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT18" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU18" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV18" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="6" t="e">
+        <f>LOOKUP(-2,{4.1,2.1,3.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R19" s="6" t="e">
+        <f>LOOKUP(2,{4.1,2.1,3.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S19" s="6">
+        <f>LOOKUP(D16,{4.1,2.1,3.1,1.1})</f>
+        <v>2.1</v>
+      </c>
+      <c r="T19" s="6">
+        <f>LOOKUP(E16,{4.1,2.1,3.1,1.1})</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U19" s="6">
+        <f>LOOKUP(F16,{4.1,2.1,3.1,1.1})</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V19" s="6" t="e">
+        <f>LOOKUP(G16,{4.1,2.1,3.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W19" s="6" t="e">
+        <f>LOOKUP(H16,{4.1,2.1,3.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X19" s="6" t="e">
+        <f>LOOKUP(I16,{4.1,2.1,3.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y19" s="6" t="e">
+        <f>LOOKUP(J16,{4.1,2.1,3.1,1.1})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z19" s="6" t="e">
+        <f>LOOKUP(K16,{4.1,2.1,3.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA19" s="6" t="e">
+        <f>LOOKUP(L16,{4.1,2.1,3.1,1.1})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB19" s="6" t="e">
+        <f>LOOKUP(M16,{4.1,2.1,3.1,1.1})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC19" s="6" t="e">
+        <f>LOOKUP(N16,{4.1,2.1,3.1,1.1})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD19" s="6" t="e">
+        <f>LOOKUP(O16,{4.1,2.1,3.1,1.1})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE19" s="6" t="e">
+        <f>LOOKUP(P16,{4.1,2.1,3.1,1.1})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF19" s="6" t="str">
+        <f>LOOKUP(20,{4.1,2.1,3.1,1.1},{"L","ML","MR","R"})</f>
+        <v>R</v>
+      </c>
+      <c r="AG19" s="6" t="e">
+        <f t="array" ref="AG19:AV19">LOOKUP(B16:P16,{4.1,2.1,3.1,1.1},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH19" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AI19" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AJ19" s="4" t="str">
+        <v>R</v>
+      </c>
+      <c r="AK19" s="4" t="str">
+        <v>R</v>
+      </c>
+      <c r="AL19" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM19" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AN19" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO19" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP19" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ19" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR19" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS19" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT19" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU19" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV19" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="6" t="e">
+        <f>LOOKUP(-2,{"b",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R20" s="6" t="e">
+        <f>LOOKUP(2,{"b",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S20" s="6" t="e">
+        <f>LOOKUP(D16,{"b",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T20" s="6" t="e">
+        <f>LOOKUP(E16,{"b",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U20" s="6">
+        <f>LOOKUP(F16,{"b",4.1,"a",1.1})</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V20" s="6" t="e">
+        <f>LOOKUP(G16,{"b",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W20" s="6" t="str">
+        <f>LOOKUP(H16,{"b",4.1,"a",1.1})</f>
+        <v>a</v>
+      </c>
+      <c r="X20" s="6" t="e">
+        <f>LOOKUP(I16,{"b",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" s="6" t="e">
+        <f>LOOKUP(J16,{"b",4.1,"a",1.1})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z20" s="6" t="e">
+        <f>LOOKUP(K16,{"b",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA20" s="6" t="e">
+        <f>LOOKUP(L16,{"b",4.1,"a",1.1})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB20" s="6" t="e">
+        <f>LOOKUP(M16,{"b",4.1,"a",1.1})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC20" s="6" t="e">
+        <f>LOOKUP(N16,{"b",4.1,"a",1.1})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD20" s="6" t="e">
+        <f>LOOKUP(O16,{"b",4.1,"a",1.1})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE20" s="6" t="e">
+        <f>LOOKUP(P16,{"b",4.1,"a",1.1})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF20" s="6" t="str">
+        <f>LOOKUP(20,{"b",4.1,"a",1.1},{"L","ML","MR","R"})</f>
+        <v>R</v>
+      </c>
+      <c r="AG20" s="6" t="e">
+        <f t="array" ref="AG20:AV20">LOOKUP(B16:P16,{"b",4.1,"a",1.1},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH20" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI20" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ20" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK20" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AL20" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM20" s="4" t="str">
+        <v>MR</v>
+      </c>
+      <c r="AN20" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO20" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP20" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ20" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR20" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS20" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT20" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU20" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV20" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="6" t="e">
+        <f>LOOKUP(-2,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R21" s="6" t="e">
+        <f>LOOKUP(2,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S21" s="6" t="e">
+        <f>LOOKUP(D16,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T21" s="6" t="e">
+        <f>LOOKUP(E16,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U21" s="6">
+        <f>LOOKUP(F16,{"",4.1,"a",1.1})</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V21" s="6" t="e">
+        <f>LOOKUP(G16,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W21" s="6" t="str">
+        <f>LOOKUP(H16,{"",4.1,"a",1.1})</f>
+        <v>a</v>
+      </c>
+      <c r="X21" s="6" t="e">
+        <f>LOOKUP(I16,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" s="6" t="e">
+        <f>LOOKUP(J16,{"",4.1,"a",1.1})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z21" s="6" t="e">
+        <f>LOOKUP(K16,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA21" s="6" t="e">
+        <f>LOOKUP(L16,{"",4.1,"a",1.1})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB21" s="6" t="e">
+        <f>LOOKUP(M16,{"",4.1,"a",1.1})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC21" s="6" t="e">
+        <f>LOOKUP(N16,{"",4.1,"a",1.1})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD21" s="6" t="e">
+        <f>LOOKUP(O16,{"",4.1,"a",1.1})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE21" s="6" t="e">
+        <f>LOOKUP(P16,{"",4.1,"a",1.1})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF21" s="6" t="str">
+        <f>LOOKUP(20,{"",4.1,"a",1.1},{"L","ML","MR","R"})</f>
+        <v>R</v>
+      </c>
+      <c r="AG21" s="6" t="e">
+        <f t="array" ref="AG21:AV21">LOOKUP(B16:P16,{"",4.1,"a",1.1},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH21" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI21" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ21" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK21" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AL21" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM21" s="4" t="str">
+        <v>MR</v>
+      </c>
+      <c r="AN21" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO21" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP21" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ21" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR21" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS21" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT21" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU21" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV21" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="6" t="e">
+        <f>LOOKUP(-2,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R22" s="6" t="e">
+        <f>LOOKUP(2,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S22" s="6" t="e">
+        <f>LOOKUP(D16,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T22" s="6" t="e">
+        <f>LOOKUP(E16,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U22" s="6">
+        <f>LOOKUP(F16,{TRUE,4.1,FALSE,1.1})</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V22" s="6" t="e">
+        <f>LOOKUP(G16,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W22" s="6" t="e">
+        <f>LOOKUP(H16,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X22" s="6" t="b">
+        <f>LOOKUP(I16,{TRUE,4.1,FALSE,1.1})</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="6" t="e">
+        <f>LOOKUP(J16,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z22" s="6" t="e">
+        <f>LOOKUP(K16,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA22" s="6" t="e">
+        <f>LOOKUP(L16,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB22" s="6" t="e">
+        <f>LOOKUP(M16,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC22" s="6" t="e">
+        <f>LOOKUP(N16,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD22" s="6" t="e">
+        <f>LOOKUP(O16,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE22" s="6" t="e">
+        <f>LOOKUP(P16,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF22" s="6" t="str">
+        <f>LOOKUP(20,{TRUE,4.1,FALSE,1.1},{"L","ML","MR","R"})</f>
+        <v>R</v>
+      </c>
+      <c r="AG22" s="6" t="e">
+        <f t="array" ref="AG22:AV22">LOOKUP(B16:P16,{TRUE,4.1,FALSE,1.1},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH22" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI22" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ22" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK22" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AL22" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM22" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AN22" s="4" t="str">
+        <v>MR</v>
+      </c>
+      <c r="AO22" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP22" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ22" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR22" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS22" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT22" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU22" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV22" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="6" t="e">
+        <f>LOOKUP(-2,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R23" s="6" t="e">
+        <f>LOOKUP(2,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S23" s="6" t="e">
+        <f>LOOKUP(D16,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T23" s="6" t="e">
+        <f>LOOKUP(E16,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U23" s="6">
+        <f>LOOKUP(F16,{TRUE,4.1,FALSE,"b"})</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V23" s="6" t="e">
+        <f>LOOKUP(G16,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W23" s="6" t="str">
+        <f>LOOKUP(H16,{TRUE,4.1,FALSE,"b"})</f>
+        <v>b</v>
+      </c>
+      <c r="X23" s="6" t="b">
+        <f>LOOKUP(I16,{TRUE,4.1,FALSE,"b"})</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="6" t="e">
+        <f>LOOKUP(J16,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z23" s="6" t="e">
+        <f>LOOKUP(K16,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA23" s="6" t="e">
+        <f>LOOKUP(L16,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB23" s="6" t="e">
+        <f>LOOKUP(M16,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC23" s="6" t="e">
+        <f>LOOKUP(N16,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD23" s="6" t="e">
+        <f>LOOKUP(O16,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE23" s="6" t="e">
+        <f>LOOKUP(P16,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF23" s="6" t="str">
+        <f>LOOKUP(20,{TRUE,4.1,FALSE,"b"},{"L","ML","MR","R"})</f>
+        <v>ML</v>
+      </c>
+      <c r="AG23" s="6" t="e">
+        <f t="array" ref="AG23:AV23">LOOKUP(B16:P16,{TRUE,4.1,FALSE,"b"},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH23" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI23" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ23" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK23" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AL23" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM23" s="4" t="str">
+        <v>R</v>
+      </c>
+      <c r="AN23" s="4" t="str">
+        <v>MR</v>
+      </c>
+      <c r="AO23" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP23" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ23" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR23" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS23" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT23" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU23" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV23" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A24" s="23"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="6" t="e">
+        <f>LOOKUP(-2,{TRUE,FALSE,"a","b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R24" s="6" t="e">
+        <f>LOOKUP(2,{TRUE,FALSE,"a","b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S24" s="6" t="e">
+        <f>LOOKUP(D16,{TRUE,FALSE,"a","b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T24" s="6" t="e">
+        <f>LOOKUP(E16,{TRUE,FALSE,"a","b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U24" s="6" t="e">
+        <f>LOOKUP(F16,{TRUE,FALSE,"a","b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V24" s="6" t="e">
+        <f>LOOKUP(G16,{TRUE,FALSE,"a","b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W24" s="6" t="str">
+        <f>LOOKUP(H16,{TRUE,FALSE,"a","b"})</f>
+        <v>b</v>
+      </c>
+      <c r="X24" s="6" t="b">
+        <f>LOOKUP(I16,{TRUE,FALSE,"a","b"})</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="6" t="e">
+        <f>LOOKUP(J16,{TRUE,FALSE,"a","b"})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z24" s="6" t="e">
+        <f>LOOKUP(K16,{TRUE,FALSE,"a","b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA24" s="6" t="e">
+        <f>LOOKUP(L16,{TRUE,FALSE,"a","b"})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB24" s="6" t="e">
+        <f>LOOKUP(M16,{TRUE,FALSE,"a","b"})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC24" s="6" t="e">
+        <f>LOOKUP(N16,{TRUE,FALSE,"a","b"})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD24" s="6" t="e">
+        <f>LOOKUP(O16,{TRUE,FALSE,"a","b"})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE24" s="6" t="e">
+        <f>LOOKUP(P16,{TRUE,FALSE,"a","b"})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF24" s="6" t="e">
+        <f>LOOKUP(20,{TRUE,FALSE,"a","b"},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG24" s="6" t="e">
+        <f t="array" ref="AG24:AV24">LOOKUP(B16:P16,{TRUE,FALSE,"a","b"},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH24" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI24" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ24" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK24" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL24" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM24" s="4" t="str">
+        <v>R</v>
+      </c>
+      <c r="AN24" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AO24" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP24" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ24" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR24" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS24" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT24" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU24" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV24" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A25" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B25" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C25" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D25" s="24">
+        <v>3</v>
+      </c>
+      <c r="E25" s="25">
+        <v>4</v>
+      </c>
+      <c r="F25" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I25" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K25" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L25" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N25" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O25" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P25" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q25" s="6" t="e">
+        <f>MATCH(B25,{-1.1,2.1,3.1,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R25" s="6">
+        <f>MATCH(C25,{-1.1,2.1,3.1,4.1})</f>
+        <v>1</v>
+      </c>
+      <c r="S25" s="6">
+        <f>MATCH(D25,{-1.1,2.1,3.1,4.1})</f>
+        <v>2</v>
+      </c>
+      <c r="T25" s="6">
+        <f>MATCH(E25,{-1.1,2.1,3.1,4.1})</f>
+        <v>3</v>
+      </c>
+      <c r="U25" s="6">
+        <f>MATCH(F25,{-1.1,2.1,3.1,4.1})</f>
+        <v>4</v>
+      </c>
+      <c r="V25" s="6">
+        <f>MATCH(G25,{-1.1,2.1,3.1,4.1})</f>
+        <v>1</v>
+      </c>
+      <c r="W25" s="6" t="e">
+        <f>MATCH(H25,{-1.1,2.1,3.1,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X25" s="6" t="e">
+        <f>MATCH(I25,{-1.1,2.1,3.1,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" s="6" t="e">
+        <f>MATCH(J25,{-1.1,2.1,3.1,4.1})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z25" s="6" t="e">
+        <f>MATCH(K25,{-1.1,2.1,3.1,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA25" s="6" t="e">
+        <f>MATCH(L25,{-1.1,2.1,3.1,4.1})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB25" s="6" t="e">
+        <f>MATCH(M25,{-1.1,2.1,3.1,4.1})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC25" s="6" t="e">
+        <f>MATCH(N25,{-1.1,2.1,3.1,4.1})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD25" s="6" t="e">
+        <f>MATCH(O25,{-1.1,2.1,3.1,4.1})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE25" s="6" t="e">
+        <f>MATCH(P25,{-1.1,2.1,3.1,4.1})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="6"/>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="6"/>
+      <c r="AT25" s="6"/>
+      <c r="AU25" s="6"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C26" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D26" s="24">
+        <v>3</v>
+      </c>
+      <c r="E26" s="25">
+        <v>4</v>
+      </c>
+      <c r="F26" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I26" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N26" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O26" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P26" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q26" s="6" t="e">
+        <f>MATCH(B26,{"a",2.1,"c bau c",4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R26" s="6" t="e">
+        <f>MATCH(C26,{"a",2.1,"c bau c",4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S26" s="6">
+        <f>MATCH(D26,{"a",2.1,"c bau c",4.1})</f>
+        <v>2</v>
+      </c>
+      <c r="T26" s="6">
+        <f>MATCH(E26,{"a",2.1,"c bau c",4.1})</f>
+        <v>2</v>
+      </c>
+      <c r="U26" s="6">
+        <f>MATCH(F26,{"a",2.1,"c bau c",4.1})</f>
+        <v>4</v>
+      </c>
+      <c r="V26" s="6" t="e">
+        <f>MATCH(G26,{"a",2.1,"c bau c",4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W26" s="6" t="e">
+        <f>MATCH(H26,{"a",2.1,"c bau c",4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X26" s="6" t="e">
+        <f>MATCH(I26,{"a",2.1,"c bau c",4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" s="6" t="e">
+        <f>MATCH(J26,{"a",2.1,"c bau c",4.1})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z26" s="6" t="e">
+        <f>MATCH(K26,{"a",2.1,"c bau c",4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" s="6" t="e">
+        <f>MATCH(L26,{"a",2.1,"c bau c",4.1})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB26" s="6" t="e">
+        <f>MATCH(M26,{"a",2.1,"c bau c",4.1})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC26" s="6" t="e">
+        <f>MATCH(N26,{"a",2.1,"c bau c",4.1})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD26" s="6" t="e">
+        <f>MATCH(O26,{"a",2.1,"c bau c",4.1})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE26" s="6" t="e">
+        <f>MATCH(P26,{"a",2.1,"c bau c",4.1})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C27" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D27" s="24">
+        <v>3</v>
+      </c>
+      <c r="E27" s="25">
+        <v>4</v>
+      </c>
+      <c r="F27" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I27" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L27" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N27" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O27" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P27" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q27" s="6" t="e">
+        <f>MATCH(B27,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R27" s="6" t="e">
+        <f>MATCH(C27,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S27" s="6">
+        <f>MATCH(D27,{FALSE,2.1,TRUE,4.1})</f>
+        <v>2</v>
+      </c>
+      <c r="T27" s="6">
+        <f>MATCH(E27,{FALSE,2.1,TRUE,4.1})</f>
+        <v>2</v>
+      </c>
+      <c r="U27" s="6">
+        <f>MATCH(F27,{FALSE,2.1,TRUE,4.1})</f>
+        <v>4</v>
+      </c>
+      <c r="V27" s="6" t="e">
+        <f>MATCH(G27,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W27" s="6" t="e">
+        <f>MATCH(H27,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X27" s="6">
+        <f>MATCH(I27,{FALSE,2.1,TRUE,4.1})</f>
+        <v>3</v>
+      </c>
+      <c r="Y27" s="6" t="e">
+        <f>MATCH(J27,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z27" s="6" t="e">
+        <f>MATCH(K27,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA27" s="6" t="e">
+        <f>MATCH(L27,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB27" s="6" t="e">
+        <f>MATCH(M27,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC27" s="6" t="e">
+        <f>MATCH(N27,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD27" s="6" t="e">
+        <f>MATCH(O27,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE27" s="6" t="e">
+        <f>MATCH(P27,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C28" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D28" s="24">
+        <v>3</v>
+      </c>
+      <c r="E28" s="25">
+        <v>4</v>
+      </c>
+      <c r="F28" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I28" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K28" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L28" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N28" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O28" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P28" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q28" s="6" t="e">
+        <f>MATCH(B28,{4.1,3.1,2.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R28" s="6" t="e">
+        <f>MATCH(C28,{4.1,3.1,2.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S28" s="6" t="e">
+        <f>MATCH(D28,{4.1,3.1,2.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T28" s="6">
+        <f>MATCH(E28,{4.1,3.1,2.1,1.1})</f>
+        <v>4</v>
+      </c>
+      <c r="U28" s="6">
+        <f>MATCH(F28,{4.1,3.1,2.1,1.1})</f>
+        <v>4</v>
+      </c>
+      <c r="V28" s="6" t="e">
+        <f>MATCH(G28,{4.1,3.1,2.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W28" s="6" t="e">
+        <f>MATCH(H28,{4.1,3.1,2.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X28" s="6" t="e">
+        <f>MATCH(I28,{4.1,3.1,2.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y28" s="6" t="e">
+        <f>MATCH(J28,{4.1,3.1,2.1,1.1})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z28" s="6" t="e">
+        <f>MATCH(K28,{4.1,3.1,2.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA28" s="6" t="e">
+        <f>MATCH(L28,{4.1,3.1,2.1,1.1})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB28" s="6" t="e">
+        <f>MATCH(M28,{4.1,3.1,2.1,1.1})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC28" s="6" t="e">
+        <f>MATCH(N28,{4.1,3.1,2.1,1.1})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD28" s="6" t="e">
+        <f>MATCH(O28,{4.1,3.1,2.1,1.1})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE28" s="6" t="e">
+        <f>MATCH(P28,{4.1,3.1,2.1,1.1})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D29" s="24">
+        <v>3</v>
+      </c>
+      <c r="E29" s="25">
+        <v>4</v>
+      </c>
+      <c r="F29" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I29" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N29" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O29" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P29" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q29" s="6" t="e">
+        <f>MATCH(B29,{"c bau c",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R29" s="6" t="e">
+        <f>MATCH(C29,{"c bau c",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S29" s="6" t="e">
+        <f>MATCH(D29,{"c bau c",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T29" s="6" t="e">
+        <f>MATCH(E29,{"c bau c",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U29" s="6">
+        <f>MATCH(F29,{"c bau c",4.1,"a",1.1})</f>
+        <v>2</v>
+      </c>
+      <c r="V29" s="6" t="e">
+        <f>MATCH(G29,{"c bau c",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W29" s="6" t="e">
+        <f>MATCH(H29,{"c bau c",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X29" s="6" t="e">
+        <f>MATCH(I29,{"c bau c",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y29" s="6" t="e">
+        <f>MATCH(J29,{"c bau c",4.1,"a",1.1})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z29" s="6" t="e">
+        <f>MATCH(K29,{"c bau c",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA29" s="6" t="e">
+        <f>MATCH(L29,{"c bau c",4.1,"a",1.1})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB29" s="6" t="e">
+        <f>MATCH(M29,{"c bau c",4.1,"a",1.1})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC29" s="6" t="e">
+        <f>MATCH(N29,{"c bau c",4.1,"a",1.1})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD29" s="6" t="e">
+        <f>MATCH(O29,{"c bau c",4.1,"a",1.1})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE29" s="6" t="e">
+        <f>MATCH(P29,{"c bau c",4.1,"a",1.1})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C30" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D30" s="24">
+        <v>3</v>
+      </c>
+      <c r="E30" s="25">
+        <v>4</v>
+      </c>
+      <c r="F30" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I30" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L30" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N30" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O30" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P30" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q30" s="6" t="e">
+        <f>MATCH(B30,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R30" s="6" t="e">
+        <f>MATCH(C30,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S30" s="6" t="e">
+        <f>MATCH(D30,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T30" s="6" t="e">
+        <f>MATCH(E30,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U30" s="6">
+        <f>MATCH(F30,{"",4.1,"a",1.1})</f>
+        <v>2</v>
+      </c>
+      <c r="V30" s="6" t="e">
+        <f>MATCH(G30,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W30" s="6">
+        <f>MATCH(H30,{"",4.1,"a",1.1})</f>
+        <v>1</v>
+      </c>
+      <c r="X30" s="6" t="e">
+        <f>MATCH(I30,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y30" s="6" t="e">
+        <f>MATCH(J30,{"",4.1,"a",1.1})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z30" s="6" t="e">
+        <f>MATCH(K30,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA30" s="6" t="e">
+        <f>MATCH(L30,{"",4.1,"a",1.1})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB30" s="6" t="e">
+        <f>MATCH(M30,{"",4.1,"a",1.1})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC30" s="6" t="e">
+        <f>MATCH(N30,{"",4.1,"a",1.1})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD30" s="6" t="e">
+        <f>MATCH(O30,{"",4.1,"a",1.1})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE30" s="6" t="e">
+        <f>MATCH(P30,{"",4.1,"a",1.1})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C31" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D31" s="24">
+        <v>3</v>
+      </c>
+      <c r="E31" s="25">
+        <v>4</v>
+      </c>
+      <c r="F31" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I31" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L31" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N31" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O31" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P31" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q31" s="6" t="e">
+        <f>MATCH(B31,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R31" s="6" t="e">
+        <f>MATCH(C31,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S31" s="6" t="e">
+        <f>MATCH(D31,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T31" s="6" t="e">
+        <f>MATCH(E31,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U31" s="6">
+        <f>MATCH(F31,{TRUE,4.1,FALSE,1.1})</f>
+        <v>2</v>
+      </c>
+      <c r="V31" s="6" t="e">
+        <f>MATCH(G31,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W31" s="6" t="e">
+        <f>MATCH(H31,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X31" s="6">
+        <f>MATCH(I31,{TRUE,4.1,FALSE,1.1})</f>
+        <v>3</v>
+      </c>
+      <c r="Y31" s="6" t="e">
+        <f>MATCH(J31,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z31" s="6" t="e">
+        <f>MATCH(K31,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA31" s="6" t="e">
+        <f>MATCH(L31,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB31" s="6" t="e">
+        <f>MATCH(M31,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC31" s="6" t="e">
+        <f>MATCH(N31,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD31" s="6" t="e">
+        <f>MATCH(O31,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE31" s="6" t="e">
+        <f>MATCH(P31,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C32" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D32" s="24">
+        <v>3</v>
+      </c>
+      <c r="E32" s="25">
+        <v>4</v>
+      </c>
+      <c r="F32" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I32" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L32" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N32" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O32" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P32" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q32" s="6" t="e">
+        <f>MATCH(B32,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R32" s="6" t="e">
+        <f>MATCH(C32,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S32" s="6" t="e">
+        <f>MATCH(D32,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T32" s="6" t="e">
+        <f>MATCH(E32,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U32" s="6">
+        <f>MATCH(F32,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>2</v>
+      </c>
+      <c r="V32" s="6" t="e">
+        <f>MATCH(G32,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W32" s="6" t="e">
+        <f>MATCH(H32,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X32" s="6">
+        <f>MATCH(I32,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>3</v>
+      </c>
+      <c r="Y32" s="6" t="e">
+        <f>MATCH(J32,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z32" s="6" t="e">
+        <f>MATCH(K32,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA32" s="6" t="e">
+        <f>MATCH(L32,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB32" s="6" t="e">
+        <f>MATCH(M32,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC32" s="6" t="e">
+        <f>MATCH(N32,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD32" s="6" t="e">
+        <f>MATCH(O32,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE32" s="6" t="e">
+        <f>MATCH(P32,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C33" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D33" s="24">
+        <v>3</v>
+      </c>
+      <c r="E33" s="25">
+        <v>4</v>
+      </c>
+      <c r="F33" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I33" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L33" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N33" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O33" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P33" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q33" s="6" t="e">
+        <f>MATCH(B33,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R33" s="6" t="e">
+        <f>MATCH(C33,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S33" s="6" t="e">
+        <f>MATCH(D33,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T33" s="6" t="e">
+        <f>MATCH(E33,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U33" s="6" t="e">
+        <f>MATCH(F33,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V33" s="6" t="e">
+        <f>MATCH(G33,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W33" s="6" t="e">
+        <f>MATCH(H33,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X33" s="6">
+        <f>MATCH(I33,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>2</v>
+      </c>
+      <c r="Y33" s="6" t="e">
+        <f>MATCH(J33,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z33" s="6" t="e">
+        <f>MATCH(K33,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA33" s="6" t="e">
+        <f>MATCH(L33,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB33" s="6" t="e">
+        <f>MATCH(M33,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC33" s="6" t="e">
+        <f>MATCH(N33,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD33" s="6" t="e">
+        <f>MATCH(O33,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE33" s="6" t="e">
+        <f>MATCH(P33,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A34" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="B34" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C34" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D34" s="24">
+        <v>3</v>
+      </c>
+      <c r="E34" s="25">
+        <v>4</v>
+      </c>
+      <c r="F34" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I34" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K34" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L34" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N34" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O34" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P34" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q34" s="6" t="e">
+        <f>MATCH(B34,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R34" s="6" t="e">
+        <f>MATCH(C34,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S34" s="6" t="e">
+        <f>MATCH(D34,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T34" s="6" t="e">
+        <f>MATCH(E34,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U34" s="6">
+        <f>MATCH(F34,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>4</v>
+      </c>
+      <c r="V34" s="6" t="e">
+        <f>MATCH(G34,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W34" s="6" t="e">
+        <f>MATCH(H34,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X34" s="6" t="e">
+        <f>MATCH(I34,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y34" s="6" t="e">
+        <f>MATCH(J34,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z34" s="6" t="e">
+        <f>MATCH(K34,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA34" s="6" t="e">
+        <f>MATCH(L34,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB34" s="6" t="e">
+        <f>MATCH(M34,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC34" s="6" t="e">
+        <f>MATCH(N34,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD34" s="6" t="e">
+        <f>MATCH(O34,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE34" s="6" t="e">
+        <f>MATCH(P34,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="6"/>
+      <c r="AR34" s="6"/>
+      <c r="AS34" s="6"/>
+      <c r="AT34" s="6"/>
+      <c r="AU34" s="6"/>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C35" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D35" s="24">
+        <v>3</v>
+      </c>
+      <c r="E35" s="25">
+        <v>4</v>
+      </c>
+      <c r="F35" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I35" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L35" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N35" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O35" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P35" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q35" s="6" t="e">
+        <f>MATCH(B35,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R35" s="6" t="e">
+        <f>MATCH(C35,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S35" s="6" t="e">
+        <f>MATCH(D35,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T35" s="6" t="e">
+        <f>MATCH(E35,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U35" s="6">
+        <f>MATCH(F35,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>4</v>
+      </c>
+      <c r="V35" s="6" t="e">
+        <f>MATCH(G35,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W35" s="6">
+        <f>MATCH(H35,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>3</v>
+      </c>
+      <c r="X35" s="6" t="e">
+        <f>MATCH(I35,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y35" s="6" t="e">
+        <f>MATCH(J35,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z35" s="6" t="e">
+        <f>MATCH(K35,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA35" s="6" t="e">
+        <f>MATCH(L35,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB35" s="6" t="e">
+        <f>MATCH(M35,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC35" s="6" t="e">
+        <f>MATCH(N35,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD35" s="6" t="e">
+        <f>MATCH(O35,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE35" s="6" t="e">
+        <f>MATCH(P35,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C36" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D36" s="24">
+        <v>3</v>
+      </c>
+      <c r="E36" s="25">
+        <v>4</v>
+      </c>
+      <c r="F36" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I36" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K36" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L36" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N36" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O36" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P36" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q36" s="6" t="e">
+        <f>MATCH(B36,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R36" s="6" t="e">
+        <f>MATCH(C36,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S36" s="6" t="e">
+        <f>MATCH(D36,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T36" s="6" t="e">
+        <f>MATCH(E36,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U36" s="6">
+        <f>MATCH(F36,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>4</v>
+      </c>
+      <c r="V36" s="6" t="e">
+        <f>MATCH(G36,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W36" s="6" t="e">
+        <f>MATCH(H36,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X36" s="6">
+        <f>MATCH(I36,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y36" s="6" t="e">
+        <f>MATCH(J36,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z36" s="6" t="e">
+        <f>MATCH(K36,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA36" s="6" t="e">
+        <f>MATCH(L36,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB36" s="6" t="e">
+        <f>MATCH(M36,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC36" s="6" t="e">
+        <f>MATCH(N36,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD36" s="6" t="e">
+        <f>MATCH(O36,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE36" s="6" t="e">
+        <f>MATCH(P36,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C37" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D37" s="24">
+        <v>3</v>
+      </c>
+      <c r="E37" s="25">
+        <v>4</v>
+      </c>
+      <c r="F37" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I37" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K37" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L37" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N37" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O37" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P37" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q37" s="6" t="e">
+        <f>MATCH(B37,{4.1,3.1,2.1,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R37" s="6">
+        <f>MATCH(C37,{4.1,3.1,2.1,1.1},0)</f>
+        <v>4</v>
+      </c>
+      <c r="S37" s="6" t="e">
+        <f>MATCH(D37,{4.1,3.1,2.1,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T37" s="6" t="e">
+        <f>MATCH(E37,{4.1,3.1,2.1,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U37" s="6">
+        <f>MATCH(F37,{4.1,3.1,2.1,1.1},0)</f>
+        <v>1</v>
+      </c>
+      <c r="V37" s="6" t="e">
+        <f>MATCH(G37,{4.1,3.1,2.1,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W37" s="6" t="e">
+        <f>MATCH(H37,{4.1,3.1,2.1,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X37" s="6" t="e">
+        <f>MATCH(I37,{4.1,3.1,2.1,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y37" s="6" t="e">
+        <f>MATCH(J37,{4.1,3.1,2.1,1.1},0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z37" s="6" t="e">
+        <f>MATCH(K37,{4.1,3.1,2.1,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA37" s="6" t="e">
+        <f>MATCH(L37,{4.1,3.1,2.1,1.1},0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB37" s="6" t="e">
+        <f>MATCH(M37,{4.1,3.1,2.1,1.1},0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC37" s="6" t="e">
+        <f>MATCH(N37,{4.1,3.1,2.1,1.1},0)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD37" s="6" t="e">
+        <f>MATCH(O37,{4.1,3.1,2.1,1.1},0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE37" s="6" t="e">
+        <f>MATCH(P37,{4.1,3.1,2.1,1.1},0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C38" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D38" s="24">
+        <v>3</v>
+      </c>
+      <c r="E38" s="25">
+        <v>4</v>
+      </c>
+      <c r="F38" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I38" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K38" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L38" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N38" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O38" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P38" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q38" s="6" t="e">
+        <f>MATCH(B38,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R38" s="6">
+        <f>MATCH(C38,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>4</v>
+      </c>
+      <c r="S38" s="6" t="e">
+        <f>MATCH(D38,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T38" s="6" t="e">
+        <f>MATCH(E38,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U38" s="6">
+        <f>MATCH(F38,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>2</v>
+      </c>
+      <c r="V38" s="6" t="e">
+        <f>MATCH(G38,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W38" s="6">
+        <f>MATCH(H38,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>1</v>
+      </c>
+      <c r="X38" s="6" t="e">
+        <f>MATCH(I38,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y38" s="6" t="e">
+        <f>MATCH(J38,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z38" s="6" t="e">
+        <f>MATCH(K38,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA38" s="6" t="e">
+        <f>MATCH(L38,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB38" s="6" t="e">
+        <f>MATCH(M38,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC38" s="6" t="e">
+        <f>MATCH(N38,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD38" s="6" t="e">
+        <f>MATCH(O38,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE38" s="6" t="e">
+        <f>MATCH(P38,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C39" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D39" s="24">
+        <v>3</v>
+      </c>
+      <c r="E39" s="25">
+        <v>4</v>
+      </c>
+      <c r="F39" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I39" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K39" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L39" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N39" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O39" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P39" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q39" s="6" t="e">
+        <f>MATCH(B39,{"",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R39" s="6">
+        <f>MATCH(C39,{"",4.1,"a",1.1},0)</f>
+        <v>4</v>
+      </c>
+      <c r="S39" s="6" t="e">
+        <f>MATCH(D39,{"",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T39" s="6" t="e">
+        <f>MATCH(E39,{"",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U39" s="6">
+        <f>MATCH(F39,{"",4.1,"a",1.1},0)</f>
+        <v>2</v>
+      </c>
+      <c r="V39" s="6" t="e">
+        <f>MATCH(G39,{"",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W39" s="6" t="e">
+        <f>MATCH(H39,{"",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X39" s="6" t="e">
+        <f>MATCH(I39,{"",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y39" s="6" t="e">
+        <f>MATCH(J39,{"",4.1,"a",1.1},0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z39" s="6" t="e">
+        <f>MATCH(K39,{"",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA39" s="6" t="e">
+        <f>MATCH(L39,{"",4.1,"a",1.1},0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB39" s="6" t="e">
+        <f>MATCH(M39,{"",4.1,"a",1.1},0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC39" s="6" t="e">
+        <f>MATCH(N39,{"",4.1,"a",1.1},0)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD39" s="6" t="e">
+        <f>MATCH(O39,{"",4.1,"a",1.1},0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE39" s="6" t="e">
+        <f>MATCH(P39,{"",4.1,"a",1.1},0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C40" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D40" s="24">
+        <v>3</v>
+      </c>
+      <c r="E40" s="25">
+        <v>4</v>
+      </c>
+      <c r="F40" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I40" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K40" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L40" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N40" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O40" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P40" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q40" s="6" t="e">
+        <f>MATCH(B40,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R40" s="6">
+        <f>MATCH(C40,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>4</v>
+      </c>
+      <c r="S40" s="6" t="e">
+        <f>MATCH(D40,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T40" s="6" t="e">
+        <f>MATCH(E40,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U40" s="6">
+        <f>MATCH(F40,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>2</v>
+      </c>
+      <c r="V40" s="6" t="e">
+        <f>MATCH(G40,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W40" s="6" t="e">
+        <f>MATCH(H40,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X40" s="6">
+        <f>MATCH(I40,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y40" s="6" t="e">
+        <f>MATCH(J40,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z40" s="6" t="e">
+        <f>MATCH(K40,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA40" s="6" t="e">
+        <f>MATCH(L40,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB40" s="6" t="e">
+        <f>MATCH(M40,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC40" s="6" t="e">
+        <f>MATCH(N40,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD40" s="6" t="e">
+        <f>MATCH(O40,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE40" s="6" t="e">
+        <f>MATCH(P40,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C41" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D41" s="24">
+        <v>3</v>
+      </c>
+      <c r="E41" s="25">
+        <v>4</v>
+      </c>
+      <c r="F41" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I41" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K41" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L41" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N41" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O41" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P41" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q41" s="6" t="e">
+        <f>MATCH(B41,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R41" s="6" t="e">
+        <f>MATCH(C41,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S41" s="6" t="e">
+        <f>MATCH(D41,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T41" s="6" t="e">
+        <f>MATCH(E41,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U41" s="6">
+        <f>MATCH(F41,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>2</v>
+      </c>
+      <c r="V41" s="6" t="e">
+        <f>MATCH(G41,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W41" s="6">
+        <f>MATCH(H41,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>4</v>
+      </c>
+      <c r="X41" s="6">
+        <f>MATCH(I41,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y41" s="6" t="e">
+        <f>MATCH(J41,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z41" s="6" t="e">
+        <f>MATCH(K41,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA41" s="6" t="e">
+        <f>MATCH(L41,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB41" s="6" t="e">
+        <f>MATCH(M41,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC41" s="6" t="e">
+        <f>MATCH(N41,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD41" s="6" t="e">
+        <f>MATCH(O41,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE41" s="6" t="e">
+        <f>MATCH(P41,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C42" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D42" s="24">
+        <v>3</v>
+      </c>
+      <c r="E42" s="25">
+        <v>4</v>
+      </c>
+      <c r="F42" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I42" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K42" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L42" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N42" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O42" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P42" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q42" s="6" t="e">
+        <f>MATCH(B42,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R42" s="6" t="e">
+        <f>MATCH(C42,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S42" s="6" t="e">
+        <f>MATCH(D42,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T42" s="6" t="e">
+        <f>MATCH(E42,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U42" s="6" t="e">
+        <f>MATCH(F42,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V42" s="6" t="e">
+        <f>MATCH(G42,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W42" s="6">
+        <f>MATCH(H42,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>4</v>
+      </c>
+      <c r="X42" s="6">
+        <f>MATCH(I42,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y42" s="6" t="e">
+        <f>MATCH(J42,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z42" s="6" t="e">
+        <f>MATCH(K42,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA42" s="6" t="e">
+        <f>MATCH(L42,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB42" s="6" t="e">
+        <f>MATCH(M42,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC42" s="6" t="e">
+        <f>MATCH(N42,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD42" s="6" t="e">
+        <f>MATCH(O42,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE42" s="6" t="e">
+        <f>MATCH(P42,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A43" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C43" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D43" s="24">
+        <v>3</v>
+      </c>
+      <c r="E43" s="25">
+        <v>4</v>
+      </c>
+      <c r="F43" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I43" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K43" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L43" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N43" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O43" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P43" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q43" s="6">
+        <f>MATCH(B43,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="R43" s="6" t="e">
+        <f>MATCH(C43,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S43" s="6" t="e">
+        <f>MATCH(D43,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T43" s="6" t="e">
+        <f>MATCH(E43,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U43" s="6" t="e">
+        <f>MATCH(F43,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V43" s="6" t="e">
+        <f>MATCH(G43,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W43" s="6" t="e">
+        <f>MATCH(H43,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X43" s="6" t="e">
+        <f>MATCH(I43,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y43" s="6" t="e">
+        <f>MATCH(J43,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z43" s="6" t="e">
+        <f>MATCH(K43,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA43" s="6" t="e">
+        <f>MATCH(L43,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB43" s="6" t="e">
+        <f>MATCH(M43,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC43" s="6" t="e">
+        <f>MATCH(N43,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD43" s="6" t="e">
+        <f>MATCH(O43,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE43" s="6" t="e">
+        <f>MATCH(P43,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="6"/>
+      <c r="AN43" s="6"/>
+      <c r="AO43" s="6"/>
+      <c r="AP43" s="6"/>
+      <c r="AQ43" s="6"/>
+      <c r="AR43" s="6"/>
+      <c r="AS43" s="6"/>
+      <c r="AT43" s="6"/>
+      <c r="AU43" s="6"/>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C44" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D44" s="24">
+        <v>3</v>
+      </c>
+      <c r="E44" s="25">
+        <v>4</v>
+      </c>
+      <c r="F44" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I44" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K44" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L44" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N44" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O44" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P44" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q44" s="6">
+        <f>MATCH(B44,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="R44" s="6">
+        <f>MATCH(C44,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="S44" s="6" t="e">
+        <f>MATCH(D44,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T44" s="6" t="e">
+        <f>MATCH(E44,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U44" s="6" t="e">
+        <f>MATCH(F44,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V44" s="6">
+        <f>MATCH(G44,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="W44" s="6">
+        <f>MATCH(H44,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>3</v>
+      </c>
+      <c r="X44" s="6" t="e">
+        <f>MATCH(I44,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y44" s="6" t="e">
+        <f>MATCH(J44,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z44" s="6" t="e">
+        <f>MATCH(K44,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA44" s="6" t="e">
+        <f>MATCH(L44,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB44" s="6" t="e">
+        <f>MATCH(M44,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC44" s="6" t="e">
+        <f>MATCH(N44,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD44" s="6" t="e">
+        <f>MATCH(O44,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE44" s="6" t="e">
+        <f>MATCH(P44,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C45" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D45" s="24">
+        <v>3</v>
+      </c>
+      <c r="E45" s="25">
+        <v>4</v>
+      </c>
+      <c r="F45" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I45" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K45" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L45" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N45" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O45" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P45" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q45" s="6">
+        <f>MATCH(B45,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="R45" s="6">
+        <f>MATCH(C45,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="S45" s="6" t="e">
+        <f>MATCH(D45,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T45" s="6" t="e">
+        <f>MATCH(E45,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U45" s="6" t="e">
+        <f>MATCH(F45,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V45" s="6">
+        <f>MATCH(G45,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="W45" s="6" t="e">
+        <f>MATCH(H45,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X45" s="6" t="e">
+        <f>MATCH(I45,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y45" s="6" t="e">
+        <f>MATCH(J45,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z45" s="6" t="e">
+        <f>MATCH(K45,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA45" s="6" t="e">
+        <f>MATCH(L45,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB45" s="6" t="e">
+        <f>MATCH(M45,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC45" s="6" t="e">
+        <f>MATCH(N45,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD45" s="6" t="e">
+        <f>MATCH(O45,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE45" s="6" t="e">
+        <f>MATCH(P45,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C46" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D46" s="24">
+        <v>3</v>
+      </c>
+      <c r="E46" s="25">
+        <v>4</v>
+      </c>
+      <c r="F46" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I46" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K46" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L46" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N46" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O46" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P46" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q46" s="6">
+        <f>MATCH(B46,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="R46" s="6">
+        <f>MATCH(C46,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="S46" s="6">
+        <f>MATCH(D46,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="T46" s="6">
+        <f>MATCH(E46,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>1</v>
+      </c>
+      <c r="U46" s="6">
+        <f>MATCH(F46,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>1</v>
+      </c>
+      <c r="V46" s="6">
+        <f>MATCH(G46,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="W46" s="6" t="e">
+        <f>MATCH(H46,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X46" s="6" t="e">
+        <f>MATCH(I46,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y46" s="6" t="e">
+        <f>MATCH(J46,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z46" s="6" t="e">
+        <f>MATCH(K46,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA46" s="6" t="e">
+        <f>MATCH(L46,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB46" s="6" t="e">
+        <f>MATCH(M46,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC46" s="6" t="e">
+        <f>MATCH(N46,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD46" s="6" t="e">
+        <f>MATCH(O46,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE46" s="6" t="e">
+        <f>MATCH(P46,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C47" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D47" s="24">
+        <v>3</v>
+      </c>
+      <c r="E47" s="25">
+        <v>4</v>
+      </c>
+      <c r="F47" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I47" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K47" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L47" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N47" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O47" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P47" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q47" s="6">
+        <f>MATCH(B47,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="R47" s="6">
+        <f>MATCH(C47,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="S47" s="6">
+        <f>MATCH(D47,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="T47" s="6">
+        <f>MATCH(E47,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="U47" s="6">
+        <f>MATCH(F47,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="V47" s="6">
+        <f>MATCH(G47,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="W47" s="6">
+        <f>MATCH(H47,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>3</v>
+      </c>
+      <c r="X47" s="6" t="e">
+        <f>MATCH(I47,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y47" s="6" t="e">
+        <f>MATCH(J47,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z47" s="6" t="e">
+        <f>MATCH(K47,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA47" s="6" t="e">
+        <f>MATCH(L47,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB47" s="6" t="e">
+        <f>MATCH(M47,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC47" s="6" t="e">
+        <f>MATCH(N47,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD47" s="6" t="e">
+        <f>MATCH(O47,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE47" s="6" t="e">
+        <f>MATCH(P47,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C48" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D48" s="24">
+        <v>3</v>
+      </c>
+      <c r="E48" s="25">
+        <v>4</v>
+      </c>
+      <c r="F48" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I48" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L48" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N48" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O48" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P48" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q48" s="6">
+        <f>MATCH(B48,{"",4.1,"a",1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="R48" s="6">
+        <f>MATCH(C48,{"",4.1,"a",1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="S48" s="6">
+        <f>MATCH(D48,{"",4.1,"a",1.1},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="T48" s="6">
+        <f>MATCH(E48,{"",4.1,"a",1.1},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="U48" s="6">
+        <f>MATCH(F48,{"",4.1,"a",1.1},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="V48" s="6">
+        <f>MATCH(G48,{"",4.1,"a",1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="W48" s="6" t="e">
+        <f>MATCH(H48,{"",4.1,"a",1.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X48" s="6" t="e">
+        <f>MATCH(I48,{"",4.1,"a",1.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y48" s="6" t="e">
+        <f>MATCH(J48,{"",4.1,"a",1.1},-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z48" s="6" t="e">
+        <f>MATCH(K48,{"",4.1,"a",1.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA48" s="6" t="e">
+        <f>MATCH(L48,{"",4.1,"a",1.1},-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB48" s="6" t="e">
+        <f>MATCH(M48,{"",4.1,"a",1.1},-1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC48" s="6" t="e">
+        <f>MATCH(N48,{"",4.1,"a",1.1},-1)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD48" s="6" t="e">
+        <f>MATCH(O48,{"",4.1,"a",1.1},-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE48" s="6" t="e">
+        <f>MATCH(P48,{"",4.1,"a",1.1},-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C49" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D49" s="24">
+        <v>3</v>
+      </c>
+      <c r="E49" s="25">
+        <v>4</v>
+      </c>
+      <c r="F49" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I49" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K49" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L49" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M49" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N49" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O49" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P49" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q49" s="6">
+        <f>MATCH(B49,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="R49" s="6">
+        <f>MATCH(C49,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="S49" s="6">
+        <f>MATCH(D49,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="T49" s="6">
+        <f>MATCH(E49,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="U49" s="6">
+        <f>MATCH(F49,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="V49" s="6">
+        <f>MATCH(G49,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="W49" s="6" t="e">
+        <f>MATCH(H49,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X49" s="6">
+        <f>MATCH(I49,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y49" s="6" t="e">
+        <f>MATCH(J49,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z49" s="6" t="e">
+        <f>MATCH(K49,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA49" s="6" t="e">
+        <f>MATCH(L49,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB49" s="6" t="e">
+        <f>MATCH(M49,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC49" s="6" t="e">
+        <f>MATCH(N49,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD49" s="6" t="e">
+        <f>MATCH(O49,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE49" s="6" t="e">
+        <f>MATCH(P49,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A50" s="23"/>
+      <c r="B50" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C50" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D50" s="24">
+        <v>3</v>
+      </c>
+      <c r="E50" s="25">
+        <v>4</v>
+      </c>
+      <c r="F50" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I50" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K50" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L50" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M50" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N50" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O50" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P50" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q50" s="6">
+        <f>MATCH(B50,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="R50" s="6">
+        <f>MATCH(C50,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="S50" s="6">
+        <f>MATCH(D50,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="T50" s="6">
+        <f>MATCH(E50,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="U50" s="6">
+        <f>MATCH(F50,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="V50" s="6">
+        <f>MATCH(G50,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="W50" s="6">
+        <f>MATCH(H50,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="X50" s="6">
+        <f>MATCH(I50,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y50" s="6" t="e">
+        <f>MATCH(J50,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z50" s="6" t="e">
+        <f>MATCH(K50,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA50" s="6" t="e">
+        <f>MATCH(L50,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB50" s="6" t="e">
+        <f>MATCH(M50,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC50" s="6" t="e">
+        <f>MATCH(N50,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD50" s="6" t="e">
+        <f>MATCH(O50,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE50" s="6" t="e">
+        <f>MATCH(P50,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="6"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A51" s="23"/>
+      <c r="B51" s="24">
+        <v>-2</v>
+      </c>
+      <c r="C51" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D51" s="24">
+        <v>3</v>
+      </c>
+      <c r="E51" s="25">
+        <v>4</v>
+      </c>
+      <c r="F51" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I51" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K51" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L51" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M51" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N51" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O51" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P51" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q51" s="6" t="e">
+        <f>MATCH(B51,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R51" s="6" t="e">
+        <f>MATCH(C51,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S51" s="6" t="e">
+        <f>MATCH(D51,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T51" s="6" t="e">
+        <f>MATCH(E51,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U51" s="6" t="e">
+        <f>MATCH(F51,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V51" s="6" t="e">
+        <f>MATCH(G51,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W51" s="6">
+        <f>MATCH(H51,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="X51" s="6">
+        <f>MATCH(I51,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y51" s="6" t="e">
+        <f>MATCH(J51,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z51" s="6" t="e">
+        <f>MATCH(K51,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA51" s="6" t="e">
+        <f>MATCH(L51,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB51" s="6" t="e">
+        <f>MATCH(M51,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC51" s="6" t="e">
+        <f>MATCH(N51,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD51" s="6" t="e">
+        <f>MATCH(O51,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE51" s="6" t="e">
+        <f>MATCH(P51,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="6"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A52" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A53" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A54" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A55" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A56" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A57" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B57" s="24">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C57" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="D57" s="24">
+        <v>3</v>
+      </c>
+      <c r="E57" s="25">
+        <v>4</v>
+      </c>
+      <c r="F57" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="I57" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K57" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L57" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N57" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O57" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P57" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q57" s="4">
+        <f>VLOOKUP(B57,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="R57" s="4">
+        <f>VLOOKUP(C57,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="S57" s="4" t="e">
+        <f>VLOOKUP(D57,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T57" s="4" t="e">
+        <f>VLOOKUP(E57,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U57" s="4">
+        <f>VLOOKUP(F57,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="V57" s="4" t="e">
+        <f>VLOOKUP(G57,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W57" s="4" t="e">
+        <f>VLOOKUP(H57,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X57" s="4" t="e">
+        <f>VLOOKUP(I57,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y57" s="4" t="e">
+        <f>VLOOKUP(J57,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z57" s="4" t="e">
+        <f>VLOOKUP(K57,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA57" s="4" t="e">
+        <f>VLOOKUP(L57,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB57" s="4" t="e">
+        <f>VLOOKUP(M57,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC57" s="4" t="e">
+        <f>VLOOKUP(N57,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD57" s="4" t="e">
+        <f>VLOOKUP(O57,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE57" s="4" t="e">
+        <f>VLOOKUP(P57,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A58" s="23"/>
+      <c r="B58" s="24">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C58" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="D58" s="24">
+        <v>3</v>
+      </c>
+      <c r="E58" s="25">
+        <v>4</v>
+      </c>
+      <c r="F58" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="I58" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K58" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L58" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N58" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O58" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P58" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q58" s="4">
+        <f>VLOOKUP(B58,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>5</v>
+      </c>
+      <c r="R58" s="4">
+        <f>VLOOKUP(C58,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>6</v>
+      </c>
+      <c r="S58" s="4">
+        <f>VLOOKUP(D58,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>6</v>
+      </c>
+      <c r="T58" s="4">
+        <f>VLOOKUP(E58,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>7</v>
+      </c>
+      <c r="U58" s="4">
+        <f>VLOOKUP(F58,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>8</v>
+      </c>
+      <c r="V58" s="4">
+        <f>VLOOKUP(G58,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>5</v>
+      </c>
+      <c r="W58" s="4" t="e">
+        <f>VLOOKUP(H58,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X58" s="4" t="e">
+        <f>VLOOKUP(I58,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y58" s="4" t="e">
+        <f>VLOOKUP(J58,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z58" s="4" t="e">
+        <f>VLOOKUP(K58,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA58" s="4" t="e">
+        <f>VLOOKUP(L58,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB58" s="4" t="e">
+        <f>VLOOKUP(M58,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC58" s="4" t="e">
+        <f>VLOOKUP(N58,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD58" s="4" t="e">
+        <f>VLOOKUP(O58,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE58" s="4" t="e">
+        <f>VLOOKUP(P58,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A59" s="23"/>
+      <c r="B59" s="24">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C59" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="D59" s="24">
+        <v>3</v>
+      </c>
+      <c r="E59" s="25">
+        <v>4</v>
+      </c>
+      <c r="F59" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="I59" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="26" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K59" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L59" s="27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M59" s="27" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N59" s="27" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O59" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P59" s="27" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q59" s="4">
+        <f>VLOOKUP(B59,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>5</v>
+      </c>
+      <c r="R59" s="4">
+        <f>VLOOKUP(C59,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>6</v>
+      </c>
+      <c r="S59" s="4">
+        <f>VLOOKUP(D59,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>6</v>
+      </c>
+      <c r="T59" s="4">
+        <f>VLOOKUP(E59,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>7</v>
+      </c>
+      <c r="U59" s="4">
+        <f>VLOOKUP(F59,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>8</v>
+      </c>
+      <c r="V59" s="4">
+        <f>VLOOKUP(G59,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>5</v>
+      </c>
+      <c r="W59" s="4" t="e">
+        <f>VLOOKUP(H59,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X59" s="4" t="e">
+        <f>VLOOKUP(I59,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y59" s="4" t="e">
+        <f>VLOOKUP(J59,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z59" s="4" t="e">
+        <f>VLOOKUP(K59,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA59" s="4" t="e">
+        <f>VLOOKUP(L59,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB59" s="4" t="e">
+        <f>VLOOKUP(M59,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC59" s="4" t="e">
+        <f>VLOOKUP(N59,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD59" s="4" t="e">
+        <f>VLOOKUP(O59,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE59" s="4" t="e">
+        <f>VLOOKUP(P59,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="6"/>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="6"/>
+      <c r="AD68" s="6"/>
+      <c r="AE68" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="Q1:AV1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AV2"/>
+    <mergeCell ref="A16:A24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C129EE31-5C14-1646-A8F3-56742C665F7C}">
+  <dimension ref="A1:BJ22"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="1.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E5" s="14">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N5" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O5" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P5" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q5" s="6" t="b">
+        <f>IF(B5,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" ref="R5:AE5" si="0">IF(C5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="6" t="b">
+        <f>IF(D5=1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="6">
+        <f>IF(G5,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="W5" s="6" t="e">
+        <f>IF(H5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA5" s="6" t="e">
+        <f>IF(L5,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF5" s="11" t="e">
+        <f>IF(B5:F5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG5" s="6" t="b">
+        <f t="array" ref="AG5:AH5">IF(B5:C5,C5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI5" s="6">
+        <f t="array" ref="AI5:AJ5">IF(B5:C5,2,C5:D5)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="6">
+        <f t="array" ref="AK5:AL5">IF(B5:C5,C5:D5,E5:F5)</f>
+        <v>10</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AM5" s="6" t="e">
+        <f t="array" ref="AM5:AO5">IF(H5:J5,C5:E5,E5:G5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AO5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP5" s="6">
+        <f t="array" ref="AP5:AR5">IF(B5:D5,C5:E5,D5:F5)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AQ5" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AR5" s="6">
+        <v>10</v>
+      </c>
+      <c r="AS5" s="6" t="b">
+        <f t="array" ref="AS5:AV5">IF(B5:C5,C5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AU5" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV5" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E6" s="14">
+        <v>10</v>
+      </c>
+      <c r="F6" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N6" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O6" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P6" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>IFERROR(B6,C6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" ref="R6:U6" si="1">IFERROR(C6,D6)</f>
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="V6" s="4">
+        <f>IFERROR(G6,H6)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="str">
+        <f t="shared" ref="W6" si="2">IFERROR(H6,I6)</f>
+        <v>ciao</v>
+      </c>
+      <c r="X6" s="4" t="b">
+        <f t="shared" ref="X6" si="3">IFERROR(I6,J6)</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4" t="e">
+        <f>IFERROR(J6,K6)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z6" s="4" t="e">
+        <f t="shared" ref="Z6:AA6" si="4">IFERROR(K6,L6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA6" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB6" s="4" t="e">
+        <f t="shared" ref="AB6" si="5">IFERROR(M6,N6)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AC6" s="4" t="e">
+        <f t="shared" ref="AC6" si="6">IFERROR(N6,O6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AD6" s="4" t="e">
+        <f t="shared" ref="AD6" si="7">IFERROR(O6,P6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE6" s="4">
+        <f t="shared" ref="AE6" si="8">IFERROR(P6,Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>IFERROR(C6:D6,Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4" t="str">
+        <f t="array" ref="AG6:AH6">IFERROR(J6:K6,H6:I6)</f>
+        <v>ciao</v>
+      </c>
+      <c r="AH6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="4">
+        <f t="array" ref="AI6:AJ6">IFERROR(C6:D6,Q6)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AK6" s="4">
+        <f t="array" ref="AK6:AV6">IFERROR(F6:P6,Q6)</f>
+        <v>-1</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4" t="str">
+        <v>ciao</v>
+      </c>
+      <c r="AN6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
         <v>232</v>
       </c>
     </row>
@@ -16955,7 +22749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T60"/>
   <sheetViews>
@@ -17449,7 +23243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B5"/>
   <sheetViews>

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenzoarcidiacono/PycharmProjects/formulas/test/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712D14F9-CDFB-134D-BF52-38C1272C860A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465224A6-0189-0B45-A13A-063014ED74CA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATH &amp; TRIG" sheetId="3" r:id="rId1"/>
@@ -1235,12 +1235,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1252,6 +1246,12 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1559,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52929E63-D802-7443-B5FD-6A6404B94706}">
   <dimension ref="A1:AV81"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1596,70 +1596,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -1669,22 +1669,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -1694,36 +1694,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AG2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -11803,70 +11803,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -11876,22 +11876,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -11901,36 +11901,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AG2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -12559,70 +12559,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -12632,22 +12632,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -12657,36 +12657,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AG2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -14539,70 +14539,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -14612,22 +14612,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -14637,36 +14637,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AG2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -15752,70 +15752,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -15825,22 +15825,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -15850,36 +15850,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AG2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -16312,8 +16312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E2B3E2-41CF-7F41-B469-7D8B638E9FCE}">
   <dimension ref="A1:BJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -16362,70 +16362,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="19" t="s">
         <v>38</v>
       </c>
@@ -16435,22 +16435,22 @@
       <c r="I2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
       <c r="V2" s="19" t="s">
         <v>38</v>
       </c>
@@ -16460,36 +16460,36 @@
       <c r="X2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
       <c r="AF2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AG2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -16649,51 +16649,51 @@
       </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>2.1</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <v>3</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="23">
         <v>4</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="I10" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="26" t="e">
+      <c r="I10" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K10" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L10" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N10" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O10" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P10" s="27" t="e">
+      <c r="K10" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N10" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O10" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P10" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q10" s="4">
@@ -16807,49 +16807,49 @@
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24">
+      <c r="A11" s="27"/>
+      <c r="B11" s="22">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>2.1</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <v>3</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="23">
         <v>4</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26" t="s">
+      <c r="G11" s="24"/>
+      <c r="H11" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="I11" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="26" t="e">
+      <c r="I11" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L11" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N11" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O11" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P11" s="27" t="e">
+      <c r="K11" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N11" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O11" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P11" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q11" s="4">
@@ -16914,49 +16914,49 @@
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24">
+      <c r="A12" s="27"/>
+      <c r="B12" s="22">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="22">
         <v>2.1</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="22">
         <v>3</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="23">
         <v>4</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26" t="s">
+      <c r="G12" s="24"/>
+      <c r="H12" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="I12" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="26" t="e">
+      <c r="I12" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N12" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O12" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P12" s="27" t="e">
+      <c r="K12" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N12" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O12" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P12" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q12" s="4">
@@ -17037,51 +17037,51 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="22">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <v>2.1</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="22">
         <v>3</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <v>4</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26" t="s">
+      <c r="G16" s="24"/>
+      <c r="H16" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="I16" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="26" t="e">
+      <c r="I16" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L16" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N16" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O16" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P16" s="27" t="e">
+      <c r="K16" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L16" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N16" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O16" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P16" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q16" s="6" t="e">
@@ -17199,22 +17199,22 @@
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
       <c r="Q17" s="6" t="e">
         <f>LOOKUP(-2,{"a",2.1,"b",4.1})</f>
         <v>#N/A</v>
@@ -17330,22 +17330,22 @@
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
       <c r="Q18" s="6" t="e">
         <f>LOOKUP(-2,{FALSE,2.1,TRUE,4.1})</f>
         <v>#N/A</v>
@@ -17461,22 +17461,22 @@
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
       <c r="Q19" s="6" t="e">
         <f>LOOKUP(-2,{4.1,2.1,3.1,1.1})</f>
         <v>#N/A</v>
@@ -17592,22 +17592,22 @@
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
       <c r="Q20" s="6" t="e">
         <f>LOOKUP(-2,{"b",4.1,"a",1.1})</f>
         <v>#N/A</v>
@@ -17723,22 +17723,22 @@
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
       <c r="Q21" s="6" t="e">
         <f>LOOKUP(-2,{"",4.1,"a",1.1})</f>
         <v>#N/A</v>
@@ -17854,22 +17854,22 @@
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
       <c r="Q22" s="6" t="e">
         <f>LOOKUP(-2,{TRUE,4.1,FALSE,1.1})</f>
         <v>#N/A</v>
@@ -17985,22 +17985,22 @@
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
       <c r="Q23" s="6" t="e">
         <f>LOOKUP(-2,{TRUE,4.1,FALSE,"b"})</f>
         <v>#N/A</v>
@@ -18116,21 +18116,21 @@
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
       <c r="Q24" s="6" t="e">
         <f>LOOKUP(-2,{TRUE,FALSE,"a","b"})</f>
         <v>#N/A</v>
@@ -18246,51 +18246,51 @@
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="22">
         <v>-2</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="22">
         <v>3</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="23">
         <v>4</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26" t="s">
+      <c r="G25" s="24"/>
+      <c r="H25" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I25" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="26" t="e">
+      <c r="I25" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K25" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L25" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N25" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O25" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P25" s="27" t="e">
+      <c r="K25" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L25" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N25" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O25" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P25" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q25" s="6" t="e">
@@ -18371,49 +18371,49 @@
       <c r="AU25" s="6"/>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24">
+      <c r="A26" s="27"/>
+      <c r="B26" s="22">
         <v>-2</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="22">
         <v>3</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="23">
         <v>4</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26" t="s">
+      <c r="G26" s="24"/>
+      <c r="H26" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I26" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="26" t="e">
+      <c r="I26" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K26" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L26" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N26" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O26" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P26" s="27" t="e">
+      <c r="K26" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N26" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O26" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P26" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q26" s="6" t="e">
@@ -18480,49 +18480,49 @@
       <c r="AG26" s="6"/>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24">
+      <c r="A27" s="27"/>
+      <c r="B27" s="22">
         <v>-2</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="22">
         <v>3</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="23">
         <v>4</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26" t="s">
+      <c r="G27" s="24"/>
+      <c r="H27" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I27" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="26" t="e">
+      <c r="I27" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K27" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L27" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N27" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O27" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P27" s="27" t="e">
+      <c r="K27" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L27" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N27" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O27" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P27" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q27" s="6" t="e">
@@ -18589,49 +18589,49 @@
       <c r="AG27" s="6"/>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24">
+      <c r="A28" s="27"/>
+      <c r="B28" s="22">
         <v>-2</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="22">
         <v>3</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="23">
         <v>4</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26" t="s">
+      <c r="G28" s="24"/>
+      <c r="H28" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I28" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="26" t="e">
+      <c r="I28" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K28" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L28" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N28" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O28" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P28" s="27" t="e">
+      <c r="K28" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L28" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N28" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O28" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P28" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q28" s="6" t="e">
@@ -18698,49 +18698,49 @@
       <c r="AG28" s="6"/>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24">
+      <c r="A29" s="27"/>
+      <c r="B29" s="22">
         <v>-2</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="22">
         <v>3</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="23">
         <v>4</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26" t="s">
+      <c r="G29" s="24"/>
+      <c r="H29" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I29" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="26" t="e">
+      <c r="I29" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K29" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L29" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N29" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O29" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P29" s="27" t="e">
+      <c r="K29" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N29" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O29" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P29" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q29" s="6" t="e">
@@ -18807,49 +18807,49 @@
       <c r="AG29" s="6"/>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24">
+      <c r="A30" s="27"/>
+      <c r="B30" s="22">
         <v>-2</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="22">
         <v>3</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="23">
         <v>4</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26" t="s">
+      <c r="G30" s="24"/>
+      <c r="H30" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I30" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="26" t="e">
+      <c r="I30" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K30" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L30" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N30" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O30" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P30" s="27" t="e">
+      <c r="K30" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L30" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N30" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O30" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P30" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q30" s="6" t="e">
@@ -18916,49 +18916,49 @@
       <c r="AG30" s="6"/>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24">
+      <c r="A31" s="27"/>
+      <c r="B31" s="22">
         <v>-2</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="22">
         <v>3</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="23">
         <v>4</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26" t="s">
+      <c r="G31" s="24"/>
+      <c r="H31" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I31" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="26" t="e">
+      <c r="I31" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L31" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N31" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O31" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P31" s="27" t="e">
+      <c r="K31" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L31" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N31" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O31" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P31" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q31" s="6" t="e">
@@ -19025,49 +19025,49 @@
       <c r="AG31" s="6"/>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24">
+      <c r="A32" s="27"/>
+      <c r="B32" s="22">
         <v>-2</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="22">
         <v>3</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="23">
         <v>4</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26" t="s">
+      <c r="G32" s="24"/>
+      <c r="H32" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I32" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" s="26" t="e">
+      <c r="I32" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K32" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L32" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N32" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O32" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P32" s="27" t="e">
+      <c r="K32" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L32" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N32" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O32" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P32" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q32" s="6" t="e">
@@ -19134,49 +19134,49 @@
       <c r="AG32" s="6"/>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24">
+      <c r="A33" s="27"/>
+      <c r="B33" s="22">
         <v>-2</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="22">
         <v>3</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="23">
         <v>4</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26" t="s">
+      <c r="G33" s="24"/>
+      <c r="H33" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I33" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="26" t="e">
+      <c r="I33" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K33" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L33" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N33" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O33" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P33" s="27" t="e">
+      <c r="K33" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L33" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N33" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O33" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P33" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q33" s="6" t="e">
@@ -19243,51 +19243,51 @@
       <c r="AG33" s="6"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="22">
         <v>-2</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="22">
         <v>3</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="23">
         <v>4</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26" t="s">
+      <c r="G34" s="24"/>
+      <c r="H34" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I34" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" s="26" t="e">
+      <c r="I34" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K34" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L34" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N34" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O34" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P34" s="27" t="e">
+      <c r="K34" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L34" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N34" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O34" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P34" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q34" s="6" t="e">
@@ -19368,49 +19368,49 @@
       <c r="AU34" s="6"/>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24">
+      <c r="A35" s="27"/>
+      <c r="B35" s="22">
         <v>-2</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="22">
         <v>3</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="23">
         <v>4</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26" t="s">
+      <c r="G35" s="24"/>
+      <c r="H35" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I35" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" s="26" t="e">
+      <c r="I35" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K35" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L35" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N35" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O35" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P35" s="27" t="e">
+      <c r="K35" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L35" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N35" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O35" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P35" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q35" s="6" t="e">
@@ -19477,49 +19477,49 @@
       <c r="AG35" s="6"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24">
+      <c r="A36" s="27"/>
+      <c r="B36" s="22">
         <v>-2</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="22">
         <v>3</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="23">
         <v>4</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26" t="s">
+      <c r="G36" s="24"/>
+      <c r="H36" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I36" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" s="26" t="e">
+      <c r="I36" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K36" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L36" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N36" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O36" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P36" s="27" t="e">
+      <c r="K36" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L36" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N36" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O36" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P36" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q36" s="6" t="e">
@@ -19586,49 +19586,49 @@
       <c r="AG36" s="6"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24">
+      <c r="A37" s="27"/>
+      <c r="B37" s="22">
         <v>-2</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="22">
         <v>3</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="23">
         <v>4</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26" t="s">
+      <c r="G37" s="24"/>
+      <c r="H37" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I37" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" s="26" t="e">
+      <c r="I37" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K37" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L37" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N37" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O37" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P37" s="27" t="e">
+      <c r="K37" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L37" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N37" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O37" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P37" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q37" s="6" t="e">
@@ -19695,49 +19695,49 @@
       <c r="AG37" s="6"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24">
+      <c r="A38" s="27"/>
+      <c r="B38" s="22">
         <v>-2</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="22">
         <v>3</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="23">
         <v>4</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26" t="s">
+      <c r="G38" s="24"/>
+      <c r="H38" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I38" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" s="26" t="e">
+      <c r="I38" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K38" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L38" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N38" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O38" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P38" s="27" t="e">
+      <c r="K38" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L38" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N38" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O38" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P38" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q38" s="6" t="e">
@@ -19804,49 +19804,49 @@
       <c r="AG38" s="6"/>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24">
+      <c r="A39" s="27"/>
+      <c r="B39" s="22">
         <v>-2</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="22">
         <v>3</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="23">
         <v>4</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26" t="s">
+      <c r="G39" s="24"/>
+      <c r="H39" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I39" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" s="26" t="e">
+      <c r="I39" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K39" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L39" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N39" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O39" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P39" s="27" t="e">
+      <c r="K39" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L39" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N39" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O39" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P39" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q39" s="6" t="e">
@@ -19913,49 +19913,49 @@
       <c r="AG39" s="6"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24">
+      <c r="A40" s="27"/>
+      <c r="B40" s="22">
         <v>-2</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="22">
         <v>3</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="23">
         <v>4</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26" t="s">
+      <c r="G40" s="24"/>
+      <c r="H40" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I40" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" s="26" t="e">
+      <c r="I40" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K40" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L40" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N40" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O40" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P40" s="27" t="e">
+      <c r="K40" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L40" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N40" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O40" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P40" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q40" s="6" t="e">
@@ -20022,49 +20022,49 @@
       <c r="AG40" s="6"/>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A41" s="23"/>
-      <c r="B41" s="24">
+      <c r="A41" s="27"/>
+      <c r="B41" s="22">
         <v>-2</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="22">
         <v>3</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="23">
         <v>4</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26" t="s">
+      <c r="G41" s="24"/>
+      <c r="H41" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I41" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" s="26" t="e">
+      <c r="I41" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K41" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L41" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N41" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O41" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P41" s="27" t="e">
+      <c r="K41" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L41" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N41" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O41" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P41" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q41" s="6" t="e">
@@ -20131,49 +20131,49 @@
       <c r="AG41" s="6"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A42" s="23"/>
-      <c r="B42" s="24">
+      <c r="A42" s="27"/>
+      <c r="B42" s="22">
         <v>-2</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="22">
         <v>3</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="23">
         <v>4</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26" t="s">
+      <c r="G42" s="24"/>
+      <c r="H42" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I42" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" s="26" t="e">
+      <c r="I42" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K42" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L42" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N42" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O42" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P42" s="27" t="e">
+      <c r="K42" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L42" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N42" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O42" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P42" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q42" s="6" t="e">
@@ -20240,51 +20240,51 @@
       <c r="AG42" s="6"/>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="22">
         <v>-2</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="22">
         <v>3</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="23">
         <v>4</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26" t="s">
+      <c r="G43" s="24"/>
+      <c r="H43" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I43" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" s="26" t="e">
+      <c r="I43" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K43" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L43" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N43" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O43" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P43" s="27" t="e">
+      <c r="K43" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L43" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N43" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O43" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P43" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q43" s="6">
@@ -20365,49 +20365,49 @@
       <c r="AU43" s="6"/>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A44" s="23"/>
-      <c r="B44" s="24">
+      <c r="A44" s="27"/>
+      <c r="B44" s="22">
         <v>-2</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="22">
         <v>3</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="23">
         <v>4</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26" t="s">
+      <c r="G44" s="24"/>
+      <c r="H44" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I44" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" s="26" t="e">
+      <c r="I44" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K44" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L44" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M44" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N44" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O44" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P44" s="27" t="e">
+      <c r="K44" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L44" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N44" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O44" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P44" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q44" s="6">
@@ -20474,49 +20474,49 @@
       <c r="AG44" s="6"/>
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A45" s="23"/>
-      <c r="B45" s="24">
+      <c r="A45" s="27"/>
+      <c r="B45" s="22">
         <v>-2</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="22">
         <v>3</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="23">
         <v>4</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26" t="s">
+      <c r="G45" s="24"/>
+      <c r="H45" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I45" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" s="26" t="e">
+      <c r="I45" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K45" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L45" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M45" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N45" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O45" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P45" s="27" t="e">
+      <c r="K45" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L45" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N45" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O45" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P45" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q45" s="6">
@@ -20583,49 +20583,49 @@
       <c r="AG45" s="6"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A46" s="23"/>
-      <c r="B46" s="24">
+      <c r="A46" s="27"/>
+      <c r="B46" s="22">
         <v>-2</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="22">
         <v>3</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="23">
         <v>4</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26" t="s">
+      <c r="G46" s="24"/>
+      <c r="H46" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I46" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" s="26" t="e">
+      <c r="I46" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K46" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L46" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N46" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O46" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P46" s="27" t="e">
+      <c r="K46" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L46" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N46" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O46" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P46" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q46" s="6">
@@ -20692,49 +20692,49 @@
       <c r="AG46" s="6"/>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24">
+      <c r="A47" s="27"/>
+      <c r="B47" s="22">
         <v>-2</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="22">
         <v>3</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="23">
         <v>4</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26" t="s">
+      <c r="G47" s="24"/>
+      <c r="H47" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I47" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" s="26" t="e">
+      <c r="I47" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K47" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L47" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N47" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O47" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P47" s="27" t="e">
+      <c r="K47" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L47" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N47" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O47" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P47" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q47" s="6">
@@ -20801,49 +20801,49 @@
       <c r="AG47" s="6"/>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24">
+      <c r="A48" s="27"/>
+      <c r="B48" s="22">
         <v>-2</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="22">
         <v>3</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="23">
         <v>4</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26" t="s">
+      <c r="G48" s="24"/>
+      <c r="H48" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I48" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="26" t="e">
+      <c r="I48" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K48" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L48" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M48" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N48" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O48" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P48" s="27" t="e">
+      <c r="K48" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L48" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N48" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O48" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P48" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q48" s="6">
@@ -20910,49 +20910,49 @@
       <c r="AG48" s="6"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24">
+      <c r="A49" s="27"/>
+      <c r="B49" s="22">
         <v>-2</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="22">
         <v>3</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="23">
         <v>4</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26" t="s">
+      <c r="G49" s="24"/>
+      <c r="H49" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I49" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" s="26" t="e">
+      <c r="I49" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K49" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L49" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M49" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N49" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O49" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P49" s="27" t="e">
+      <c r="K49" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L49" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M49" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N49" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O49" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P49" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q49" s="6">
@@ -21019,49 +21019,49 @@
       <c r="AG49" s="6"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A50" s="23"/>
-      <c r="B50" s="24">
+      <c r="A50" s="27"/>
+      <c r="B50" s="22">
         <v>-2</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="22">
         <v>3</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="23">
         <v>4</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26" t="s">
+      <c r="G50" s="24"/>
+      <c r="H50" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I50" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" s="26" t="e">
+      <c r="I50" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K50" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L50" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M50" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N50" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O50" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P50" s="27" t="e">
+      <c r="K50" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L50" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M50" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N50" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O50" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P50" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q50" s="6">
@@ -21128,49 +21128,49 @@
       <c r="AG50" s="6"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A51" s="23"/>
-      <c r="B51" s="24">
+      <c r="A51" s="27"/>
+      <c r="B51" s="22">
         <v>-2</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="22">
         <v>3</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="23">
         <v>4</v>
       </c>
-      <c r="F51" s="25">
+      <c r="F51" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26" t="s">
+      <c r="G51" s="24"/>
+      <c r="H51" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="I51" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="26" t="e">
+      <c r="I51" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K51" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L51" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M51" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N51" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O51" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P51" s="27" t="e">
+      <c r="K51" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L51" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M51" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N51" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O51" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P51" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q51" s="6" t="e">
@@ -21240,21 +21240,21 @@
       <c r="A52" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
@@ -21270,21 +21270,21 @@
       <c r="A53" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
@@ -21305,21 +21305,21 @@
       <c r="A54" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
@@ -21340,21 +21340,21 @@
       <c r="A55" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
@@ -21375,21 +21375,21 @@
       <c r="A56" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
@@ -21407,51 +21407,51 @@
       <c r="AE56" s="6"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57" s="22">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="22">
         <v>2.1</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="22">
         <v>3</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="23">
         <v>4</v>
       </c>
-      <c r="F57" s="25">
+      <c r="F57" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26" t="s">
+      <c r="G57" s="24"/>
+      <c r="H57" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="I57" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" s="26" t="e">
+      <c r="I57" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K57" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L57" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M57" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N57" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O57" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P57" s="27" t="e">
+      <c r="K57" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L57" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N57" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O57" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P57" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q57" s="4">
@@ -21516,49 +21516,49 @@
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A58" s="23"/>
-      <c r="B58" s="24">
+      <c r="A58" s="27"/>
+      <c r="B58" s="22">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="22">
         <v>2.1</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="22">
         <v>3</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="23">
         <v>4</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F58" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26" t="s">
+      <c r="G58" s="24"/>
+      <c r="H58" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="I58" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" s="26" t="e">
+      <c r="I58" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K58" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L58" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M58" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N58" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O58" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P58" s="27" t="e">
+      <c r="K58" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L58" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N58" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O58" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P58" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q58" s="4">
@@ -21623,49 +21623,49 @@
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A59" s="23"/>
-      <c r="B59" s="24">
+      <c r="A59" s="27"/>
+      <c r="B59" s="22">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="22">
         <v>2.1</v>
       </c>
-      <c r="D59" s="24">
+      <c r="D59" s="22">
         <v>3</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="23">
         <v>4</v>
       </c>
-      <c r="F59" s="25">
+      <c r="F59" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26" t="s">
+      <c r="G59" s="24"/>
+      <c r="H59" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="I59" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" s="26" t="e">
+      <c r="I59" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="24" t="e">
         <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K59" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L59" s="27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M59" s="27" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N59" s="27" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O59" s="27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P59" s="27" t="e">
+      <c r="K59" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L59" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M59" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N59" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O59" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P59" s="25" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q59" s="4">
@@ -21730,21 +21730,21 @@
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
@@ -21762,21 +21762,21 @@
       <c r="AE60" s="6"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
@@ -21794,21 +21794,21 @@
       <c r="AE61" s="6"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
@@ -21826,21 +21826,21 @@
       <c r="AE62" s="6"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
@@ -21858,21 +21858,21 @@
       <c r="AE63" s="6"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
@@ -21890,21 +21890,21 @@
       <c r="AE64" s="6"/>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
@@ -21922,21 +21922,21 @@
       <c r="AE65" s="6"/>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
@@ -21954,21 +21954,21 @@
       <c r="AE66" s="6"/>
     </row>
     <row r="67" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
@@ -21986,21 +21986,21 @@
       <c r="AE67" s="6"/>
     </row>
     <row r="68" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
@@ -22019,11 +22019,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="A43:A51"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A57:A59"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="Q1:AV1"/>
@@ -22032,6 +22027,11 @@
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AG2:AV2"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A57:A59"/>
     <mergeCell ref="A16:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22095,70 +22095,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -22168,22 +22168,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -22193,36 +22193,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AG2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenzoarcidiacono/PycharmProjects/formulas/test/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465224A6-0189-0B45-A13A-063014ED74CA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5C0092-D81D-1643-A5F4-836DCAE164F3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATH &amp; TRIG" sheetId="3" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="LOGICAL" sheetId="8" r:id="rId7"/>
     <sheet name="CORE" sheetId="1" r:id="rId8"/>
     <sheet name="REF" sheetId="2" r:id="rId9"/>
+    <sheet name="OPERATORS" sheetId="13" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="a">CORE!$B$2:$C$3</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="370">
   <si>
     <t>ca</t>
   </si>
@@ -1106,6 +1107,54 @@
   </si>
   <si>
     <t>MATCH match_type=-1</t>
+  </si>
+  <si>
+    <t>OPERATOR</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>U-</t>
+  </si>
+  <si>
+    <t>U+</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1250,9 +1299,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52929E63-D802-7443-B5FD-6A6404B94706}">
   <dimension ref="A1:AV81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1596,70 +1650,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -1669,22 +1723,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -1694,36 +1748,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -11747,6 +11801,2606 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06743156-B15F-3C4D-BF5C-DF8A4FD21BB1}">
+  <dimension ref="A1:AV81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="5.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="5.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="4.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="33" max="48" width="5.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+    </row>
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+    </row>
+    <row r="3" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E3" s="14">
+        <v>10</v>
+      </c>
+      <c r="F3" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N3" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O3" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P3" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>B3+C3</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" ref="R3:AE3" si="0">C3+D3</f>
+        <v>3.3</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" si="0"/>
+        <v>12.3</v>
+      </c>
+      <c r="T3" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="U3" s="6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="V3" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W3" s="6" t="e">
+        <f>H3+"a"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X3" s="6">
+        <f>I3+C3</f>
+        <v>2</v>
+      </c>
+      <c r="Y3" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z3" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA3" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB3" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC3" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD3" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE3" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF3" s="10" t="e">
+        <f>B3:F3+C3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG3" s="10">
+        <f t="array" ref="AG3:AJ3">B3:O3+3</f>
+        <v>3</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>13</v>
+      </c>
+      <c r="AK3" s="6">
+        <f t="array" ref="AK3:AV3">E3:O3+F3:P3</f>
+        <v>9</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AM3" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN3" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO3" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP3" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ3" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AR3" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS3" s="6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AT3" s="6" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AU3" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AV3" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E4" s="14">
+        <v>10</v>
+      </c>
+      <c r="F4" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L4" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N4" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O4" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P4" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>B4-C4</f>
+        <v>-1</v>
+      </c>
+      <c r="R4" s="6">
+        <f t="shared" ref="R4:AE4" si="1">C4-D4</f>
+        <v>-1.2999999999999998</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" si="1"/>
+        <v>-7.7</v>
+      </c>
+      <c r="T4" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="U4" s="6">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="V4" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W4" s="6" t="e">
+        <f>H4-"a"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X4" s="6">
+        <f>I4-C4</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z4" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA4" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB4" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC4" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD4" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE4" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF4" s="10" t="e">
+        <f>B4:F4-C4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG4" s="10">
+        <f t="array" ref="AG4:AJ4">B4:O4-3</f>
+        <v>-3</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>-2</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>7</v>
+      </c>
+      <c r="AK4" s="6">
+        <f t="array" ref="AK4:AV4">E4:O4-F4:P4</f>
+        <v>11</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AM4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP4" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ4" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AR4" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS4" s="6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AT4" s="6" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AU4" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AV4" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E5" s="14">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N5" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O5" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P5" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>-B5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" ref="R5:AE5" si="2">-C5</f>
+        <v>-1</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="2"/>
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="U5" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X5" s="6">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Y5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF5" s="10" t="e">
+        <f>-B5:F5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG5" s="10">
+        <f t="array" ref="AG5:AV5">-B5:P5</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>-10</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AO5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP5" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ5" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR5" s="6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS5" s="6" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT5" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU5" s="6" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV5" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E6" s="14">
+        <v>10</v>
+      </c>
+      <c r="F6" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N6" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O6" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P6" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>+B6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" ref="R6:AE6" si="3">+C6</f>
+        <v>1</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="V6" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>ciao</v>
+      </c>
+      <c r="X6" s="6" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z6" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA6" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB6" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC6" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD6" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE6" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF6" s="10" t="e">
+        <f>+B6:F6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG6" s="10">
+        <f t="array" ref="AG6:AV6">+B6:P6</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>10</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="6" t="str">
+        <v>ciao</v>
+      </c>
+      <c r="AN6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP6" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ6" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR6" s="6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS6" s="6" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT6" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU6" s="6" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV6" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E7" s="14">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N7" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O7" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P7" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>B7*C7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" ref="R7:AE7" si="4">C7*D7</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W7" s="6" t="e">
+        <f>H7*"a"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X7" s="6">
+        <f>I7*C7</f>
+        <v>1</v>
+      </c>
+      <c r="Y7" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z7" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA7" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB7" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC7" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD7" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE7" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF7" s="10" t="e">
+        <f>B7:F7*C7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG7" s="10">
+        <f t="array" ref="AG7:AJ7">B7:O7*3</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>30</v>
+      </c>
+      <c r="AK7" s="6">
+        <f t="array" ref="AK7:AV7">E7:O7*F7:P7</f>
+        <v>-10</v>
+      </c>
+      <c r="AL7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN7" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO7" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP7" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ7" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AR7" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS7" s="6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AT7" s="6" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AU7" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AV7" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E8" s="14">
+        <v>10</v>
+      </c>
+      <c r="F8" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N8" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O8" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P8" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>B8/C8</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" ref="R8:AE8" si="5">C8/D8</f>
+        <v>0.43478260869565222</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T8" s="6">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+      <c r="U8" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V8" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W8" s="6" t="e">
+        <f>H8/"a"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X8" s="6">
+        <f>I8/C8</f>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z8" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA8" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB8" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC8" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD8" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE8" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF8" s="10" t="e">
+        <f>B8:F8/C8</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG8" s="10">
+        <f t="array" ref="AG8:AJ8">B8:O8/3</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AK8" s="6">
+        <f t="array" ref="AK8:AV8">E8:O8/F8:P8</f>
+        <v>-10</v>
+      </c>
+      <c r="AL8" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM8" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN8" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO8" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP8" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ8" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AR8" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS8" s="6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AT8" s="6" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AU8" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AV8" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E9" s="14">
+        <v>10</v>
+      </c>
+      <c r="F9" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L9" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N9" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O9" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P9" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q9" s="6">
+        <f>B9^C9</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <f t="shared" ref="R9:AE9" si="6">C9^D9</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="6"/>
+        <v>4142.6511213648964</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="U9" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W9" s="14" t="e">
+        <f>H9^"a"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X9" s="6">
+        <f>I9^C9</f>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z9" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA9" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB9" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC9" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD9" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE9" s="6" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF9" s="10" t="e">
+        <f>B9:F9^C9</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG9" s="10">
+        <f t="array" ref="AG9:AJ9">B9:O9^3</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>12.166999999999996</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>1000</v>
+      </c>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="4"/>
+    </row>
+    <row r="10" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E10" s="14">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N10" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O10" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P10" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q10" s="6" t="b">
+        <f>B10&lt;C10</f>
+        <v>1</v>
+      </c>
+      <c r="R10" s="6" t="b">
+        <f t="shared" ref="R10:AE10" si="7">C10&lt;D10</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="6" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="T10" s="6" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="6" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="6" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="W10" s="6" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="X10" s="6" t="b">
+        <f>I10&lt;C10</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z10" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA10" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB10" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC10" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD10" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE10" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF10" s="10" t="e">
+        <f>B10:F10&lt;C10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG10" s="10" t="b">
+        <f t="array" ref="AG10:AJ10">B10:O10&lt;3</f>
+        <v>1</v>
+      </c>
+      <c r="AH10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="4"/>
+    </row>
+    <row r="11" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E11" s="14">
+        <v>10</v>
+      </c>
+      <c r="F11" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N11" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O11" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P11" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q11" s="6" t="b">
+        <f>B11&lt;=C11</f>
+        <v>1</v>
+      </c>
+      <c r="R11" s="6" t="b">
+        <f t="shared" ref="R11:AE11" si="8">C11&lt;=D11</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="6" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="6" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="6" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="6" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="W11" s="6" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X11" s="6" t="b">
+        <f>I11&lt;=C11</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z11" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA11" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB11" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC11" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD11" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE11" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF11" s="10" t="e">
+        <f>B11:F11&lt;=C11</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG11" s="10" t="b">
+        <f t="array" ref="AG11:AJ11">B11:O11&lt;=3</f>
+        <v>1</v>
+      </c>
+      <c r="AH11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="4"/>
+    </row>
+    <row r="12" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E12" s="14">
+        <v>10</v>
+      </c>
+      <c r="F12" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N12" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O12" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P12" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q12" s="6" t="b">
+        <f>B12&gt;C12</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="6" t="b">
+        <f t="shared" ref="R12:AE12" si="9">C12&gt;D12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="6" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="6" t="b">
+        <f>I12&gt;C12</f>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z12" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA12" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB12" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC12" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD12" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE12" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF12" s="10" t="e">
+        <f>B12:F12&gt;C12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG12" s="10" t="b">
+        <f t="array" ref="AG12:AJ12">B12:O12&gt;3</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="4"/>
+    </row>
+    <row r="13" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E13" s="14">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N13" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O13" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P13" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q13" s="6" t="b">
+        <f>B13&gt;=C13</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="6" t="b">
+        <f t="shared" ref="R13:AE13" si="10">C13&gt;=D13</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="6" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="6" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="6" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="6" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="6" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="6" t="b">
+        <f>I13&gt;=C13</f>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="6" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z13" s="6" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA13" s="6" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB13" s="6" t="e">
+        <f t="shared" si="10"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC13" s="6" t="e">
+        <f t="shared" si="10"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD13" s="6" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE13" s="6" t="e">
+        <f t="shared" si="10"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF13" s="10" t="e">
+        <f>B13:F13&gt;=C13</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG13" s="10" t="b">
+        <f t="array" ref="AG13:AJ13">B13:O13&gt;=3</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="4"/>
+    </row>
+    <row r="14" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E14" s="14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N14" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O14" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P14" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q14" s="6" t="b">
+        <f>B14=C14</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="6" t="b">
+        <f t="shared" ref="R14:AE14" si="11">C14=D14</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="6" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="6" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="6" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="6" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="6" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="6" t="b">
+        <f>I14=C14</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z14" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA14" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB14" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC14" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD14" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE14" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF14" s="10" t="e">
+        <f>B14:F14=C14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG14" s="10" t="b">
+        <f t="array" ref="AG14:AJ14">B14:O14=3</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="4"/>
+    </row>
+    <row r="15" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E15" s="14">
+        <v>10</v>
+      </c>
+      <c r="F15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L15" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N15" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O15" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P15" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q15" s="6" t="b">
+        <f>B15&lt;&gt;C15</f>
+        <v>1</v>
+      </c>
+      <c r="R15" s="6" t="b">
+        <f t="shared" ref="R15:AE15" si="12">C15&lt;&gt;D15</f>
+        <v>1</v>
+      </c>
+      <c r="S15" s="6" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="6" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="6" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="6" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="W15" s="6" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="6" t="b">
+        <f>I15&lt;&gt;C15</f>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z15" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA15" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB15" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC15" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD15" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE15" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF15" s="10" t="e">
+        <f>B15:F15&lt;&gt;C15</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG15" s="10" t="b">
+        <f t="array" ref="AG15:AJ15">B15:O15&lt;&gt;3</f>
+        <v>1</v>
+      </c>
+      <c r="AH15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="4"/>
+    </row>
+    <row r="16" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E16" s="14">
+        <v>10</v>
+      </c>
+      <c r="F16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L16" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N16" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O16" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P16" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q16" s="6" t="str">
+        <f>B16&amp;C16</f>
+        <v>01</v>
+      </c>
+      <c r="R16" s="6" t="str">
+        <f t="shared" ref="R16:AE16" si="13">C16&amp;D16</f>
+        <v>12.3</v>
+      </c>
+      <c r="S16" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>2.310</v>
+      </c>
+      <c r="T16" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>10-1</v>
+      </c>
+      <c r="U16" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="V16" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>ciao</v>
+      </c>
+      <c r="W16" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>ciaoTRUE</v>
+      </c>
+      <c r="X16" s="6" t="str">
+        <f>I16&amp;C16</f>
+        <v>TRUE1</v>
+      </c>
+      <c r="Y16" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z16" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA16" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB16" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC16" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD16" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE16" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF16" s="10" t="e">
+        <f>B16:F16&amp;C16</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG16" s="10" t="str">
+        <f t="array" ref="AG16:AJ16">B16:O16&amp;3</f>
+        <v>03</v>
+      </c>
+      <c r="AH16" s="6" t="str">
+        <v>13</v>
+      </c>
+      <c r="AI16" s="6" t="str">
+        <v>2.33</v>
+      </c>
+      <c r="AJ16" s="6" t="str">
+        <v>103</v>
+      </c>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="4"/>
+    </row>
+    <row r="17" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E17" s="14">
+        <v>10</v>
+      </c>
+      <c r="F17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L17" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N17" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O17" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P17" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q17" s="6">
+        <f>B17%</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" ref="R17:AE17" si="14">C17%</f>
+        <v>0.01</v>
+      </c>
+      <c r="S17" s="6">
+        <f t="shared" si="14"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="T17" s="6">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="U17" s="6">
+        <f t="shared" si="14"/>
+        <v>-0.01</v>
+      </c>
+      <c r="V17" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X17" s="6">
+        <f>I17%</f>
+        <v>0.01</v>
+      </c>
+      <c r="Y17" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z17" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA17" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB17" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC17" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD17" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE17" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF17" s="10" t="e">
+        <f>B17:F17%</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG17" s="10">
+        <f t="array" ref="AG17:AJ17">B17:O17%</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="AI17" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AJ17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="4"/>
+    </row>
+    <row r="18" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="29"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="4"/>
+    </row>
+    <row r="19" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="29"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="4"/>
+    </row>
+    <row r="20" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="29"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
+      <c r="AV20" s="4"/>
+    </row>
+    <row r="21" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="Q1:AV1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AV2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11803,70 +14457,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -11876,22 +14530,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -11901,36 +14555,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -12559,70 +15213,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -12632,22 +15286,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -12657,36 +15311,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -14539,70 +17193,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -14612,22 +17266,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -14637,36 +17291,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -15752,70 +18406,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -15825,22 +18479,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -15850,36 +18504,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -16362,70 +19016,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="19" t="s">
         <v>38</v>
       </c>
@@ -16435,22 +19089,22 @@
       <c r="I2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
       <c r="V2" s="19" t="s">
         <v>38</v>
       </c>
@@ -16460,36 +19114,36 @@
       <c r="X2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
       <c r="AF2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -16649,7 +19303,7 @@
       </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>338</v>
       </c>
       <c r="B10" s="22">
@@ -16807,7 +19461,7 @@
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -16914,7 +19568,7 @@
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -17037,7 +19691,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="28" t="s">
         <v>342</v>
       </c>
       <c r="B16" s="22">
@@ -17199,7 +19853,7 @@
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -17330,7 +19984,7 @@
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -17461,7 +20115,7 @@
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -17592,7 +20246,7 @@
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -17723,7 +20377,7 @@
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -17854,7 +20508,7 @@
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -17985,7 +20639,7 @@
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -18116,7 +20770,7 @@
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -18246,7 +20900,7 @@
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="28" t="s">
         <v>352</v>
       </c>
       <c r="B25" s="22">
@@ -18371,7 +21025,7 @@
       <c r="AU25" s="6"/>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="22">
         <v>-2</v>
       </c>
@@ -18480,7 +21134,7 @@
       <c r="AG26" s="6"/>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="22">
         <v>-2</v>
       </c>
@@ -18589,7 +21243,7 @@
       <c r="AG27" s="6"/>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="22">
         <v>-2</v>
       </c>
@@ -18698,7 +21352,7 @@
       <c r="AG28" s="6"/>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="22">
         <v>-2</v>
       </c>
@@ -18807,7 +21461,7 @@
       <c r="AG29" s="6"/>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="22">
         <v>-2</v>
       </c>
@@ -18916,7 +21570,7 @@
       <c r="AG30" s="6"/>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A31" s="27"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="22">
         <v>-2</v>
       </c>
@@ -19025,7 +21679,7 @@
       <c r="AG31" s="6"/>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A32" s="27"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="22">
         <v>-2</v>
       </c>
@@ -19134,7 +21788,7 @@
       <c r="AG32" s="6"/>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A33" s="27"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="22">
         <v>-2</v>
       </c>
@@ -19243,7 +21897,7 @@
       <c r="AG33" s="6"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="28" t="s">
         <v>351</v>
       </c>
       <c r="B34" s="22">
@@ -19368,7 +22022,7 @@
       <c r="AU34" s="6"/>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A35" s="27"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="22">
         <v>-2</v>
       </c>
@@ -19477,7 +22131,7 @@
       <c r="AG35" s="6"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A36" s="27"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="22">
         <v>-2</v>
       </c>
@@ -19586,7 +22240,7 @@
       <c r="AG36" s="6"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A37" s="27"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="22">
         <v>-2</v>
       </c>
@@ -19695,7 +22349,7 @@
       <c r="AG37" s="6"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A38" s="27"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="22">
         <v>-2</v>
       </c>
@@ -19804,7 +22458,7 @@
       <c r="AG38" s="6"/>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A39" s="27"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="22">
         <v>-2</v>
       </c>
@@ -19913,7 +22567,7 @@
       <c r="AG39" s="6"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A40" s="27"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="22">
         <v>-2</v>
       </c>
@@ -20022,7 +22676,7 @@
       <c r="AG40" s="6"/>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A41" s="27"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="22">
         <v>-2</v>
       </c>
@@ -20131,7 +22785,7 @@
       <c r="AG41" s="6"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A42" s="27"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="22">
         <v>-2</v>
       </c>
@@ -20240,7 +22894,7 @@
       <c r="AG42" s="6"/>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="28" t="s">
         <v>353</v>
       </c>
       <c r="B43" s="22">
@@ -20365,7 +23019,7 @@
       <c r="AU43" s="6"/>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A44" s="27"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="22">
         <v>-2</v>
       </c>
@@ -20474,7 +23128,7 @@
       <c r="AG44" s="6"/>
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A45" s="27"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="22">
         <v>-2</v>
       </c>
@@ -20583,7 +23237,7 @@
       <c r="AG45" s="6"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A46" s="27"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="22">
         <v>-2</v>
       </c>
@@ -20692,7 +23346,7 @@
       <c r="AG46" s="6"/>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A47" s="27"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="22">
         <v>-2</v>
       </c>
@@ -20801,7 +23455,7 @@
       <c r="AG47" s="6"/>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A48" s="27"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="22">
         <v>-2</v>
       </c>
@@ -20910,7 +23564,7 @@
       <c r="AG48" s="6"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A49" s="27"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="22">
         <v>-2</v>
       </c>
@@ -21019,7 +23673,7 @@
       <c r="AG49" s="6"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A50" s="27"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="22">
         <v>-2</v>
       </c>
@@ -21128,7 +23782,7 @@
       <c r="AG50" s="6"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A51" s="27"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="22">
         <v>-2</v>
       </c>
@@ -21407,7 +24061,7 @@
       <c r="AE56" s="6"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="28" t="s">
         <v>348</v>
       </c>
       <c r="B57" s="22">
@@ -21516,7 +24170,7 @@
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A58" s="27"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -21623,7 +24277,7 @@
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A59" s="27"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -22019,6 +24673,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A16:A24"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="Q1:AV1"/>
@@ -22027,12 +24687,6 @@
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AG2:AV2"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="A43:A51"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A16:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -22044,7 +24698,7 @@
   <dimension ref="A1:BJ22"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="AM5" sqref="AM5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -22095,70 +24749,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -22168,22 +24822,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -22193,36 +24847,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenzoarcidiacono/PycharmProjects/formulas/test/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5C0092-D81D-1643-A5F4-836DCAE164F3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE79BC65-31AC-C94A-B994-F853FB7FB6C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATH &amp; TRIG" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="CORE" sheetId="1" r:id="rId8"/>
     <sheet name="REF" sheetId="2" r:id="rId9"/>
     <sheet name="OPERATORS" sheetId="13" r:id="rId10"/>
+    <sheet name="ENGINEERING" sheetId="15" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="a">CORE!$B$2:$C$3</definedName>
@@ -35,7 +36,7 @@
     <definedName name="f">CORE!$G$2:$H$5</definedName>
     <definedName name="g">REF!$B$2:$B$5</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="427">
   <si>
     <t>ca</t>
   </si>
@@ -1155,6 +1156,177 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>BESSELI</t>
+  </si>
+  <si>
+    <t>BESSELJ</t>
+  </si>
+  <si>
+    <t>BESSELK</t>
+  </si>
+  <si>
+    <t>BESSELY</t>
+  </si>
+  <si>
+    <t>BIN2DEC</t>
+  </si>
+  <si>
+    <t>BIN2HEX</t>
+  </si>
+  <si>
+    <t>BIN2OCT</t>
+  </si>
+  <si>
+    <t>BITAND</t>
+  </si>
+  <si>
+    <t>BITLSHIFT</t>
+  </si>
+  <si>
+    <t>BITOR</t>
+  </si>
+  <si>
+    <t>BITRSHIFT</t>
+  </si>
+  <si>
+    <t>BITXOR</t>
+  </si>
+  <si>
+    <t>COMPLEX</t>
+  </si>
+  <si>
+    <t>CONVERT</t>
+  </si>
+  <si>
+    <t>DEC2BIN</t>
+  </si>
+  <si>
+    <t>DEC2HEX</t>
+  </si>
+  <si>
+    <t>DEC2OCT</t>
+  </si>
+  <si>
+    <t>DELTA</t>
+  </si>
+  <si>
+    <t>ERF</t>
+  </si>
+  <si>
+    <t>ERF.PRECISE</t>
+  </si>
+  <si>
+    <t>ERFC</t>
+  </si>
+  <si>
+    <t>ERFC.PRECISE</t>
+  </si>
+  <si>
+    <t>GESTEP</t>
+  </si>
+  <si>
+    <t>HEX2BIN</t>
+  </si>
+  <si>
+    <t>HEX2DEC</t>
+  </si>
+  <si>
+    <t>HEX2OCT</t>
+  </si>
+  <si>
+    <t>IMABS</t>
+  </si>
+  <si>
+    <t>IMAGINARY</t>
+  </si>
+  <si>
+    <t>IMARGUMENT</t>
+  </si>
+  <si>
+    <t>IMCONJUGATE</t>
+  </si>
+  <si>
+    <t>IMCOS</t>
+  </si>
+  <si>
+    <t>IMCOSH</t>
+  </si>
+  <si>
+    <t>IMCOT</t>
+  </si>
+  <si>
+    <t>IMCSC</t>
+  </si>
+  <si>
+    <t>IMCSCH</t>
+  </si>
+  <si>
+    <t>IMDIV</t>
+  </si>
+  <si>
+    <t>IMEXP</t>
+  </si>
+  <si>
+    <t>IMLN</t>
+  </si>
+  <si>
+    <t>IMLOG10</t>
+  </si>
+  <si>
+    <t>IMLOG2</t>
+  </si>
+  <si>
+    <t>IMPOWER</t>
+  </si>
+  <si>
+    <t>IMPRODUCT</t>
+  </si>
+  <si>
+    <t>IMREAL</t>
+  </si>
+  <si>
+    <t>IMSEC</t>
+  </si>
+  <si>
+    <t>IMSECH</t>
+  </si>
+  <si>
+    <t>IMSIN</t>
+  </si>
+  <si>
+    <t>IMSINH</t>
+  </si>
+  <si>
+    <t>IMSQRT</t>
+  </si>
+  <si>
+    <t>IMSUB</t>
+  </si>
+  <si>
+    <t>IMSUM</t>
+  </si>
+  <si>
+    <t>IMTAN</t>
+  </si>
+  <si>
+    <t>OCT2BIN</t>
+  </si>
+  <si>
+    <t>OCT2DEC</t>
+  </si>
+  <si>
+    <t>OCT2HEX</t>
+  </si>
+  <si>
+    <t>fffffffffe</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>f000000000</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1204,6 +1376,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FFE6DB74"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1253,7 +1431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1302,11 +1480,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1613,7 +1796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52929E63-D802-7443-B5FD-6A6404B94706}">
   <dimension ref="A1:AV81"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1650,70 +1833,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -1723,22 +1906,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -1748,36 +1931,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AG2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -11808,107 +11991,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06743156-B15F-3C4D-BF5C-DF8A4FD21BB1}">
   <dimension ref="A1:AV81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.83203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.83203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.83203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="5.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="5.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="4.83203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.83203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="33" max="48" width="5.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.83203125" style="30"/>
+    <col min="1" max="1" width="6.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" style="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="5.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="5.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="4.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="33" max="48" width="5.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
     </row>
     <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="26" t="s">
         <v>38</v>
       </c>
@@ -11918,22 +12101,22 @@
       <c r="I2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="26" t="s">
         <v>38</v>
       </c>
@@ -11943,39 +12126,39 @@
       <c r="X2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
       <c r="AF2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AG2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
     </row>
     <row r="3" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>355</v>
       </c>
       <c r="B3" s="14">
@@ -12138,7 +12321,7 @@
       </c>
     </row>
     <row r="4" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>356</v>
       </c>
       <c r="B4" s="14">
@@ -12300,7 +12483,7 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>357</v>
       </c>
       <c r="B5" s="14">
@@ -12461,7 +12644,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>358</v>
       </c>
       <c r="B6" s="14">
@@ -12622,7 +12805,7 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>359</v>
       </c>
       <c r="B7" s="14">
@@ -12784,7 +12967,7 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>360</v>
       </c>
       <c r="B8" s="14">
@@ -12946,7 +13129,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>361</v>
       </c>
       <c r="B9" s="14">
@@ -13083,7 +13266,7 @@
       <c r="AV9" s="4"/>
     </row>
     <row r="10" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>362</v>
       </c>
       <c r="B10" s="14">
@@ -13220,7 +13403,7 @@
       <c r="AV10" s="4"/>
     </row>
     <row r="11" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>363</v>
       </c>
       <c r="B11" s="14">
@@ -13357,7 +13540,7 @@
       <c r="AV11" s="4"/>
     </row>
     <row r="12" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>364</v>
       </c>
       <c r="B12" s="14">
@@ -13494,7 +13677,7 @@
       <c r="AV12" s="4"/>
     </row>
     <row r="13" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>365</v>
       </c>
       <c r="B13" s="14">
@@ -13631,7 +13814,7 @@
       <c r="AV13" s="4"/>
     </row>
     <row r="14" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>366</v>
       </c>
       <c r="B14" s="14">
@@ -13768,7 +13951,7 @@
       <c r="AV14" s="4"/>
     </row>
     <row r="15" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>367</v>
       </c>
       <c r="B15" s="14">
@@ -13905,7 +14088,7 @@
       <c r="AV15" s="4"/>
     </row>
     <row r="16" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>368</v>
       </c>
       <c r="B16" s="14">
@@ -14042,7 +14225,7 @@
       <c r="AV16" s="4"/>
     </row>
     <row r="17" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>369</v>
       </c>
       <c r="B17" s="14">
@@ -14179,7 +14362,7 @@
       <c r="AV17" s="4"/>
     </row>
     <row r="18" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -14229,7 +14412,7 @@
       <c r="AV18" s="4"/>
     </row>
     <row r="19" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -14279,7 +14462,7 @@
       <c r="AV19" s="4"/>
     </row>
     <row r="20" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -14404,6 +14587,1878 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E55D778-8138-E945-B7BE-C1CFFC3F5C7B}">
+  <dimension ref="A1:BJ56"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A6" s="30" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>111111111</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1000000000</v>
+      </c>
+      <c r="F7" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N7" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O7" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P7" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>BIN2DEC(B7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" ref="R7:AE7" si="0">BIN2DEC(C7)</f>
+        <v>511</v>
+      </c>
+      <c r="S7" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="0"/>
+        <v>-512</v>
+      </c>
+      <c r="U7" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V7" s="6">
+        <f>BIN2DEC(G7)</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X7" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y7" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z7" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA7" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB7" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC7" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD7" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE7" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>111111111</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1000000000</v>
+      </c>
+      <c r="F8" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N8" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O8" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P8" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q8" s="6" t="str">
+        <f>BIN2HEX(B8)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="6" t="str">
+        <f t="shared" ref="R8:AE8" si="1">BIN2HEX(C8)</f>
+        <v>1FF</v>
+      </c>
+      <c r="S8" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>FFFFFFFE00</v>
+      </c>
+      <c r="U8" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V8" s="6" t="e">
+        <f>BIN2HEX(G8,0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W8" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X8" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y8" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z8" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA8" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB8" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC8" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD8" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE8" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>111111111</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1000000000</v>
+      </c>
+      <c r="F9" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L9" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N9" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O9" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P9" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q9" s="6" t="str">
+        <f>BIN2OCT(B9)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="6" t="str">
+        <f t="shared" ref="R9:AE9" si="2">BIN2OCT(C9)</f>
+        <v>777</v>
+      </c>
+      <c r="S9" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T9" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>7777777000</v>
+      </c>
+      <c r="U9" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V9" s="6" t="e">
+        <f>BIN2OCT(G9,0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W9" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X9" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y9" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z9" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA9" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB9" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC9" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD9" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE9" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A17" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" s="14">
+        <f>C17+1</f>
+        <v>512.70000000000005</v>
+      </c>
+      <c r="C17" s="14">
+        <v>511.7</v>
+      </c>
+      <c r="D17" s="14">
+        <v>100</v>
+      </c>
+      <c r="E17" s="14">
+        <f>-C17-1</f>
+        <v>-512.70000000000005</v>
+      </c>
+      <c r="F17" s="14">
+        <f>E17-1</f>
+        <v>-513.70000000000005</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L17" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N17" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O17" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P17" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q17" s="6" t="e">
+        <f>DEC2BIN(B17)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="R17" s="6" t="str">
+        <f t="shared" ref="R17:AE17" si="3">DEC2BIN(C17)</f>
+        <v>111111111</v>
+      </c>
+      <c r="S17" s="6" t="e">
+        <f>DEC2BIN(D17,1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T17" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U17" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V17" s="6" t="str">
+        <f>DEC2BIN(G17,3)</f>
+        <v>000</v>
+      </c>
+      <c r="W17" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X17" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y17" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z17" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA17" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB17" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC17" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD17" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE17" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B18" s="14">
+        <f t="shared" ref="B18:B19" si="4">C18+1</f>
+        <v>549755813888.69995</v>
+      </c>
+      <c r="C18" s="14">
+        <v>549755813887.70001</v>
+      </c>
+      <c r="D18" s="14">
+        <v>100</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" ref="E18:E19" si="5">-C18-1</f>
+        <v>-549755813888.69995</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" ref="F18:F19" si="6">E18-1</f>
+        <v>-549755813889.69995</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L18" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N18" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O18" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P18" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q18" s="6" t="e">
+        <f>DEC2HEX(B18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f t="shared" ref="R18:AE18" si="7">DEC2HEX(C18)</f>
+        <v>7FFFFFFFFF</v>
+      </c>
+      <c r="S18" s="6" t="e">
+        <f>DEC2HEX(D18,1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T18" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>8000000000</v>
+      </c>
+      <c r="U18" s="6" t="e">
+        <f>DEC2HEX(F18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="V18" s="6" t="str">
+        <f>DEC2HEX(G18,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X18" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y18" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z18" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA18" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB18" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC18" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD18" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE18" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B19" s="14">
+        <f t="shared" si="4"/>
+        <v>536870912.70000005</v>
+      </c>
+      <c r="C19" s="14">
+        <v>536870911.69999999</v>
+      </c>
+      <c r="D19" s="14">
+        <v>100</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="5"/>
+        <v>-536870912.70000005</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="6"/>
+        <v>-536870913.70000005</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K19" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L19" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N19" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O19" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P19" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q19" s="6" t="e">
+        <f>DEC2OCT(B19)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f t="shared" ref="R19:AE19" si="8">DEC2OCT(C19)</f>
+        <v>3777777777</v>
+      </c>
+      <c r="S19" s="6" t="e">
+        <f>DEC2OCT(D19,1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T19" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>4000000000</v>
+      </c>
+      <c r="U19" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V19" s="6" t="e">
+        <f>DEC2OCT(G19,0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W19" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X19" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y19" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z19" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA19" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB19" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC19" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD19" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE19" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="L21" s="33"/>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A22" s="16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26" s="14">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E26" s="14">
+        <v>11111111111</v>
+      </c>
+      <c r="F26" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I26" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N26" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O26" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P26" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q26" s="6" t="str">
+        <f>HEX2BIN(B26)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="6" t="e">
+        <f>HEX2BIN(C26)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S26" s="6" t="e">
+        <f>HEX2BIN(D26)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T26" s="6" t="e">
+        <f t="shared" ref="S26:AE26" si="9">HEX2BIN(E26)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="U26" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V26" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="6" t="str">
+        <f>HEX2BIN(H26)</f>
+        <v>1111111110</v>
+      </c>
+      <c r="X26" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y26" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z26" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB26" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC26" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD26" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE26" s="6" t="e">
+        <f t="shared" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="6" t="e">
+        <f t="array" ref="AG26:AN26">HEX2BIN(B26:I26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH26" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI26" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ26" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK26" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL26" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM26" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN26" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0</v>
+      </c>
+      <c r="C27" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="D27" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E27" s="14">
+        <v>11111111111</v>
+      </c>
+      <c r="F27" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="I27" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L27" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N27" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O27" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P27" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q27" s="6">
+        <f>HEX2DEC(B27)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
+        <f>HEX2DEC(C27)</f>
+        <v>-439804651111</v>
+      </c>
+      <c r="S27" s="6" t="e">
+        <f>HEX2DEC(D27)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T27" s="6" t="e">
+        <f t="shared" ref="R27:AE27" si="10">HEX2DEC(E27)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="U27" s="6" t="e">
+        <f>HEX2DEC(F27)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="V27" s="6">
+        <f>HEX2DEC(G27)</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="6">
+        <f>HEX2DEC(H27)</f>
+        <v>-68719476736</v>
+      </c>
+      <c r="X27" s="6" t="e">
+        <f>HEX2DEC(I27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y27" s="6" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z27" s="6" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA27" s="6" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB27" s="6" t="e">
+        <f t="shared" si="10"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC27" s="6" t="e">
+        <f t="shared" si="10"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD27" s="6" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE27" s="6" t="e">
+        <f t="shared" si="10"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="6" t="e">
+        <f t="array" ref="AG27:AN27">HEX2DEC(B27:I27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH27" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI27" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ27" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK27" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL27" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM27" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN27" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="6"/>
+      <c r="AT27" s="6"/>
+      <c r="AU27" s="6"/>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28" s="14">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14">
+        <v>9999999999</v>
+      </c>
+      <c r="D28" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E28" s="14">
+        <v>11111111111</v>
+      </c>
+      <c r="F28" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L28" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N28" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O28" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P28" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q28" s="6" t="str">
+        <f>HEX2OCT(B28)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="6" t="e">
+        <f t="shared" ref="R28:AE28" si="11">HEX2OCT(C28)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S28" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T28" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U28" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V28" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="6" t="str">
+        <f>HEX2OCT(H28)</f>
+        <v>7777777776</v>
+      </c>
+      <c r="X28" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y28" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z28" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA28" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB28" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC28" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD28" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE28" s="6" t="e">
+        <f t="shared" si="11"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="6" t="e">
+        <f t="array" ref="AG28:AN28">HEX2OCT(B28:I28)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH28" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI28" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ28" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK28" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL28" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM28" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN28" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A54" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B54" s="14">
+        <v>0</v>
+      </c>
+      <c r="C54" s="14">
+        <v>7777777777</v>
+      </c>
+      <c r="D54" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E54" s="14">
+        <v>11111111111</v>
+      </c>
+      <c r="F54" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="I54" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K54" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L54" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M54" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N54" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O54" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P54" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q54" s="6" t="str">
+        <f>OCT2BIN(B54)</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="6" t="str">
+        <f t="shared" ref="R54:AE54" si="12">OCT2BIN(C54)</f>
+        <v>1111111111</v>
+      </c>
+      <c r="S54" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T54" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U54" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V54" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X54" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y54" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z54" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA54" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB54" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC54" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD54" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE54" s="6" t="e">
+        <f t="shared" si="12"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A55" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B55" s="14">
+        <v>0</v>
+      </c>
+      <c r="C55" s="14">
+        <v>7777777777</v>
+      </c>
+      <c r="D55" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E55" s="14">
+        <v>11111111111</v>
+      </c>
+      <c r="F55" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="I55" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K55" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L55" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M55" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N55" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O55" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P55" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q55" s="6">
+        <f>OCT2DEC(B55)</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="6">
+        <f t="shared" ref="R55:AE55" si="13">OCT2DEC(C55)</f>
+        <v>-1</v>
+      </c>
+      <c r="S55" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T55" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U55" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V55" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X55" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y55" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z55" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA55" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB55" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC55" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD55" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE55" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A56" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B56" s="14">
+        <v>0</v>
+      </c>
+      <c r="C56" s="14">
+        <v>7777777777</v>
+      </c>
+      <c r="D56" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E56" s="14">
+        <v>11111111111</v>
+      </c>
+      <c r="F56" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="I56" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K56" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L56" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N56" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O56" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P56" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q56" s="6" t="str">
+        <f>OCT2HEX(B56)</f>
+        <v>0</v>
+      </c>
+      <c r="R56" s="6" t="str">
+        <f t="shared" ref="R56:AE56" si="14">OCT2HEX(C56)</f>
+        <v>FFFFFFFFFF</v>
+      </c>
+      <c r="S56" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T56" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U56" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V56" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="X56" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y56" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z56" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA56" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB56" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC56" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD56" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE56" s="6" t="e">
+        <f t="shared" si="14"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="Q1:AV1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AV2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1752443E-D395-6347-A5AF-550B6945E519}">
   <dimension ref="A1:BJ57"/>
@@ -14457,70 +16512,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -14530,22 +16585,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -14555,36 +16610,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AG2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -15213,70 +17268,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -15286,22 +17341,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -15311,36 +17366,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AG2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -17193,70 +19248,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -17266,22 +19321,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -17291,36 +19346,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AG2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -18406,70 +20461,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -18479,22 +20534,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -18504,36 +20559,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AG2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -19016,70 +21071,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="19" t="s">
         <v>38</v>
       </c>
@@ -19089,22 +21144,22 @@
       <c r="I2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="19" t="s">
         <v>38</v>
       </c>
@@ -19114,36 +21169,36 @@
       <c r="X2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
       <c r="AF2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AG2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -19303,7 +21358,7 @@
       </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="32" t="s">
         <v>338</v>
       </c>
       <c r="B10" s="22">
@@ -19461,7 +21516,7 @@
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -19568,7 +21623,7 @@
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -19691,7 +21746,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="32" t="s">
         <v>342</v>
       </c>
       <c r="B16" s="22">
@@ -19853,7 +21908,7 @@
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -19984,7 +22039,7 @@
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -20115,7 +22170,7 @@
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -20246,7 +22301,7 @@
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -20377,7 +22432,7 @@
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -20508,7 +22563,7 @@
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -20639,7 +22694,7 @@
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -20770,7 +22825,7 @@
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -20900,7 +22955,7 @@
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="32" t="s">
         <v>352</v>
       </c>
       <c r="B25" s="22">
@@ -21025,7 +23080,7 @@
       <c r="AU25" s="6"/>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="22">
         <v>-2</v>
       </c>
@@ -21134,7 +23189,7 @@
       <c r="AG26" s="6"/>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="22">
         <v>-2</v>
       </c>
@@ -21243,7 +23298,7 @@
       <c r="AG27" s="6"/>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="22">
         <v>-2</v>
       </c>
@@ -21352,7 +23407,7 @@
       <c r="AG28" s="6"/>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="22">
         <v>-2</v>
       </c>
@@ -21461,7 +23516,7 @@
       <c r="AG29" s="6"/>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="22">
         <v>-2</v>
       </c>
@@ -21570,7 +23625,7 @@
       <c r="AG30" s="6"/>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A31" s="28"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="22">
         <v>-2</v>
       </c>
@@ -21679,7 +23734,7 @@
       <c r="AG31" s="6"/>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="22">
         <v>-2</v>
       </c>
@@ -21788,7 +23843,7 @@
       <c r="AG32" s="6"/>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="22">
         <v>-2</v>
       </c>
@@ -21897,7 +23952,7 @@
       <c r="AG33" s="6"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="32" t="s">
         <v>351</v>
       </c>
       <c r="B34" s="22">
@@ -22022,7 +24077,7 @@
       <c r="AU34" s="6"/>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A35" s="28"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="22">
         <v>-2</v>
       </c>
@@ -22131,7 +24186,7 @@
       <c r="AG35" s="6"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A36" s="28"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="22">
         <v>-2</v>
       </c>
@@ -22240,7 +24295,7 @@
       <c r="AG36" s="6"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A37" s="28"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="22">
         <v>-2</v>
       </c>
@@ -22349,7 +24404,7 @@
       <c r="AG37" s="6"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A38" s="28"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="22">
         <v>-2</v>
       </c>
@@ -22458,7 +24513,7 @@
       <c r="AG38" s="6"/>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A39" s="28"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="22">
         <v>-2</v>
       </c>
@@ -22567,7 +24622,7 @@
       <c r="AG39" s="6"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A40" s="28"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="22">
         <v>-2</v>
       </c>
@@ -22676,7 +24731,7 @@
       <c r="AG40" s="6"/>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A41" s="28"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="22">
         <v>-2</v>
       </c>
@@ -22785,7 +24840,7 @@
       <c r="AG41" s="6"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A42" s="28"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="22">
         <v>-2</v>
       </c>
@@ -22894,7 +24949,7 @@
       <c r="AG42" s="6"/>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="32" t="s">
         <v>353</v>
       </c>
       <c r="B43" s="22">
@@ -23019,7 +25074,7 @@
       <c r="AU43" s="6"/>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A44" s="28"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="22">
         <v>-2</v>
       </c>
@@ -23128,7 +25183,7 @@
       <c r="AG44" s="6"/>
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A45" s="28"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="22">
         <v>-2</v>
       </c>
@@ -23237,7 +25292,7 @@
       <c r="AG45" s="6"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A46" s="28"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="22">
         <v>-2</v>
       </c>
@@ -23346,7 +25401,7 @@
       <c r="AG46" s="6"/>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A47" s="28"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="22">
         <v>-2</v>
       </c>
@@ -23455,7 +25510,7 @@
       <c r="AG47" s="6"/>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A48" s="28"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="22">
         <v>-2</v>
       </c>
@@ -23564,7 +25619,7 @@
       <c r="AG48" s="6"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A49" s="28"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="22">
         <v>-2</v>
       </c>
@@ -23673,7 +25728,7 @@
       <c r="AG49" s="6"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A50" s="28"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="22">
         <v>-2</v>
       </c>
@@ -23782,7 +25837,7 @@
       <c r="AG50" s="6"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A51" s="28"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="22">
         <v>-2</v>
       </c>
@@ -24061,7 +26116,7 @@
       <c r="AE56" s="6"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="32" t="s">
         <v>348</v>
       </c>
       <c r="B57" s="22">
@@ -24170,7 +26225,7 @@
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A58" s="28"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -24277,7 +26332,7 @@
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A59" s="28"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -24673,12 +26728,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="A43:A51"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A16:A24"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="Q1:AV1"/>
@@ -24687,6 +26736,12 @@
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AG2:AV2"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A16:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -24698,7 +26753,7 @@
   <dimension ref="A1:BJ22"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AM5" sqref="AM5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -24749,70 +26804,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -24822,22 +26877,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -24847,36 +26902,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AG2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apps\PycharmProjects\formulas\test\test_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenzoarcidiacono/PycharmProjects/formulas/test/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DC866F-E404-6247-93D7-C41DC5991C1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16095" tabRatio="770" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATH &amp; TRIG" sheetId="3" r:id="rId1"/>
@@ -35,8 +36,14 @@
     <definedName name="f">CORE!$G$2:$H$5</definedName>
     <definedName name="g">REF!$B$2:$B$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -45,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="427">
   <si>
     <t>ca</t>
   </si>
@@ -1331,11 +1338,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1792,46 +1799,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV81"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="48" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.875" style="4"/>
+    <col min="19" max="19" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="48" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
@@ -1887,7 +1892,7 @@
       <c r="AU1" s="32"/>
       <c r="AV1" s="32"/>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A2" s="32"/>
       <c r="B2" s="32" t="s">
         <v>27</v>
@@ -1961,7 +1966,7 @@
       <c r="AU2" s="32"/>
       <c r="AV2" s="32"/>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -2120,7 +2125,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -2278,7 +2283,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -2436,7 +2441,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
@@ -2594,7 +2599,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
@@ -2752,7 +2757,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -2803,7 +2808,7 @@
       <c r="AT8" s="6"/>
       <c r="AU8" s="6"/>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
@@ -2961,7 +2966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -3119,7 +3124,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -3277,7 +3282,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -3435,7 +3440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -3593,7 +3598,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -3751,7 +3756,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -3802,7 +3807,7 @@
       <c r="AT15" s="6"/>
       <c r="AU15" s="6"/>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
@@ -3960,7 +3965,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
@@ -4118,7 +4123,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>47</v>
       </c>
@@ -4276,7 +4281,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
@@ -4327,7 +4332,7 @@
       <c r="AT19" s="6"/>
       <c r="AU19" s="6"/>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
@@ -4378,7 +4383,7 @@
       <c r="AT20" s="6"/>
       <c r="AU20" s="6"/>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
@@ -4536,7 +4541,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>8</v>
       </c>
@@ -4694,7 +4699,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>50</v>
       </c>
@@ -4852,7 +4857,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>51</v>
       </c>
@@ -5010,7 +5015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>52</v>
       </c>
@@ -5168,7 +5173,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>53</v>
       </c>
@@ -5326,7 +5331,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>54</v>
       </c>
@@ -5484,7 +5489,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>21</v>
       </c>
@@ -5642,7 +5647,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>55</v>
       </c>
@@ -5800,7 +5805,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>3</v>
       </c>
@@ -5958,7 +5963,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>56</v>
       </c>
@@ -6116,7 +6121,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>57</v>
       </c>
@@ -6274,7 +6279,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
         <v>58</v>
       </c>
@@ -6432,7 +6437,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>59</v>
       </c>
@@ -6590,7 +6595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>60</v>
       </c>
@@ -6748,58 +6753,174 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="B36" s="14">
+        <v>0</v>
+      </c>
+      <c r="C36" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="D36" s="14">
+        <v>15.7</v>
+      </c>
+      <c r="E36" s="14">
+        <v>63</v>
+      </c>
+      <c r="F36" s="14">
+        <v>-0.4</v>
+      </c>
       <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
+      <c r="H36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K36" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L36" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N36" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O36" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P36" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q36" s="6">
+        <f>GCD(B36)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="6">
+        <f>GCD(C36)</f>
+        <v>5</v>
+      </c>
+      <c r="S36" s="6">
+        <f>GCD(D36,E36)</f>
+        <v>3</v>
+      </c>
+      <c r="T36" s="6" t="e">
+        <f>GCD(F36)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="U36" s="6">
+        <f>GCD(B36,E36,D36)</f>
+        <v>3</v>
+      </c>
+      <c r="V36" s="6" t="e">
+        <f>GCD(G36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W36" s="6" t="e">
+        <f t="shared" ref="V36:AD36" si="39">GCD(H36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X36" s="6" t="e">
+        <f>GCD(F36,I36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y36" s="6" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z36" s="6" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA36" s="6" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB36" s="6" t="e">
+        <f t="shared" si="39"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC36" s="6" t="e">
+        <f t="shared" si="39"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD36" s="6" t="e">
+        <f t="shared" si="39"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE36" s="6" t="e">
+        <f>GCD(P36)</f>
+        <v>#REF!</v>
+      </c>
       <c r="AF36" s="10"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
-      <c r="AQ36" s="6"/>
-      <c r="AR36" s="6"/>
-      <c r="AS36" s="6"/>
-      <c r="AT36" s="6"/>
-      <c r="AU36" s="6"/>
-    </row>
-    <row r="37" spans="1:48">
+      <c r="AG36" s="6">
+        <f t="array" ref="AG36:AJ36">GCD(B36:E36)</f>
+        <v>1</v>
+      </c>
+      <c r="AH36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="6">
+        <f t="array" ref="AK36:AL36">GCD(C36:D36,C36)</f>
+        <v>5</v>
+      </c>
+      <c r="AL36" s="6">
+        <v>5</v>
+      </c>
+      <c r="AM36" s="6">
+        <f t="array" ref="AM36:AN36">GCD(B36:C36,D36:E36)</f>
+        <v>1</v>
+      </c>
+      <c r="AN36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="6" t="e">
+        <f t="array" ref="AO36:AP36">GCD(B36:C36,E36:F36)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AP36" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AQ36" s="6" t="e">
+        <f>GCD(F36:P36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR36" s="6" t="e">
+        <f>GCD(M36,J36:K36)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AS36" s="6" t="e">
+        <f>GCD(I36:L36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT36" s="6" t="e">
+        <f t="shared" ref="AH36:AV36" si="40">GCD(O36:AB36,P36:AC36)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AU36" s="6" t="e">
+        <f t="shared" si="40"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AV36" s="4" t="e">
+        <f t="shared" si="40"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
@@ -6847,63 +6968,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q37" s="6">
-        <f t="shared" ref="Q37:AE37" si="39">INT(B37)</f>
+        <f t="shared" ref="Q37:AE37" si="41">INT(B37)</f>
         <v>0</v>
       </c>
       <c r="R37" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="S37" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="T37" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="U37" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="V37" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W37" s="6" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="X37" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="Y37" s="6" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z37" s="6" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="AA37" s="6" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB37" s="6" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>#NAME?</v>
       </c>
       <c r="AC37" s="6" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>#NULL!</v>
       </c>
       <c r="AD37" s="6" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>#NUM!</v>
       </c>
       <c r="AE37" s="6" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>#REF!</v>
       </c>
       <c r="AF37" s="10"/>
@@ -6957,7 +7078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>62</v>
       </c>
@@ -7037,31 +7158,31 @@
         <v>0</v>
       </c>
       <c r="Y38" s="6" t="e">
-        <f t="shared" ref="Y38:AE38" si="40">ISO.CEILING(2.3,J38)</f>
+        <f t="shared" ref="Y38:AE38" si="42">ISO.CEILING(2.3,J38)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z38" s="6" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="AA38" s="6" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB38" s="6" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>#NAME?</v>
       </c>
       <c r="AC38" s="6" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>#NULL!</v>
       </c>
       <c r="AD38" s="6" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>#NUM!</v>
       </c>
       <c r="AE38" s="6" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>#REF!</v>
       </c>
       <c r="AF38" s="10"/>
@@ -7081,58 +7202,168 @@
       <c r="AT38" s="6"/>
       <c r="AU38" s="6"/>
     </row>
-    <row r="39" spans="1:48">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="B39" s="14">
+        <v>0</v>
+      </c>
+      <c r="C39" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="D39" s="14">
+        <v>15.7</v>
+      </c>
+      <c r="E39" s="14">
+        <v>63</v>
+      </c>
+      <c r="F39" s="14">
+        <v>-0.4</v>
+      </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="6"/>
+      <c r="H39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K39" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L39" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N39" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O39" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P39" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q39" s="6">
+        <f>LCM(B39)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="6">
+        <f>LCM(C39)</f>
+        <v>5</v>
+      </c>
+      <c r="S39" s="6">
+        <f>LCM(D39,E39)</f>
+        <v>315</v>
+      </c>
+      <c r="T39" s="6" t="e">
+        <f>LCM(F39)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="U39" s="6">
+        <f>LCM(B39,E39,D39)</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="6" t="e">
+        <f>LCM(G39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W39" s="6" t="e">
+        <f>LCM(H39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X39" s="6" t="e">
+        <f>LCM(F39,I39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y39" s="6" t="e">
+        <f>LCM(J39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z39" s="6" t="e">
+        <f>LCM(K39)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA39" s="6" t="e">
+        <f>LCM(L39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB39" s="6" t="e">
+        <f>LCM(M39)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC39" s="6" t="e">
+        <f>LCM(N39)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD39" s="6" t="e">
+        <f>LCM(O39)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE39" s="6" t="e">
+        <f>LCM(P39)</f>
+        <v>#REF!</v>
+      </c>
       <c r="AF39" s="10"/>
-      <c r="AG39" s="6"/>
-      <c r="AH39" s="6"/>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
-      <c r="AM39" s="6"/>
-      <c r="AN39" s="6"/>
-      <c r="AO39" s="6"/>
-      <c r="AP39" s="6"/>
-      <c r="AQ39" s="6"/>
-      <c r="AR39" s="6"/>
-      <c r="AS39" s="6"/>
-      <c r="AT39" s="6"/>
-      <c r="AU39" s="6"/>
-    </row>
-    <row r="40" spans="1:48">
+      <c r="AG39" s="6">
+        <f t="array" ref="AG39:AJ39">LCM(B39:E39)</f>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="6">
+        <f t="array" ref="AK39:AL39">LCM(C39:D39,C39)</f>
+        <v>15</v>
+      </c>
+      <c r="AL39" s="6">
+        <v>15</v>
+      </c>
+      <c r="AM39" s="6">
+        <f t="array" ref="AM39:AN39">LCM(B39:C39,D39:E39)</f>
+        <v>0</v>
+      </c>
+      <c r="AN39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="6" t="e">
+        <f t="array" ref="AO39:AV39">LCM(B36:C36,E36:F36)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AP39" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AQ39" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AR39" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AS39" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AT39" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU39" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AV39" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>1</v>
       </c>
@@ -7180,63 +7411,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q40" s="6" t="e">
-        <f t="shared" ref="Q40:AE40" si="41">LN(B40)</f>
+        <f t="shared" ref="Q40:AE40" si="43">LN(B40)</f>
         <v>#NUM!</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.83290912293510388</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="U40" s="6" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#NUM!</v>
       </c>
       <c r="V40" s="6" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#NUM!</v>
       </c>
       <c r="W40" s="6" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="X40" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Y40" s="6" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z40" s="6" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
       <c r="AA40" s="6" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB40" s="6" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#NAME?</v>
       </c>
       <c r="AC40" s="6" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#NULL!</v>
       </c>
       <c r="AD40" s="6" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#NUM!</v>
       </c>
       <c r="AE40" s="6" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#REF!</v>
       </c>
       <c r="AF40" s="10"/>
@@ -7290,7 +7521,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
         <v>2</v>
       </c>
@@ -7370,31 +7601,31 @@
         <v>0</v>
       </c>
       <c r="Y41" s="6" t="e">
-        <f t="shared" ref="Y41:AE41" si="42">LOG(J41,3)</f>
+        <f t="shared" ref="Y41:AE41" si="44">LOG(J41,3)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z41" s="6" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="AA41" s="6" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB41" s="6" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#NAME?</v>
       </c>
       <c r="AC41" s="6" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#NULL!</v>
       </c>
       <c r="AD41" s="6" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#NUM!</v>
       </c>
       <c r="AE41" s="6" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#REF!</v>
       </c>
       <c r="AF41" s="10"/>
@@ -7448,7 +7679,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>64</v>
       </c>
@@ -7496,63 +7727,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q42" s="6" t="e">
-        <f t="shared" ref="Q42:X42" si="43">LOG10(B42)</f>
+        <f t="shared" ref="Q42:X42" si="45">LOG10(B42)</f>
         <v>#NUM!</v>
       </c>
       <c r="R42" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="S42" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.36172783601759284</v>
       </c>
       <c r="T42" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="U42" s="6" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>#NUM!</v>
       </c>
       <c r="V42" s="6" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>#NUM!</v>
       </c>
       <c r="W42" s="6" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
       <c r="X42" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Y42" s="6" t="e">
-        <f t="shared" ref="Y42:AE42" si="44">LOG10(J42)</f>
+        <f t="shared" ref="Y42:AE42" si="46">LOG10(J42)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z42" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="AA42" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB42" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#NAME?</v>
       </c>
       <c r="AC42" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#NULL!</v>
       </c>
       <c r="AD42" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#NUM!</v>
       </c>
       <c r="AE42" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#REF!</v>
       </c>
       <c r="AF42" s="10"/>
@@ -7606,7 +7837,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>65</v>
       </c>
@@ -7657,7 +7888,7 @@
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>66</v>
       </c>
@@ -7708,7 +7939,7 @@
       <c r="AT44" s="6"/>
       <c r="AU44" s="6"/>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>67</v>
       </c>
@@ -7759,7 +7990,7 @@
       <c r="AT45" s="6"/>
       <c r="AU45" s="6"/>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
         <v>23</v>
       </c>
@@ -7839,27 +8070,27 @@
         <v>0.79999999999999982</v>
       </c>
       <c r="Y46" s="6" t="e">
-        <f t="shared" ref="Y46:AD46" si="45">MOD(J46,K46)</f>
+        <f t="shared" ref="Y46:AD46" si="47">MOD(J46,K46)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z46" s="6" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
       <c r="AA46" s="6" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB46" s="6" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#NAME?</v>
       </c>
       <c r="AC46" s="6" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#NULL!</v>
       </c>
       <c r="AD46" s="6" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>#NUM!</v>
       </c>
       <c r="AE46" s="6" t="e">
@@ -7917,7 +8148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
         <v>68</v>
       </c>
@@ -8001,27 +8232,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z47" s="6" t="e">
-        <f t="shared" ref="Z47:AE47" si="46">MROUND(K47,J47)</f>
+        <f t="shared" ref="Z47:AE47" si="48">MROUND(K47,J47)</f>
         <v>#N/A</v>
       </c>
       <c r="AA47" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB47" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>#NAME?</v>
       </c>
       <c r="AC47" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>#NULL!</v>
       </c>
       <c r="AD47" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>#NUM!</v>
       </c>
       <c r="AE47" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>#REF!</v>
       </c>
       <c r="AF47" s="10"/>
@@ -8076,7 +8307,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>69</v>
       </c>
@@ -8127,7 +8358,7 @@
       <c r="AT48" s="6"/>
       <c r="AU48" s="6"/>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>70</v>
       </c>
@@ -8178,7 +8409,7 @@
       <c r="AT49" s="6"/>
       <c r="AU49" s="6"/>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
         <v>71</v>
       </c>
@@ -8230,59 +8461,59 @@
         <v>1</v>
       </c>
       <c r="R50" s="6">
-        <f t="shared" ref="R50:AE50" si="47">ODD(C50)</f>
+        <f t="shared" ref="R50:AE50" si="49">ODD(C50)</f>
         <v>3</v>
       </c>
       <c r="S50" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>3</v>
       </c>
       <c r="T50" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-1</v>
       </c>
       <c r="U50" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-3</v>
       </c>
       <c r="V50" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W50" s="6" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="X50" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="Y50" s="6" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z50" s="6" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="AA50" s="6" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB50" s="6" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#NAME?</v>
       </c>
       <c r="AC50" s="6" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#NULL!</v>
       </c>
       <c r="AD50" s="6" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#NUM!</v>
       </c>
       <c r="AE50" s="6" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#REF!</v>
       </c>
       <c r="AF50" s="10"/>
@@ -8336,7 +8567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>72</v>
       </c>
@@ -8424,7 +8655,7 @@
         <v>3.1415926535897931</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
         <v>22</v>
       </c>
@@ -8504,27 +8735,27 @@
         <v>1</v>
       </c>
       <c r="Y52" s="6" t="e">
-        <f t="shared" ref="Y52:AD52" si="48">POWER(J52,K52)</f>
+        <f t="shared" ref="Y52:AD52" si="50">POWER(J52,K52)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z52" s="6" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
       <c r="AA52" s="6" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB52" s="6" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#NAME?</v>
       </c>
       <c r="AC52" s="6" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#NULL!</v>
       </c>
       <c r="AD52" s="6" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#NUM!</v>
       </c>
       <c r="AE52" s="6" t="e">
@@ -8582,7 +8813,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>73</v>
       </c>
@@ -8633,7 +8864,7 @@
       <c r="AT53" s="6"/>
       <c r="AU53" s="6"/>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>74</v>
       </c>
@@ -8684,7 +8915,7 @@
       <c r="AT54" s="6"/>
       <c r="AU54" s="6"/>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>20</v>
       </c>
@@ -8732,63 +8963,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q55" s="6">
-        <f t="shared" ref="Q55:AE55" si="49">RADIANS(B55)</f>
+        <f t="shared" ref="Q55:AE55" si="51">RADIANS(B55)</f>
         <v>0</v>
       </c>
       <c r="R55" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.7453292519943295E-2</v>
       </c>
       <c r="S55" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>4.014257279586958E-2</v>
       </c>
       <c r="T55" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="U55" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-1.7453292519943295E-2</v>
       </c>
       <c r="V55" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W55" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#VALUE!</v>
       </c>
       <c r="X55" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.7453292519943295E-2</v>
       </c>
       <c r="Y55" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z55" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="AA55" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB55" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#NAME?</v>
       </c>
       <c r="AC55" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#NULL!</v>
       </c>
       <c r="AD55" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#NUM!</v>
       </c>
       <c r="AE55" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="AF55" s="10"/>
@@ -8842,7 +9073,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
         <v>75</v>
       </c>
@@ -8897,7 +9128,7 @@
       <c r="AU56" s="10"/>
       <c r="AV56" s="5"/>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>76</v>
       </c>
@@ -8977,7 +9208,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y57" s="6" t="e">
-        <f t="shared" ref="Y57:AC57" ca="1" si="50">RANDBETWEEN(J57,K57)</f>
+        <f t="shared" ref="Y57:AC57" ca="1" si="52">RANDBETWEEN(J57,K57)</f>
         <v>#N/A</v>
       </c>
       <c r="Z57" s="6" t="e">
@@ -8989,11 +9220,11 @@
         <v>#NAME?</v>
       </c>
       <c r="AB57" s="6" t="e">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>#NULL!</v>
       </c>
       <c r="AC57" s="6" t="e">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>#NUM!</v>
       </c>
       <c r="AD57" s="6" t="e">
@@ -9022,7 +9253,7 @@
       <c r="AU57" s="10"/>
       <c r="AV57" s="5"/>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
         <v>77</v>
       </c>
@@ -9078,15 +9309,15 @@
         <v>LMVLIV</v>
       </c>
       <c r="S58" s="6" t="str">
-        <f t="shared" ref="S58:AE58" si="51">ROMAN(999.9,D58)</f>
+        <f t="shared" ref="S58:AE58" si="53">ROMAN(999.9,D58)</f>
         <v>XMIX</v>
       </c>
       <c r="T58" s="6" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>VMIV</v>
       </c>
       <c r="U58" s="6" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>IM</v>
       </c>
       <c r="V58" s="6" t="str">
@@ -9094,7 +9325,7 @@
         <v>CMXCIX</v>
       </c>
       <c r="W58" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#VALUE!</v>
       </c>
       <c r="X58" s="6" t="str">
@@ -9102,31 +9333,31 @@
         <v>CMXCIX</v>
       </c>
       <c r="Y58" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z58" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#N/A</v>
       </c>
       <c r="AA58" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB58" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#NAME?</v>
       </c>
       <c r="AC58" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#NULL!</v>
       </c>
       <c r="AD58" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#NUM!</v>
       </c>
       <c r="AE58" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#REF!</v>
       </c>
       <c r="AF58" s="10"/>
@@ -9180,7 +9411,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>78</v>
       </c>
@@ -9264,23 +9495,23 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z59" s="6" t="e">
-        <f t="shared" ref="Z59:AD59" si="52">ROUND(K59,J59)</f>
+        <f t="shared" ref="Z59:AD59" si="54">ROUND(K59,J59)</f>
         <v>#N/A</v>
       </c>
       <c r="AA59" s="6" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB59" s="6" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#NAME?</v>
       </c>
       <c r="AC59" s="6" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#NULL!</v>
       </c>
       <c r="AD59" s="6" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#NUM!</v>
       </c>
       <c r="AE59" s="6" t="e">
@@ -9338,7 +9569,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
         <v>79</v>
       </c>
@@ -9418,31 +9649,31 @@
         <v>1</v>
       </c>
       <c r="Y60" s="6" t="e">
-        <f t="shared" ref="Y60:AE60" si="53">ROUNDDOWN(J60,I60)</f>
+        <f t="shared" ref="Y60:AE60" si="55">ROUNDDOWN(J60,I60)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z60" s="6" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#N/A</v>
       </c>
       <c r="AA60" s="6" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB60" s="6" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#NAME?</v>
       </c>
       <c r="AC60" s="6" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#NULL!</v>
       </c>
       <c r="AD60" s="6" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#NUM!</v>
       </c>
       <c r="AE60" s="6" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#REF!</v>
       </c>
       <c r="AF60" s="10"/>
@@ -9496,7 +9727,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
         <v>80</v>
       </c>
@@ -9576,31 +9807,31 @@
         <v>1</v>
       </c>
       <c r="Y61" s="6" t="e">
-        <f t="shared" ref="Y61:AE61" si="54">ROUNDUP(J61,I61)</f>
+        <f t="shared" ref="Y61:AE61" si="56">ROUNDUP(J61,I61)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z61" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#N/A</v>
       </c>
       <c r="AA61" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB61" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#NAME?</v>
       </c>
       <c r="AC61" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#NULL!</v>
       </c>
       <c r="AD61" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#NUM!</v>
       </c>
       <c r="AE61" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#REF!</v>
       </c>
       <c r="AF61" s="10"/>
@@ -9654,7 +9885,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
         <v>81</v>
       </c>
@@ -9706,59 +9937,59 @@
         <v>1</v>
       </c>
       <c r="R62" s="6">
-        <f t="shared" ref="R62:AE62" si="55">_xlfn.SEC(C62)</f>
+        <f t="shared" ref="R62:AE62" si="57">_xlfn.SEC(C62)</f>
         <v>1.8508157176809255</v>
       </c>
       <c r="S62" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>-1.500879467460255</v>
       </c>
       <c r="T62" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>-1.1917935066878957</v>
       </c>
       <c r="U62" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.8508157176809255</v>
       </c>
       <c r="V62" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="W62" s="6" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="X62" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.8508157176809255</v>
       </c>
       <c r="Y62" s="6" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z62" s="6" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#N/A</v>
       </c>
       <c r="AA62" s="6" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB62" s="6" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#NAME?</v>
       </c>
       <c r="AC62" s="6" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#NULL!</v>
       </c>
       <c r="AD62" s="6" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#NUM!</v>
       </c>
       <c r="AE62" s="6" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#REF!</v>
       </c>
       <c r="AF62" s="10"/>
@@ -9812,7 +10043,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
         <v>82</v>
       </c>
@@ -9864,59 +10095,59 @@
         <v>1</v>
       </c>
       <c r="R63" s="6">
-        <f t="shared" ref="R63:AE63" si="56">_xlfn.SECH(C63)</f>
+        <f t="shared" ref="R63:AE63" si="58">_xlfn.SECH(C63)</f>
         <v>0.64805427366388546</v>
       </c>
       <c r="S63" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0.19852217514933898</v>
       </c>
       <c r="T63" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>9.0799859337817237E-5</v>
       </c>
       <c r="U63" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0.64805427366388546</v>
       </c>
       <c r="V63" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="W63" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="X63" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0.64805427366388546</v>
       </c>
       <c r="Y63" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z63" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#N/A</v>
       </c>
       <c r="AA63" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB63" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#NAME?</v>
       </c>
       <c r="AC63" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#NULL!</v>
       </c>
       <c r="AD63" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#NUM!</v>
       </c>
       <c r="AE63" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#REF!</v>
       </c>
       <c r="AF63" s="10"/>
@@ -9970,7 +10201,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>83</v>
       </c>
@@ -10021,7 +10252,7 @@
       <c r="AT64" s="6"/>
       <c r="AU64" s="6"/>
     </row>
-    <row r="65" spans="1:48">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>84</v>
       </c>
@@ -10074,23 +10305,23 @@
         <v>0</v>
       </c>
       <c r="R65" s="6">
-        <f t="shared" ref="R65:AE65" si="57">SIGN(C65)</f>
+        <f t="shared" ref="R65:AE65" si="59">SIGN(C65)</f>
         <v>1</v>
       </c>
       <c r="S65" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="T65" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="U65" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>-1</v>
       </c>
       <c r="V65" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="W65" s="6" t="e">
@@ -10098,35 +10329,35 @@
         <v>#VALUE!</v>
       </c>
       <c r="X65" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="Y65" s="6" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z65" s="6" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#N/A</v>
       </c>
       <c r="AA65" s="6" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB65" s="6" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#NAME?</v>
       </c>
       <c r="AC65" s="6" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#NULL!</v>
       </c>
       <c r="AD65" s="6" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#NUM!</v>
       </c>
       <c r="AE65" s="6" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#REF!</v>
       </c>
       <c r="AF65" s="10"/>
@@ -10180,7 +10411,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:48">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
         <v>4</v>
       </c>
@@ -10228,63 +10459,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q66" s="6">
-        <f t="shared" ref="Q66:AE66" si="58">SIN(B66)</f>
+        <f t="shared" ref="Q66:AE66" si="60">SIN(B66)</f>
         <v>0</v>
       </c>
       <c r="R66" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.8414709848078965</v>
       </c>
       <c r="S66" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.74570521217672026</v>
       </c>
       <c r="T66" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>-0.54402111088936977</v>
       </c>
       <c r="U66" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>-0.8414709848078965</v>
       </c>
       <c r="V66" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="W66" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="X66" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.8414709848078965</v>
       </c>
       <c r="Y66" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z66" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#N/A</v>
       </c>
       <c r="AA66" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB66" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#NAME?</v>
       </c>
       <c r="AC66" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#NULL!</v>
       </c>
       <c r="AD66" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="AE66" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#REF!</v>
       </c>
       <c r="AF66" s="10"/>
@@ -10338,7 +10569,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:48">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
         <v>14</v>
       </c>
@@ -10386,63 +10617,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q67" s="6">
-        <f t="shared" ref="Q67:AE67" si="59">SINH(B67)</f>
+        <f t="shared" ref="Q67:AE67" si="61">SINH(B67)</f>
         <v>0</v>
       </c>
       <c r="R67" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.1752011936438014</v>
       </c>
       <c r="S67" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>4.9369618055459572</v>
       </c>
       <c r="T67" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>11013.232874703393</v>
       </c>
       <c r="U67" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>-1.1752011936438014</v>
       </c>
       <c r="V67" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="W67" s="6" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="X67" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.1752011936438014</v>
       </c>
       <c r="Y67" s="6" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z67" s="6" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#N/A</v>
       </c>
       <c r="AA67" s="6" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB67" s="6" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#NAME?</v>
       </c>
       <c r="AC67" s="6" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#NULL!</v>
       </c>
       <c r="AD67" s="6" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#NUM!</v>
       </c>
       <c r="AE67" s="6" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#REF!</v>
       </c>
       <c r="AF67" s="10"/>
@@ -10496,7 +10727,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:48">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
         <v>24</v>
       </c>
@@ -10544,63 +10775,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" ref="Q68:AE68" si="60">SQRT(B68)</f>
+        <f t="shared" ref="Q68:AE68" si="62">SQRT(B68)</f>
         <v>0</v>
       </c>
       <c r="R68" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="S68" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1.51657508881031</v>
       </c>
       <c r="T68" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>3.1622776601683795</v>
       </c>
       <c r="U68" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#NUM!</v>
       </c>
       <c r="V68" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W68" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#VALUE!</v>
       </c>
       <c r="X68" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="Y68" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z68" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#N/A</v>
       </c>
       <c r="AA68" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB68" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#NAME?</v>
       </c>
       <c r="AC68" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#NULL!</v>
       </c>
       <c r="AD68" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#NUM!</v>
       </c>
       <c r="AE68" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#REF!</v>
       </c>
       <c r="AF68" s="10"/>
@@ -10654,7 +10885,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:48">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
         <v>85</v>
       </c>
@@ -10706,19 +10937,19 @@
         <v>0</v>
       </c>
       <c r="R69" s="6">
-        <f t="shared" ref="R69:AE69" si="61">SQRTPI(C69)</f>
+        <f t="shared" ref="R69:AE69" si="63">SQRTPI(C69)</f>
         <v>1.7724538509055159</v>
       </c>
       <c r="S69" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>2.6880593563492088</v>
       </c>
       <c r="T69" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5.604991216397929</v>
       </c>
       <c r="U69" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#NUM!</v>
       </c>
       <c r="V69" s="6">
@@ -10734,31 +10965,31 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y69" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z69" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#N/A</v>
       </c>
       <c r="AA69" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB69" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#NAME?</v>
       </c>
       <c r="AC69" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#NULL!</v>
       </c>
       <c r="AD69" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#NUM!</v>
       </c>
       <c r="AE69" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#REF!</v>
       </c>
       <c r="AF69" s="10"/>
@@ -10812,7 +11043,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="1:48">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>86</v>
       </c>
@@ -10863,7 +11094,7 @@
       <c r="AT70" s="6"/>
       <c r="AU70" s="6"/>
     </row>
-    <row r="71" spans="1:48">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
         <v>39</v>
       </c>
@@ -11026,7 +11257,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:48">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>87</v>
       </c>
@@ -11077,7 +11308,7 @@
       <c r="AT72" s="6"/>
       <c r="AU72" s="6"/>
     </row>
-    <row r="73" spans="1:48">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>88</v>
       </c>
@@ -11128,7 +11359,7 @@
       <c r="AT73" s="6"/>
       <c r="AU73" s="6"/>
     </row>
-    <row r="74" spans="1:48">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
         <v>25</v>
       </c>
@@ -11289,7 +11520,7 @@
         <v>-7.6</v>
       </c>
     </row>
-    <row r="75" spans="1:48">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>89</v>
       </c>
@@ -11340,7 +11571,7 @@
       <c r="AT75" s="6"/>
       <c r="AU75" s="6"/>
     </row>
-    <row r="76" spans="1:48">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>90</v>
       </c>
@@ -11391,7 +11622,7 @@
       <c r="AT76" s="6"/>
       <c r="AU76" s="6"/>
     </row>
-    <row r="77" spans="1:48">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>91</v>
       </c>
@@ -11442,7 +11673,7 @@
       <c r="AT77" s="6"/>
       <c r="AU77" s="6"/>
     </row>
-    <row r="78" spans="1:48">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>92</v>
       </c>
@@ -11493,7 +11724,7 @@
       <c r="AT78" s="6"/>
       <c r="AU78" s="6"/>
     </row>
-    <row r="79" spans="1:48">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>15</v>
       </c>
@@ -11541,63 +11772,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q79" s="6">
-        <f t="shared" ref="Q79:AE79" si="62">TAN(B79)</f>
+        <f t="shared" ref="Q79:AE79" si="64">TAN(B79)</f>
         <v>0</v>
       </c>
       <c r="R79" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1.5574077246549023</v>
       </c>
       <c r="S79" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>-1.1192136417341325</v>
       </c>
       <c r="T79" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0.64836082745908663</v>
       </c>
       <c r="U79" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>-1.5574077246549023</v>
       </c>
       <c r="V79" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="W79" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#VALUE!</v>
       </c>
       <c r="X79" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1.5574077246549023</v>
       </c>
       <c r="Y79" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z79" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#N/A</v>
       </c>
       <c r="AA79" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB79" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#NAME?</v>
       </c>
       <c r="AC79" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#NULL!</v>
       </c>
       <c r="AD79" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#NUM!</v>
       </c>
       <c r="AE79" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#REF!</v>
       </c>
       <c r="AF79" s="10"/>
@@ -11651,7 +11882,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:48">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
         <v>16</v>
       </c>
@@ -11699,63 +11930,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" ref="Q80:AE80" si="63">TANH(B80)</f>
+        <f t="shared" ref="Q80:AE80" si="65">TANH(B80)</f>
         <v>0</v>
       </c>
       <c r="R80" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.76159415595576485</v>
       </c>
       <c r="S80" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.98009639626619138</v>
       </c>
       <c r="T80" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.99999999587769262</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-0.76159415595576485</v>
       </c>
       <c r="V80" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="W80" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.76159415595576485</v>
       </c>
       <c r="Y80" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z80" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#N/A</v>
       </c>
       <c r="AA80" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB80" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#NAME?</v>
       </c>
       <c r="AC80" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#NULL!</v>
       </c>
       <c r="AD80" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#NUM!</v>
       </c>
       <c r="AE80" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="AF80" s="10"/>
@@ -11809,7 +12040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:48">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
         <v>93</v>
       </c>
@@ -11889,31 +12120,31 @@
         <v>1</v>
       </c>
       <c r="Y81" s="6" t="e">
-        <f t="shared" ref="Y81:AE81" si="64">TRUNC(J81,I81)</f>
+        <f t="shared" ref="Y81:AE81" si="66">TRUNC(J81,I81)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z81" s="6" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>#N/A</v>
       </c>
       <c r="AA81" s="6" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB81" s="6" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>#NAME?</v>
       </c>
       <c r="AC81" s="6" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>#NULL!</v>
       </c>
       <c r="AD81" s="6" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>#NUM!</v>
       </c>
       <c r="AE81" s="6" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>#REF!</v>
       </c>
       <c r="AF81" s="10"/>
@@ -11968,7 +12199,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:AT81">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AT81">
     <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="8">
@@ -11987,46 +12218,46 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AV81"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.375" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.625" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="29" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="29" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.625" style="29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="5.625" style="29" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.125" style="29" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="5.625" style="29" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="4.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="33" max="48" width="5.625" style="29" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.875" style="29"/>
+    <col min="19" max="19" width="4.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="5.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="5.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="4.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="33" max="48" width="5.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="4" customFormat="1">
+    <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>354</v>
       </c>
@@ -12082,7 +12313,7 @@
       <c r="AU1" s="32"/>
       <c r="AV1" s="32"/>
     </row>
-    <row r="2" spans="1:48" s="4" customFormat="1">
+    <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32"/>
       <c r="B2" s="32" t="s">
         <v>27</v>
@@ -12156,7 +12387,7 @@
       <c r="AU2" s="32"/>
       <c r="AV2" s="32"/>
     </row>
-    <row r="3" spans="1:48" s="4" customFormat="1">
+    <row r="3" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
         <v>355</v>
       </c>
@@ -12319,7 +12550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="4" customFormat="1">
+    <row r="4" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
         <v>356</v>
       </c>
@@ -12481,7 +12712,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="11.1" customHeight="1">
+    <row r="5" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>357</v>
       </c>
@@ -12642,7 +12873,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="11.1" customHeight="1">
+    <row r="6" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
         <v>358</v>
       </c>
@@ -12803,7 +13034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="11.1" customHeight="1">
+    <row r="7" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28" t="s">
         <v>359</v>
       </c>
@@ -12965,7 +13196,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="11.1" customHeight="1">
+    <row r="8" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="28" t="s">
         <v>360</v>
       </c>
@@ -13127,7 +13358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="11.1" customHeight="1">
+    <row r="9" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
         <v>361</v>
       </c>
@@ -13264,7 +13495,7 @@
       <c r="AU9" s="6"/>
       <c r="AV9" s="4"/>
     </row>
-    <row r="10" spans="1:48" ht="11.1" customHeight="1">
+    <row r="10" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="28" t="s">
         <v>362</v>
       </c>
@@ -13401,7 +13632,7 @@
       <c r="AU10" s="6"/>
       <c r="AV10" s="4"/>
     </row>
-    <row r="11" spans="1:48" ht="11.1" customHeight="1">
+    <row r="11" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28" t="s">
         <v>363</v>
       </c>
@@ -13538,7 +13769,7 @@
       <c r="AU11" s="6"/>
       <c r="AV11" s="4"/>
     </row>
-    <row r="12" spans="1:48" ht="11.1" customHeight="1">
+    <row r="12" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="28" t="s">
         <v>364</v>
       </c>
@@ -13675,7 +13906,7 @@
       <c r="AU12" s="6"/>
       <c r="AV12" s="4"/>
     </row>
-    <row r="13" spans="1:48" ht="11.1" customHeight="1">
+    <row r="13" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28" t="s">
         <v>365</v>
       </c>
@@ -13812,7 +14043,7 @@
       <c r="AU13" s="6"/>
       <c r="AV13" s="4"/>
     </row>
-    <row r="14" spans="1:48" ht="11.1" customHeight="1">
+    <row r="14" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="28" t="s">
         <v>366</v>
       </c>
@@ -13949,7 +14180,7 @@
       <c r="AU14" s="6"/>
       <c r="AV14" s="4"/>
     </row>
-    <row r="15" spans="1:48" ht="11.1" customHeight="1">
+    <row r="15" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28" t="s">
         <v>367</v>
       </c>
@@ -14086,7 +14317,7 @@
       <c r="AU15" s="6"/>
       <c r="AV15" s="4"/>
     </row>
-    <row r="16" spans="1:48" ht="11.1" customHeight="1">
+    <row r="16" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28" t="s">
         <v>368</v>
       </c>
@@ -14223,7 +14454,7 @@
       <c r="AU16" s="6"/>
       <c r="AV16" s="4"/>
     </row>
-    <row r="17" spans="1:48" ht="11.1" customHeight="1">
+    <row r="17" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="28" t="s">
         <v>369</v>
       </c>
@@ -14360,7 +14591,7 @@
       <c r="AU17" s="6"/>
       <c r="AV17" s="4"/>
     </row>
-    <row r="18" spans="1:48" ht="11.1" customHeight="1">
+    <row r="18" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="28"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -14410,7 +14641,7 @@
       <c r="AU18" s="6"/>
       <c r="AV18" s="4"/>
     </row>
-    <row r="19" spans="1:48" ht="11.1" customHeight="1">
+    <row r="19" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="28"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -14460,7 +14691,7 @@
       <c r="AU19" s="6"/>
       <c r="AV19" s="4"/>
     </row>
-    <row r="20" spans="1:48" ht="11.1" customHeight="1">
+    <row r="20" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="28"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -14510,67 +14741,67 @@
       <c r="AU20" s="6"/>
       <c r="AV20" s="4"/>
     </row>
-    <row r="21" spans="1:48" ht="11.1" customHeight="1"/>
-    <row r="22" spans="1:48" ht="11.1" customHeight="1"/>
-    <row r="23" spans="1:48" ht="11.1" customHeight="1"/>
-    <row r="24" spans="1:48" ht="11.1" customHeight="1"/>
-    <row r="25" spans="1:48" ht="11.1" customHeight="1"/>
-    <row r="26" spans="1:48" ht="11.1" customHeight="1"/>
-    <row r="27" spans="1:48" ht="11.1" customHeight="1"/>
-    <row r="28" spans="1:48" ht="11.1" customHeight="1"/>
-    <row r="29" spans="1:48" ht="11.1" customHeight="1"/>
-    <row r="30" spans="1:48" ht="11.1" customHeight="1"/>
-    <row r="31" spans="1:48" ht="11.1" customHeight="1"/>
-    <row r="32" spans="1:48" ht="11.1" customHeight="1"/>
-    <row r="33" ht="11.1" customHeight="1"/>
-    <row r="34" ht="11.1" customHeight="1"/>
-    <row r="35" ht="11.1" customHeight="1"/>
-    <row r="36" ht="11.1" customHeight="1"/>
-    <row r="37" ht="11.1" customHeight="1"/>
-    <row r="38" ht="11.1" customHeight="1"/>
-    <row r="39" ht="11.1" customHeight="1"/>
-    <row r="40" ht="11.1" customHeight="1"/>
-    <row r="41" ht="11.1" customHeight="1"/>
-    <row r="42" ht="11.1" customHeight="1"/>
-    <row r="43" ht="11.1" customHeight="1"/>
-    <row r="44" ht="11.1" customHeight="1"/>
-    <row r="45" ht="11.1" customHeight="1"/>
-    <row r="46" ht="11.1" customHeight="1"/>
-    <row r="47" ht="11.1" customHeight="1"/>
-    <row r="48" ht="11.1" customHeight="1"/>
-    <row r="49" ht="11.1" customHeight="1"/>
-    <row r="50" ht="11.1" customHeight="1"/>
-    <row r="51" ht="11.1" customHeight="1"/>
-    <row r="52" ht="11.1" customHeight="1"/>
-    <row r="53" ht="11.1" customHeight="1"/>
-    <row r="54" ht="11.1" customHeight="1"/>
-    <row r="55" ht="11.1" customHeight="1"/>
-    <row r="56" ht="11.1" customHeight="1"/>
-    <row r="57" ht="11.1" customHeight="1"/>
-    <row r="58" ht="11.1" customHeight="1"/>
-    <row r="59" ht="11.1" customHeight="1"/>
-    <row r="60" ht="11.1" customHeight="1"/>
-    <row r="61" ht="11.1" customHeight="1"/>
-    <row r="62" ht="11.1" customHeight="1"/>
-    <row r="63" ht="11.1" customHeight="1"/>
-    <row r="64" ht="11.1" customHeight="1"/>
-    <row r="65" ht="11.1" customHeight="1"/>
-    <row r="66" ht="11.1" customHeight="1"/>
-    <row r="67" ht="11.1" customHeight="1"/>
-    <row r="68" ht="11.1" customHeight="1"/>
-    <row r="69" ht="11.1" customHeight="1"/>
-    <row r="70" ht="11.1" customHeight="1"/>
-    <row r="71" ht="11.1" customHeight="1"/>
-    <row r="72" ht="11.1" customHeight="1"/>
-    <row r="73" ht="11.1" customHeight="1"/>
-    <row r="74" ht="11.1" customHeight="1"/>
-    <row r="75" ht="11.1" customHeight="1"/>
-    <row r="76" ht="11.1" customHeight="1"/>
-    <row r="77" ht="11.1" customHeight="1"/>
-    <row r="78" ht="11.1" customHeight="1"/>
-    <row r="79" ht="11.1" customHeight="1"/>
-    <row r="80" ht="11.1" customHeight="1"/>
-    <row r="81" ht="11.1" customHeight="1"/>
+    <row r="21" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:A2"/>
@@ -14587,56 +14818,56 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BJ56"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="7.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.875" style="4"/>
+    <col min="48" max="48" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
@@ -14692,7 +14923,7 @@
       <c r="AU1" s="32"/>
       <c r="AV1" s="32"/>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A2" s="32"/>
       <c r="B2" s="32" t="s">
         <v>27</v>
@@ -14766,27 +14997,27 @@
       <c r="AU2" s="32"/>
       <c r="AV2" s="32"/>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
         <v>374</v>
       </c>
@@ -14926,7 +15157,7 @@
       <c r="BI7" s="6"/>
       <c r="BJ7" s="6"/>
     </row>
-    <row r="8" spans="1:62">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
         <v>375</v>
       </c>
@@ -15051,7 +15282,7 @@
       <c r="AT8" s="6"/>
       <c r="AU8" s="6"/>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>376</v>
       </c>
@@ -15160,42 +15391,42 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:62">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>384</v>
       </c>
@@ -15307,7 +15538,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>385</v>
       </c>
@@ -15435,7 +15666,7 @@
       <c r="AT18" s="6"/>
       <c r="AU18" s="6"/>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
         <v>386</v>
       </c>
@@ -15547,38 +15778,38 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="1:47" ht="14.25">
+    <row r="21" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>388</v>
       </c>
       <c r="L21" s="31"/>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>393</v>
       </c>
@@ -15713,7 +15944,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>394</v>
       </c>
@@ -15855,7 +16086,7 @@
       <c r="AT27" s="6"/>
       <c r="AU27" s="6"/>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>395</v>
       </c>
@@ -15990,132 +16221,132 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
         <v>421</v>
       </c>
@@ -16224,7 +16455,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>422</v>
       </c>
@@ -16333,7 +16564,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
         <v>423</v>
       </c>
@@ -16459,58 +16690,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BJ57"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="1.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="38" width="3.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.875" style="4"/>
+    <col min="48" max="48" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
@@ -16566,7 +16797,7 @@
       <c r="AU1" s="32"/>
       <c r="AV1" s="32"/>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A2" s="32"/>
       <c r="B2" s="32" t="s">
         <v>27</v>
@@ -16640,22 +16871,22 @@
       <c r="AU2" s="32"/>
       <c r="AV2" s="32"/>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>240</v>
       </c>
@@ -16675,7 +16906,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>241</v>
       </c>
@@ -16741,7 +16972,7 @@
       <c r="BI7" s="6"/>
       <c r="BJ7" s="6"/>
     </row>
-    <row r="8" spans="1:62">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>242</v>
       </c>
@@ -16792,92 +17023,92 @@
       <c r="AT8" s="6"/>
       <c r="AU8" s="6"/>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:62">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A26" s="21" t="s">
         <v>260</v>
       </c>
@@ -17039,7 +17270,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>261</v>
       </c>
@@ -17048,152 +17279,152 @@
       <c r="F27" s="14"/>
       <c r="Q27" s="20"/>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
         <v>291</v>
       </c>
@@ -17215,58 +17446,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BJ41"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="1.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="2.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="42" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.875" style="4"/>
+    <col min="38" max="42" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
@@ -17322,7 +17553,7 @@
       <c r="AU1" s="32"/>
       <c r="AV1" s="32"/>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A2" s="32"/>
       <c r="B2" s="32" t="s">
         <v>27</v>
@@ -17396,17 +17627,17 @@
       <c r="AU2" s="32"/>
       <c r="AV2" s="32"/>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>294</v>
       </c>
@@ -17457,7 +17688,7 @@
       <c r="AT5" s="6"/>
       <c r="AU5" s="6"/>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>295</v>
       </c>
@@ -17477,7 +17708,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>296</v>
       </c>
@@ -17543,7 +17774,7 @@
       <c r="BI7" s="6"/>
       <c r="BJ7" s="6"/>
     </row>
-    <row r="8" spans="1:62">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>297</v>
       </c>
@@ -17594,27 +17825,27 @@
       <c r="AT8" s="6"/>
       <c r="AU8" s="6"/>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:62">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>302</v>
       </c>
@@ -17777,7 +18008,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>303</v>
       </c>
@@ -17795,12 +18026,12 @@
       <c r="AU14" s="9"/>
       <c r="AV14" s="9"/>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>305</v>
       </c>
@@ -17963,12 +18194,12 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>307</v>
       </c>
@@ -18130,12 +18361,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
         <v>309</v>
       </c>
@@ -18297,7 +18528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
         <v>310</v>
       </c>
@@ -18460,27 +18691,27 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
         <v>315</v>
       </c>
@@ -18643,17 +18874,17 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A29" s="17" t="s">
         <v>318</v>
       </c>
@@ -18816,42 +19047,42 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
         <v>326</v>
       </c>
@@ -19013,17 +19244,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A40" s="17" t="s">
         <v>329</v>
       </c>
@@ -19185,7 +19416,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>330</v>
       </c>
@@ -19207,46 +19438,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AV113"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="1.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="2.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="38" width="2.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="48" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.875" style="4"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="48" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
@@ -19302,7 +19533,7 @@
       <c r="AU1" s="32"/>
       <c r="AV1" s="32"/>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A2" s="32"/>
       <c r="B2" s="32" t="s">
         <v>27</v>
@@ -19376,12 +19607,12 @@
       <c r="AU2" s="32"/>
       <c r="AV2" s="32"/>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>100</v>
       </c>
@@ -19543,287 +19774,287 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A61" s="17" t="s">
         <v>18</v>
       </c>
@@ -19985,22 +20216,22 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A62" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:48">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A65" s="17" t="s">
         <v>19</v>
       </c>
@@ -20162,242 +20393,242 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:48">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:48">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:48">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:48">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:48">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:48">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="1:48">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:48">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:48">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:48">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:48">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:48">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:48">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="79" spans="1:48">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:48">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="16" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="16" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="16" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="16" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="16" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="16" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="16" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="16" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="16" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="16" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="16" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="16" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="16" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="16" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="16" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="16" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="16" t="s">
         <v>205</v>
       </c>
@@ -20419,47 +20650,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AV22"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="1.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="40" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="47" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.875" style="4"/>
+    <col min="17" max="21" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="40" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="47" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
@@ -20515,7 +20746,7 @@
       <c r="AU1" s="32"/>
       <c r="AV1" s="32"/>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A2" s="32"/>
       <c r="B2" s="32" t="s">
         <v>27</v>
@@ -20589,27 +20820,27 @@
       <c r="AU2" s="32"/>
       <c r="AV2" s="32"/>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -20770,7 +21001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
@@ -20931,72 +21162,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>225</v>
       </c>
@@ -21017,59 +21248,59 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BJ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="3.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.875" style="4"/>
+    <col min="48" max="48" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
@@ -21125,7 +21356,7 @@
       <c r="AU1" s="32"/>
       <c r="AV1" s="32"/>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A2" s="32"/>
       <c r="B2" s="32" t="s">
         <v>27</v>
@@ -21199,22 +21430,22 @@
       <c r="AU2" s="32"/>
       <c r="AV2" s="32"/>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
         <v>334</v>
       </c>
@@ -21380,7 +21611,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A7" s="33"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -21510,7 +21741,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:62">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A8" s="33"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -21640,7 +21871,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>335</v>
       </c>
@@ -21706,7 +21937,7 @@
       <c r="BI9" s="6"/>
       <c r="BJ9" s="6"/>
     </row>
-    <row r="10" spans="1:62">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>336</v>
       </c>
@@ -21757,12 +21988,12 @@
       <c r="AT10" s="6"/>
       <c r="AU10" s="6"/>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A12" s="33" t="s">
         <v>338</v>
       </c>
@@ -21920,7 +22151,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A13" s="33"/>
       <c r="B13" s="22">
         <v>-1.1000000000000001</v>
@@ -22027,7 +22258,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A14" s="33"/>
       <c r="B14" s="22">
         <v>-1.1000000000000001</v>
@@ -22134,23 +22365,23 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>341</v>
       </c>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A18" s="33" t="s">
         <v>342</v>
       </c>
@@ -22312,7 +22543,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A19" s="33"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -22443,7 +22674,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A20" s="33"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -22574,7 +22805,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A21" s="33"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -22705,7 +22936,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A22" s="33"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -22836,7 +23067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A23" s="33"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -22967,7 +23198,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A24" s="33"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -23098,7 +23329,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A25" s="33"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -23229,7 +23460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A26" s="33"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -23359,7 +23590,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A27" s="33" t="s">
         <v>352</v>
       </c>
@@ -23484,7 +23715,7 @@
       <c r="AT27" s="6"/>
       <c r="AU27" s="6"/>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A28" s="33"/>
       <c r="B28" s="22">
         <v>-2</v>
@@ -23593,7 +23824,7 @@
       <c r="AF28" s="6"/>
       <c r="AG28" s="6"/>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A29" s="33"/>
       <c r="B29" s="22">
         <v>-2</v>
@@ -23702,7 +23933,7 @@
       <c r="AF29" s="6"/>
       <c r="AG29" s="6"/>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A30" s="33"/>
       <c r="B30" s="22">
         <v>-2</v>
@@ -23811,7 +24042,7 @@
       <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A31" s="33"/>
       <c r="B31" s="22">
         <v>-2</v>
@@ -23920,7 +24151,7 @@
       <c r="AF31" s="6"/>
       <c r="AG31" s="6"/>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A32" s="33"/>
       <c r="B32" s="22">
         <v>-2</v>
@@ -24029,7 +24260,7 @@
       <c r="AF32" s="6"/>
       <c r="AG32" s="6"/>
     </row>
-    <row r="33" spans="1:47">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A33" s="33"/>
       <c r="B33" s="22">
         <v>-2</v>
@@ -24138,7 +24369,7 @@
       <c r="AF33" s="6"/>
       <c r="AG33" s="6"/>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A34" s="33"/>
       <c r="B34" s="22">
         <v>-2</v>
@@ -24247,7 +24478,7 @@
       <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
     </row>
-    <row r="35" spans="1:47">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A35" s="33"/>
       <c r="B35" s="22">
         <v>-2</v>
@@ -24356,7 +24587,7 @@
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
     </row>
-    <row r="36" spans="1:47">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A36" s="33" t="s">
         <v>351</v>
       </c>
@@ -24481,7 +24712,7 @@
       <c r="AT36" s="6"/>
       <c r="AU36" s="6"/>
     </row>
-    <row r="37" spans="1:47">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A37" s="33"/>
       <c r="B37" s="22">
         <v>-2</v>
@@ -24590,7 +24821,7 @@
       <c r="AF37" s="6"/>
       <c r="AG37" s="6"/>
     </row>
-    <row r="38" spans="1:47">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A38" s="33"/>
       <c r="B38" s="22">
         <v>-2</v>
@@ -24699,7 +24930,7 @@
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
     </row>
-    <row r="39" spans="1:47">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A39" s="33"/>
       <c r="B39" s="22">
         <v>-2</v>
@@ -24808,7 +25039,7 @@
       <c r="AF39" s="6"/>
       <c r="AG39" s="6"/>
     </row>
-    <row r="40" spans="1:47">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A40" s="33"/>
       <c r="B40" s="22">
         <v>-2</v>
@@ -24917,7 +25148,7 @@
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
     </row>
-    <row r="41" spans="1:47">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A41" s="33"/>
       <c r="B41" s="22">
         <v>-2</v>
@@ -25026,7 +25257,7 @@
       <c r="AF41" s="6"/>
       <c r="AG41" s="6"/>
     </row>
-    <row r="42" spans="1:47">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A42" s="33"/>
       <c r="B42" s="22">
         <v>-2</v>
@@ -25135,7 +25366,7 @@
       <c r="AF42" s="6"/>
       <c r="AG42" s="6"/>
     </row>
-    <row r="43" spans="1:47">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A43" s="33"/>
       <c r="B43" s="22">
         <v>-2</v>
@@ -25244,7 +25475,7 @@
       <c r="AF43" s="6"/>
       <c r="AG43" s="6"/>
     </row>
-    <row r="44" spans="1:47">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A44" s="33"/>
       <c r="B44" s="22">
         <v>-2</v>
@@ -25353,7 +25584,7 @@
       <c r="AF44" s="6"/>
       <c r="AG44" s="6"/>
     </row>
-    <row r="45" spans="1:47">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A45" s="33" t="s">
         <v>353</v>
       </c>
@@ -25478,7 +25709,7 @@
       <c r="AT45" s="6"/>
       <c r="AU45" s="6"/>
     </row>
-    <row r="46" spans="1:47">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A46" s="33"/>
       <c r="B46" s="22">
         <v>-2</v>
@@ -25587,7 +25818,7 @@
       <c r="AF46" s="6"/>
       <c r="AG46" s="6"/>
     </row>
-    <row r="47" spans="1:47">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A47" s="33"/>
       <c r="B47" s="22">
         <v>-2</v>
@@ -25696,7 +25927,7 @@
       <c r="AF47" s="6"/>
       <c r="AG47" s="6"/>
     </row>
-    <row r="48" spans="1:47">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A48" s="33"/>
       <c r="B48" s="22">
         <v>-2</v>
@@ -25805,7 +26036,7 @@
       <c r="AF48" s="6"/>
       <c r="AG48" s="6"/>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A49" s="33"/>
       <c r="B49" s="22">
         <v>-2</v>
@@ -25914,7 +26145,7 @@
       <c r="AF49" s="6"/>
       <c r="AG49" s="6"/>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A50" s="33"/>
       <c r="B50" s="22">
         <v>-2</v>
@@ -26023,7 +26254,7 @@
       <c r="AF50" s="6"/>
       <c r="AG50" s="6"/>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A51" s="33"/>
       <c r="B51" s="22">
         <v>-2</v>
@@ -26132,7 +26363,7 @@
       <c r="AF51" s="6"/>
       <c r="AG51" s="6"/>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A52" s="33"/>
       <c r="B52" s="22">
         <v>-2</v>
@@ -26241,7 +26472,7 @@
       <c r="AF52" s="6"/>
       <c r="AG52" s="6"/>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A53" s="33"/>
       <c r="B53" s="22">
         <v>-2</v>
@@ -26350,7 +26581,7 @@
       <c r="AF53" s="6"/>
       <c r="AG53" s="6"/>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
         <v>343</v>
       </c>
@@ -26380,7 +26611,7 @@
       <c r="AD54" s="6"/>
       <c r="AE54" s="6"/>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A55" s="33" t="s">
         <v>344</v>
       </c>
@@ -26546,7 +26777,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A56" s="33"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -26676,7 +26907,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A57" s="33"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -26806,7 +27037,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="s">
         <v>345</v>
       </c>
@@ -26841,7 +27072,7 @@
       <c r="AD58" s="6"/>
       <c r="AE58" s="6"/>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
         <v>346</v>
       </c>
@@ -26876,7 +27107,7 @@
       <c r="AD59" s="6"/>
       <c r="AE59" s="6"/>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
         <v>347</v>
       </c>
@@ -26911,7 +27142,7 @@
       <c r="AD60" s="6"/>
       <c r="AE60" s="6"/>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A61" s="33" t="s">
         <v>348</v>
       </c>
@@ -27020,7 +27251,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A62" s="33"/>
       <c r="B62" s="22">
         <v>-1.1000000000000001</v>
@@ -27127,7 +27358,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A63" s="33"/>
       <c r="B63" s="22">
         <v>-1.1000000000000001</v>
@@ -27234,7 +27465,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
@@ -27266,7 +27497,7 @@
       <c r="AD64" s="6"/>
       <c r="AE64" s="6"/>
     </row>
-    <row r="65" spans="2:31">
+    <row r="65" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
@@ -27298,7 +27529,7 @@
       <c r="AD65" s="6"/>
       <c r="AE65" s="6"/>
     </row>
-    <row r="66" spans="2:31">
+    <row r="66" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
@@ -27330,7 +27561,7 @@
       <c r="AD66" s="6"/>
       <c r="AE66" s="6"/>
     </row>
-    <row r="67" spans="2:31">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
@@ -27362,7 +27593,7 @@
       <c r="AD67" s="6"/>
       <c r="AE67" s="6"/>
     </row>
-    <row r="68" spans="2:31">
+    <row r="68" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
@@ -27394,7 +27625,7 @@
       <c r="AD68" s="6"/>
       <c r="AE68" s="6"/>
     </row>
-    <row r="69" spans="2:31">
+    <row r="69" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
@@ -27426,7 +27657,7 @@
       <c r="AD69" s="6"/>
       <c r="AE69" s="6"/>
     </row>
-    <row r="70" spans="2:31">
+    <row r="70" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
@@ -27458,7 +27689,7 @@
       <c r="AD70" s="6"/>
       <c r="AE70" s="6"/>
     </row>
-    <row r="71" spans="2:31">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
@@ -27490,7 +27721,7 @@
       <c r="AD71" s="6"/>
       <c r="AE71" s="6"/>
     </row>
-    <row r="72" spans="2:31">
+    <row r="72" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
@@ -27524,22 +27755,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="A36:A44"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:P1"/>
     <mergeCell ref="Q1:AV1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AG2:AV2"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="A36:A44"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -27547,61 +27778,61 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BJ22"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="1.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="42" max="43" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="3.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="10.875" style="4"/>
+    <col min="47" max="48" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
@@ -27657,7 +27888,7 @@
       <c r="AU1" s="32"/>
       <c r="AV1" s="32"/>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A2" s="32"/>
       <c r="B2" s="32" t="s">
         <v>27</v>
@@ -27731,17 +27962,17 @@
       <c r="AU2" s="32"/>
       <c r="AV2" s="32"/>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>228</v>
       </c>
@@ -27908,7 +28139,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>229</v>
       </c>
@@ -28072,7 +28303,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>230</v>
       </c>
@@ -28138,7 +28369,7 @@
       <c r="BI7" s="6"/>
       <c r="BJ7" s="6"/>
     </row>
-    <row r="8" spans="1:62">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>231</v>
       </c>
@@ -28189,56 +28420,56 @@
       <c r="AT8" s="6"/>
       <c r="AU8" s="6"/>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:62">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="16"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="16"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="16"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="16"/>
     </row>
   </sheetData>
@@ -28257,26 +28488,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:T60"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -28296,7 +28527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -28316,7 +28547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>3</v>
       </c>
@@ -28350,7 +28581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -28382,7 +28613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J6" t="e">
         <f>J4:K5</f>
         <v>#VALUE!</v>
@@ -28399,7 +28630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7">
         <f>SUM(B2:E5)</f>
         <v>40</v>
@@ -28431,7 +28662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J8">
         <f t="array" ref="J8:K10">G2:H2</f>
         <v>5</v>
@@ -28452,7 +28683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9">
         <f>SUM(a,b,d,e,f,g)</f>
         <v>104</v>
@@ -28499,7 +28730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D10">
         <f>SUM(B2:E5)</f>
         <v>40</v>
@@ -28525,7 +28756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F11">
         <f>SUM(G10:G11,G12)</f>
         <v>25</v>
@@ -28541,7 +28772,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="G12">
         <v>9</v>
       </c>
@@ -28557,7 +28788,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -28570,7 +28801,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E14" t="str">
         <f>"ciao"&amp;B13&amp;" cc" &amp;C13</f>
         <v>ciao ccca</v>
@@ -28587,7 +28818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>1</v>
       </c>
@@ -28605,7 +28836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="H16">
         <f t="array" ref="H16:J18">G11:H12</f>
         <v>9</v>
@@ -28623,7 +28854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17">
         <f>[1]Sheet1!$A$1+1</f>
         <v>3</v>
@@ -28639,7 +28870,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>[1]Sheet1!$A$1+[1]Sheet1!$A$2</f>
         <v>4</v>
@@ -28658,19 +28889,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E19">
         <f>D16*3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H20">
         <f t="array" ref="H20:H24">IF(G9:G12&lt;&gt;H10:H13,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F21">
         <f>C19+1</f>
         <v>1</v>
@@ -28683,12 +28914,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H23">
         <v>1</v>
       </c>
@@ -28697,7 +28928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H24" t="e">
         <v>#N/A</v>
       </c>
@@ -28706,42 +28937,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="20:20">
+    <row r="48" spans="20:20" ht="17" x14ac:dyDescent="0.25">
       <c r="T48" s="3"/>
     </row>
-    <row r="52" spans="5:8">
+    <row r="52" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="5:8">
+    <row r="53" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="5:8">
+    <row r="54" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="5:8">
+    <row r="55" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="5:8">
+    <row r="56" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="5:8">
+    <row r="57" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="5:8">
+    <row r="58" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="5:8">
+    <row r="59" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="5:8">
+    <row r="60" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H60" s="2"/>
     </row>
   </sheetData>
@@ -28751,31 +28982,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>6</v>
       </c>

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenzoarcidiacono/PycharmProjects/formulas/test/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DC866F-E404-6247-93D7-C41DC5991C1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1FEE7C-6462-064E-95BE-6C9C5541E743}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="770" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATH &amp; TRIG" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="427">
   <si>
     <t>ca</t>
   </si>
@@ -1802,7 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -27781,7 +27781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BJ22"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -27805,7 +27805,8 @@
     <col min="17" max="17" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.5" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.5" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -27815,20 +27816,22 @@
     <col min="29" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="49" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -28431,8 +28434,165 @@
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>234</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E11" s="14">
+        <v>10</v>
+      </c>
+      <c r="F11" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N11" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O11" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P11" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="shared" ref="Q11:S11" si="9">_xlfn.SWITCH(B11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>3</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" ref="R11" si="10">_xlfn.SWITCH(C11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" ref="S11" si="11">_xlfn.SWITCH(D11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>5</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" ref="T11" si="12">_xlfn.SWITCH(E11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>7</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" ref="U11" si="13">_xlfn.SWITCH(F11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>6</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" ref="V11" si="14">_xlfn.SWITCH(G11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>3</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" ref="W11" si="15">_xlfn.SWITCH(H11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>99</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" ref="X11" si="16">_xlfn.SWITCH(I11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>2</v>
+      </c>
+      <c r="Y11" s="4" t="e">
+        <f t="shared" ref="Y11" si="17">_xlfn.SWITCH(J11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z11" s="4" t="e">
+        <f t="shared" ref="Z11" si="18">_xlfn.SWITCH(K11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA11" s="4" t="e">
+        <f t="shared" ref="AA11" si="19">_xlfn.SWITCH(L11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB11" s="4" t="e">
+        <f t="shared" ref="AB11" si="20">_xlfn.SWITCH(M11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC11" s="4" t="e">
+        <f t="shared" ref="AC11" si="21">_xlfn.SWITCH(N11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD11" s="4" t="e">
+        <f t="shared" ref="AD11" si="22">_xlfn.SWITCH(O11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE11" s="4" t="e">
+        <f t="shared" ref="AE11:AF11" si="23">_xlfn.SWITCH(P11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF11" s="4" t="e">
+        <f>_xlfn.SWITCH(B11:F11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG11" s="4">
+        <f t="array" ref="AG11:AV11">_xlfn.SWITCH(B11:P11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <v>3</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>5</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>7</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>6</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>99</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP11" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ11" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR11" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS11" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT11" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU11" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV11" s="4" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.15">

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenzoarcidiacono/PycharmProjects/formulas/test/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1FEE7C-6462-064E-95BE-6C9C5541E743}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B57584-BE92-FA43-B867-12CB1B7C475B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="770" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATH &amp; TRIG" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="428">
   <si>
     <t>ca</t>
   </si>
@@ -1333,6 +1333,9 @@
   </si>
   <si>
     <t>f000000000</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV81"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6825,7 +6828,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="W36" s="6" t="e">
-        <f t="shared" ref="V36:AD36" si="39">GCD(H36)</f>
+        <f t="shared" ref="W36:AD36" si="39">GCD(H36)</f>
         <v>#VALUE!</v>
       </c>
       <c r="X36" s="6" t="e">
@@ -6908,7 +6911,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AT36" s="6" t="e">
-        <f t="shared" ref="AH36:AV36" si="40">GCD(O36:AB36,P36:AC36)</f>
+        <f t="shared" ref="AT36:AV36" si="40">GCD(O36:AB36,P36:AC36)</f>
         <v>#NUM!</v>
       </c>
       <c r="AU36" s="6" t="e">
@@ -7282,31 +7285,31 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y39" s="6" t="e">
-        <f>LCM(J39)</f>
+        <f t="shared" ref="Y39:AE39" si="43">LCM(J39)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z39" s="6" t="e">
-        <f>LCM(K39)</f>
+        <f t="shared" si="43"/>
         <v>#N/A</v>
       </c>
       <c r="AA39" s="6" t="e">
-        <f>LCM(L39)</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB39" s="6" t="e">
-        <f>LCM(M39)</f>
+        <f t="shared" si="43"/>
         <v>#NAME?</v>
       </c>
       <c r="AC39" s="6" t="e">
-        <f>LCM(N39)</f>
+        <f t="shared" si="43"/>
         <v>#NULL!</v>
       </c>
       <c r="AD39" s="6" t="e">
-        <f>LCM(O39)</f>
+        <f t="shared" si="43"/>
         <v>#NUM!</v>
       </c>
       <c r="AE39" s="6" t="e">
-        <f>LCM(P39)</f>
+        <f t="shared" si="43"/>
         <v>#REF!</v>
       </c>
       <c r="AF39" s="10"/>
@@ -7411,63 +7414,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q40" s="6" t="e">
-        <f t="shared" ref="Q40:AE40" si="43">LN(B40)</f>
+        <f t="shared" ref="Q40:AE40" si="44">LN(B40)</f>
         <v>#NUM!</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.83290912293510388</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="U40" s="6" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#NUM!</v>
       </c>
       <c r="V40" s="6" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#NUM!</v>
       </c>
       <c r="W40" s="6" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
       <c r="X40" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Y40" s="6" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z40" s="6" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="AA40" s="6" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB40" s="6" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#NAME?</v>
       </c>
       <c r="AC40" s="6" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#NULL!</v>
       </c>
       <c r="AD40" s="6" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#NUM!</v>
       </c>
       <c r="AE40" s="6" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>#REF!</v>
       </c>
       <c r="AF40" s="10"/>
@@ -7601,31 +7604,31 @@
         <v>0</v>
       </c>
       <c r="Y41" s="6" t="e">
-        <f t="shared" ref="Y41:AE41" si="44">LOG(J41,3)</f>
+        <f t="shared" ref="Y41:AE41" si="45">LOG(J41,3)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z41" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>#N/A</v>
       </c>
       <c r="AA41" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB41" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>#NAME?</v>
       </c>
       <c r="AC41" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>#NULL!</v>
       </c>
       <c r="AD41" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>#NUM!</v>
       </c>
       <c r="AE41" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>#REF!</v>
       </c>
       <c r="AF41" s="10"/>
@@ -7727,63 +7730,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q42" s="6" t="e">
-        <f t="shared" ref="Q42:X42" si="45">LOG10(B42)</f>
+        <f t="shared" ref="Q42:X42" si="46">LOG10(B42)</f>
         <v>#NUM!</v>
       </c>
       <c r="R42" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="S42" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.36172783601759284</v>
       </c>
       <c r="T42" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="U42" s="6" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>#NUM!</v>
       </c>
       <c r="V42" s="6" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>#NUM!</v>
       </c>
       <c r="W42" s="6" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>#VALUE!</v>
       </c>
       <c r="X42" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y42" s="6" t="e">
-        <f t="shared" ref="Y42:AE42" si="46">LOG10(J42)</f>
+        <f t="shared" ref="Y42:AE42" si="47">LOG10(J42)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z42" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
       <c r="AA42" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB42" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#NAME?</v>
       </c>
       <c r="AC42" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#NULL!</v>
       </c>
       <c r="AD42" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#NUM!</v>
       </c>
       <c r="AE42" s="6" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#REF!</v>
       </c>
       <c r="AF42" s="10"/>
@@ -8070,27 +8073,27 @@
         <v>0.79999999999999982</v>
       </c>
       <c r="Y46" s="6" t="e">
-        <f t="shared" ref="Y46:AD46" si="47">MOD(J46,K46)</f>
+        <f t="shared" ref="Y46:AD46" si="48">MOD(J46,K46)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z46" s="6" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
       <c r="AA46" s="6" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB46" s="6" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#NAME?</v>
       </c>
       <c r="AC46" s="6" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#NULL!</v>
       </c>
       <c r="AD46" s="6" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#NUM!</v>
       </c>
       <c r="AE46" s="6" t="e">
@@ -8232,27 +8235,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z47" s="6" t="e">
-        <f t="shared" ref="Z47:AE47" si="48">MROUND(K47,J47)</f>
+        <f t="shared" ref="Z47:AE47" si="49">MROUND(K47,J47)</f>
         <v>#N/A</v>
       </c>
       <c r="AA47" s="6" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB47" s="6" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>#NAME?</v>
       </c>
       <c r="AC47" s="6" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>#NULL!</v>
       </c>
       <c r="AD47" s="6" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>#NUM!</v>
       </c>
       <c r="AE47" s="6" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>#REF!</v>
       </c>
       <c r="AF47" s="10"/>
@@ -8461,59 +8464,59 @@
         <v>1</v>
       </c>
       <c r="R50" s="6">
-        <f t="shared" ref="R50:AE50" si="49">ODD(C50)</f>
+        <f t="shared" ref="R50:AE50" si="50">ODD(C50)</f>
         <v>3</v>
       </c>
       <c r="S50" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>3</v>
       </c>
       <c r="T50" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-1</v>
       </c>
       <c r="U50" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-3</v>
       </c>
       <c r="V50" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W50" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
       <c r="X50" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="Y50" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z50" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
       <c r="AA50" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB50" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>#NAME?</v>
       </c>
       <c r="AC50" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>#NULL!</v>
       </c>
       <c r="AD50" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>#NUM!</v>
       </c>
       <c r="AE50" s="6" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>#REF!</v>
       </c>
       <c r="AF50" s="10"/>
@@ -8735,27 +8738,27 @@
         <v>1</v>
       </c>
       <c r="Y52" s="6" t="e">
-        <f t="shared" ref="Y52:AD52" si="50">POWER(J52,K52)</f>
+        <f t="shared" ref="Y52:AD52" si="51">POWER(J52,K52)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z52" s="6" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="AA52" s="6" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB52" s="6" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>#NAME?</v>
       </c>
       <c r="AC52" s="6" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>#NULL!</v>
       </c>
       <c r="AD52" s="6" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>#NUM!</v>
       </c>
       <c r="AE52" s="6" t="e">
@@ -8963,63 +8966,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q55" s="6">
-        <f t="shared" ref="Q55:AE55" si="51">RADIANS(B55)</f>
+        <f t="shared" ref="Q55:AE55" si="52">RADIANS(B55)</f>
         <v>0</v>
       </c>
       <c r="R55" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1.7453292519943295E-2</v>
       </c>
       <c r="S55" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>4.014257279586958E-2</v>
       </c>
       <c r="T55" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="U55" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>-1.7453292519943295E-2</v>
       </c>
       <c r="V55" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W55" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="X55" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1.7453292519943295E-2</v>
       </c>
       <c r="Y55" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z55" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
       <c r="AA55" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB55" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#NAME?</v>
       </c>
       <c r="AC55" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#NULL!</v>
       </c>
       <c r="AD55" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#NUM!</v>
       </c>
       <c r="AE55" s="6" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>#REF!</v>
       </c>
       <c r="AF55" s="10"/>
@@ -9208,7 +9211,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y57" s="6" t="e">
-        <f t="shared" ref="Y57:AC57" ca="1" si="52">RANDBETWEEN(J57,K57)</f>
+        <f t="shared" ref="Y57:AC57" ca="1" si="53">RANDBETWEEN(J57,K57)</f>
         <v>#N/A</v>
       </c>
       <c r="Z57" s="6" t="e">
@@ -9220,11 +9223,11 @@
         <v>#NAME?</v>
       </c>
       <c r="AB57" s="6" t="e">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="53"/>
         <v>#NULL!</v>
       </c>
       <c r="AC57" s="6" t="e">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="53"/>
         <v>#NUM!</v>
       </c>
       <c r="AD57" s="6" t="e">
@@ -9309,15 +9312,15 @@
         <v>LMVLIV</v>
       </c>
       <c r="S58" s="6" t="str">
-        <f t="shared" ref="S58:AE58" si="53">ROMAN(999.9,D58)</f>
+        <f t="shared" ref="S58:AE58" si="54">ROMAN(999.9,D58)</f>
         <v>XMIX</v>
       </c>
       <c r="T58" s="6" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>VMIV</v>
       </c>
       <c r="U58" s="6" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>IM</v>
       </c>
       <c r="V58" s="6" t="str">
@@ -9325,7 +9328,7 @@
         <v>CMXCIX</v>
       </c>
       <c r="W58" s="6" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="X58" s="6" t="str">
@@ -9333,31 +9336,31 @@
         <v>CMXCIX</v>
       </c>
       <c r="Y58" s="6" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z58" s="6" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>#N/A</v>
       </c>
       <c r="AA58" s="6" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB58" s="6" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>#NAME?</v>
       </c>
       <c r="AC58" s="6" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>#NULL!</v>
       </c>
       <c r="AD58" s="6" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>#NUM!</v>
       </c>
       <c r="AE58" s="6" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>#REF!</v>
       </c>
       <c r="AF58" s="10"/>
@@ -9495,23 +9498,23 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z59" s="6" t="e">
-        <f t="shared" ref="Z59:AD59" si="54">ROUND(K59,J59)</f>
+        <f t="shared" ref="Z59:AD59" si="55">ROUND(K59,J59)</f>
         <v>#N/A</v>
       </c>
       <c r="AA59" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB59" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#NAME?</v>
       </c>
       <c r="AC59" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#NULL!</v>
       </c>
       <c r="AD59" s="6" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>#NUM!</v>
       </c>
       <c r="AE59" s="6" t="e">
@@ -9649,31 +9652,31 @@
         <v>1</v>
       </c>
       <c r="Y60" s="6" t="e">
-        <f t="shared" ref="Y60:AE60" si="55">ROUNDDOWN(J60,I60)</f>
+        <f t="shared" ref="Y60:AE60" si="56">ROUNDDOWN(J60,I60)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z60" s="6" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#N/A</v>
       </c>
       <c r="AA60" s="6" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB60" s="6" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#NAME?</v>
       </c>
       <c r="AC60" s="6" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#NULL!</v>
       </c>
       <c r="AD60" s="6" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#NUM!</v>
       </c>
       <c r="AE60" s="6" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>#REF!</v>
       </c>
       <c r="AF60" s="10"/>
@@ -9807,31 +9810,31 @@
         <v>1</v>
       </c>
       <c r="Y61" s="6" t="e">
-        <f t="shared" ref="Y61:AE61" si="56">ROUNDUP(J61,I61)</f>
+        <f t="shared" ref="Y61:AE61" si="57">ROUNDUP(J61,I61)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z61" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>#N/A</v>
       </c>
       <c r="AA61" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB61" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>#NAME?</v>
       </c>
       <c r="AC61" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>#NULL!</v>
       </c>
       <c r="AD61" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>#NUM!</v>
       </c>
       <c r="AE61" s="6" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>#REF!</v>
       </c>
       <c r="AF61" s="10"/>
@@ -9937,59 +9940,59 @@
         <v>1</v>
       </c>
       <c r="R62" s="6">
-        <f t="shared" ref="R62:AE62" si="57">_xlfn.SEC(C62)</f>
+        <f t="shared" ref="R62:AE62" si="58">_xlfn.SEC(C62)</f>
         <v>1.8508157176809255</v>
       </c>
       <c r="S62" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-1.500879467460255</v>
       </c>
       <c r="T62" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-1.1917935066878957</v>
       </c>
       <c r="U62" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1.8508157176809255</v>
       </c>
       <c r="V62" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="W62" s="6" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="X62" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1.8508157176809255</v>
       </c>
       <c r="Y62" s="6" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z62" s="6" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>#N/A</v>
       </c>
       <c r="AA62" s="6" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB62" s="6" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>#NAME?</v>
       </c>
       <c r="AC62" s="6" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>#NULL!</v>
       </c>
       <c r="AD62" s="6" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>#NUM!</v>
       </c>
       <c r="AE62" s="6" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>#REF!</v>
       </c>
       <c r="AF62" s="10"/>
@@ -10095,59 +10098,59 @@
         <v>1</v>
       </c>
       <c r="R63" s="6">
-        <f t="shared" ref="R63:AE63" si="58">_xlfn.SECH(C63)</f>
+        <f t="shared" ref="R63:AE63" si="59">_xlfn.SECH(C63)</f>
         <v>0.64805427366388546</v>
       </c>
       <c r="S63" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.19852217514933898</v>
       </c>
       <c r="T63" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>9.0799859337817237E-5</v>
       </c>
       <c r="U63" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.64805427366388546</v>
       </c>
       <c r="V63" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="W63" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="X63" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.64805427366388546</v>
       </c>
       <c r="Y63" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z63" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#N/A</v>
       </c>
       <c r="AA63" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB63" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#NAME?</v>
       </c>
       <c r="AC63" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#NULL!</v>
       </c>
       <c r="AD63" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#NUM!</v>
       </c>
       <c r="AE63" s="6" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#REF!</v>
       </c>
       <c r="AF63" s="10"/>
@@ -10305,23 +10308,23 @@
         <v>0</v>
       </c>
       <c r="R65" s="6">
-        <f t="shared" ref="R65:AE65" si="59">SIGN(C65)</f>
+        <f t="shared" ref="R65:AE65" si="60">SIGN(C65)</f>
         <v>1</v>
       </c>
       <c r="S65" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="T65" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="U65" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-1</v>
       </c>
       <c r="V65" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="W65" s="6" t="e">
@@ -10329,35 +10332,35 @@
         <v>#VALUE!</v>
       </c>
       <c r="X65" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="Y65" s="6" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z65" s="6" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>#N/A</v>
       </c>
       <c r="AA65" s="6" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB65" s="6" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>#NAME?</v>
       </c>
       <c r="AC65" s="6" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>#NULL!</v>
       </c>
       <c r="AD65" s="6" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>#NUM!</v>
       </c>
       <c r="AE65" s="6" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>#REF!</v>
       </c>
       <c r="AF65" s="10"/>
@@ -10459,63 +10462,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q66" s="6">
-        <f t="shared" ref="Q66:AE66" si="60">SIN(B66)</f>
+        <f t="shared" ref="Q66:AE66" si="61">SIN(B66)</f>
         <v>0</v>
       </c>
       <c r="R66" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.8414709848078965</v>
       </c>
       <c r="S66" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.74570521217672026</v>
       </c>
       <c r="T66" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-0.54402111088936977</v>
       </c>
       <c r="U66" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-0.8414709848078965</v>
       </c>
       <c r="V66" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="W66" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="X66" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.8414709848078965</v>
       </c>
       <c r="Y66" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z66" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#N/A</v>
       </c>
       <c r="AA66" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB66" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#NAME?</v>
       </c>
       <c r="AC66" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#NULL!</v>
       </c>
       <c r="AD66" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#NUM!</v>
       </c>
       <c r="AE66" s="6" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>#REF!</v>
       </c>
       <c r="AF66" s="10"/>
@@ -10617,63 +10620,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q67" s="6">
-        <f t="shared" ref="Q67:AE67" si="61">SINH(B67)</f>
+        <f t="shared" ref="Q67:AE67" si="62">SINH(B67)</f>
         <v>0</v>
       </c>
       <c r="R67" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.1752011936438014</v>
       </c>
       <c r="S67" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>4.9369618055459572</v>
       </c>
       <c r="T67" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>11013.232874703393</v>
       </c>
       <c r="U67" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>-1.1752011936438014</v>
       </c>
       <c r="V67" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="W67" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#VALUE!</v>
       </c>
       <c r="X67" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.1752011936438014</v>
       </c>
       <c r="Y67" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z67" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#N/A</v>
       </c>
       <c r="AA67" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB67" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#NAME?</v>
       </c>
       <c r="AC67" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#NULL!</v>
       </c>
       <c r="AD67" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#NUM!</v>
       </c>
       <c r="AE67" s="6" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#REF!</v>
       </c>
       <c r="AF67" s="10"/>
@@ -10775,63 +10778,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" ref="Q68:AE68" si="62">SQRT(B68)</f>
+        <f t="shared" ref="Q68:AE68" si="63">SQRT(B68)</f>
         <v>0</v>
       </c>
       <c r="R68" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="S68" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.51657508881031</v>
       </c>
       <c r="T68" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>3.1622776601683795</v>
       </c>
       <c r="U68" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>#NUM!</v>
       </c>
       <c r="V68" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W68" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>#VALUE!</v>
       </c>
       <c r="X68" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="Y68" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z68" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>#N/A</v>
       </c>
       <c r="AA68" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB68" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>#NAME?</v>
       </c>
       <c r="AC68" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>#NULL!</v>
       </c>
       <c r="AD68" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>#NUM!</v>
       </c>
       <c r="AE68" s="6" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>#REF!</v>
       </c>
       <c r="AF68" s="10"/>
@@ -10937,19 +10940,19 @@
         <v>0</v>
       </c>
       <c r="R69" s="6">
-        <f t="shared" ref="R69:AE69" si="63">SQRTPI(C69)</f>
+        <f t="shared" ref="R69:AE69" si="64">SQRTPI(C69)</f>
         <v>1.7724538509055159</v>
       </c>
       <c r="S69" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.6880593563492088</v>
       </c>
       <c r="T69" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5.604991216397929</v>
       </c>
       <c r="U69" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>#NUM!</v>
       </c>
       <c r="V69" s="6">
@@ -10965,31 +10968,31 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y69" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z69" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>#N/A</v>
       </c>
       <c r="AA69" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB69" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>#NAME?</v>
       </c>
       <c r="AC69" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>#NULL!</v>
       </c>
       <c r="AD69" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>#NUM!</v>
       </c>
       <c r="AE69" s="6" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>#REF!</v>
       </c>
       <c r="AF69" s="10"/>
@@ -11772,63 +11775,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q79" s="6">
-        <f t="shared" ref="Q79:AE79" si="64">TAN(B79)</f>
+        <f t="shared" ref="Q79:AE79" si="65">TAN(B79)</f>
         <v>0</v>
       </c>
       <c r="R79" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1.5574077246549023</v>
       </c>
       <c r="S79" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1.1192136417341325</v>
       </c>
       <c r="T79" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.64836082745908663</v>
       </c>
       <c r="U79" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1.5574077246549023</v>
       </c>
       <c r="V79" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="W79" s="6" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>#VALUE!</v>
       </c>
       <c r="X79" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1.5574077246549023</v>
       </c>
       <c r="Y79" s="6" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z79" s="6" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>#N/A</v>
       </c>
       <c r="AA79" s="6" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB79" s="6" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>#NAME?</v>
       </c>
       <c r="AC79" s="6" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>#NULL!</v>
       </c>
       <c r="AD79" s="6" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>#NUM!</v>
       </c>
       <c r="AE79" s="6" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="AF79" s="10"/>
@@ -11930,63 +11933,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" ref="Q80:AE80" si="65">TANH(B80)</f>
+        <f t="shared" ref="Q80:AE80" si="66">TANH(B80)</f>
         <v>0</v>
       </c>
       <c r="R80" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.76159415595576485</v>
       </c>
       <c r="S80" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.98009639626619138</v>
       </c>
       <c r="T80" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.99999999587769262</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-0.76159415595576485</v>
       </c>
       <c r="V80" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="W80" s="6" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.76159415595576485</v>
       </c>
       <c r="Y80" s="6" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z80" s="6" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>#N/A</v>
       </c>
       <c r="AA80" s="6" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB80" s="6" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>#NAME?</v>
       </c>
       <c r="AC80" s="6" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>#NULL!</v>
       </c>
       <c r="AD80" s="6" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>#NUM!</v>
       </c>
       <c r="AE80" s="6" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>#REF!</v>
       </c>
       <c r="AF80" s="10"/>
@@ -12120,31 +12123,31 @@
         <v>1</v>
       </c>
       <c r="Y81" s="6" t="e">
-        <f t="shared" ref="Y81:AE81" si="66">TRUNC(J81,I81)</f>
+        <f t="shared" ref="Y81:AE81" si="67">TRUNC(J81,I81)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z81" s="6" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#N/A</v>
       </c>
       <c r="AA81" s="6" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB81" s="6" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#NAME?</v>
       </c>
       <c r="AC81" s="6" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#NULL!</v>
       </c>
       <c r="AD81" s="6" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#NUM!</v>
       </c>
       <c r="AE81" s="6" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#REF!</v>
       </c>
       <c r="AF81" s="10"/>
@@ -21249,7 +21252,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:BJ72"/>
+  <dimension ref="A1:BJ74"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -21258,11 +21261,11 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -21271,22 +21274,21 @@
     <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -22371,38 +22373,287 @@
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="33" t="s">
         <v>340</v>
       </c>
+      <c r="B16" s="22">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C16" s="22">
+        <v>2.1</v>
+      </c>
+      <c r="D16" s="22">
+        <v>3</v>
+      </c>
+      <c r="E16" s="23">
+        <v>4</v>
+      </c>
+      <c r="F16" s="23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="I16" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="24" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L16" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N16" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O16" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P16" s="25" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>INDEX(B16:D17,1,2)</f>
+        <v>2.1</v>
+      </c>
+      <c r="R16" s="4">
+        <f>INDEX(C16:E16,1,2)</f>
+        <v>3</v>
+      </c>
+      <c r="S16" s="4" t="e">
+        <f>INDEX(D16:D18,1,2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T16" s="4" t="e">
+        <f>INDEX(E16:G17,1,5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U16" s="4">
+        <f>INDEX(F16:H17,1,2)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="4" t="str">
+        <f t="shared" ref="U16:AE16" si="15">INDEX(G16:I17,1,2)</f>
+        <v>b</v>
+      </c>
+      <c r="W16" s="4" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y16" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z16" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA16" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB16" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AC16" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AD16" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE16" s="4">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="AG16" s="4">
+        <f t="array" ref="AG16:AG17">INDEX(B16:G18,D17:D18,1)</f>
+        <v>-2</v>
+      </c>
+      <c r="AH16" s="4">
+        <f t="array" ref="AH16:AI16">INDEX(B16:D17,2,3)</f>
+        <v>2</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="4" t="e">
+        <f t="array" ref="AJ16:AK18">INDEX({2,3;4,5},D16:D18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK16" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AL16" s="4">
+        <f t="array" ref="AL16:AM16">INDEX({2,3;4,5},2)</f>
+        <v>4</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>5</v>
+      </c>
+      <c r="AN16" s="4">
+        <f t="array" ref="AN16:AO17">INDEX({2,3;4,5},{1,2})</f>
+        <v>2</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>4</v>
+      </c>
+      <c r="AP16" s="4" t="e">
+        <f t="array" ref="AP16:AQ18">INDEX((B16:B18,C16:C18),1,1,D16:D18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AQ16" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AR16" s="4" t="e">
+        <f t="array" ref="AR16:AR18">INDEX((B16:B18,C16:C18),D16:D18,1,D16:D18)</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q17" s="6"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="22">
+        <v>-2</v>
+      </c>
+      <c r="C17" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D17" s="22">
+        <v>2</v>
+      </c>
+      <c r="E17" s="23">
+        <v>3</v>
+      </c>
+      <c r="F17" s="23">
+        <v>3.1</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="I17" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L17" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N17" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O17" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P17" s="25" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q17" s="4" t="e">
+        <f>INDEX(B16:D17,2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R17" s="4">
+        <f>INDEX(C16:E16,2)</f>
+        <v>3</v>
+      </c>
+      <c r="S17" s="4">
+        <f>INDEX(D16:D18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="T17" s="4" t="e">
+        <f>INDEX({2,3,4},4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U17" s="4">
+        <f>INDEX({2,3,4},1)</f>
+        <v>2</v>
+      </c>
+      <c r="V17" s="4">
+        <f>INDEX({2,3,4},1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="W17" s="4" t="e">
+        <f>INDEX({2,3,4},2,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X17" s="4">
+        <f>INDEX({2,3,4},2)</f>
+        <v>3</v>
+      </c>
+      <c r="Y17" s="4">
+        <f t="array" ref="Y17:Z17">INDEX({2,3;4,5},2)</f>
+        <v>4</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN17" s="4">
+        <v>2</v>
+      </c>
+      <c r="AO17" s="4">
+        <v>4</v>
+      </c>
+      <c r="AP17" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="AQ17" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A18" s="33" t="s">
-        <v>342</v>
-      </c>
+      <c r="A18" s="33"/>
       <c r="B18" s="22">
-        <v>-1.1000000000000001</v>
+        <v>-2.9</v>
       </c>
       <c r="C18" s="22">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="D18" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="23">
         <v>4</v>
       </c>
       <c r="F18" s="23">
-        <v>4.0999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24" t="s">
-        <v>349</v>
+        <v>427</v>
       </c>
       <c r="I18" s="24" t="b">
         <v>1</v>
@@ -22429,376 +22680,223 @@
       <c r="P18" s="25" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Q18" s="6" t="e">
+      <c r="Q18" s="4" t="e">
+        <f>INDEX(B16:D17,-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y18" s="4" t="e">
+        <f>INDEX({2,3,4,5},K18,J18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z18" s="4" t="e">
+        <f>INDEX({2,3,4,5},K18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA18" s="4" t="e">
+        <f>INDEX({2,3,4,5},1,1,M18)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB18" s="4" t="e">
+        <f>INDEX({2,3,4,5},M18)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC18" s="4" t="e">
+        <f>INDEX({2,3,4,5},N18)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD18" s="4" t="e">
+        <f>INDEX({2,3,4,5},O18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE18" s="4" t="e">
+        <f>INDEX({2,3,4,5},P18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM18" s="4">
+        <f t="array" ref="AM18:AN18">INDEX({2,3;4,5},{1})</f>
+        <v>2</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP18" s="4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A20" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" s="22">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C20" s="22">
+        <v>2.1</v>
+      </c>
+      <c r="D20" s="22">
+        <v>3</v>
+      </c>
+      <c r="E20" s="23">
+        <v>4</v>
+      </c>
+      <c r="F20" s="23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="I20" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="24" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L20" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N20" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O20" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P20" s="25" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q20" s="6" t="e">
         <f>LOOKUP(-2,{-1.1,2.1,3.1,4.1})</f>
         <v>#N/A</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R20" s="6">
         <f>LOOKUP(2,{-1.1,2.1,3.1,4.1})</f>
         <v>-1.1000000000000001</v>
       </c>
-      <c r="S18" s="6">
-        <f>LOOKUP(D18,{-1.1,2.1,3.1,4.1})</f>
+      <c r="S20" s="6">
+        <f>LOOKUP(D20,{-1.1,2.1,3.1,4.1})</f>
         <v>2.1</v>
       </c>
-      <c r="T18" s="6">
-        <f>LOOKUP(E18,{-1.1,2.1,3.1,4.1})</f>
+      <c r="T20" s="6">
+        <f>LOOKUP(E20,{-1.1,2.1,3.1,4.1})</f>
         <v>3.1</v>
       </c>
-      <c r="U18" s="6">
-        <f>LOOKUP(F18,{-1.1,2.1,3.1,4.1})</f>
+      <c r="U20" s="6">
+        <f>LOOKUP(F20,{-1.1,2.1,3.1,4.1})</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V20" s="6">
         <f>LOOKUP(20,{-1.1,2.1,3.1,4.1})</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="W18" s="6" t="e">
-        <f>LOOKUP(H18,{-1.1,2.1,3.1,4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X18" s="6" t="e">
-        <f>LOOKUP(I18,{-1.1,2.1,3.1,4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y18" s="6" t="e">
-        <f>LOOKUP(J18,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z18" s="6" t="e">
-        <f>LOOKUP(K18,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA18" s="6" t="e">
-        <f>LOOKUP(L18,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB18" s="6" t="e">
-        <f>LOOKUP(M18,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC18" s="6" t="e">
-        <f>LOOKUP(N18,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD18" s="6" t="e">
-        <f>LOOKUP(O18,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE18" s="6" t="e">
-        <f>LOOKUP(P18,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF18" s="6" t="str">
+      <c r="W20" s="6" t="e">
+        <f>LOOKUP(H20,{-1.1,2.1,3.1,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X20" s="6" t="e">
+        <f>LOOKUP(I20,{-1.1,2.1,3.1,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" s="6" t="e">
+        <f>LOOKUP(J20,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z20" s="6" t="e">
+        <f>LOOKUP(K20,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA20" s="6" t="e">
+        <f>LOOKUP(L20,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB20" s="6" t="e">
+        <f>LOOKUP(M20,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC20" s="6" t="e">
+        <f>LOOKUP(N20,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD20" s="6" t="e">
+        <f>LOOKUP(O20,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE20" s="6" t="e">
+        <f>LOOKUP(P20,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF20" s="6" t="str">
         <f>LOOKUP(20,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
         <v>R</v>
       </c>
-      <c r="AG18" s="6" t="str">
-        <f t="array" ref="AG18:AV18">LOOKUP(B18:P18,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
+      <c r="AG20" s="6" t="str">
+        <f t="array" ref="AG20:AV20">LOOKUP(B20:P20,{-1.1,2.1,3.1,4.1},{"L","ML","MR","R"})</f>
         <v>L</v>
       </c>
-      <c r="AH18" s="6" t="str">
+      <c r="AH20" s="6" t="str">
         <v>ML</v>
       </c>
-      <c r="AI18" s="6" t="str">
+      <c r="AI20" s="6" t="str">
         <v>ML</v>
       </c>
-      <c r="AJ18" s="6" t="str">
+      <c r="AJ20" s="6" t="str">
         <v>MR</v>
       </c>
-      <c r="AK18" s="6" t="str">
+      <c r="AK20" s="6" t="str">
         <v>R</v>
       </c>
-      <c r="AL18" s="6" t="str">
+      <c r="AL20" s="6" t="str">
         <v>L</v>
       </c>
-      <c r="AM18" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AN18" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO18" s="6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP18" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AQ18" s="6" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR18" s="6" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="AS18" s="6" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="AT18" s="6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AU18" s="6" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AV18" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A19" s="33"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="6" t="e">
-        <f>LOOKUP(-2,{"a",2.1,"b",4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R19" s="6" t="e">
-        <f>LOOKUP(2,{"a",2.1,"b",4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S19" s="6">
-        <f>LOOKUP(D18,{"a",2.1,"b",4.1})</f>
-        <v>2.1</v>
-      </c>
-      <c r="T19" s="6">
-        <f>LOOKUP(E18,{"a",2.1,"b",4.1})</f>
-        <v>2.1</v>
-      </c>
-      <c r="U19" s="6">
-        <f>LOOKUP(F18,{"a",2.1,"b",4.1})</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="V19" s="6" t="e">
-        <f>LOOKUP(G18,{"a",2.1,"b",4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W19" s="6" t="str">
-        <f>LOOKUP(H18,{"a",2.1,"b",4.1})</f>
-        <v>b</v>
-      </c>
-      <c r="X19" s="6" t="e">
-        <f>LOOKUP(I18,{"a",2.1,"b",4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y19" s="6" t="e">
-        <f>LOOKUP(J18,{"a",2.1,"b",4.1})</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z19" s="6" t="e">
-        <f>LOOKUP(K18,{"a",2.1,"b",4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA19" s="6" t="e">
-        <f>LOOKUP(L18,{"a",2.1,"b",4.1})</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB19" s="6" t="e">
-        <f>LOOKUP(M18,{"a",2.1,"b",4.1})</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC19" s="6" t="e">
-        <f>LOOKUP(N18,{"a",2.1,"b",4.1})</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD19" s="6" t="e">
-        <f>LOOKUP(O18,{"a",2.1,"b",4.1})</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE19" s="6" t="e">
-        <f>LOOKUP(P18,{"a",2.1,"b",4.1})</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF19" s="6" t="str">
-        <f>LOOKUP(20,{"a",2.1,"b",4.1},{"L","ML","MR","R"})</f>
-        <v>R</v>
-      </c>
-      <c r="AG19" s="6" t="e">
-        <f t="array" ref="AG19:AV19">LOOKUP(B18:P18,{"a",2.1,"b",4.1},{"L","ML","MR","R"})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH19" s="4" t="str">
-        <v>ML</v>
-      </c>
-      <c r="AI19" s="4" t="str">
-        <v>ML</v>
-      </c>
-      <c r="AJ19" s="4" t="str">
-        <v>ML</v>
-      </c>
-      <c r="AK19" s="4" t="str">
-        <v>R</v>
-      </c>
-      <c r="AL19" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM19" s="4" t="str">
-        <v>MR</v>
-      </c>
-      <c r="AN19" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO19" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP19" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AQ19" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR19" s="4" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="AS19" s="4" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="AT19" s="4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AU19" s="4" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AV19" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="6" t="e">
-        <f>LOOKUP(-2,{FALSE,2.1,TRUE,4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R20" s="6" t="e">
-        <f>LOOKUP(2,{FALSE,2.1,TRUE,4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S20" s="6">
-        <f>LOOKUP(D18,{FALSE,2.1,TRUE,4.1})</f>
-        <v>2.1</v>
-      </c>
-      <c r="T20" s="6">
-        <f>LOOKUP(E18,{FALSE,2.1,TRUE,4.1})</f>
-        <v>2.1</v>
-      </c>
-      <c r="U20" s="6">
-        <f>LOOKUP(F18,{FALSE,2.1,TRUE,4.1})</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="V20" s="6" t="e">
-        <f>LOOKUP(G18,{FALSE,2.1,TRUE,4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W20" s="6" t="e">
-        <f>LOOKUP(H18,{FALSE,2.1,TRUE,4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X20" s="6" t="b">
-        <f>LOOKUP(I18,{FALSE,2.1,TRUE,4.1})</f>
-        <v>1</v>
-      </c>
-      <c r="Y20" s="6" t="e">
-        <f>LOOKUP(J18,{FALSE,2.1,TRUE,4.1})</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z20" s="6" t="e">
-        <f>LOOKUP(K18,{FALSE,2.1,TRUE,4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA20" s="6" t="e">
-        <f>LOOKUP(L18,{FALSE,2.1,TRUE,4.1})</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB20" s="6" t="e">
-        <f>LOOKUP(M18,{FALSE,2.1,TRUE,4.1})</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC20" s="6" t="e">
-        <f>LOOKUP(N18,{FALSE,2.1,TRUE,4.1})</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD20" s="6" t="e">
-        <f>LOOKUP(O18,{FALSE,2.1,TRUE,4.1})</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE20" s="6" t="e">
-        <f>LOOKUP(P18,{FALSE,2.1,TRUE,4.1})</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF20" s="6" t="str">
-        <f>LOOKUP(20,{FALSE,2.1,TRUE,4.1},{"L","ML","MR","R"})</f>
-        <v>R</v>
-      </c>
-      <c r="AG20" s="6" t="e">
-        <f t="array" ref="AG20:AV20">LOOKUP(B18:P18,{FALSE,2.1,TRUE,4.1},{"L","ML","MR","R"})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH20" s="4" t="str">
-        <v>ML</v>
-      </c>
-      <c r="AI20" s="4" t="str">
-        <v>ML</v>
-      </c>
-      <c r="AJ20" s="4" t="str">
-        <v>ML</v>
-      </c>
-      <c r="AK20" s="4" t="str">
-        <v>R</v>
-      </c>
-      <c r="AL20" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM20" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AN20" s="4" t="str">
-        <v>MR</v>
-      </c>
-      <c r="AO20" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP20" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AQ20" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR20" s="4" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="AS20" s="4" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="AT20" s="4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AU20" s="4" t="e">
+      <c r="AM20" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AN20" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO20" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP20" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ20" s="6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR20" s="6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS20" s="6" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT20" s="6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU20" s="6" t="e">
         <v>#REF!</v>
       </c>
       <c r="AV20" s="4" t="e">
@@ -22823,71 +22921,71 @@
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
       <c r="Q21" s="6" t="e">
-        <f>LOOKUP(-2,{4.1,2.1,3.1,1.1})</f>
+        <f>LOOKUP(-2,{"a",2.1,"b",4.1})</f>
         <v>#N/A</v>
       </c>
       <c r="R21" s="6" t="e">
-        <f>LOOKUP(2,{4.1,2.1,3.1,1.1})</f>
+        <f>LOOKUP(2,{"a",2.1,"b",4.1})</f>
         <v>#N/A</v>
       </c>
       <c r="S21" s="6">
-        <f>LOOKUP(D18,{4.1,2.1,3.1,1.1})</f>
+        <f>LOOKUP(D20,{"a",2.1,"b",4.1})</f>
         <v>2.1</v>
       </c>
       <c r="T21" s="6">
-        <f>LOOKUP(E18,{4.1,2.1,3.1,1.1})</f>
-        <v>1.1000000000000001</v>
+        <f>LOOKUP(E20,{"a",2.1,"b",4.1})</f>
+        <v>2.1</v>
       </c>
       <c r="U21" s="6">
-        <f>LOOKUP(F18,{4.1,2.1,3.1,1.1})</f>
-        <v>1.1000000000000001</v>
+        <f>LOOKUP(F20,{"a",2.1,"b",4.1})</f>
+        <v>4.0999999999999996</v>
       </c>
       <c r="V21" s="6" t="e">
-        <f>LOOKUP(G18,{4.1,2.1,3.1,1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W21" s="6" t="e">
-        <f>LOOKUP(H18,{4.1,2.1,3.1,1.1})</f>
-        <v>#N/A</v>
+        <f>LOOKUP(G20,{"a",2.1,"b",4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W21" s="6" t="str">
+        <f>LOOKUP(H20,{"a",2.1,"b",4.1})</f>
+        <v>b</v>
       </c>
       <c r="X21" s="6" t="e">
-        <f>LOOKUP(I18,{4.1,2.1,3.1,1.1})</f>
+        <f>LOOKUP(I20,{"a",2.1,"b",4.1})</f>
         <v>#N/A</v>
       </c>
       <c r="Y21" s="6" t="e">
-        <f>LOOKUP(J18,{4.1,2.1,3.1,1.1})</f>
+        <f>LOOKUP(J20,{"a",2.1,"b",4.1})</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z21" s="6" t="e">
-        <f>LOOKUP(K18,{4.1,2.1,3.1,1.1})</f>
+        <f>LOOKUP(K20,{"a",2.1,"b",4.1})</f>
         <v>#N/A</v>
       </c>
       <c r="AA21" s="6" t="e">
-        <f>LOOKUP(L18,{4.1,2.1,3.1,1.1})</f>
+        <f>LOOKUP(L20,{"a",2.1,"b",4.1})</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB21" s="6" t="e">
-        <f>LOOKUP(M18,{4.1,2.1,3.1,1.1})</f>
+        <f>LOOKUP(M20,{"a",2.1,"b",4.1})</f>
         <v>#NAME?</v>
       </c>
       <c r="AC21" s="6" t="e">
-        <f>LOOKUP(N18,{4.1,2.1,3.1,1.1})</f>
+        <f>LOOKUP(N20,{"a",2.1,"b",4.1})</f>
         <v>#NULL!</v>
       </c>
       <c r="AD21" s="6" t="e">
-        <f>LOOKUP(O18,{4.1,2.1,3.1,1.1})</f>
+        <f>LOOKUP(O20,{"a",2.1,"b",4.1})</f>
         <v>#NUM!</v>
       </c>
       <c r="AE21" s="6" t="e">
-        <f>LOOKUP(P18,{4.1,2.1,3.1,1.1})</f>
+        <f>LOOKUP(P20,{"a",2.1,"b",4.1})</f>
         <v>#REF!</v>
       </c>
       <c r="AF21" s="6" t="str">
-        <f>LOOKUP(20,{4.1,2.1,3.1,1.1},{"L","ML","MR","R"})</f>
+        <f>LOOKUP(20,{"a",2.1,"b",4.1},{"L","ML","MR","R"})</f>
         <v>R</v>
       </c>
       <c r="AG21" s="6" t="e">
-        <f t="array" ref="AG21:AV21">LOOKUP(B18:P18,{4.1,2.1,3.1,1.1},{"L","ML","MR","R"})</f>
+        <f t="array" ref="AG21:AV21">LOOKUP(B20:P20,{"a",2.1,"b",4.1},{"L","ML","MR","R"})</f>
         <v>#N/A</v>
       </c>
       <c r="AH21" s="4" t="str">
@@ -22897,7 +22995,7 @@
         <v>ML</v>
       </c>
       <c r="AJ21" s="4" t="str">
-        <v>R</v>
+        <v>ML</v>
       </c>
       <c r="AK21" s="4" t="str">
         <v>R</v>
@@ -22905,8 +23003,8 @@
       <c r="AL21" s="4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AM21" s="4" t="e">
-        <v>#N/A</v>
+      <c r="AM21" s="4" t="str">
+        <v>MR</v>
       </c>
       <c r="AN21" s="4" t="e">
         <v>#N/A</v>
@@ -22954,93 +23052,93 @@
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
       <c r="Q22" s="6" t="e">
-        <f>LOOKUP(-2,{"b",4.1,"a",1.1})</f>
+        <f>LOOKUP(-2,{FALSE,2.1,TRUE,4.1})</f>
         <v>#N/A</v>
       </c>
       <c r="R22" s="6" t="e">
-        <f>LOOKUP(2,{"b",4.1,"a",1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S22" s="6" t="e">
-        <f>LOOKUP(D18,{"b",4.1,"a",1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T22" s="6" t="e">
-        <f>LOOKUP(E18,{"b",4.1,"a",1.1})</f>
-        <v>#N/A</v>
+        <f>LOOKUP(2,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S22" s="6">
+        <f>LOOKUP(D20,{FALSE,2.1,TRUE,4.1})</f>
+        <v>2.1</v>
+      </c>
+      <c r="T22" s="6">
+        <f>LOOKUP(E20,{FALSE,2.1,TRUE,4.1})</f>
+        <v>2.1</v>
       </c>
       <c r="U22" s="6">
-        <f>LOOKUP(F18,{"b",4.1,"a",1.1})</f>
+        <f>LOOKUP(F20,{FALSE,2.1,TRUE,4.1})</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="V22" s="6" t="e">
-        <f>LOOKUP(G18,{"b",4.1,"a",1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W22" s="6" t="str">
-        <f>LOOKUP(H18,{"b",4.1,"a",1.1})</f>
-        <v>a</v>
-      </c>
-      <c r="X22" s="6" t="e">
-        <f>LOOKUP(I18,{"b",4.1,"a",1.1})</f>
-        <v>#N/A</v>
+        <f>LOOKUP(G20,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W22" s="6" t="e">
+        <f>LOOKUP(H20,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X22" s="6" t="b">
+        <f>LOOKUP(I20,{FALSE,2.1,TRUE,4.1})</f>
+        <v>1</v>
       </c>
       <c r="Y22" s="6" t="e">
-        <f>LOOKUP(J18,{"b",4.1,"a",1.1})</f>
+        <f>LOOKUP(J20,{FALSE,2.1,TRUE,4.1})</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z22" s="6" t="e">
-        <f>LOOKUP(K18,{"b",4.1,"a",1.1})</f>
+        <f>LOOKUP(K20,{FALSE,2.1,TRUE,4.1})</f>
         <v>#N/A</v>
       </c>
       <c r="AA22" s="6" t="e">
-        <f>LOOKUP(L18,{"b",4.1,"a",1.1})</f>
+        <f>LOOKUP(L20,{FALSE,2.1,TRUE,4.1})</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB22" s="6" t="e">
-        <f>LOOKUP(M18,{"b",4.1,"a",1.1})</f>
+        <f>LOOKUP(M20,{FALSE,2.1,TRUE,4.1})</f>
         <v>#NAME?</v>
       </c>
       <c r="AC22" s="6" t="e">
-        <f>LOOKUP(N18,{"b",4.1,"a",1.1})</f>
+        <f>LOOKUP(N20,{FALSE,2.1,TRUE,4.1})</f>
         <v>#NULL!</v>
       </c>
       <c r="AD22" s="6" t="e">
-        <f>LOOKUP(O18,{"b",4.1,"a",1.1})</f>
+        <f>LOOKUP(O20,{FALSE,2.1,TRUE,4.1})</f>
         <v>#NUM!</v>
       </c>
       <c r="AE22" s="6" t="e">
-        <f>LOOKUP(P18,{"b",4.1,"a",1.1})</f>
+        <f>LOOKUP(P20,{FALSE,2.1,TRUE,4.1})</f>
         <v>#REF!</v>
       </c>
       <c r="AF22" s="6" t="str">
-        <f>LOOKUP(20,{"b",4.1,"a",1.1},{"L","ML","MR","R"})</f>
+        <f>LOOKUP(20,{FALSE,2.1,TRUE,4.1},{"L","ML","MR","R"})</f>
         <v>R</v>
       </c>
       <c r="AG22" s="6" t="e">
-        <f t="array" ref="AG22:AV22">LOOKUP(B18:P18,{"b",4.1,"a",1.1},{"L","ML","MR","R"})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH22" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI22" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ22" s="4" t="e">
-        <v>#N/A</v>
+        <f t="array" ref="AG22:AV22">LOOKUP(B20:P20,{FALSE,2.1,TRUE,4.1},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH22" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AI22" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AJ22" s="4" t="str">
+        <v>ML</v>
       </c>
       <c r="AK22" s="4" t="str">
-        <v>ML</v>
+        <v>R</v>
       </c>
       <c r="AL22" s="4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AM22" s="4" t="str">
+      <c r="AM22" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AN22" s="4" t="str">
         <v>MR</v>
-      </c>
-      <c r="AN22" s="4" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AO22" s="4" t="e">
         <v>#VALUE!</v>
@@ -23085,90 +23183,90 @@
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
       <c r="Q23" s="6" t="e">
-        <f>LOOKUP(-2,{"",4.1,"a",1.1})</f>
+        <f>LOOKUP(-2,{4.1,2.1,3.1,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="R23" s="6" t="e">
-        <f>LOOKUP(2,{"",4.1,"a",1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S23" s="6" t="e">
-        <f>LOOKUP(D18,{"",4.1,"a",1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T23" s="6" t="e">
-        <f>LOOKUP(E18,{"",4.1,"a",1.1})</f>
-        <v>#N/A</v>
+        <f>LOOKUP(2,{4.1,2.1,3.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S23" s="6">
+        <f>LOOKUP(D20,{4.1,2.1,3.1,1.1})</f>
+        <v>2.1</v>
+      </c>
+      <c r="T23" s="6">
+        <f>LOOKUP(E20,{4.1,2.1,3.1,1.1})</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U23" s="6">
-        <f>LOOKUP(F18,{"",4.1,"a",1.1})</f>
-        <v>4.0999999999999996</v>
+        <f>LOOKUP(F20,{4.1,2.1,3.1,1.1})</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V23" s="6" t="e">
-        <f>LOOKUP(G18,{"",4.1,"a",1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W23" s="6" t="str">
-        <f>LOOKUP(H18,{"",4.1,"a",1.1})</f>
-        <v>a</v>
+        <f>LOOKUP(G20,{4.1,2.1,3.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W23" s="6" t="e">
+        <f>LOOKUP(H20,{4.1,2.1,3.1,1.1})</f>
+        <v>#N/A</v>
       </c>
       <c r="X23" s="6" t="e">
-        <f>LOOKUP(I18,{"",4.1,"a",1.1})</f>
+        <f>LOOKUP(I20,{4.1,2.1,3.1,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="Y23" s="6" t="e">
-        <f>LOOKUP(J18,{"",4.1,"a",1.1})</f>
+        <f>LOOKUP(J20,{4.1,2.1,3.1,1.1})</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z23" s="6" t="e">
-        <f>LOOKUP(K18,{"",4.1,"a",1.1})</f>
+        <f>LOOKUP(K20,{4.1,2.1,3.1,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="AA23" s="6" t="e">
-        <f>LOOKUP(L18,{"",4.1,"a",1.1})</f>
+        <f>LOOKUP(L20,{4.1,2.1,3.1,1.1})</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB23" s="6" t="e">
-        <f>LOOKUP(M18,{"",4.1,"a",1.1})</f>
+        <f>LOOKUP(M20,{4.1,2.1,3.1,1.1})</f>
         <v>#NAME?</v>
       </c>
       <c r="AC23" s="6" t="e">
-        <f>LOOKUP(N18,{"",4.1,"a",1.1})</f>
+        <f>LOOKUP(N20,{4.1,2.1,3.1,1.1})</f>
         <v>#NULL!</v>
       </c>
       <c r="AD23" s="6" t="e">
-        <f>LOOKUP(O18,{"",4.1,"a",1.1})</f>
+        <f>LOOKUP(O20,{4.1,2.1,3.1,1.1})</f>
         <v>#NUM!</v>
       </c>
       <c r="AE23" s="6" t="e">
-        <f>LOOKUP(P18,{"",4.1,"a",1.1})</f>
+        <f>LOOKUP(P20,{4.1,2.1,3.1,1.1})</f>
         <v>#REF!</v>
       </c>
       <c r="AF23" s="6" t="str">
-        <f>LOOKUP(20,{"",4.1,"a",1.1},{"L","ML","MR","R"})</f>
+        <f>LOOKUP(20,{4.1,2.1,3.1,1.1},{"L","ML","MR","R"})</f>
         <v>R</v>
       </c>
       <c r="AG23" s="6" t="e">
-        <f t="array" ref="AG23:AV23">LOOKUP(B18:P18,{"",4.1,"a",1.1},{"L","ML","MR","R"})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH23" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI23" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ23" s="4" t="e">
-        <v>#N/A</v>
+        <f t="array" ref="AG23:AV23">LOOKUP(B20:P20,{4.1,2.1,3.1,1.1},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH23" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AI23" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AJ23" s="4" t="str">
+        <v>R</v>
       </c>
       <c r="AK23" s="4" t="str">
-        <v>ML</v>
+        <v>R</v>
       </c>
       <c r="AL23" s="4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AM23" s="4" t="str">
-        <v>MR</v>
+      <c r="AM23" s="4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AN23" s="4" t="e">
         <v>#N/A</v>
@@ -23216,71 +23314,71 @@
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
       <c r="Q24" s="6" t="e">
-        <f>LOOKUP(-2,{TRUE,4.1,FALSE,1.1})</f>
+        <f>LOOKUP(-2,{"b",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="R24" s="6" t="e">
-        <f>LOOKUP(2,{TRUE,4.1,FALSE,1.1})</f>
+        <f>LOOKUP(2,{"b",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="S24" s="6" t="e">
-        <f>LOOKUP(D18,{TRUE,4.1,FALSE,1.1})</f>
+        <f>LOOKUP(D20,{"b",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="T24" s="6" t="e">
-        <f>LOOKUP(E18,{TRUE,4.1,FALSE,1.1})</f>
+        <f>LOOKUP(E20,{"b",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="U24" s="6">
-        <f>LOOKUP(F18,{TRUE,4.1,FALSE,1.1})</f>
+        <f>LOOKUP(F20,{"b",4.1,"a",1.1})</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="V24" s="6" t="e">
-        <f>LOOKUP(G18,{TRUE,4.1,FALSE,1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W24" s="6" t="e">
-        <f>LOOKUP(H18,{TRUE,4.1,FALSE,1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X24" s="6" t="b">
-        <f>LOOKUP(I18,{TRUE,4.1,FALSE,1.1})</f>
-        <v>0</v>
+        <f>LOOKUP(G20,{"b",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W24" s="6" t="str">
+        <f>LOOKUP(H20,{"b",4.1,"a",1.1})</f>
+        <v>a</v>
+      </c>
+      <c r="X24" s="6" t="e">
+        <f>LOOKUP(I20,{"b",4.1,"a",1.1})</f>
+        <v>#N/A</v>
       </c>
       <c r="Y24" s="6" t="e">
-        <f>LOOKUP(J18,{TRUE,4.1,FALSE,1.1})</f>
+        <f>LOOKUP(J20,{"b",4.1,"a",1.1})</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z24" s="6" t="e">
-        <f>LOOKUP(K18,{TRUE,4.1,FALSE,1.1})</f>
+        <f>LOOKUP(K20,{"b",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="AA24" s="6" t="e">
-        <f>LOOKUP(L18,{TRUE,4.1,FALSE,1.1})</f>
+        <f>LOOKUP(L20,{"b",4.1,"a",1.1})</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB24" s="6" t="e">
-        <f>LOOKUP(M18,{TRUE,4.1,FALSE,1.1})</f>
+        <f>LOOKUP(M20,{"b",4.1,"a",1.1})</f>
         <v>#NAME?</v>
       </c>
       <c r="AC24" s="6" t="e">
-        <f>LOOKUP(N18,{TRUE,4.1,FALSE,1.1})</f>
+        <f>LOOKUP(N20,{"b",4.1,"a",1.1})</f>
         <v>#NULL!</v>
       </c>
       <c r="AD24" s="6" t="e">
-        <f>LOOKUP(O18,{TRUE,4.1,FALSE,1.1})</f>
+        <f>LOOKUP(O20,{"b",4.1,"a",1.1})</f>
         <v>#NUM!</v>
       </c>
       <c r="AE24" s="6" t="e">
-        <f>LOOKUP(P18,{TRUE,4.1,FALSE,1.1})</f>
+        <f>LOOKUP(P20,{"b",4.1,"a",1.1})</f>
         <v>#REF!</v>
       </c>
       <c r="AF24" s="6" t="str">
-        <f>LOOKUP(20,{TRUE,4.1,FALSE,1.1},{"L","ML","MR","R"})</f>
+        <f>LOOKUP(20,{"b",4.1,"a",1.1},{"L","ML","MR","R"})</f>
         <v>R</v>
       </c>
       <c r="AG24" s="6" t="e">
-        <f t="array" ref="AG24:AV24">LOOKUP(B18:P18,{TRUE,4.1,FALSE,1.1},{"L","ML","MR","R"})</f>
+        <f t="array" ref="AG24:AV24">LOOKUP(B20:P20,{"b",4.1,"a",1.1},{"L","ML","MR","R"})</f>
         <v>#N/A</v>
       </c>
       <c r="AH24" s="4" t="e">
@@ -23298,11 +23396,11 @@
       <c r="AL24" s="4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AM24" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AN24" s="4" t="str">
+      <c r="AM24" s="4" t="str">
         <v>MR</v>
+      </c>
+      <c r="AN24" s="4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AO24" s="4" t="e">
         <v>#VALUE!</v>
@@ -23347,71 +23445,71 @@
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
       <c r="Q25" s="6" t="e">
-        <f>LOOKUP(-2,{TRUE,4.1,FALSE,"b"})</f>
+        <f>LOOKUP(-2,{"",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="R25" s="6" t="e">
-        <f>LOOKUP(2,{TRUE,4.1,FALSE,"b"})</f>
+        <f>LOOKUP(2,{"",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="S25" s="6" t="e">
-        <f>LOOKUP(D18,{TRUE,4.1,FALSE,"b"})</f>
+        <f>LOOKUP(D20,{"",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="T25" s="6" t="e">
-        <f>LOOKUP(E18,{TRUE,4.1,FALSE,"b"})</f>
+        <f>LOOKUP(E20,{"",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="U25" s="6">
-        <f>LOOKUP(F18,{TRUE,4.1,FALSE,"b"})</f>
+        <f>LOOKUP(F20,{"",4.1,"a",1.1})</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="V25" s="6" t="e">
-        <f>LOOKUP(G18,{TRUE,4.1,FALSE,"b"})</f>
+        <f>LOOKUP(G20,{"",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="W25" s="6" t="str">
-        <f>LOOKUP(H18,{TRUE,4.1,FALSE,"b"})</f>
-        <v>b</v>
-      </c>
-      <c r="X25" s="6" t="b">
-        <f>LOOKUP(I18,{TRUE,4.1,FALSE,"b"})</f>
-        <v>0</v>
+        <f>LOOKUP(H20,{"",4.1,"a",1.1})</f>
+        <v>a</v>
+      </c>
+      <c r="X25" s="6" t="e">
+        <f>LOOKUP(I20,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
       </c>
       <c r="Y25" s="6" t="e">
-        <f>LOOKUP(J18,{TRUE,4.1,FALSE,"b"})</f>
+        <f>LOOKUP(J20,{"",4.1,"a",1.1})</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z25" s="6" t="e">
-        <f>LOOKUP(K18,{TRUE,4.1,FALSE,"b"})</f>
+        <f>LOOKUP(K20,{"",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="AA25" s="6" t="e">
-        <f>LOOKUP(L18,{TRUE,4.1,FALSE,"b"})</f>
+        <f>LOOKUP(L20,{"",4.1,"a",1.1})</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB25" s="6" t="e">
-        <f>LOOKUP(M18,{TRUE,4.1,FALSE,"b"})</f>
+        <f>LOOKUP(M20,{"",4.1,"a",1.1})</f>
         <v>#NAME?</v>
       </c>
       <c r="AC25" s="6" t="e">
-        <f>LOOKUP(N18,{TRUE,4.1,FALSE,"b"})</f>
+        <f>LOOKUP(N20,{"",4.1,"a",1.1})</f>
         <v>#NULL!</v>
       </c>
       <c r="AD25" s="6" t="e">
-        <f>LOOKUP(O18,{TRUE,4.1,FALSE,"b"})</f>
+        <f>LOOKUP(O20,{"",4.1,"a",1.1})</f>
         <v>#NUM!</v>
       </c>
       <c r="AE25" s="6" t="e">
-        <f>LOOKUP(P18,{TRUE,4.1,FALSE,"b"})</f>
+        <f>LOOKUP(P20,{"",4.1,"a",1.1})</f>
         <v>#REF!</v>
       </c>
       <c r="AF25" s="6" t="str">
-        <f>LOOKUP(20,{TRUE,4.1,FALSE,"b"},{"L","ML","MR","R"})</f>
-        <v>ML</v>
+        <f>LOOKUP(20,{"",4.1,"a",1.1},{"L","ML","MR","R"})</f>
+        <v>R</v>
       </c>
       <c r="AG25" s="6" t="e">
-        <f t="array" ref="AG25:AV25">LOOKUP(B18:P18,{TRUE,4.1,FALSE,"b"},{"L","ML","MR","R"})</f>
+        <f t="array" ref="AG25:AV25">LOOKUP(B20:P20,{"",4.1,"a",1.1},{"L","ML","MR","R"})</f>
         <v>#N/A</v>
       </c>
       <c r="AH25" s="4" t="e">
@@ -23430,10 +23528,10 @@
         <v>#N/A</v>
       </c>
       <c r="AM25" s="4" t="str">
-        <v>R</v>
-      </c>
-      <c r="AN25" s="4" t="str">
         <v>MR</v>
+      </c>
+      <c r="AN25" s="4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AO25" s="4" t="e">
         <v>#VALUE!</v>
@@ -23462,11 +23560,12 @@
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A26" s="33"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
@@ -23477,355 +23576,384 @@
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
       <c r="Q26" s="6" t="e">
-        <f>LOOKUP(-2,{TRUE,FALSE,"a","b"})</f>
+        <f>LOOKUP(-2,{TRUE,4.1,FALSE,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="R26" s="6" t="e">
-        <f>LOOKUP(2,{TRUE,FALSE,"a","b"})</f>
+        <f>LOOKUP(2,{TRUE,4.1,FALSE,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="S26" s="6" t="e">
-        <f>LOOKUP(D18,{TRUE,FALSE,"a","b"})</f>
+        <f>LOOKUP(D20,{TRUE,4.1,FALSE,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="T26" s="6" t="e">
-        <f>LOOKUP(E18,{TRUE,FALSE,"a","b"})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U26" s="6" t="e">
-        <f>LOOKUP(F18,{TRUE,FALSE,"a","b"})</f>
-        <v>#N/A</v>
+        <f>LOOKUP(E20,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U26" s="6">
+        <f>LOOKUP(F20,{TRUE,4.1,FALSE,1.1})</f>
+        <v>4.0999999999999996</v>
       </c>
       <c r="V26" s="6" t="e">
-        <f>LOOKUP(G18,{TRUE,FALSE,"a","b"})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W26" s="6" t="str">
-        <f>LOOKUP(H18,{TRUE,FALSE,"a","b"})</f>
+        <f>LOOKUP(G20,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W26" s="6" t="e">
+        <f>LOOKUP(H20,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X26" s="6" t="b">
+        <f>LOOKUP(I20,{TRUE,4.1,FALSE,1.1})</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="6" t="e">
+        <f>LOOKUP(J20,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z26" s="6" t="e">
+        <f>LOOKUP(K20,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" s="6" t="e">
+        <f>LOOKUP(L20,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB26" s="6" t="e">
+        <f>LOOKUP(M20,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC26" s="6" t="e">
+        <f>LOOKUP(N20,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD26" s="6" t="e">
+        <f>LOOKUP(O20,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE26" s="6" t="e">
+        <f>LOOKUP(P20,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF26" s="6" t="str">
+        <f>LOOKUP(20,{TRUE,4.1,FALSE,1.1},{"L","ML","MR","R"})</f>
+        <v>R</v>
+      </c>
+      <c r="AG26" s="6" t="e">
+        <f t="array" ref="AG26:AV26">LOOKUP(B20:P20,{TRUE,4.1,FALSE,1.1},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH26" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI26" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ26" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK26" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AL26" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM26" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AN26" s="4" t="str">
+        <v>MR</v>
+      </c>
+      <c r="AO26" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP26" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ26" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR26" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS26" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT26" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU26" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV26" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="6" t="e">
+        <f>LOOKUP(-2,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R27" s="6" t="e">
+        <f>LOOKUP(2,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S27" s="6" t="e">
+        <f>LOOKUP(D20,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T27" s="6" t="e">
+        <f>LOOKUP(E20,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U27" s="6">
+        <f>LOOKUP(F20,{TRUE,4.1,FALSE,"b"})</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V27" s="6" t="e">
+        <f>LOOKUP(G20,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W27" s="6" t="str">
+        <f>LOOKUP(H20,{TRUE,4.1,FALSE,"b"})</f>
         <v>b</v>
       </c>
-      <c r="X26" s="6" t="b">
-        <f>LOOKUP(I18,{TRUE,FALSE,"a","b"})</f>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="6" t="e">
-        <f>LOOKUP(J18,{TRUE,FALSE,"a","b"})</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z26" s="6" t="e">
-        <f>LOOKUP(K18,{TRUE,FALSE,"a","b"})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA26" s="6" t="e">
-        <f>LOOKUP(L18,{TRUE,FALSE,"a","b"})</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB26" s="6" t="e">
-        <f>LOOKUP(M18,{TRUE,FALSE,"a","b"})</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC26" s="6" t="e">
-        <f>LOOKUP(N18,{TRUE,FALSE,"a","b"})</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD26" s="6" t="e">
-        <f>LOOKUP(O18,{TRUE,FALSE,"a","b"})</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE26" s="6" t="e">
-        <f>LOOKUP(P18,{TRUE,FALSE,"a","b"})</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF26" s="6" t="e">
-        <f>LOOKUP(20,{TRUE,FALSE,"a","b"},{"L","ML","MR","R"})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG26" s="6" t="e">
-        <f t="array" ref="AG26:AV26">LOOKUP(B18:P18,{TRUE,FALSE,"a","b"},{"L","ML","MR","R"})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH26" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI26" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ26" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK26" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL26" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM26" s="4" t="str">
+      <c r="X27" s="6" t="b">
+        <f>LOOKUP(I20,{TRUE,4.1,FALSE,"b"})</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="6" t="e">
+        <f>LOOKUP(J20,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z27" s="6" t="e">
+        <f>LOOKUP(K20,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA27" s="6" t="e">
+        <f>LOOKUP(L20,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB27" s="6" t="e">
+        <f>LOOKUP(M20,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC27" s="6" t="e">
+        <f>LOOKUP(N20,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD27" s="6" t="e">
+        <f>LOOKUP(O20,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE27" s="6" t="e">
+        <f>LOOKUP(P20,{TRUE,4.1,FALSE,"b"})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF27" s="6" t="str">
+        <f>LOOKUP(20,{TRUE,4.1,FALSE,"b"},{"L","ML","MR","R"})</f>
+        <v>ML</v>
+      </c>
+      <c r="AG27" s="6" t="e">
+        <f t="array" ref="AG27:AV27">LOOKUP(B20:P20,{TRUE,4.1,FALSE,"b"},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH27" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI27" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ27" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK27" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AL27" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM27" s="4" t="str">
         <v>R</v>
       </c>
-      <c r="AN26" s="4" t="str">
-        <v>ML</v>
-      </c>
-      <c r="AO26" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP26" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AQ26" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR26" s="4" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="AS26" s="4" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="AT26" s="4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AU26" s="4" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AV26" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A27" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="B27" s="22">
-        <v>-2</v>
-      </c>
-      <c r="C27" s="22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D27" s="22">
-        <v>3</v>
-      </c>
-      <c r="E27" s="23">
-        <v>4</v>
-      </c>
-      <c r="F27" s="23">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="I27" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="24" t="e">
-        <f>#VALUE!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K27" s="24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L27" s="25" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="25" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N27" s="25" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O27" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P27" s="25" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q27" s="6" t="e">
-        <f>MATCH(B27,{-1.1,2.1,3.1,4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R27" s="6">
-        <f>MATCH(C27,{-1.1,2.1,3.1,4.1})</f>
-        <v>1</v>
-      </c>
-      <c r="S27" s="6">
-        <f>MATCH(D27,{-1.1,2.1,3.1,4.1})</f>
-        <v>2</v>
-      </c>
-      <c r="T27" s="6">
-        <f>MATCH(E27,{-1.1,2.1,3.1,4.1})</f>
-        <v>3</v>
-      </c>
-      <c r="U27" s="6">
-        <f>MATCH(F27,{-1.1,2.1,3.1,4.1})</f>
-        <v>4</v>
-      </c>
-      <c r="V27" s="6">
-        <f>MATCH(G27,{-1.1,2.1,3.1,4.1})</f>
-        <v>1</v>
-      </c>
-      <c r="W27" s="6" t="e">
-        <f>MATCH(H27,{-1.1,2.1,3.1,4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X27" s="6" t="e">
-        <f>MATCH(I27,{-1.1,2.1,3.1,4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y27" s="6" t="e">
-        <f>MATCH(J27,{-1.1,2.1,3.1,4.1})</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z27" s="6" t="e">
-        <f>MATCH(K27,{-1.1,2.1,3.1,4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA27" s="6" t="e">
-        <f>MATCH(L27,{-1.1,2.1,3.1,4.1})</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB27" s="6" t="e">
-        <f>MATCH(M27,{-1.1,2.1,3.1,4.1})</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC27" s="6" t="e">
-        <f>MATCH(N27,{-1.1,2.1,3.1,4.1})</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD27" s="6" t="e">
-        <f>MATCH(O27,{-1.1,2.1,3.1,4.1})</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE27" s="6" t="e">
-        <f>MATCH(P27,{-1.1,2.1,3.1,4.1})</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="6"/>
-      <c r="AK27" s="6"/>
-      <c r="AL27" s="6"/>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="6"/>
-      <c r="AO27" s="6"/>
-      <c r="AP27" s="6"/>
-      <c r="AQ27" s="6"/>
-      <c r="AR27" s="6"/>
-      <c r="AS27" s="6"/>
-      <c r="AT27" s="6"/>
-      <c r="AU27" s="6"/>
+      <c r="AN27" s="4" t="str">
+        <v>MR</v>
+      </c>
+      <c r="AO27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP27" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ27" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR27" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS27" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT27" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU27" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV27" s="4" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A28" s="33"/>
-      <c r="B28" s="22">
-        <v>-2</v>
-      </c>
-      <c r="C28" s="22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D28" s="22">
-        <v>3</v>
-      </c>
-      <c r="E28" s="23">
-        <v>4</v>
-      </c>
-      <c r="F28" s="23">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="I28" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="24" t="e">
-        <f>#VALUE!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K28" s="24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L28" s="25" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="25" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N28" s="25" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O28" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P28" s="25" t="e">
-        <v>#REF!</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
       <c r="Q28" s="6" t="e">
-        <f>MATCH(B28,{"a",2.1,"c bau c",4.1})</f>
+        <f>LOOKUP(-2,{TRUE,FALSE,"a","b"})</f>
         <v>#N/A</v>
       </c>
       <c r="R28" s="6" t="e">
-        <f>MATCH(C28,{"a",2.1,"c bau c",4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S28" s="6">
-        <f>MATCH(D28,{"a",2.1,"c bau c",4.1})</f>
-        <v>2</v>
-      </c>
-      <c r="T28" s="6">
-        <f>MATCH(E28,{"a",2.1,"c bau c",4.1})</f>
-        <v>2</v>
-      </c>
-      <c r="U28" s="6">
-        <f>MATCH(F28,{"a",2.1,"c bau c",4.1})</f>
-        <v>4</v>
+        <f>LOOKUP(2,{TRUE,FALSE,"a","b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S28" s="6" t="e">
+        <f>LOOKUP(D20,{TRUE,FALSE,"a","b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T28" s="6" t="e">
+        <f>LOOKUP(E20,{TRUE,FALSE,"a","b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U28" s="6" t="e">
+        <f>LOOKUP(F20,{TRUE,FALSE,"a","b"})</f>
+        <v>#N/A</v>
       </c>
       <c r="V28" s="6" t="e">
-        <f>MATCH(G28,{"a",2.1,"c bau c",4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W28" s="6" t="e">
-        <f>MATCH(H28,{"a",2.1,"c bau c",4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X28" s="6" t="e">
-        <f>MATCH(I28,{"a",2.1,"c bau c",4.1})</f>
-        <v>#N/A</v>
+        <f>LOOKUP(G20,{TRUE,FALSE,"a","b"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W28" s="6" t="str">
+        <f>LOOKUP(H20,{TRUE,FALSE,"a","b"})</f>
+        <v>b</v>
+      </c>
+      <c r="X28" s="6" t="b">
+        <f>LOOKUP(I20,{TRUE,FALSE,"a","b"})</f>
+        <v>0</v>
       </c>
       <c r="Y28" s="6" t="e">
-        <f>MATCH(J28,{"a",2.1,"c bau c",4.1})</f>
+        <f>LOOKUP(J20,{TRUE,FALSE,"a","b"})</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z28" s="6" t="e">
-        <f>MATCH(K28,{"a",2.1,"c bau c",4.1})</f>
+        <f>LOOKUP(K20,{TRUE,FALSE,"a","b"})</f>
         <v>#N/A</v>
       </c>
       <c r="AA28" s="6" t="e">
-        <f>MATCH(L28,{"a",2.1,"c bau c",4.1})</f>
+        <f>LOOKUP(L20,{TRUE,FALSE,"a","b"})</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB28" s="6" t="e">
-        <f>MATCH(M28,{"a",2.1,"c bau c",4.1})</f>
+        <f>LOOKUP(M20,{TRUE,FALSE,"a","b"})</f>
         <v>#NAME?</v>
       </c>
       <c r="AC28" s="6" t="e">
-        <f>MATCH(N28,{"a",2.1,"c bau c",4.1})</f>
+        <f>LOOKUP(N20,{TRUE,FALSE,"a","b"})</f>
         <v>#NULL!</v>
       </c>
       <c r="AD28" s="6" t="e">
-        <f>MATCH(O28,{"a",2.1,"c bau c",4.1})</f>
+        <f>LOOKUP(O20,{TRUE,FALSE,"a","b"})</f>
         <v>#NUM!</v>
       </c>
       <c r="AE28" s="6" t="e">
-        <f>MATCH(P28,{"a",2.1,"c bau c",4.1})</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
+        <f>LOOKUP(P20,{TRUE,FALSE,"a","b"})</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF28" s="6" t="e">
+        <f>LOOKUP(20,{TRUE,FALSE,"a","b"},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG28" s="6" t="e">
+        <f t="array" ref="AG28:AV28">LOOKUP(B20:P20,{TRUE,FALSE,"a","b"},{"L","ML","MR","R"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH28" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI28" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ28" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK28" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL28" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM28" s="4" t="str">
+        <v>R</v>
+      </c>
+      <c r="AN28" s="4" t="str">
+        <v>ML</v>
+      </c>
+      <c r="AO28" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP28" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ28" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR28" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS28" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT28" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU28" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV28" s="4" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
+      <c r="A29" s="33" t="s">
+        <v>352</v>
+      </c>
       <c r="B29" s="22">
         <v>-2</v>
       </c>
@@ -23871,67 +23999,81 @@
         <v>#REF!</v>
       </c>
       <c r="Q29" s="6" t="e">
-        <f>MATCH(B29,{FALSE,2.1,TRUE,4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R29" s="6" t="e">
-        <f>MATCH(C29,{FALSE,2.1,TRUE,4.1})</f>
-        <v>#N/A</v>
+        <f>MATCH(B29,{-1.1,2.1,3.1,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R29" s="6">
+        <f>MATCH(C29,{-1.1,2.1,3.1,4.1})</f>
+        <v>1</v>
       </c>
       <c r="S29" s="6">
-        <f>MATCH(D29,{FALSE,2.1,TRUE,4.1})</f>
+        <f>MATCH(D29,{-1.1,2.1,3.1,4.1})</f>
         <v>2</v>
       </c>
       <c r="T29" s="6">
-        <f>MATCH(E29,{FALSE,2.1,TRUE,4.1})</f>
-        <v>2</v>
+        <f>MATCH(E29,{-1.1,2.1,3.1,4.1})</f>
+        <v>3</v>
       </c>
       <c r="U29" s="6">
-        <f>MATCH(F29,{FALSE,2.1,TRUE,4.1})</f>
+        <f>MATCH(F29,{-1.1,2.1,3.1,4.1})</f>
         <v>4</v>
       </c>
-      <c r="V29" s="6" t="e">
-        <f>MATCH(G29,{FALSE,2.1,TRUE,4.1})</f>
-        <v>#N/A</v>
+      <c r="V29" s="6">
+        <f>MATCH(G29,{-1.1,2.1,3.1,4.1})</f>
+        <v>1</v>
       </c>
       <c r="W29" s="6" t="e">
-        <f>MATCH(H29,{FALSE,2.1,TRUE,4.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X29" s="6">
-        <f>MATCH(I29,{FALSE,2.1,TRUE,4.1})</f>
-        <v>3</v>
+        <f>MATCH(H29,{-1.1,2.1,3.1,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X29" s="6" t="e">
+        <f>MATCH(I29,{-1.1,2.1,3.1,4.1})</f>
+        <v>#N/A</v>
       </c>
       <c r="Y29" s="6" t="e">
-        <f>MATCH(J29,{FALSE,2.1,TRUE,4.1})</f>
+        <f>MATCH(J29,{-1.1,2.1,3.1,4.1})</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z29" s="6" t="e">
-        <f>MATCH(K29,{FALSE,2.1,TRUE,4.1})</f>
+        <f>MATCH(K29,{-1.1,2.1,3.1,4.1})</f>
         <v>#N/A</v>
       </c>
       <c r="AA29" s="6" t="e">
-        <f>MATCH(L29,{FALSE,2.1,TRUE,4.1})</f>
+        <f>MATCH(L29,{-1.1,2.1,3.1,4.1})</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB29" s="6" t="e">
-        <f>MATCH(M29,{FALSE,2.1,TRUE,4.1})</f>
+        <f>MATCH(M29,{-1.1,2.1,3.1,4.1})</f>
         <v>#NAME?</v>
       </c>
       <c r="AC29" s="6" t="e">
-        <f>MATCH(N29,{FALSE,2.1,TRUE,4.1})</f>
+        <f>MATCH(N29,{-1.1,2.1,3.1,4.1})</f>
         <v>#NULL!</v>
       </c>
       <c r="AD29" s="6" t="e">
-        <f>MATCH(O29,{FALSE,2.1,TRUE,4.1})</f>
+        <f>MATCH(O29,{-1.1,2.1,3.1,4.1})</f>
         <v>#NUM!</v>
       </c>
       <c r="AE29" s="6" t="e">
-        <f>MATCH(P29,{FALSE,2.1,TRUE,4.1})</f>
+        <f>MATCH(P29,{-1.1,2.1,3.1,4.1})</f>
         <v>#REF!</v>
       </c>
       <c r="AF29" s="6"/>
       <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="6"/>
+      <c r="AT29" s="6"/>
+      <c r="AU29" s="6"/>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A30" s="33"/>
@@ -23980,63 +24122,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q30" s="6" t="e">
-        <f>MATCH(B30,{4.1,3.1,2.1,1.1})</f>
+        <f>MATCH(B30,{"a",2.1,"c bau c",4.1})</f>
         <v>#N/A</v>
       </c>
       <c r="R30" s="6" t="e">
-        <f>MATCH(C30,{4.1,3.1,2.1,1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S30" s="6" t="e">
-        <f>MATCH(D30,{4.1,3.1,2.1,1.1})</f>
-        <v>#N/A</v>
+        <f>MATCH(C30,{"a",2.1,"c bau c",4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S30" s="6">
+        <f>MATCH(D30,{"a",2.1,"c bau c",4.1})</f>
+        <v>2</v>
       </c>
       <c r="T30" s="6">
-        <f>MATCH(E30,{4.1,3.1,2.1,1.1})</f>
+        <f>MATCH(E30,{"a",2.1,"c bau c",4.1})</f>
+        <v>2</v>
+      </c>
+      <c r="U30" s="6">
+        <f>MATCH(F30,{"a",2.1,"c bau c",4.1})</f>
         <v>4</v>
       </c>
-      <c r="U30" s="6">
-        <f>MATCH(F30,{4.1,3.1,2.1,1.1})</f>
-        <v>4</v>
-      </c>
       <c r="V30" s="6" t="e">
-        <f>MATCH(G30,{4.1,3.1,2.1,1.1})</f>
+        <f>MATCH(G30,{"a",2.1,"c bau c",4.1})</f>
         <v>#N/A</v>
       </c>
       <c r="W30" s="6" t="e">
-        <f>MATCH(H30,{4.1,3.1,2.1,1.1})</f>
+        <f>MATCH(H30,{"a",2.1,"c bau c",4.1})</f>
         <v>#N/A</v>
       </c>
       <c r="X30" s="6" t="e">
-        <f>MATCH(I30,{4.1,3.1,2.1,1.1})</f>
+        <f>MATCH(I30,{"a",2.1,"c bau c",4.1})</f>
         <v>#N/A</v>
       </c>
       <c r="Y30" s="6" t="e">
-        <f>MATCH(J30,{4.1,3.1,2.1,1.1})</f>
+        <f>MATCH(J30,{"a",2.1,"c bau c",4.1})</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z30" s="6" t="e">
-        <f>MATCH(K30,{4.1,3.1,2.1,1.1})</f>
+        <f>MATCH(K30,{"a",2.1,"c bau c",4.1})</f>
         <v>#N/A</v>
       </c>
       <c r="AA30" s="6" t="e">
-        <f>MATCH(L30,{4.1,3.1,2.1,1.1})</f>
+        <f>MATCH(L30,{"a",2.1,"c bau c",4.1})</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB30" s="6" t="e">
-        <f>MATCH(M30,{4.1,3.1,2.1,1.1})</f>
+        <f>MATCH(M30,{"a",2.1,"c bau c",4.1})</f>
         <v>#NAME?</v>
       </c>
       <c r="AC30" s="6" t="e">
-        <f>MATCH(N30,{4.1,3.1,2.1,1.1})</f>
+        <f>MATCH(N30,{"a",2.1,"c bau c",4.1})</f>
         <v>#NULL!</v>
       </c>
       <c r="AD30" s="6" t="e">
-        <f>MATCH(O30,{4.1,3.1,2.1,1.1})</f>
+        <f>MATCH(O30,{"a",2.1,"c bau c",4.1})</f>
         <v>#NUM!</v>
       </c>
       <c r="AE30" s="6" t="e">
-        <f>MATCH(P30,{4.1,3.1,2.1,1.1})</f>
+        <f>MATCH(P30,{"a",2.1,"c bau c",4.1})</f>
         <v>#REF!</v>
       </c>
       <c r="AF30" s="6"/>
@@ -24089,63 +24231,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q31" s="6" t="e">
-        <f>MATCH(B31,{"c bau c",4.1,"a",1.1})</f>
+        <f>MATCH(B31,{FALSE,2.1,TRUE,4.1})</f>
         <v>#N/A</v>
       </c>
       <c r="R31" s="6" t="e">
-        <f>MATCH(C31,{"c bau c",4.1,"a",1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S31" s="6" t="e">
-        <f>MATCH(D31,{"c bau c",4.1,"a",1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T31" s="6" t="e">
-        <f>MATCH(E31,{"c bau c",4.1,"a",1.1})</f>
-        <v>#N/A</v>
+        <f>MATCH(C31,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S31" s="6">
+        <f>MATCH(D31,{FALSE,2.1,TRUE,4.1})</f>
+        <v>2</v>
+      </c>
+      <c r="T31" s="6">
+        <f>MATCH(E31,{FALSE,2.1,TRUE,4.1})</f>
+        <v>2</v>
       </c>
       <c r="U31" s="6">
-        <f>MATCH(F31,{"c bau c",4.1,"a",1.1})</f>
-        <v>2</v>
+        <f>MATCH(F31,{FALSE,2.1,TRUE,4.1})</f>
+        <v>4</v>
       </c>
       <c r="V31" s="6" t="e">
-        <f>MATCH(G31,{"c bau c",4.1,"a",1.1})</f>
+        <f>MATCH(G31,{FALSE,2.1,TRUE,4.1})</f>
         <v>#N/A</v>
       </c>
       <c r="W31" s="6" t="e">
-        <f>MATCH(H31,{"c bau c",4.1,"a",1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X31" s="6" t="e">
-        <f>MATCH(I31,{"c bau c",4.1,"a",1.1})</f>
-        <v>#N/A</v>
+        <f>MATCH(H31,{FALSE,2.1,TRUE,4.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X31" s="6">
+        <f>MATCH(I31,{FALSE,2.1,TRUE,4.1})</f>
+        <v>3</v>
       </c>
       <c r="Y31" s="6" t="e">
-        <f>MATCH(J31,{"c bau c",4.1,"a",1.1})</f>
+        <f>MATCH(J31,{FALSE,2.1,TRUE,4.1})</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z31" s="6" t="e">
-        <f>MATCH(K31,{"c bau c",4.1,"a",1.1})</f>
+        <f>MATCH(K31,{FALSE,2.1,TRUE,4.1})</f>
         <v>#N/A</v>
       </c>
       <c r="AA31" s="6" t="e">
-        <f>MATCH(L31,{"c bau c",4.1,"a",1.1})</f>
+        <f>MATCH(L31,{FALSE,2.1,TRUE,4.1})</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB31" s="6" t="e">
-        <f>MATCH(M31,{"c bau c",4.1,"a",1.1})</f>
+        <f>MATCH(M31,{FALSE,2.1,TRUE,4.1})</f>
         <v>#NAME?</v>
       </c>
       <c r="AC31" s="6" t="e">
-        <f>MATCH(N31,{"c bau c",4.1,"a",1.1})</f>
+        <f>MATCH(N31,{FALSE,2.1,TRUE,4.1})</f>
         <v>#NULL!</v>
       </c>
       <c r="AD31" s="6" t="e">
-        <f>MATCH(O31,{"c bau c",4.1,"a",1.1})</f>
+        <f>MATCH(O31,{FALSE,2.1,TRUE,4.1})</f>
         <v>#NUM!</v>
       </c>
       <c r="AE31" s="6" t="e">
-        <f>MATCH(P31,{"c bau c",4.1,"a",1.1})</f>
+        <f>MATCH(P31,{FALSE,2.1,TRUE,4.1})</f>
         <v>#REF!</v>
       </c>
       <c r="AF31" s="6"/>
@@ -24198,63 +24340,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q32" s="6" t="e">
-        <f>MATCH(B32,{"",4.1,"a",1.1})</f>
+        <f>MATCH(B32,{4.1,3.1,2.1,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="R32" s="6" t="e">
-        <f>MATCH(C32,{"",4.1,"a",1.1})</f>
+        <f>MATCH(C32,{4.1,3.1,2.1,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="S32" s="6" t="e">
-        <f>MATCH(D32,{"",4.1,"a",1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T32" s="6" t="e">
-        <f>MATCH(E32,{"",4.1,"a",1.1})</f>
-        <v>#N/A</v>
+        <f>MATCH(D32,{4.1,3.1,2.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T32" s="6">
+        <f>MATCH(E32,{4.1,3.1,2.1,1.1})</f>
+        <v>4</v>
       </c>
       <c r="U32" s="6">
-        <f>MATCH(F32,{"",4.1,"a",1.1})</f>
-        <v>2</v>
+        <f>MATCH(F32,{4.1,3.1,2.1,1.1})</f>
+        <v>4</v>
       </c>
       <c r="V32" s="6" t="e">
-        <f>MATCH(G32,{"",4.1,"a",1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W32" s="6">
-        <f>MATCH(H32,{"",4.1,"a",1.1})</f>
-        <v>1</v>
+        <f>MATCH(G32,{4.1,3.1,2.1,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W32" s="6" t="e">
+        <f>MATCH(H32,{4.1,3.1,2.1,1.1})</f>
+        <v>#N/A</v>
       </c>
       <c r="X32" s="6" t="e">
-        <f>MATCH(I32,{"",4.1,"a",1.1})</f>
+        <f>MATCH(I32,{4.1,3.1,2.1,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="Y32" s="6" t="e">
-        <f>MATCH(J32,{"",4.1,"a",1.1})</f>
+        <f>MATCH(J32,{4.1,3.1,2.1,1.1})</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z32" s="6" t="e">
-        <f>MATCH(K32,{"",4.1,"a",1.1})</f>
+        <f>MATCH(K32,{4.1,3.1,2.1,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="AA32" s="6" t="e">
-        <f>MATCH(L32,{"",4.1,"a",1.1})</f>
+        <f>MATCH(L32,{4.1,3.1,2.1,1.1})</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB32" s="6" t="e">
-        <f>MATCH(M32,{"",4.1,"a",1.1})</f>
+        <f>MATCH(M32,{4.1,3.1,2.1,1.1})</f>
         <v>#NAME?</v>
       </c>
       <c r="AC32" s="6" t="e">
-        <f>MATCH(N32,{"",4.1,"a",1.1})</f>
+        <f>MATCH(N32,{4.1,3.1,2.1,1.1})</f>
         <v>#NULL!</v>
       </c>
       <c r="AD32" s="6" t="e">
-        <f>MATCH(O32,{"",4.1,"a",1.1})</f>
+        <f>MATCH(O32,{4.1,3.1,2.1,1.1})</f>
         <v>#NUM!</v>
       </c>
       <c r="AE32" s="6" t="e">
-        <f>MATCH(P32,{"",4.1,"a",1.1})</f>
+        <f>MATCH(P32,{4.1,3.1,2.1,1.1})</f>
         <v>#REF!</v>
       </c>
       <c r="AF32" s="6"/>
@@ -24307,63 +24449,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q33" s="6" t="e">
-        <f>MATCH(B33,{TRUE,4.1,FALSE,1.1})</f>
+        <f>MATCH(B33,{"c bau c",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="R33" s="6" t="e">
-        <f>MATCH(C33,{TRUE,4.1,FALSE,1.1})</f>
+        <f>MATCH(C33,{"c bau c",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="S33" s="6" t="e">
-        <f>MATCH(D33,{TRUE,4.1,FALSE,1.1})</f>
+        <f>MATCH(D33,{"c bau c",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="T33" s="6" t="e">
-        <f>MATCH(E33,{TRUE,4.1,FALSE,1.1})</f>
+        <f>MATCH(E33,{"c bau c",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="U33" s="6">
-        <f>MATCH(F33,{TRUE,4.1,FALSE,1.1})</f>
+        <f>MATCH(F33,{"c bau c",4.1,"a",1.1})</f>
         <v>2</v>
       </c>
       <c r="V33" s="6" t="e">
-        <f>MATCH(G33,{TRUE,4.1,FALSE,1.1})</f>
+        <f>MATCH(G33,{"c bau c",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="W33" s="6" t="e">
-        <f>MATCH(H33,{TRUE,4.1,FALSE,1.1})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X33" s="6">
-        <f>MATCH(I33,{TRUE,4.1,FALSE,1.1})</f>
-        <v>3</v>
+        <f>MATCH(H33,{"c bau c",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X33" s="6" t="e">
+        <f>MATCH(I33,{"c bau c",4.1,"a",1.1})</f>
+        <v>#N/A</v>
       </c>
       <c r="Y33" s="6" t="e">
-        <f>MATCH(J33,{TRUE,4.1,FALSE,1.1})</f>
+        <f>MATCH(J33,{"c bau c",4.1,"a",1.1})</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z33" s="6" t="e">
-        <f>MATCH(K33,{TRUE,4.1,FALSE,1.1})</f>
+        <f>MATCH(K33,{"c bau c",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="AA33" s="6" t="e">
-        <f>MATCH(L33,{TRUE,4.1,FALSE,1.1})</f>
+        <f>MATCH(L33,{"c bau c",4.1,"a",1.1})</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB33" s="6" t="e">
-        <f>MATCH(M33,{TRUE,4.1,FALSE,1.1})</f>
+        <f>MATCH(M33,{"c bau c",4.1,"a",1.1})</f>
         <v>#NAME?</v>
       </c>
       <c r="AC33" s="6" t="e">
-        <f>MATCH(N33,{TRUE,4.1,FALSE,1.1})</f>
+        <f>MATCH(N33,{"c bau c",4.1,"a",1.1})</f>
         <v>#NULL!</v>
       </c>
       <c r="AD33" s="6" t="e">
-        <f>MATCH(O33,{TRUE,4.1,FALSE,1.1})</f>
+        <f>MATCH(O33,{"c bau c",4.1,"a",1.1})</f>
         <v>#NUM!</v>
       </c>
       <c r="AE33" s="6" t="e">
-        <f>MATCH(P33,{TRUE,4.1,FALSE,1.1})</f>
+        <f>MATCH(P33,{"c bau c",4.1,"a",1.1})</f>
         <v>#REF!</v>
       </c>
       <c r="AF33" s="6"/>
@@ -24416,63 +24558,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q34" s="6" t="e">
-        <f>MATCH(B34,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <f>MATCH(B34,{"",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="R34" s="6" t="e">
-        <f>MATCH(C34,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <f>MATCH(C34,{"",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="S34" s="6" t="e">
-        <f>MATCH(D34,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <f>MATCH(D34,{"",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="T34" s="6" t="e">
-        <f>MATCH(E34,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <f>MATCH(E34,{"",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="U34" s="6">
-        <f>MATCH(F34,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <f>MATCH(F34,{"",4.1,"a",1.1})</f>
         <v>2</v>
       </c>
       <c r="V34" s="6" t="e">
-        <f>MATCH(G34,{TRUE,4.1,FALSE,"c bau c"})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W34" s="6" t="e">
-        <f>MATCH(H34,{TRUE,4.1,FALSE,"c bau c"})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X34" s="6">
-        <f>MATCH(I34,{TRUE,4.1,FALSE,"c bau c"})</f>
-        <v>3</v>
+        <f>MATCH(G34,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W34" s="6">
+        <f>MATCH(H34,{"",4.1,"a",1.1})</f>
+        <v>1</v>
+      </c>
+      <c r="X34" s="6" t="e">
+        <f>MATCH(I34,{"",4.1,"a",1.1})</f>
+        <v>#N/A</v>
       </c>
       <c r="Y34" s="6" t="e">
-        <f>MATCH(J34,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <f>MATCH(J34,{"",4.1,"a",1.1})</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z34" s="6" t="e">
-        <f>MATCH(K34,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <f>MATCH(K34,{"",4.1,"a",1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="AA34" s="6" t="e">
-        <f>MATCH(L34,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <f>MATCH(L34,{"",4.1,"a",1.1})</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB34" s="6" t="e">
-        <f>MATCH(M34,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <f>MATCH(M34,{"",4.1,"a",1.1})</f>
         <v>#NAME?</v>
       </c>
       <c r="AC34" s="6" t="e">
-        <f>MATCH(N34,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <f>MATCH(N34,{"",4.1,"a",1.1})</f>
         <v>#NULL!</v>
       </c>
       <c r="AD34" s="6" t="e">
-        <f>MATCH(O34,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <f>MATCH(O34,{"",4.1,"a",1.1})</f>
         <v>#NUM!</v>
       </c>
       <c r="AE34" s="6" t="e">
-        <f>MATCH(P34,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <f>MATCH(P34,{"",4.1,"a",1.1})</f>
         <v>#REF!</v>
       </c>
       <c r="AF34" s="6"/>
@@ -24525,72 +24667,70 @@
         <v>#REF!</v>
       </c>
       <c r="Q35" s="6" t="e">
-        <f>MATCH(B35,{TRUE,FALSE,"a","c bau c"})</f>
+        <f>MATCH(B35,{TRUE,4.1,FALSE,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="R35" s="6" t="e">
-        <f>MATCH(C35,{TRUE,FALSE,"a","c bau c"})</f>
+        <f>MATCH(C35,{TRUE,4.1,FALSE,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="S35" s="6" t="e">
-        <f>MATCH(D35,{TRUE,FALSE,"a","c bau c"})</f>
+        <f>MATCH(D35,{TRUE,4.1,FALSE,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="T35" s="6" t="e">
-        <f>MATCH(E35,{TRUE,FALSE,"a","c bau c"})</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U35" s="6" t="e">
-        <f>MATCH(F35,{TRUE,FALSE,"a","c bau c"})</f>
-        <v>#N/A</v>
+        <f>MATCH(E35,{TRUE,4.1,FALSE,1.1})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U35" s="6">
+        <f>MATCH(F35,{TRUE,4.1,FALSE,1.1})</f>
+        <v>2</v>
       </c>
       <c r="V35" s="6" t="e">
-        <f>MATCH(G35,{TRUE,FALSE,"a","c bau c"})</f>
+        <f>MATCH(G35,{TRUE,4.1,FALSE,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="W35" s="6" t="e">
-        <f>MATCH(H35,{TRUE,FALSE,"a","c bau c"})</f>
+        <f>MATCH(H35,{TRUE,4.1,FALSE,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="X35" s="6">
-        <f>MATCH(I35,{TRUE,FALSE,"a","c bau c"})</f>
-        <v>2</v>
+        <f>MATCH(I35,{TRUE,4.1,FALSE,1.1})</f>
+        <v>3</v>
       </c>
       <c r="Y35" s="6" t="e">
-        <f>MATCH(J35,{TRUE,FALSE,"a","c bau c"})</f>
+        <f>MATCH(J35,{TRUE,4.1,FALSE,1.1})</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z35" s="6" t="e">
-        <f>MATCH(K35,{TRUE,FALSE,"a","c bau c"})</f>
+        <f>MATCH(K35,{TRUE,4.1,FALSE,1.1})</f>
         <v>#N/A</v>
       </c>
       <c r="AA35" s="6" t="e">
-        <f>MATCH(L35,{TRUE,FALSE,"a","c bau c"})</f>
+        <f>MATCH(L35,{TRUE,4.1,FALSE,1.1})</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB35" s="6" t="e">
-        <f>MATCH(M35,{TRUE,FALSE,"a","c bau c"})</f>
+        <f>MATCH(M35,{TRUE,4.1,FALSE,1.1})</f>
         <v>#NAME?</v>
       </c>
       <c r="AC35" s="6" t="e">
-        <f>MATCH(N35,{TRUE,FALSE,"a","c bau c"})</f>
+        <f>MATCH(N35,{TRUE,4.1,FALSE,1.1})</f>
         <v>#NULL!</v>
       </c>
       <c r="AD35" s="6" t="e">
-        <f>MATCH(O35,{TRUE,FALSE,"a","c bau c"})</f>
+        <f>MATCH(O35,{TRUE,4.1,FALSE,1.1})</f>
         <v>#NUM!</v>
       </c>
       <c r="AE35" s="6" t="e">
-        <f>MATCH(P35,{TRUE,FALSE,"a","c bau c"})</f>
+        <f>MATCH(P35,{TRUE,4.1,FALSE,1.1})</f>
         <v>#REF!</v>
       </c>
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A36" s="33" t="s">
-        <v>351</v>
-      </c>
+      <c r="A36" s="33"/>
       <c r="B36" s="22">
         <v>-2</v>
       </c>
@@ -24636,81 +24776,67 @@
         <v>#REF!</v>
       </c>
       <c r="Q36" s="6" t="e">
-        <f>MATCH(B36,{-1.1,2.1,3.1,4.1},0)</f>
+        <f>MATCH(B36,{TRUE,4.1,FALSE,"c bau c"})</f>
         <v>#N/A</v>
       </c>
       <c r="R36" s="6" t="e">
-        <f>MATCH(C36,{-1.1,2.1,3.1,4.1},0)</f>
+        <f>MATCH(C36,{TRUE,4.1,FALSE,"c bau c"})</f>
         <v>#N/A</v>
       </c>
       <c r="S36" s="6" t="e">
-        <f>MATCH(D36,{-1.1,2.1,3.1,4.1},0)</f>
+        <f>MATCH(D36,{TRUE,4.1,FALSE,"c bau c"})</f>
         <v>#N/A</v>
       </c>
       <c r="T36" s="6" t="e">
-        <f>MATCH(E36,{-1.1,2.1,3.1,4.1},0)</f>
+        <f>MATCH(E36,{TRUE,4.1,FALSE,"c bau c"})</f>
         <v>#N/A</v>
       </c>
       <c r="U36" s="6">
-        <f>MATCH(F36,{-1.1,2.1,3.1,4.1},0)</f>
-        <v>4</v>
+        <f>MATCH(F36,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>2</v>
       </c>
       <c r="V36" s="6" t="e">
-        <f>MATCH(G36,{-1.1,2.1,3.1,4.1},0)</f>
+        <f>MATCH(G36,{TRUE,4.1,FALSE,"c bau c"})</f>
         <v>#N/A</v>
       </c>
       <c r="W36" s="6" t="e">
-        <f>MATCH(H36,{-1.1,2.1,3.1,4.1},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X36" s="6" t="e">
-        <f>MATCH(I36,{-1.1,2.1,3.1,4.1},0)</f>
-        <v>#N/A</v>
+        <f>MATCH(H36,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X36" s="6">
+        <f>MATCH(I36,{TRUE,4.1,FALSE,"c bau c"})</f>
+        <v>3</v>
       </c>
       <c r="Y36" s="6" t="e">
-        <f>MATCH(J36,{-1.1,2.1,3.1,4.1},0)</f>
+        <f>MATCH(J36,{TRUE,4.1,FALSE,"c bau c"})</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z36" s="6" t="e">
-        <f>MATCH(K36,{-1.1,2.1,3.1,4.1},0)</f>
+        <f>MATCH(K36,{TRUE,4.1,FALSE,"c bau c"})</f>
         <v>#N/A</v>
       </c>
       <c r="AA36" s="6" t="e">
-        <f>MATCH(L36,{-1.1,2.1,3.1,4.1},0)</f>
+        <f>MATCH(L36,{TRUE,4.1,FALSE,"c bau c"})</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB36" s="6" t="e">
-        <f>MATCH(M36,{-1.1,2.1,3.1,4.1},0)</f>
+        <f>MATCH(M36,{TRUE,4.1,FALSE,"c bau c"})</f>
         <v>#NAME?</v>
       </c>
       <c r="AC36" s="6" t="e">
-        <f>MATCH(N36,{-1.1,2.1,3.1,4.1},0)</f>
+        <f>MATCH(N36,{TRUE,4.1,FALSE,"c bau c"})</f>
         <v>#NULL!</v>
       </c>
       <c r="AD36" s="6" t="e">
-        <f>MATCH(O36,{-1.1,2.1,3.1,4.1},0)</f>
+        <f>MATCH(O36,{TRUE,4.1,FALSE,"c bau c"})</f>
         <v>#NUM!</v>
       </c>
       <c r="AE36" s="6" t="e">
-        <f>MATCH(P36,{-1.1,2.1,3.1,4.1},0)</f>
+        <f>MATCH(P36,{TRUE,4.1,FALSE,"c bau c"})</f>
         <v>#REF!</v>
       </c>
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
-      <c r="AQ36" s="6"/>
-      <c r="AR36" s="6"/>
-      <c r="AS36" s="6"/>
-      <c r="AT36" s="6"/>
-      <c r="AU36" s="6"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A37" s="33"/>
@@ -24759,70 +24885,72 @@
         <v>#REF!</v>
       </c>
       <c r="Q37" s="6" t="e">
-        <f>MATCH(B37,{"a",2.1,"c bau c",4.1},0)</f>
+        <f>MATCH(B37,{TRUE,FALSE,"a","c bau c"})</f>
         <v>#N/A</v>
       </c>
       <c r="R37" s="6" t="e">
-        <f>MATCH(C37,{"a",2.1,"c bau c",4.1},0)</f>
+        <f>MATCH(C37,{TRUE,FALSE,"a","c bau c"})</f>
         <v>#N/A</v>
       </c>
       <c r="S37" s="6" t="e">
-        <f>MATCH(D37,{"a",2.1,"c bau c",4.1},0)</f>
+        <f>MATCH(D37,{TRUE,FALSE,"a","c bau c"})</f>
         <v>#N/A</v>
       </c>
       <c r="T37" s="6" t="e">
-        <f>MATCH(E37,{"a",2.1,"c bau c",4.1},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U37" s="6">
-        <f>MATCH(F37,{"a",2.1,"c bau c",4.1},0)</f>
-        <v>4</v>
+        <f>MATCH(E37,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U37" s="6" t="e">
+        <f>MATCH(F37,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#N/A</v>
       </c>
       <c r="V37" s="6" t="e">
-        <f>MATCH(G37,{"a",2.1,"c bau c",4.1},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W37" s="6">
-        <f>MATCH(H37,{"a",2.1,"c bau c",4.1},0)</f>
-        <v>3</v>
-      </c>
-      <c r="X37" s="6" t="e">
-        <f>MATCH(I37,{"a",2.1,"c bau c",4.1},0)</f>
-        <v>#N/A</v>
+        <f>MATCH(G37,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W37" s="6" t="e">
+        <f>MATCH(H37,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X37" s="6">
+        <f>MATCH(I37,{TRUE,FALSE,"a","c bau c"})</f>
+        <v>2</v>
       </c>
       <c r="Y37" s="6" t="e">
-        <f>MATCH(J37,{"a",2.1,"c bau c",4.1},0)</f>
+        <f>MATCH(J37,{TRUE,FALSE,"a","c bau c"})</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z37" s="6" t="e">
-        <f>MATCH(K37,{"a",2.1,"c bau c",4.1},0)</f>
+        <f>MATCH(K37,{TRUE,FALSE,"a","c bau c"})</f>
         <v>#N/A</v>
       </c>
       <c r="AA37" s="6" t="e">
-        <f>MATCH(L37,{"a",2.1,"c bau c",4.1},0)</f>
+        <f>MATCH(L37,{TRUE,FALSE,"a","c bau c"})</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB37" s="6" t="e">
-        <f>MATCH(M37,{"a",2.1,"c bau c",4.1},0)</f>
+        <f>MATCH(M37,{TRUE,FALSE,"a","c bau c"})</f>
         <v>#NAME?</v>
       </c>
       <c r="AC37" s="6" t="e">
-        <f>MATCH(N37,{"a",2.1,"c bau c",4.1},0)</f>
+        <f>MATCH(N37,{TRUE,FALSE,"a","c bau c"})</f>
         <v>#NULL!</v>
       </c>
       <c r="AD37" s="6" t="e">
-        <f>MATCH(O37,{"a",2.1,"c bau c",4.1},0)</f>
+        <f>MATCH(O37,{TRUE,FALSE,"a","c bau c"})</f>
         <v>#NUM!</v>
       </c>
       <c r="AE37" s="6" t="e">
-        <f>MATCH(P37,{"a",2.1,"c bau c",4.1},0)</f>
+        <f>MATCH(P37,{TRUE,FALSE,"a","c bau c"})</f>
         <v>#REF!</v>
       </c>
       <c r="AF37" s="6"/>
       <c r="AG37" s="6"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A38" s="33"/>
+      <c r="A38" s="33" t="s">
+        <v>351</v>
+      </c>
       <c r="B38" s="22">
         <v>-2</v>
       </c>
@@ -24868,67 +24996,81 @@
         <v>#REF!</v>
       </c>
       <c r="Q38" s="6" t="e">
-        <f>MATCH(B38,{FALSE,2.1,TRUE,4.1},0)</f>
+        <f>MATCH(B38,{-1.1,2.1,3.1,4.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="R38" s="6" t="e">
-        <f>MATCH(C38,{FALSE,2.1,TRUE,4.1},0)</f>
+        <f>MATCH(C38,{-1.1,2.1,3.1,4.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="S38" s="6" t="e">
-        <f>MATCH(D38,{FALSE,2.1,TRUE,4.1},0)</f>
+        <f>MATCH(D38,{-1.1,2.1,3.1,4.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="T38" s="6" t="e">
-        <f>MATCH(E38,{FALSE,2.1,TRUE,4.1},0)</f>
+        <f>MATCH(E38,{-1.1,2.1,3.1,4.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="U38" s="6">
-        <f>MATCH(F38,{FALSE,2.1,TRUE,4.1},0)</f>
+        <f>MATCH(F38,{-1.1,2.1,3.1,4.1},0)</f>
         <v>4</v>
       </c>
       <c r="V38" s="6" t="e">
-        <f>MATCH(G38,{FALSE,2.1,TRUE,4.1},0)</f>
+        <f>MATCH(G38,{-1.1,2.1,3.1,4.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="W38" s="6" t="e">
-        <f>MATCH(H38,{FALSE,2.1,TRUE,4.1},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X38" s="6">
-        <f>MATCH(I38,{FALSE,2.1,TRUE,4.1},0)</f>
-        <v>3</v>
+        <f>MATCH(H38,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X38" s="6" t="e">
+        <f>MATCH(I38,{-1.1,2.1,3.1,4.1},0)</f>
+        <v>#N/A</v>
       </c>
       <c r="Y38" s="6" t="e">
-        <f>MATCH(J38,{FALSE,2.1,TRUE,4.1},0)</f>
+        <f>MATCH(J38,{-1.1,2.1,3.1,4.1},0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z38" s="6" t="e">
-        <f>MATCH(K38,{FALSE,2.1,TRUE,4.1},0)</f>
+        <f>MATCH(K38,{-1.1,2.1,3.1,4.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="AA38" s="6" t="e">
-        <f>MATCH(L38,{FALSE,2.1,TRUE,4.1},0)</f>
+        <f>MATCH(L38,{-1.1,2.1,3.1,4.1},0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB38" s="6" t="e">
-        <f>MATCH(M38,{FALSE,2.1,TRUE,4.1},0)</f>
+        <f>MATCH(M38,{-1.1,2.1,3.1,4.1},0)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC38" s="6" t="e">
-        <f>MATCH(N38,{FALSE,2.1,TRUE,4.1},0)</f>
+        <f>MATCH(N38,{-1.1,2.1,3.1,4.1},0)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD38" s="6" t="e">
-        <f>MATCH(O38,{FALSE,2.1,TRUE,4.1},0)</f>
+        <f>MATCH(O38,{-1.1,2.1,3.1,4.1},0)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE38" s="6" t="e">
-        <f>MATCH(P38,{FALSE,2.1,TRUE,4.1},0)</f>
+        <f>MATCH(P38,{-1.1,2.1,3.1,4.1},0)</f>
         <v>#REF!</v>
       </c>
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="6"/>
+      <c r="AQ38" s="6"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="6"/>
+      <c r="AT38" s="6"/>
+      <c r="AU38" s="6"/>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A39" s="33"/>
@@ -24977,63 +25119,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q39" s="6" t="e">
-        <f>MATCH(B39,{4.1,3.1,2.1,1.1},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R39" s="6">
-        <f>MATCH(C39,{4.1,3.1,2.1,1.1},0)</f>
+        <f>MATCH(B39,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R39" s="6" t="e">
+        <f>MATCH(C39,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S39" s="6" t="e">
+        <f>MATCH(D39,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T39" s="6" t="e">
+        <f>MATCH(E39,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U39" s="6">
+        <f>MATCH(F39,{"a",2.1,"c bau c",4.1},0)</f>
         <v>4</v>
       </c>
-      <c r="S39" s="6" t="e">
-        <f>MATCH(D39,{4.1,3.1,2.1,1.1},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T39" s="6" t="e">
-        <f>MATCH(E39,{4.1,3.1,2.1,1.1},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U39" s="6">
-        <f>MATCH(F39,{4.1,3.1,2.1,1.1},0)</f>
-        <v>1</v>
-      </c>
       <c r="V39" s="6" t="e">
-        <f>MATCH(G39,{4.1,3.1,2.1,1.1},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W39" s="6" t="e">
-        <f>MATCH(H39,{4.1,3.1,2.1,1.1},0)</f>
-        <v>#N/A</v>
+        <f>MATCH(G39,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W39" s="6">
+        <f>MATCH(H39,{"a",2.1,"c bau c",4.1},0)</f>
+        <v>3</v>
       </c>
       <c r="X39" s="6" t="e">
-        <f>MATCH(I39,{4.1,3.1,2.1,1.1},0)</f>
+        <f>MATCH(I39,{"a",2.1,"c bau c",4.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="Y39" s="6" t="e">
-        <f>MATCH(J39,{4.1,3.1,2.1,1.1},0)</f>
+        <f>MATCH(J39,{"a",2.1,"c bau c",4.1},0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z39" s="6" t="e">
-        <f>MATCH(K39,{4.1,3.1,2.1,1.1},0)</f>
+        <f>MATCH(K39,{"a",2.1,"c bau c",4.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="AA39" s="6" t="e">
-        <f>MATCH(L39,{4.1,3.1,2.1,1.1},0)</f>
+        <f>MATCH(L39,{"a",2.1,"c bau c",4.1},0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB39" s="6" t="e">
-        <f>MATCH(M39,{4.1,3.1,2.1,1.1},0)</f>
+        <f>MATCH(M39,{"a",2.1,"c bau c",4.1},0)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC39" s="6" t="e">
-        <f>MATCH(N39,{4.1,3.1,2.1,1.1},0)</f>
+        <f>MATCH(N39,{"a",2.1,"c bau c",4.1},0)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD39" s="6" t="e">
-        <f>MATCH(O39,{4.1,3.1,2.1,1.1},0)</f>
+        <f>MATCH(O39,{"a",2.1,"c bau c",4.1},0)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE39" s="6" t="e">
-        <f>MATCH(P39,{4.1,3.1,2.1,1.1},0)</f>
+        <f>MATCH(P39,{"a",2.1,"c bau c",4.1},0)</f>
         <v>#REF!</v>
       </c>
       <c r="AF39" s="6"/>
@@ -25086,63 +25228,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q40" s="6" t="e">
-        <f>MATCH(B40,{"c bau c",4.1,"a",1.1},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R40" s="6">
-        <f>MATCH(C40,{"c bau c",4.1,"a",1.1},0)</f>
+        <f>MATCH(B40,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R40" s="6" t="e">
+        <f>MATCH(C40,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S40" s="6" t="e">
+        <f>MATCH(D40,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T40" s="6" t="e">
+        <f>MATCH(E40,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U40" s="6">
+        <f>MATCH(F40,{FALSE,2.1,TRUE,4.1},0)</f>
         <v>4</v>
       </c>
-      <c r="S40" s="6" t="e">
-        <f>MATCH(D40,{"c bau c",4.1,"a",1.1},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T40" s="6" t="e">
-        <f>MATCH(E40,{"c bau c",4.1,"a",1.1},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U40" s="6">
-        <f>MATCH(F40,{"c bau c",4.1,"a",1.1},0)</f>
-        <v>2</v>
-      </c>
       <c r="V40" s="6" t="e">
-        <f>MATCH(G40,{"c bau c",4.1,"a",1.1},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W40" s="6">
-        <f>MATCH(H40,{"c bau c",4.1,"a",1.1},0)</f>
-        <v>1</v>
-      </c>
-      <c r="X40" s="6" t="e">
-        <f>MATCH(I40,{"c bau c",4.1,"a",1.1},0)</f>
-        <v>#N/A</v>
+        <f>MATCH(G40,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W40" s="6" t="e">
+        <f>MATCH(H40,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X40" s="6">
+        <f>MATCH(I40,{FALSE,2.1,TRUE,4.1},0)</f>
+        <v>3</v>
       </c>
       <c r="Y40" s="6" t="e">
-        <f>MATCH(J40,{"c bau c",4.1,"a",1.1},0)</f>
+        <f>MATCH(J40,{FALSE,2.1,TRUE,4.1},0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z40" s="6" t="e">
-        <f>MATCH(K40,{"c bau c",4.1,"a",1.1},0)</f>
+        <f>MATCH(K40,{FALSE,2.1,TRUE,4.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="AA40" s="6" t="e">
-        <f>MATCH(L40,{"c bau c",4.1,"a",1.1},0)</f>
+        <f>MATCH(L40,{FALSE,2.1,TRUE,4.1},0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB40" s="6" t="e">
-        <f>MATCH(M40,{"c bau c",4.1,"a",1.1},0)</f>
+        <f>MATCH(M40,{FALSE,2.1,TRUE,4.1},0)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC40" s="6" t="e">
-        <f>MATCH(N40,{"c bau c",4.1,"a",1.1},0)</f>
+        <f>MATCH(N40,{FALSE,2.1,TRUE,4.1},0)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD40" s="6" t="e">
-        <f>MATCH(O40,{"c bau c",4.1,"a",1.1},0)</f>
+        <f>MATCH(O40,{FALSE,2.1,TRUE,4.1},0)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE40" s="6" t="e">
-        <f>MATCH(P40,{"c bau c",4.1,"a",1.1},0)</f>
+        <f>MATCH(P40,{FALSE,2.1,TRUE,4.1},0)</f>
         <v>#REF!</v>
       </c>
       <c r="AF40" s="6"/>
@@ -25195,63 +25337,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q41" s="6" t="e">
-        <f>MATCH(B41,{"",4.1,"a",1.1},0)</f>
+        <f>MATCH(B41,{4.1,3.1,2.1,1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="R41" s="6">
-        <f>MATCH(C41,{"",4.1,"a",1.1},0)</f>
+        <f>MATCH(C41,{4.1,3.1,2.1,1.1},0)</f>
         <v>4</v>
       </c>
       <c r="S41" s="6" t="e">
-        <f>MATCH(D41,{"",4.1,"a",1.1},0)</f>
+        <f>MATCH(D41,{4.1,3.1,2.1,1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="T41" s="6" t="e">
-        <f>MATCH(E41,{"",4.1,"a",1.1},0)</f>
+        <f>MATCH(E41,{4.1,3.1,2.1,1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="U41" s="6">
-        <f>MATCH(F41,{"",4.1,"a",1.1},0)</f>
-        <v>2</v>
+        <f>MATCH(F41,{4.1,3.1,2.1,1.1},0)</f>
+        <v>1</v>
       </c>
       <c r="V41" s="6" t="e">
-        <f>MATCH(G41,{"",4.1,"a",1.1},0)</f>
+        <f>MATCH(G41,{4.1,3.1,2.1,1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="W41" s="6" t="e">
-        <f>MATCH(H41,{"",4.1,"a",1.1},0)</f>
+        <f>MATCH(H41,{4.1,3.1,2.1,1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="X41" s="6" t="e">
-        <f>MATCH(I41,{"",4.1,"a",1.1},0)</f>
+        <f>MATCH(I41,{4.1,3.1,2.1,1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="Y41" s="6" t="e">
-        <f>MATCH(J41,{"",4.1,"a",1.1},0)</f>
+        <f>MATCH(J41,{4.1,3.1,2.1,1.1},0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z41" s="6" t="e">
-        <f>MATCH(K41,{"",4.1,"a",1.1},0)</f>
+        <f>MATCH(K41,{4.1,3.1,2.1,1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="AA41" s="6" t="e">
-        <f>MATCH(L41,{"",4.1,"a",1.1},0)</f>
+        <f>MATCH(L41,{4.1,3.1,2.1,1.1},0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB41" s="6" t="e">
-        <f>MATCH(M41,{"",4.1,"a",1.1},0)</f>
+        <f>MATCH(M41,{4.1,3.1,2.1,1.1},0)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC41" s="6" t="e">
-        <f>MATCH(N41,{"",4.1,"a",1.1},0)</f>
+        <f>MATCH(N41,{4.1,3.1,2.1,1.1},0)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD41" s="6" t="e">
-        <f>MATCH(O41,{"",4.1,"a",1.1},0)</f>
+        <f>MATCH(O41,{4.1,3.1,2.1,1.1},0)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE41" s="6" t="e">
-        <f>MATCH(P41,{"",4.1,"a",1.1},0)</f>
+        <f>MATCH(P41,{4.1,3.1,2.1,1.1},0)</f>
         <v>#REF!</v>
       </c>
       <c r="AF41" s="6"/>
@@ -25304,63 +25446,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q42" s="6" t="e">
-        <f>MATCH(B42,{TRUE,4.1,FALSE,1.1},0)</f>
+        <f>MATCH(B42,{"c bau c",4.1,"a",1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="R42" s="6">
-        <f>MATCH(C42,{TRUE,4.1,FALSE,1.1},0)</f>
+        <f>MATCH(C42,{"c bau c",4.1,"a",1.1},0)</f>
         <v>4</v>
       </c>
       <c r="S42" s="6" t="e">
-        <f>MATCH(D42,{TRUE,4.1,FALSE,1.1},0)</f>
+        <f>MATCH(D42,{"c bau c",4.1,"a",1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="T42" s="6" t="e">
-        <f>MATCH(E42,{TRUE,4.1,FALSE,1.1},0)</f>
+        <f>MATCH(E42,{"c bau c",4.1,"a",1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="U42" s="6">
-        <f>MATCH(F42,{TRUE,4.1,FALSE,1.1},0)</f>
+        <f>MATCH(F42,{"c bau c",4.1,"a",1.1},0)</f>
         <v>2</v>
       </c>
       <c r="V42" s="6" t="e">
-        <f>MATCH(G42,{TRUE,4.1,FALSE,1.1},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W42" s="6" t="e">
-        <f>MATCH(H42,{TRUE,4.1,FALSE,1.1},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X42" s="6">
-        <f>MATCH(I42,{TRUE,4.1,FALSE,1.1},0)</f>
-        <v>1</v>
+        <f>MATCH(G42,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W42" s="6">
+        <f>MATCH(H42,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>1</v>
+      </c>
+      <c r="X42" s="6" t="e">
+        <f>MATCH(I42,{"c bau c",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
       </c>
       <c r="Y42" s="6" t="e">
-        <f>MATCH(J42,{TRUE,4.1,FALSE,1.1},0)</f>
+        <f>MATCH(J42,{"c bau c",4.1,"a",1.1},0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z42" s="6" t="e">
-        <f>MATCH(K42,{TRUE,4.1,FALSE,1.1},0)</f>
+        <f>MATCH(K42,{"c bau c",4.1,"a",1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="AA42" s="6" t="e">
-        <f>MATCH(L42,{TRUE,4.1,FALSE,1.1},0)</f>
+        <f>MATCH(L42,{"c bau c",4.1,"a",1.1},0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB42" s="6" t="e">
-        <f>MATCH(M42,{TRUE,4.1,FALSE,1.1},0)</f>
+        <f>MATCH(M42,{"c bau c",4.1,"a",1.1},0)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC42" s="6" t="e">
-        <f>MATCH(N42,{TRUE,4.1,FALSE,1.1},0)</f>
+        <f>MATCH(N42,{"c bau c",4.1,"a",1.1},0)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD42" s="6" t="e">
-        <f>MATCH(O42,{TRUE,4.1,FALSE,1.1},0)</f>
+        <f>MATCH(O42,{"c bau c",4.1,"a",1.1},0)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE42" s="6" t="e">
-        <f>MATCH(P42,{TRUE,4.1,FALSE,1.1},0)</f>
+        <f>MATCH(P42,{"c bau c",4.1,"a",1.1},0)</f>
         <v>#REF!</v>
       </c>
       <c r="AF42" s="6"/>
@@ -25413,63 +25555,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q43" s="6" t="e">
-        <f>MATCH(B43,{TRUE,4.1,FALSE,"c bau c"},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R43" s="6" t="e">
-        <f>MATCH(C43,{TRUE,4.1,FALSE,"c bau c"},0)</f>
-        <v>#N/A</v>
+        <f>MATCH(B43,{"",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R43" s="6">
+        <f>MATCH(C43,{"",4.1,"a",1.1},0)</f>
+        <v>4</v>
       </c>
       <c r="S43" s="6" t="e">
-        <f>MATCH(D43,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <f>MATCH(D43,{"",4.1,"a",1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="T43" s="6" t="e">
-        <f>MATCH(E43,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <f>MATCH(E43,{"",4.1,"a",1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="U43" s="6">
-        <f>MATCH(F43,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <f>MATCH(F43,{"",4.1,"a",1.1},0)</f>
         <v>2</v>
       </c>
       <c r="V43" s="6" t="e">
-        <f>MATCH(G43,{TRUE,4.1,FALSE,"c bau c"},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W43" s="6">
-        <f>MATCH(H43,{TRUE,4.1,FALSE,"c bau c"},0)</f>
-        <v>4</v>
-      </c>
-      <c r="X43" s="6">
-        <f>MATCH(I43,{TRUE,4.1,FALSE,"c bau c"},0)</f>
-        <v>1</v>
+        <f>MATCH(G43,{"",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W43" s="6" t="e">
+        <f>MATCH(H43,{"",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X43" s="6" t="e">
+        <f>MATCH(I43,{"",4.1,"a",1.1},0)</f>
+        <v>#N/A</v>
       </c>
       <c r="Y43" s="6" t="e">
-        <f>MATCH(J43,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <f>MATCH(J43,{"",4.1,"a",1.1},0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z43" s="6" t="e">
-        <f>MATCH(K43,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <f>MATCH(K43,{"",4.1,"a",1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="AA43" s="6" t="e">
-        <f>MATCH(L43,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <f>MATCH(L43,{"",4.1,"a",1.1},0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB43" s="6" t="e">
-        <f>MATCH(M43,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <f>MATCH(M43,{"",4.1,"a",1.1},0)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC43" s="6" t="e">
-        <f>MATCH(N43,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <f>MATCH(N43,{"",4.1,"a",1.1},0)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD43" s="6" t="e">
-        <f>MATCH(O43,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <f>MATCH(O43,{"",4.1,"a",1.1},0)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE43" s="6" t="e">
-        <f>MATCH(P43,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <f>MATCH(P43,{"",4.1,"a",1.1},0)</f>
         <v>#REF!</v>
       </c>
       <c r="AF43" s="6"/>
@@ -25522,72 +25664,70 @@
         <v>#REF!</v>
       </c>
       <c r="Q44" s="6" t="e">
-        <f>MATCH(B44,{TRUE,FALSE,"a","c bau c"},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R44" s="6" t="e">
-        <f>MATCH(C44,{TRUE,FALSE,"a","c bau c"},0)</f>
-        <v>#N/A</v>
+        <f>MATCH(B44,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R44" s="6">
+        <f>MATCH(C44,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>4</v>
       </c>
       <c r="S44" s="6" t="e">
-        <f>MATCH(D44,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <f>MATCH(D44,{TRUE,4.1,FALSE,1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="T44" s="6" t="e">
-        <f>MATCH(E44,{TRUE,FALSE,"a","c bau c"},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U44" s="6" t="e">
-        <f>MATCH(F44,{TRUE,FALSE,"a","c bau c"},0)</f>
-        <v>#N/A</v>
+        <f>MATCH(E44,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U44" s="6">
+        <f>MATCH(F44,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>2</v>
       </c>
       <c r="V44" s="6" t="e">
-        <f>MATCH(G44,{TRUE,FALSE,"a","c bau c"},0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W44" s="6">
-        <f>MATCH(H44,{TRUE,FALSE,"a","c bau c"},0)</f>
-        <v>4</v>
+        <f>MATCH(G44,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W44" s="6" t="e">
+        <f>MATCH(H44,{TRUE,4.1,FALSE,1.1},0)</f>
+        <v>#N/A</v>
       </c>
       <c r="X44" s="6">
-        <f>MATCH(I44,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <f>MATCH(I44,{TRUE,4.1,FALSE,1.1},0)</f>
         <v>1</v>
       </c>
       <c r="Y44" s="6" t="e">
-        <f>MATCH(J44,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <f>MATCH(J44,{TRUE,4.1,FALSE,1.1},0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z44" s="6" t="e">
-        <f>MATCH(K44,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <f>MATCH(K44,{TRUE,4.1,FALSE,1.1},0)</f>
         <v>#N/A</v>
       </c>
       <c r="AA44" s="6" t="e">
-        <f>MATCH(L44,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <f>MATCH(L44,{TRUE,4.1,FALSE,1.1},0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB44" s="6" t="e">
-        <f>MATCH(M44,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <f>MATCH(M44,{TRUE,4.1,FALSE,1.1},0)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC44" s="6" t="e">
-        <f>MATCH(N44,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <f>MATCH(N44,{TRUE,4.1,FALSE,1.1},0)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD44" s="6" t="e">
-        <f>MATCH(O44,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <f>MATCH(O44,{TRUE,4.1,FALSE,1.1},0)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE44" s="6" t="e">
-        <f>MATCH(P44,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <f>MATCH(P44,{TRUE,4.1,FALSE,1.1},0)</f>
         <v>#REF!</v>
       </c>
       <c r="AF44" s="6"/>
       <c r="AG44" s="6"/>
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A45" s="33" t="s">
-        <v>353</v>
-      </c>
+      <c r="A45" s="33"/>
       <c r="B45" s="22">
         <v>-2</v>
       </c>
@@ -25632,82 +25772,68 @@
       <c r="P45" s="25" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Q45" s="6">
-        <f>MATCH(B45,{-1.1,2.1,3.1,4.1},-1)</f>
+      <c r="Q45" s="6" t="e">
+        <f>MATCH(B45,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R45" s="6" t="e">
+        <f>MATCH(C45,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S45" s="6" t="e">
+        <f>MATCH(D45,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T45" s="6" t="e">
+        <f>MATCH(E45,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U45" s="6">
+        <f>MATCH(F45,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>2</v>
+      </c>
+      <c r="V45" s="6" t="e">
+        <f>MATCH(G45,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W45" s="6">
+        <f>MATCH(H45,{TRUE,4.1,FALSE,"c bau c"},0)</f>
         <v>4</v>
       </c>
-      <c r="R45" s="6" t="e">
-        <f>MATCH(C45,{-1.1,2.1,3.1,4.1},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S45" s="6" t="e">
-        <f>MATCH(D45,{-1.1,2.1,3.1,4.1},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T45" s="6" t="e">
-        <f>MATCH(E45,{-1.1,2.1,3.1,4.1},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U45" s="6" t="e">
-        <f>MATCH(F45,{-1.1,2.1,3.1,4.1},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V45" s="6" t="e">
-        <f>MATCH(G45,{-1.1,2.1,3.1,4.1},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W45" s="6" t="e">
-        <f>MATCH(H45,{-1.1,2.1,3.1,4.1},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X45" s="6" t="e">
-        <f>MATCH(I45,{-1.1,2.1,3.1,4.1},-1)</f>
-        <v>#N/A</v>
+      <c r="X45" s="6">
+        <f>MATCH(I45,{TRUE,4.1,FALSE,"c bau c"},0)</f>
+        <v>1</v>
       </c>
       <c r="Y45" s="6" t="e">
-        <f>MATCH(J45,{-1.1,2.1,3.1,4.1},-1)</f>
+        <f>MATCH(J45,{TRUE,4.1,FALSE,"c bau c"},0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z45" s="6" t="e">
-        <f>MATCH(K45,{-1.1,2.1,3.1,4.1},-1)</f>
+        <f>MATCH(K45,{TRUE,4.1,FALSE,"c bau c"},0)</f>
         <v>#N/A</v>
       </c>
       <c r="AA45" s="6" t="e">
-        <f>MATCH(L45,{-1.1,2.1,3.1,4.1},-1)</f>
+        <f>MATCH(L45,{TRUE,4.1,FALSE,"c bau c"},0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB45" s="6" t="e">
-        <f>MATCH(M45,{-1.1,2.1,3.1,4.1},-1)</f>
+        <f>MATCH(M45,{TRUE,4.1,FALSE,"c bau c"},0)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC45" s="6" t="e">
-        <f>MATCH(N45,{-1.1,2.1,3.1,4.1},-1)</f>
+        <f>MATCH(N45,{TRUE,4.1,FALSE,"c bau c"},0)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD45" s="6" t="e">
-        <f>MATCH(O45,{-1.1,2.1,3.1,4.1},-1)</f>
+        <f>MATCH(O45,{TRUE,4.1,FALSE,"c bau c"},0)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE45" s="6" t="e">
-        <f>MATCH(P45,{-1.1,2.1,3.1,4.1},-1)</f>
+        <f>MATCH(P45,{TRUE,4.1,FALSE,"c bau c"},0)</f>
         <v>#REF!</v>
       </c>
       <c r="AF45" s="6"/>
       <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="6"/>
-      <c r="AK45" s="6"/>
-      <c r="AL45" s="6"/>
-      <c r="AM45" s="6"/>
-      <c r="AN45" s="6"/>
-      <c r="AO45" s="6"/>
-      <c r="AP45" s="6"/>
-      <c r="AQ45" s="6"/>
-      <c r="AR45" s="6"/>
-      <c r="AS45" s="6"/>
-      <c r="AT45" s="6"/>
-      <c r="AU45" s="6"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A46" s="33"/>
@@ -25755,71 +25881,73 @@
       <c r="P46" s="25" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Q46" s="6">
-        <f>MATCH(B46,{"a",2.1,"c bau c",4.1},-1)</f>
+      <c r="Q46" s="6" t="e">
+        <f>MATCH(B46,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R46" s="6" t="e">
+        <f>MATCH(C46,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S46" s="6" t="e">
+        <f>MATCH(D46,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T46" s="6" t="e">
+        <f>MATCH(E46,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U46" s="6" t="e">
+        <f>MATCH(F46,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V46" s="6" t="e">
+        <f>MATCH(G46,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W46" s="6">
+        <f>MATCH(H46,{TRUE,FALSE,"a","c bau c"},0)</f>
         <v>4</v>
       </c>
-      <c r="R46" s="6">
-        <f>MATCH(C46,{"a",2.1,"c bau c",4.1},-1)</f>
-        <v>4</v>
-      </c>
-      <c r="S46" s="6" t="e">
-        <f>MATCH(D46,{"a",2.1,"c bau c",4.1},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T46" s="6" t="e">
-        <f>MATCH(E46,{"a",2.1,"c bau c",4.1},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U46" s="6" t="e">
-        <f>MATCH(F46,{"a",2.1,"c bau c",4.1},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V46" s="6">
-        <f>MATCH(G46,{"a",2.1,"c bau c",4.1},-1)</f>
-        <v>4</v>
-      </c>
-      <c r="W46" s="6">
-        <f>MATCH(H46,{"a",2.1,"c bau c",4.1},-1)</f>
-        <v>3</v>
-      </c>
-      <c r="X46" s="6" t="e">
-        <f>MATCH(I46,{"a",2.1,"c bau c",4.1},-1)</f>
-        <v>#N/A</v>
+      <c r="X46" s="6">
+        <f>MATCH(I46,{TRUE,FALSE,"a","c bau c"},0)</f>
+        <v>1</v>
       </c>
       <c r="Y46" s="6" t="e">
-        <f>MATCH(J46,{"a",2.1,"c bau c",4.1},-1)</f>
+        <f>MATCH(J46,{TRUE,FALSE,"a","c bau c"},0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z46" s="6" t="e">
-        <f>MATCH(K46,{"a",2.1,"c bau c",4.1},-1)</f>
+        <f>MATCH(K46,{TRUE,FALSE,"a","c bau c"},0)</f>
         <v>#N/A</v>
       </c>
       <c r="AA46" s="6" t="e">
-        <f>MATCH(L46,{"a",2.1,"c bau c",4.1},-1)</f>
+        <f>MATCH(L46,{TRUE,FALSE,"a","c bau c"},0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB46" s="6" t="e">
-        <f>MATCH(M46,{"a",2.1,"c bau c",4.1},-1)</f>
+        <f>MATCH(M46,{TRUE,FALSE,"a","c bau c"},0)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC46" s="6" t="e">
-        <f>MATCH(N46,{"a",2.1,"c bau c",4.1},-1)</f>
+        <f>MATCH(N46,{TRUE,FALSE,"a","c bau c"},0)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD46" s="6" t="e">
-        <f>MATCH(O46,{"a",2.1,"c bau c",4.1},-1)</f>
+        <f>MATCH(O46,{TRUE,FALSE,"a","c bau c"},0)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE46" s="6" t="e">
-        <f>MATCH(P46,{"a",2.1,"c bau c",4.1},-1)</f>
+        <f>MATCH(P46,{TRUE,FALSE,"a","c bau c"},0)</f>
         <v>#REF!</v>
       </c>
       <c r="AF46" s="6"/>
       <c r="AG46" s="6"/>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A47" s="33"/>
+      <c r="A47" s="33" t="s">
+        <v>353</v>
+      </c>
       <c r="B47" s="22">
         <v>-2</v>
       </c>
@@ -25865,67 +25993,81 @@
         <v>#REF!</v>
       </c>
       <c r="Q47" s="6">
-        <f>MATCH(B47,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <f>MATCH(B47,{-1.1,2.1,3.1,4.1},-1)</f>
         <v>4</v>
       </c>
-      <c r="R47" s="6">
-        <f>MATCH(C47,{FALSE,2.1,TRUE,4.1},-1)</f>
-        <v>4</v>
+      <c r="R47" s="6" t="e">
+        <f>MATCH(C47,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#N/A</v>
       </c>
       <c r="S47" s="6" t="e">
-        <f>MATCH(D47,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <f>MATCH(D47,{-1.1,2.1,3.1,4.1},-1)</f>
         <v>#N/A</v>
       </c>
       <c r="T47" s="6" t="e">
-        <f>MATCH(E47,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <f>MATCH(E47,{-1.1,2.1,3.1,4.1},-1)</f>
         <v>#N/A</v>
       </c>
       <c r="U47" s="6" t="e">
-        <f>MATCH(F47,{FALSE,2.1,TRUE,4.1},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V47" s="6">
-        <f>MATCH(G47,{FALSE,2.1,TRUE,4.1},-1)</f>
-        <v>4</v>
+        <f>MATCH(F47,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V47" s="6" t="e">
+        <f>MATCH(G47,{-1.1,2.1,3.1,4.1},-1)</f>
+        <v>#N/A</v>
       </c>
       <c r="W47" s="6" t="e">
-        <f>MATCH(H47,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <f>MATCH(H47,{-1.1,2.1,3.1,4.1},-1)</f>
         <v>#N/A</v>
       </c>
       <c r="X47" s="6" t="e">
-        <f>MATCH(I47,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <f>MATCH(I47,{-1.1,2.1,3.1,4.1},-1)</f>
         <v>#N/A</v>
       </c>
       <c r="Y47" s="6" t="e">
-        <f>MATCH(J47,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <f>MATCH(J47,{-1.1,2.1,3.1,4.1},-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z47" s="6" t="e">
-        <f>MATCH(K47,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <f>MATCH(K47,{-1.1,2.1,3.1,4.1},-1)</f>
         <v>#N/A</v>
       </c>
       <c r="AA47" s="6" t="e">
-        <f>MATCH(L47,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <f>MATCH(L47,{-1.1,2.1,3.1,4.1},-1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB47" s="6" t="e">
-        <f>MATCH(M47,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <f>MATCH(M47,{-1.1,2.1,3.1,4.1},-1)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC47" s="6" t="e">
-        <f>MATCH(N47,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <f>MATCH(N47,{-1.1,2.1,3.1,4.1},-1)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD47" s="6" t="e">
-        <f>MATCH(O47,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <f>MATCH(O47,{-1.1,2.1,3.1,4.1},-1)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE47" s="6" t="e">
-        <f>MATCH(P47,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <f>MATCH(P47,{-1.1,2.1,3.1,4.1},-1)</f>
         <v>#REF!</v>
       </c>
       <c r="AF47" s="6"/>
       <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="6"/>
+      <c r="AM47" s="6"/>
+      <c r="AN47" s="6"/>
+      <c r="AO47" s="6"/>
+      <c r="AP47" s="6"/>
+      <c r="AQ47" s="6"/>
+      <c r="AR47" s="6"/>
+      <c r="AS47" s="6"/>
+      <c r="AT47" s="6"/>
+      <c r="AU47" s="6"/>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A48" s="33"/>
@@ -25974,63 +26116,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q48" s="6">
-        <f>MATCH(B48,{4.1,3.1,2.1,1.1},-1)</f>
+        <f>MATCH(B48,{"a",2.1,"c bau c",4.1},-1)</f>
         <v>4</v>
       </c>
       <c r="R48" s="6">
-        <f>MATCH(C48,{4.1,3.1,2.1,1.1},-1)</f>
+        <f>MATCH(C48,{"a",2.1,"c bau c",4.1},-1)</f>
         <v>4</v>
       </c>
-      <c r="S48" s="6">
-        <f>MATCH(D48,{4.1,3.1,2.1,1.1},-1)</f>
-        <v>2</v>
-      </c>
-      <c r="T48" s="6">
-        <f>MATCH(E48,{4.1,3.1,2.1,1.1},-1)</f>
-        <v>1</v>
-      </c>
-      <c r="U48" s="6">
-        <f>MATCH(F48,{4.1,3.1,2.1,1.1},-1)</f>
-        <v>1</v>
+      <c r="S48" s="6" t="e">
+        <f>MATCH(D48,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T48" s="6" t="e">
+        <f>MATCH(E48,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U48" s="6" t="e">
+        <f>MATCH(F48,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>#N/A</v>
       </c>
       <c r="V48" s="6">
-        <f>MATCH(G48,{4.1,3.1,2.1,1.1},-1)</f>
+        <f>MATCH(G48,{"a",2.1,"c bau c",4.1},-1)</f>
         <v>4</v>
       </c>
-      <c r="W48" s="6" t="e">
-        <f>MATCH(H48,{4.1,3.1,2.1,1.1},-1)</f>
-        <v>#N/A</v>
+      <c r="W48" s="6">
+        <f>MATCH(H48,{"a",2.1,"c bau c",4.1},-1)</f>
+        <v>3</v>
       </c>
       <c r="X48" s="6" t="e">
-        <f>MATCH(I48,{4.1,3.1,2.1,1.1},-1)</f>
+        <f>MATCH(I48,{"a",2.1,"c bau c",4.1},-1)</f>
         <v>#N/A</v>
       </c>
       <c r="Y48" s="6" t="e">
-        <f>MATCH(J48,{4.1,3.1,2.1,1.1},-1)</f>
+        <f>MATCH(J48,{"a",2.1,"c bau c",4.1},-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z48" s="6" t="e">
-        <f>MATCH(K48,{4.1,3.1,2.1,1.1},-1)</f>
+        <f>MATCH(K48,{"a",2.1,"c bau c",4.1},-1)</f>
         <v>#N/A</v>
       </c>
       <c r="AA48" s="6" t="e">
-        <f>MATCH(L48,{4.1,3.1,2.1,1.1},-1)</f>
+        <f>MATCH(L48,{"a",2.1,"c bau c",4.1},-1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB48" s="6" t="e">
-        <f>MATCH(M48,{4.1,3.1,2.1,1.1},-1)</f>
+        <f>MATCH(M48,{"a",2.1,"c bau c",4.1},-1)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC48" s="6" t="e">
-        <f>MATCH(N48,{4.1,3.1,2.1,1.1},-1)</f>
+        <f>MATCH(N48,{"a",2.1,"c bau c",4.1},-1)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD48" s="6" t="e">
-        <f>MATCH(O48,{4.1,3.1,2.1,1.1},-1)</f>
+        <f>MATCH(O48,{"a",2.1,"c bau c",4.1},-1)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE48" s="6" t="e">
-        <f>MATCH(P48,{4.1,3.1,2.1,1.1},-1)</f>
+        <f>MATCH(P48,{"a",2.1,"c bau c",4.1},-1)</f>
         <v>#REF!</v>
       </c>
       <c r="AF48" s="6"/>
@@ -26083,63 +26225,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q49" s="6">
-        <f>MATCH(B49,{"c bau c",4.1,"a",1.1},-1)</f>
+        <f>MATCH(B49,{FALSE,2.1,TRUE,4.1},-1)</f>
         <v>4</v>
       </c>
       <c r="R49" s="6">
-        <f>MATCH(C49,{"c bau c",4.1,"a",1.1},-1)</f>
+        <f>MATCH(C49,{FALSE,2.1,TRUE,4.1},-1)</f>
         <v>4</v>
       </c>
-      <c r="S49" s="6">
-        <f>MATCH(D49,{"c bau c",4.1,"a",1.1},-1)</f>
-        <v>2</v>
-      </c>
-      <c r="T49" s="6">
-        <f>MATCH(E49,{"c bau c",4.1,"a",1.1},-1)</f>
-        <v>2</v>
-      </c>
-      <c r="U49" s="6">
-        <f>MATCH(F49,{"c bau c",4.1,"a",1.1},-1)</f>
-        <v>2</v>
+      <c r="S49" s="6" t="e">
+        <f>MATCH(D49,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T49" s="6" t="e">
+        <f>MATCH(E49,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U49" s="6" t="e">
+        <f>MATCH(F49,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#N/A</v>
       </c>
       <c r="V49" s="6">
-        <f>MATCH(G49,{"c bau c",4.1,"a",1.1},-1)</f>
+        <f>MATCH(G49,{FALSE,2.1,TRUE,4.1},-1)</f>
         <v>4</v>
       </c>
-      <c r="W49" s="6">
-        <f>MATCH(H49,{"c bau c",4.1,"a",1.1},-1)</f>
-        <v>3</v>
+      <c r="W49" s="6" t="e">
+        <f>MATCH(H49,{FALSE,2.1,TRUE,4.1},-1)</f>
+        <v>#N/A</v>
       </c>
       <c r="X49" s="6" t="e">
-        <f>MATCH(I49,{"c bau c",4.1,"a",1.1},-1)</f>
+        <f>MATCH(I49,{FALSE,2.1,TRUE,4.1},-1)</f>
         <v>#N/A</v>
       </c>
       <c r="Y49" s="6" t="e">
-        <f>MATCH(J49,{"c bau c",4.1,"a",1.1},-1)</f>
+        <f>MATCH(J49,{FALSE,2.1,TRUE,4.1},-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z49" s="6" t="e">
-        <f>MATCH(K49,{"c bau c",4.1,"a",1.1},-1)</f>
+        <f>MATCH(K49,{FALSE,2.1,TRUE,4.1},-1)</f>
         <v>#N/A</v>
       </c>
       <c r="AA49" s="6" t="e">
-        <f>MATCH(L49,{"c bau c",4.1,"a",1.1},-1)</f>
+        <f>MATCH(L49,{FALSE,2.1,TRUE,4.1},-1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB49" s="6" t="e">
-        <f>MATCH(M49,{"c bau c",4.1,"a",1.1},-1)</f>
+        <f>MATCH(M49,{FALSE,2.1,TRUE,4.1},-1)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC49" s="6" t="e">
-        <f>MATCH(N49,{"c bau c",4.1,"a",1.1},-1)</f>
+        <f>MATCH(N49,{FALSE,2.1,TRUE,4.1},-1)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD49" s="6" t="e">
-        <f>MATCH(O49,{"c bau c",4.1,"a",1.1},-1)</f>
+        <f>MATCH(O49,{FALSE,2.1,TRUE,4.1},-1)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE49" s="6" t="e">
-        <f>MATCH(P49,{"c bau c",4.1,"a",1.1},-1)</f>
+        <f>MATCH(P49,{FALSE,2.1,TRUE,4.1},-1)</f>
         <v>#REF!</v>
       </c>
       <c r="AF49" s="6"/>
@@ -26192,63 +26334,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q50" s="6">
-        <f>MATCH(B50,{"",4.1,"a",1.1},-1)</f>
+        <f>MATCH(B50,{4.1,3.1,2.1,1.1},-1)</f>
         <v>4</v>
       </c>
       <c r="R50" s="6">
-        <f>MATCH(C50,{"",4.1,"a",1.1},-1)</f>
+        <f>MATCH(C50,{4.1,3.1,2.1,1.1},-1)</f>
         <v>4</v>
       </c>
       <c r="S50" s="6">
-        <f>MATCH(D50,{"",4.1,"a",1.1},-1)</f>
+        <f>MATCH(D50,{4.1,3.1,2.1,1.1},-1)</f>
         <v>2</v>
       </c>
       <c r="T50" s="6">
-        <f>MATCH(E50,{"",4.1,"a",1.1},-1)</f>
-        <v>2</v>
+        <f>MATCH(E50,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>1</v>
       </c>
       <c r="U50" s="6">
-        <f>MATCH(F50,{"",4.1,"a",1.1},-1)</f>
-        <v>2</v>
+        <f>MATCH(F50,{4.1,3.1,2.1,1.1},-1)</f>
+        <v>1</v>
       </c>
       <c r="V50" s="6">
-        <f>MATCH(G50,{"",4.1,"a",1.1},-1)</f>
+        <f>MATCH(G50,{4.1,3.1,2.1,1.1},-1)</f>
         <v>4</v>
       </c>
       <c r="W50" s="6" t="e">
-        <f>MATCH(H50,{"",4.1,"a",1.1},-1)</f>
+        <f>MATCH(H50,{4.1,3.1,2.1,1.1},-1)</f>
         <v>#N/A</v>
       </c>
       <c r="X50" s="6" t="e">
-        <f>MATCH(I50,{"",4.1,"a",1.1},-1)</f>
+        <f>MATCH(I50,{4.1,3.1,2.1,1.1},-1)</f>
         <v>#N/A</v>
       </c>
       <c r="Y50" s="6" t="e">
-        <f>MATCH(J50,{"",4.1,"a",1.1},-1)</f>
+        <f>MATCH(J50,{4.1,3.1,2.1,1.1},-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z50" s="6" t="e">
-        <f>MATCH(K50,{"",4.1,"a",1.1},-1)</f>
+        <f>MATCH(K50,{4.1,3.1,2.1,1.1},-1)</f>
         <v>#N/A</v>
       </c>
       <c r="AA50" s="6" t="e">
-        <f>MATCH(L50,{"",4.1,"a",1.1},-1)</f>
+        <f>MATCH(L50,{4.1,3.1,2.1,1.1},-1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB50" s="6" t="e">
-        <f>MATCH(M50,{"",4.1,"a",1.1},-1)</f>
+        <f>MATCH(M50,{4.1,3.1,2.1,1.1},-1)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC50" s="6" t="e">
-        <f>MATCH(N50,{"",4.1,"a",1.1},-1)</f>
+        <f>MATCH(N50,{4.1,3.1,2.1,1.1},-1)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD50" s="6" t="e">
-        <f>MATCH(O50,{"",4.1,"a",1.1},-1)</f>
+        <f>MATCH(O50,{4.1,3.1,2.1,1.1},-1)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE50" s="6" t="e">
-        <f>MATCH(P50,{"",4.1,"a",1.1},-1)</f>
+        <f>MATCH(P50,{4.1,3.1,2.1,1.1},-1)</f>
         <v>#REF!</v>
       </c>
       <c r="AF50" s="6"/>
@@ -26301,63 +26443,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q51" s="6">
-        <f>MATCH(B51,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <f>MATCH(B51,{"c bau c",4.1,"a",1.1},-1)</f>
         <v>4</v>
       </c>
       <c r="R51" s="6">
-        <f>MATCH(C51,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <f>MATCH(C51,{"c bau c",4.1,"a",1.1},-1)</f>
         <v>4</v>
       </c>
       <c r="S51" s="6">
-        <f>MATCH(D51,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <f>MATCH(D51,{"c bau c",4.1,"a",1.1},-1)</f>
         <v>2</v>
       </c>
       <c r="T51" s="6">
-        <f>MATCH(E51,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <f>MATCH(E51,{"c bau c",4.1,"a",1.1},-1)</f>
         <v>2</v>
       </c>
       <c r="U51" s="6">
-        <f>MATCH(F51,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <f>MATCH(F51,{"c bau c",4.1,"a",1.1},-1)</f>
         <v>2</v>
       </c>
       <c r="V51" s="6">
-        <f>MATCH(G51,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <f>MATCH(G51,{"c bau c",4.1,"a",1.1},-1)</f>
         <v>4</v>
       </c>
-      <c r="W51" s="6" t="e">
-        <f>MATCH(H51,{TRUE,4.1,FALSE,1.1},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X51" s="6">
-        <f>MATCH(I51,{TRUE,4.1,FALSE,1.1},-1)</f>
-        <v>1</v>
+      <c r="W51" s="6">
+        <f>MATCH(H51,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>3</v>
+      </c>
+      <c r="X51" s="6" t="e">
+        <f>MATCH(I51,{"c bau c",4.1,"a",1.1},-1)</f>
+        <v>#N/A</v>
       </c>
       <c r="Y51" s="6" t="e">
-        <f>MATCH(J51,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <f>MATCH(J51,{"c bau c",4.1,"a",1.1},-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z51" s="6" t="e">
-        <f>MATCH(K51,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <f>MATCH(K51,{"c bau c",4.1,"a",1.1},-1)</f>
         <v>#N/A</v>
       </c>
       <c r="AA51" s="6" t="e">
-        <f>MATCH(L51,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <f>MATCH(L51,{"c bau c",4.1,"a",1.1},-1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB51" s="6" t="e">
-        <f>MATCH(M51,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <f>MATCH(M51,{"c bau c",4.1,"a",1.1},-1)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC51" s="6" t="e">
-        <f>MATCH(N51,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <f>MATCH(N51,{"c bau c",4.1,"a",1.1},-1)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD51" s="6" t="e">
-        <f>MATCH(O51,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <f>MATCH(O51,{"c bau c",4.1,"a",1.1},-1)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE51" s="6" t="e">
-        <f>MATCH(P51,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <f>MATCH(P51,{"c bau c",4.1,"a",1.1},-1)</f>
         <v>#REF!</v>
       </c>
       <c r="AF51" s="6"/>
@@ -26410,63 +26552,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q52" s="6">
-        <f>MATCH(B52,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <f>MATCH(B52,{"",4.1,"a",1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="R52" s="6">
+        <f>MATCH(C52,{"",4.1,"a",1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="S52" s="6">
+        <f>MATCH(D52,{"",4.1,"a",1.1},-1)</f>
         <v>2</v>
       </c>
-      <c r="R52" s="6">
-        <f>MATCH(C52,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+      <c r="T52" s="6">
+        <f>MATCH(E52,{"",4.1,"a",1.1},-1)</f>
         <v>2</v>
       </c>
-      <c r="S52" s="6">
-        <f>MATCH(D52,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+      <c r="U52" s="6">
+        <f>MATCH(F52,{"",4.1,"a",1.1},-1)</f>
         <v>2</v>
       </c>
-      <c r="T52" s="6">
-        <f>MATCH(E52,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
-        <v>2</v>
-      </c>
-      <c r="U52" s="6">
-        <f>MATCH(F52,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
-        <v>2</v>
-      </c>
       <c r="V52" s="6">
-        <f>MATCH(G52,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
-        <v>2</v>
-      </c>
-      <c r="W52" s="6">
-        <f>MATCH(H52,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <f>MATCH(G52,{"",4.1,"a",1.1},-1)</f>
         <v>4</v>
       </c>
-      <c r="X52" s="6">
-        <f>MATCH(I52,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
-        <v>1</v>
+      <c r="W52" s="6" t="e">
+        <f>MATCH(H52,{"",4.1,"a",1.1},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X52" s="6" t="e">
+        <f>MATCH(I52,{"",4.1,"a",1.1},-1)</f>
+        <v>#N/A</v>
       </c>
       <c r="Y52" s="6" t="e">
-        <f>MATCH(J52,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <f>MATCH(J52,{"",4.1,"a",1.1},-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z52" s="6" t="e">
-        <f>MATCH(K52,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <f>MATCH(K52,{"",4.1,"a",1.1},-1)</f>
         <v>#N/A</v>
       </c>
       <c r="AA52" s="6" t="e">
-        <f>MATCH(L52,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <f>MATCH(L52,{"",4.1,"a",1.1},-1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB52" s="6" t="e">
-        <f>MATCH(M52,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <f>MATCH(M52,{"",4.1,"a",1.1},-1)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC52" s="6" t="e">
-        <f>MATCH(N52,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <f>MATCH(N52,{"",4.1,"a",1.1},-1)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD52" s="6" t="e">
-        <f>MATCH(O52,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <f>MATCH(O52,{"",4.1,"a",1.1},-1)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE52" s="6" t="e">
-        <f>MATCH(P52,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <f>MATCH(P52,{"",4.1,"a",1.1},-1)</f>
         <v>#REF!</v>
       </c>
       <c r="AF52" s="6"/>
@@ -26518,103 +26660,180 @@
       <c r="P53" s="25" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Q53" s="6" t="e">
-        <f>MATCH(B53,{TRUE,FALSE,"a","c bau c"},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R53" s="6" t="e">
-        <f>MATCH(C53,{TRUE,FALSE,"a","c bau c"},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S53" s="6" t="e">
-        <f>MATCH(D53,{TRUE,FALSE,"a","c bau c"},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T53" s="6" t="e">
-        <f>MATCH(E53,{TRUE,FALSE,"a","c bau c"},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U53" s="6" t="e">
-        <f>MATCH(F53,{TRUE,FALSE,"a","c bau c"},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V53" s="6" t="e">
-        <f>MATCH(G53,{TRUE,FALSE,"a","c bau c"},-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W53" s="6">
-        <f>MATCH(H53,{TRUE,FALSE,"a","c bau c"},-1)</f>
+      <c r="Q53" s="6">
+        <f>MATCH(B53,{TRUE,4.1,FALSE,1.1},-1)</f>
         <v>4</v>
       </c>
+      <c r="R53" s="6">
+        <f>MATCH(C53,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="S53" s="6">
+        <f>MATCH(D53,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="T53" s="6">
+        <f>MATCH(E53,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="U53" s="6">
+        <f>MATCH(F53,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="V53" s="6">
+        <f>MATCH(G53,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="W53" s="6" t="e">
+        <f>MATCH(H53,{TRUE,4.1,FALSE,1.1},-1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="X53" s="6">
-        <f>MATCH(I53,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <f>MATCH(I53,{TRUE,4.1,FALSE,1.1},-1)</f>
         <v>1</v>
       </c>
       <c r="Y53" s="6" t="e">
-        <f>MATCH(J53,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <f>MATCH(J53,{TRUE,4.1,FALSE,1.1},-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z53" s="6" t="e">
-        <f>MATCH(K53,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <f>MATCH(K53,{TRUE,4.1,FALSE,1.1},-1)</f>
         <v>#N/A</v>
       </c>
       <c r="AA53" s="6" t="e">
-        <f>MATCH(L53,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <f>MATCH(L53,{TRUE,4.1,FALSE,1.1},-1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB53" s="6" t="e">
-        <f>MATCH(M53,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <f>MATCH(M53,{TRUE,4.1,FALSE,1.1},-1)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC53" s="6" t="e">
-        <f>MATCH(N53,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <f>MATCH(N53,{TRUE,4.1,FALSE,1.1},-1)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD53" s="6" t="e">
-        <f>MATCH(O53,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <f>MATCH(O53,{TRUE,4.1,FALSE,1.1},-1)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE53" s="6" t="e">
-        <f>MATCH(P53,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <f>MATCH(P53,{TRUE,4.1,FALSE,1.1},-1)</f>
         <v>#REF!</v>
       </c>
       <c r="AF53" s="6"/>
       <c r="AG53" s="6"/>
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A54" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="22">
+        <v>-2</v>
+      </c>
+      <c r="C54" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D54" s="22">
+        <v>3</v>
+      </c>
+      <c r="E54" s="23">
+        <v>4</v>
+      </c>
+      <c r="F54" s="23">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="6"/>
-      <c r="AB54" s="6"/>
-      <c r="AC54" s="6"/>
-      <c r="AD54" s="6"/>
-      <c r="AE54" s="6"/>
+      <c r="H54" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="I54" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="24" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K54" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L54" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M54" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N54" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O54" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P54" s="25" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q54" s="6">
+        <f>MATCH(B54,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="R54" s="6">
+        <f>MATCH(C54,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="S54" s="6">
+        <f>MATCH(D54,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="T54" s="6">
+        <f>MATCH(E54,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="U54" s="6">
+        <f>MATCH(F54,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="V54" s="6">
+        <f>MATCH(G54,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>2</v>
+      </c>
+      <c r="W54" s="6">
+        <f>MATCH(H54,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>4</v>
+      </c>
+      <c r="X54" s="6">
+        <f>MATCH(I54,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y54" s="6" t="e">
+        <f>MATCH(J54,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z54" s="6" t="e">
+        <f>MATCH(K54,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA54" s="6" t="e">
+        <f>MATCH(L54,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB54" s="6" t="e">
+        <f>MATCH(M54,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC54" s="6" t="e">
+        <f>MATCH(N54,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD54" s="6" t="e">
+        <f>MATCH(O54,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE54" s="6" t="e">
+        <f>MATCH(P54,{TRUE,4.1,FALSE,"c bau c"},-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="6"/>
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A55" s="33" t="s">
-        <v>344</v>
-      </c>
+      <c r="A55" s="33"/>
       <c r="B55" s="22">
         <v>-2</v>
       </c>
@@ -26659,126 +26878,73 @@
       <c r="P55" s="25" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Q55" s="6">
-        <f>ROW(B55)</f>
-        <v>55</v>
-      </c>
-      <c r="R55" s="6">
-        <f t="shared" ref="R55:AE55" si="15">ROW(C55)</f>
-        <v>55</v>
-      </c>
-      <c r="S55" s="6">
-        <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="T55" s="6">
-        <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="U55" s="6">
-        <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="V55" s="6">
-        <f>ROW()</f>
-        <v>55</v>
+      <c r="Q55" s="6" t="e">
+        <f>MATCH(B55,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R55" s="6" t="e">
+        <f>MATCH(C55,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S55" s="6" t="e">
+        <f>MATCH(D55,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T55" s="6" t="e">
+        <f>MATCH(E55,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U55" s="6" t="e">
+        <f>MATCH(F55,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V55" s="6" t="e">
+        <f>MATCH(G55,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#N/A</v>
       </c>
       <c r="W55" s="6">
-        <f t="shared" si="15"/>
-        <v>55</v>
+        <f>MATCH(H55,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>4</v>
       </c>
       <c r="X55" s="6">
-        <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="Y55" s="6">
-        <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="Z55" s="6">
-        <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="AA55" s="6">
-        <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="AB55" s="6">
-        <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="AC55" s="6">
-        <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="AD55" s="6">
-        <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="AE55" s="6">
-        <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="AF55" s="4">
-        <f>ROW(B57:D57:F56:H57 D56:E56)</f>
-        <v>56</v>
-      </c>
-      <c r="AG55" s="4">
-        <f t="array" ref="AG55:AI57">ROW(AB55:AC55)</f>
-        <v>55</v>
-      </c>
-      <c r="AH55" s="4">
-        <v>55</v>
-      </c>
-      <c r="AI55" s="4">
-        <v>55</v>
-      </c>
-      <c r="AJ55" s="4">
-        <f t="array" ref="AJ55:AL57">ROW(AB55:AB56)</f>
-        <v>55</v>
-      </c>
-      <c r="AK55" s="4">
-        <v>55</v>
-      </c>
-      <c r="AL55" s="4">
-        <v>55</v>
-      </c>
-      <c r="AM55" s="4">
-        <f t="array" ref="AM55:AO57">ROW(AB55:AC56)</f>
-        <v>55</v>
-      </c>
-      <c r="AN55" s="4">
-        <v>55</v>
-      </c>
-      <c r="AO55" s="4">
-        <v>55</v>
-      </c>
-      <c r="AP55" s="4">
-        <f t="array" ref="AP55:AR57">ROW(AB55:AD57 AC56:AE57)</f>
-        <v>56</v>
-      </c>
-      <c r="AQ55" s="4">
-        <v>56</v>
-      </c>
-      <c r="AR55" s="4">
-        <v>56</v>
-      </c>
-      <c r="AS55" s="4">
-        <f t="array" ref="AS55:AV57">ROW(Y55:Z56:AE55:AE56 AA56:AC57)</f>
-        <v>56</v>
-      </c>
-      <c r="AT55" s="4">
-        <v>56</v>
-      </c>
-      <c r="AU55" s="4">
-        <v>56</v>
-      </c>
-      <c r="AV55" s="4">
-        <v>56</v>
-      </c>
+        <f>MATCH(I55,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y55" s="6" t="e">
+        <f>MATCH(J55,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z55" s="6" t="e">
+        <f>MATCH(K55,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA55" s="6" t="e">
+        <f>MATCH(L55,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB55" s="6" t="e">
+        <f>MATCH(M55,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC55" s="6" t="e">
+        <f>MATCH(N55,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD55" s="6" t="e">
+        <f>MATCH(O55,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE55" s="6" t="e">
+        <f>MATCH(P55,{TRUE,FALSE,"a","c bau c"},-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A56" s="33"/>
+      <c r="A56" s="16" t="s">
+        <v>343</v>
+      </c>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -26794,154 +26960,83 @@
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
       <c r="P56" s="25"/>
-      <c r="Q56" s="6">
-        <f t="shared" ref="Q56:Q57" si="16">ROW(B56)</f>
-        <v>56</v>
-      </c>
-      <c r="R56" s="6">
-        <f t="shared" ref="R56:R57" si="17">ROW(C56)</f>
-        <v>56</v>
-      </c>
-      <c r="S56" s="6">
-        <f t="shared" ref="S56:S57" si="18">ROW(D56)</f>
-        <v>56</v>
-      </c>
-      <c r="T56" s="6">
-        <f t="shared" ref="T56:T57" si="19">ROW(E56)</f>
-        <v>56</v>
-      </c>
-      <c r="U56" s="6">
-        <f t="shared" ref="U56:U57" si="20">ROW(F56)</f>
-        <v>56</v>
-      </c>
-      <c r="V56" s="6">
-        <f>ROW()</f>
-        <v>56</v>
-      </c>
-      <c r="W56" s="6">
-        <f t="shared" ref="W56:W57" si="21">ROW(H56)</f>
-        <v>56</v>
-      </c>
-      <c r="X56" s="6">
-        <f t="shared" ref="X56:X57" si="22">ROW(I56)</f>
-        <v>56</v>
-      </c>
-      <c r="Y56" s="6">
-        <f t="shared" ref="Y56:Y57" si="23">ROW(J56)</f>
-        <v>56</v>
-      </c>
-      <c r="Z56" s="6">
-        <f t="shared" ref="Z56:Z57" si="24">ROW(K56)</f>
-        <v>56</v>
-      </c>
-      <c r="AA56" s="6">
-        <f t="shared" ref="AA56:AA57" si="25">ROW(L56)</f>
-        <v>56</v>
-      </c>
-      <c r="AB56" s="6">
-        <f t="shared" ref="AB56:AB57" si="26">ROW(M56)</f>
-        <v>56</v>
-      </c>
-      <c r="AC56" s="6">
-        <f t="shared" ref="AC56:AC57" si="27">ROW(N56)</f>
-        <v>56</v>
-      </c>
-      <c r="AD56" s="6">
-        <f t="shared" ref="AD56:AD57" si="28">ROW(O56)</f>
-        <v>56</v>
-      </c>
-      <c r="AE56" s="6">
-        <f t="shared" ref="AE56:AE57" si="29">ROW(P56)</f>
-        <v>56</v>
-      </c>
-      <c r="AF56" s="4" t="e">
-        <f>ROW(B55:D56 E55:G56)</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="AG56" s="4">
-        <v>55</v>
-      </c>
-      <c r="AH56" s="4">
-        <v>55</v>
-      </c>
-      <c r="AI56" s="4">
-        <v>55</v>
-      </c>
-      <c r="AJ56" s="4">
-        <v>56</v>
-      </c>
-      <c r="AK56" s="4">
-        <v>56</v>
-      </c>
-      <c r="AL56" s="4">
-        <v>56</v>
-      </c>
-      <c r="AM56" s="4">
-        <v>56</v>
-      </c>
-      <c r="AN56" s="4">
-        <v>56</v>
-      </c>
-      <c r="AO56" s="4">
-        <v>56</v>
-      </c>
-      <c r="AP56" s="4">
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A57" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B57" s="22">
+        <v>-2</v>
+      </c>
+      <c r="C57" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D57" s="22">
+        <v>3</v>
+      </c>
+      <c r="E57" s="23">
+        <v>4</v>
+      </c>
+      <c r="F57" s="23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="I57" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="24" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K57" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L57" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N57" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O57" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P57" s="25" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q57" s="6">
+        <f>ROW(B57)</f>
         <v>57</v>
       </c>
-      <c r="AQ56" s="4">
+      <c r="R57" s="6">
+        <f t="shared" ref="R57:AE57" si="16">ROW(C57)</f>
         <v>57</v>
       </c>
-      <c r="AR56" s="4">
-        <v>57</v>
-      </c>
-      <c r="AS56" s="4">
-        <v>56</v>
-      </c>
-      <c r="AT56" s="4">
-        <v>56</v>
-      </c>
-      <c r="AU56" s="4">
-        <v>56</v>
-      </c>
-      <c r="AV56" s="4">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A57" s="33"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="6">
+      <c r="S57" s="6">
         <f t="shared" si="16"/>
         <v>57</v>
       </c>
-      <c r="R57" s="6">
-        <f t="shared" si="17"/>
+      <c r="T57" s="6">
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
-      <c r="S57" s="6">
-        <f t="shared" si="18"/>
-        <v>57</v>
-      </c>
-      <c r="T57" s="6">
-        <f t="shared" si="19"/>
-        <v>57</v>
-      </c>
       <c r="U57" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="V57" s="6">
@@ -26949,98 +27044,101 @@
         <v>57</v>
       </c>
       <c r="W57" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="X57" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="Y57" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="Z57" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="AA57" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="AB57" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="AC57" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="AD57" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="AE57" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="AF57" s="4">
-        <f>ROW(B6:D7 C7:E7)</f>
-        <v>7</v>
+        <f>ROW(B59:D59:F58:H59 D58:E58)</f>
+        <v>58</v>
       </c>
       <c r="AG57" s="4">
-        <v>55</v>
+        <f t="array" ref="AG57:AI59">ROW(AB57:AC57)</f>
+        <v>57</v>
       </c>
       <c r="AH57" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AI57" s="4">
-        <v>55</v>
-      </c>
-      <c r="AJ57" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK57" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL57" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM57" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AN57" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO57" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AP57" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AQ57" s="4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AR57" s="4" t="e">
-        <v>#N/A</v>
+        <v>57</v>
+      </c>
+      <c r="AJ57" s="4">
+        <f t="array" ref="AJ57:AL59">ROW(AB57:AB58)</f>
+        <v>57</v>
+      </c>
+      <c r="AK57" s="4">
+        <v>57</v>
+      </c>
+      <c r="AL57" s="4">
+        <v>57</v>
+      </c>
+      <c r="AM57" s="4">
+        <f t="array" ref="AM57:AO59">ROW(AB57:AC58)</f>
+        <v>57</v>
+      </c>
+      <c r="AN57" s="4">
+        <v>57</v>
+      </c>
+      <c r="AO57" s="4">
+        <v>57</v>
+      </c>
+      <c r="AP57" s="4">
+        <f t="array" ref="AP57:AR59">ROW(AB57:AD59 AC58:AE59)</f>
+        <v>58</v>
+      </c>
+      <c r="AQ57" s="4">
+        <v>58</v>
+      </c>
+      <c r="AR57" s="4">
+        <v>58</v>
       </c>
       <c r="AS57" s="4">
-        <v>56</v>
+        <f t="array" ref="AS57:AV59">ROW(Y57:Z58:AE57:AE58 AA58:AC59)</f>
+        <v>58</v>
       </c>
       <c r="AT57" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AU57" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AV57" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A58" s="16" t="s">
-        <v>345</v>
-      </c>
+      <c r="A58" s="33"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -27056,26 +27154,121 @@
       <c r="N58" s="25"/>
       <c r="O58" s="25"/>
       <c r="P58" s="25"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="6"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
+      <c r="Q58" s="6">
+        <f t="shared" ref="Q58:Q59" si="17">ROW(B58)</f>
+        <v>58</v>
+      </c>
+      <c r="R58" s="6">
+        <f t="shared" ref="R58:R59" si="18">ROW(C58)</f>
+        <v>58</v>
+      </c>
+      <c r="S58" s="6">
+        <f t="shared" ref="S58:S59" si="19">ROW(D58)</f>
+        <v>58</v>
+      </c>
+      <c r="T58" s="6">
+        <f t="shared" ref="T58:T59" si="20">ROW(E58)</f>
+        <v>58</v>
+      </c>
+      <c r="U58" s="6">
+        <f t="shared" ref="U58:U59" si="21">ROW(F58)</f>
+        <v>58</v>
+      </c>
+      <c r="V58" s="6">
+        <f>ROW()</f>
+        <v>58</v>
+      </c>
+      <c r="W58" s="6">
+        <f t="shared" ref="W58:W59" si="22">ROW(H58)</f>
+        <v>58</v>
+      </c>
+      <c r="X58" s="6">
+        <f t="shared" ref="X58:X59" si="23">ROW(I58)</f>
+        <v>58</v>
+      </c>
+      <c r="Y58" s="6">
+        <f t="shared" ref="Y58:Y59" si="24">ROW(J58)</f>
+        <v>58</v>
+      </c>
+      <c r="Z58" s="6">
+        <f t="shared" ref="Z58:Z59" si="25">ROW(K58)</f>
+        <v>58</v>
+      </c>
+      <c r="AA58" s="6">
+        <f t="shared" ref="AA58:AA59" si="26">ROW(L58)</f>
+        <v>58</v>
+      </c>
+      <c r="AB58" s="6">
+        <f t="shared" ref="AB58:AB59" si="27">ROW(M58)</f>
+        <v>58</v>
+      </c>
+      <c r="AC58" s="6">
+        <f t="shared" ref="AC58:AC59" si="28">ROW(N58)</f>
+        <v>58</v>
+      </c>
+      <c r="AD58" s="6">
+        <f t="shared" ref="AD58:AD59" si="29">ROW(O58)</f>
+        <v>58</v>
+      </c>
+      <c r="AE58" s="6">
+        <f t="shared" ref="AE58:AE59" si="30">ROW(P58)</f>
+        <v>58</v>
+      </c>
+      <c r="AF58" s="4" t="e">
+        <f>ROW(B57:D58 E57:G58)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AG58" s="4">
+        <v>57</v>
+      </c>
+      <c r="AH58" s="4">
+        <v>57</v>
+      </c>
+      <c r="AI58" s="4">
+        <v>57</v>
+      </c>
+      <c r="AJ58" s="4">
+        <v>58</v>
+      </c>
+      <c r="AK58" s="4">
+        <v>58</v>
+      </c>
+      <c r="AL58" s="4">
+        <v>58</v>
+      </c>
+      <c r="AM58" s="4">
+        <v>58</v>
+      </c>
+      <c r="AN58" s="4">
+        <v>58</v>
+      </c>
+      <c r="AO58" s="4">
+        <v>58</v>
+      </c>
+      <c r="AP58" s="4">
+        <v>59</v>
+      </c>
+      <c r="AQ58" s="4">
+        <v>59</v>
+      </c>
+      <c r="AR58" s="4">
+        <v>59</v>
+      </c>
+      <c r="AS58" s="4">
+        <v>58</v>
+      </c>
+      <c r="AT58" s="4">
+        <v>58</v>
+      </c>
+      <c r="AU58" s="4">
+        <v>58</v>
+      </c>
+      <c r="AV58" s="4">
+        <v>58</v>
+      </c>
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A59" s="16" t="s">
-        <v>346</v>
-      </c>
+      <c r="A59" s="33"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -27091,25 +27284,122 @@
       <c r="N59" s="25"/>
       <c r="O59" s="25"/>
       <c r="P59" s="25"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-      <c r="AA59" s="6"/>
-      <c r="AB59" s="6"/>
-      <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="6"/>
+      <c r="Q59" s="6">
+        <f t="shared" si="17"/>
+        <v>59</v>
+      </c>
+      <c r="R59" s="6">
+        <f t="shared" si="18"/>
+        <v>59</v>
+      </c>
+      <c r="S59" s="6">
+        <f t="shared" si="19"/>
+        <v>59</v>
+      </c>
+      <c r="T59" s="6">
+        <f t="shared" si="20"/>
+        <v>59</v>
+      </c>
+      <c r="U59" s="6">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="V59" s="6">
+        <f>ROW()</f>
+        <v>59</v>
+      </c>
+      <c r="W59" s="6">
+        <f t="shared" si="22"/>
+        <v>59</v>
+      </c>
+      <c r="X59" s="6">
+        <f t="shared" si="23"/>
+        <v>59</v>
+      </c>
+      <c r="Y59" s="6">
+        <f t="shared" si="24"/>
+        <v>59</v>
+      </c>
+      <c r="Z59" s="6">
+        <f t="shared" si="25"/>
+        <v>59</v>
+      </c>
+      <c r="AA59" s="6">
+        <f t="shared" si="26"/>
+        <v>59</v>
+      </c>
+      <c r="AB59" s="6">
+        <f t="shared" si="27"/>
+        <v>59</v>
+      </c>
+      <c r="AC59" s="6">
+        <f t="shared" si="28"/>
+        <v>59</v>
+      </c>
+      <c r="AD59" s="6">
+        <f t="shared" si="29"/>
+        <v>59</v>
+      </c>
+      <c r="AE59" s="6">
+        <f t="shared" si="30"/>
+        <v>59</v>
+      </c>
+      <c r="AF59" s="4">
+        <f>ROW(B6:D7 C7:E7)</f>
+        <v>7</v>
+      </c>
+      <c r="AG59" s="4">
+        <v>57</v>
+      </c>
+      <c r="AH59" s="4">
+        <v>57</v>
+      </c>
+      <c r="AI59" s="4">
+        <v>57</v>
+      </c>
+      <c r="AJ59" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK59" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL59" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM59" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AN59" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO59" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP59" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ59" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AR59" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AS59" s="4">
+        <v>58</v>
+      </c>
+      <c r="AT59" s="4">
+        <v>58</v>
+      </c>
+      <c r="AU59" s="4">
+        <v>58</v>
+      </c>
+      <c r="AV59" s="4">
+        <v>58</v>
+      </c>
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -27143,223 +27433,79 @@
       <c r="AE60" s="6"/>
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A62" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A63" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="B61" s="22">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="C61" s="22">
-        <v>2.1</v>
-      </c>
-      <c r="D61" s="22">
-        <v>3</v>
-      </c>
-      <c r="E61" s="23">
-        <v>4</v>
-      </c>
-      <c r="F61" s="23">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="I61" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" s="24" t="e">
-        <f>#VALUE!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K61" s="24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L61" s="25" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M61" s="25" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N61" s="25" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O61" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P61" s="25" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q61" s="4">
-        <f>VLOOKUP(B61,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="R61" s="4">
-        <f>VLOOKUP(C61,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
-        <v>6</v>
-      </c>
-      <c r="S61" s="4" t="e">
-        <f>VLOOKUP(D61,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T61" s="4" t="e">
-        <f>VLOOKUP(E61,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U61" s="4">
-        <f>VLOOKUP(F61,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
-        <v>8</v>
-      </c>
-      <c r="V61" s="4" t="e">
-        <f>VLOOKUP(G61,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W61" s="4" t="e">
-        <f>VLOOKUP(H61,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X61" s="4" t="e">
-        <f>VLOOKUP(I61,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y61" s="4" t="e">
-        <f>VLOOKUP(J61,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z61" s="4" t="e">
-        <f>VLOOKUP(K61,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA61" s="4" t="e">
-        <f>VLOOKUP(L61,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB61" s="4" t="e">
-        <f>VLOOKUP(M61,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC61" s="4" t="e">
-        <f>VLOOKUP(N61,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD61" s="4" t="e">
-        <f>VLOOKUP(O61,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE61" s="4" t="e">
-        <f>VLOOKUP(P61,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A62" s="33"/>
-      <c r="B62" s="22">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="C62" s="22">
-        <v>2.1</v>
-      </c>
-      <c r="D62" s="22">
-        <v>3</v>
-      </c>
-      <c r="E62" s="23">
-        <v>4</v>
-      </c>
-      <c r="F62" s="23">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="I62" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" s="24" t="e">
-        <f>#VALUE!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K62" s="24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L62" s="25" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M62" s="25" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N62" s="25" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O62" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P62" s="25" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q62" s="4">
-        <f>VLOOKUP(B62,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
-        <v>5</v>
-      </c>
-      <c r="R62" s="4">
-        <f>VLOOKUP(C62,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
-        <v>6</v>
-      </c>
-      <c r="S62" s="4">
-        <f>VLOOKUP(D62,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
-        <v>6</v>
-      </c>
-      <c r="T62" s="4">
-        <f>VLOOKUP(E62,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
-        <v>7</v>
-      </c>
-      <c r="U62" s="4">
-        <f>VLOOKUP(F62,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
-        <v>8</v>
-      </c>
-      <c r="V62" s="4">
-        <f>VLOOKUP(G62,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
-        <v>5</v>
-      </c>
-      <c r="W62" s="4" t="e">
-        <f>VLOOKUP(H62,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X62" s="4" t="e">
-        <f>VLOOKUP(I62,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y62" s="4" t="e">
-        <f>VLOOKUP(J62,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z62" s="4" t="e">
-        <f>VLOOKUP(K62,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA62" s="4" t="e">
-        <f>VLOOKUP(L62,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB62" s="4" t="e">
-        <f>VLOOKUP(M62,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC62" s="4" t="e">
-        <f>VLOOKUP(N62,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD62" s="4" t="e">
-        <f>VLOOKUP(O62,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE62" s="4" t="e">
-        <f>VLOOKUP(P62,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A63" s="33"/>
       <c r="B63" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -27405,131 +27551,281 @@
         <v>#REF!</v>
       </c>
       <c r="Q63" s="4">
-        <f>VLOOKUP(B63,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <f>VLOOKUP(B63,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
         <v>5</v>
       </c>
       <c r="R63" s="4">
-        <f>VLOOKUP(C63,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <f>VLOOKUP(C63,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
         <v>6</v>
       </c>
-      <c r="S63" s="4">
-        <f>VLOOKUP(D63,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+      <c r="S63" s="4" t="e">
+        <f>VLOOKUP(D63,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T63" s="4" t="e">
+        <f>VLOOKUP(E63,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U63" s="4">
+        <f>VLOOKUP(F63,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="V63" s="4" t="e">
+        <f>VLOOKUP(G63,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W63" s="4" t="e">
+        <f>VLOOKUP(H63,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X63" s="4" t="e">
+        <f>VLOOKUP(I63,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y63" s="4" t="e">
+        <f>VLOOKUP(J63,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z63" s="4" t="e">
+        <f>VLOOKUP(K63,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA63" s="4" t="e">
+        <f>VLOOKUP(L63,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB63" s="4" t="e">
+        <f>VLOOKUP(M63,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC63" s="4" t="e">
+        <f>VLOOKUP(N63,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD63" s="4" t="e">
+        <f>VLOOKUP(O63,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE63" s="4" t="e">
+        <f>VLOOKUP(P63,{-1.1,5;2.1,6;3.1,7;4.1,8},2,0)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A64" s="33"/>
+      <c r="B64" s="22">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C64" s="22">
+        <v>2.1</v>
+      </c>
+      <c r="D64" s="22">
+        <v>3</v>
+      </c>
+      <c r="E64" s="23">
+        <v>4</v>
+      </c>
+      <c r="F64" s="23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="I64" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="24" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K64" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L64" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M64" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N64" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O64" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P64" s="25" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q64" s="4">
+        <f>VLOOKUP(B64,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>5</v>
+      </c>
+      <c r="R64" s="4">
+        <f>VLOOKUP(C64,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
         <v>6</v>
       </c>
-      <c r="T63" s="4">
-        <f>VLOOKUP(E63,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+      <c r="S64" s="4">
+        <f>VLOOKUP(D64,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>6</v>
+      </c>
+      <c r="T64" s="4">
+        <f>VLOOKUP(E64,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
         <v>7</v>
       </c>
-      <c r="U63" s="4">
-        <f>VLOOKUP(F63,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+      <c r="U64" s="4">
+        <f>VLOOKUP(F64,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
         <v>8</v>
       </c>
-      <c r="V63" s="4">
-        <f>VLOOKUP(G63,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+      <c r="V64" s="4">
+        <f>VLOOKUP(G64,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
         <v>5</v>
       </c>
-      <c r="W63" s="4" t="e">
-        <f>VLOOKUP(H63,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X63" s="4" t="e">
-        <f>VLOOKUP(I63,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y63" s="4" t="e">
-        <f>VLOOKUP(J63,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z63" s="4" t="e">
-        <f>VLOOKUP(K63,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA63" s="4" t="e">
-        <f>VLOOKUP(L63,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB63" s="4" t="e">
-        <f>VLOOKUP(M63,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="AC63" s="4" t="e">
-        <f>VLOOKUP(N63,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="AD63" s="4" t="e">
-        <f>VLOOKUP(O63,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE63" s="4" t="e">
-        <f>VLOOKUP(P63,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="25"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
-      <c r="AA64" s="6"/>
-      <c r="AB64" s="6"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="6"/>
-      <c r="AE64" s="6"/>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
+      <c r="W64" s="4" t="e">
+        <f>VLOOKUP(H64,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X64" s="4" t="e">
+        <f>VLOOKUP(I64,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y64" s="4" t="e">
+        <f>VLOOKUP(J64,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z64" s="4" t="e">
+        <f>VLOOKUP(K64,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA64" s="4" t="e">
+        <f>VLOOKUP(L64,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB64" s="4" t="e">
+        <f>VLOOKUP(M64,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC64" s="4" t="e">
+        <f>VLOOKUP(N64,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD64" s="4" t="e">
+        <f>VLOOKUP(O64,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE64" s="4" t="e">
+        <f>VLOOKUP(P64,{-1.1,5;2.1,6;3.1,7;4.1,8},2,-2)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A65" s="33"/>
+      <c r="B65" s="22">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C65" s="22">
+        <v>2.1</v>
+      </c>
+      <c r="D65" s="22">
+        <v>3</v>
+      </c>
+      <c r="E65" s="23">
+        <v>4</v>
+      </c>
+      <c r="F65" s="23">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
-      <c r="AA65" s="6"/>
-      <c r="AB65" s="6"/>
-      <c r="AC65" s="6"/>
-      <c r="AD65" s="6"/>
-      <c r="AE65" s="6"/>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="H65" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="I65" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" s="24" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K65" s="24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L65" s="25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M65" s="25" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N65" s="25" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O65" s="25" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P65" s="25" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q65" s="4">
+        <f>VLOOKUP(B65,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>5</v>
+      </c>
+      <c r="R65" s="4">
+        <f>VLOOKUP(C65,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>6</v>
+      </c>
+      <c r="S65" s="4">
+        <f>VLOOKUP(D65,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>6</v>
+      </c>
+      <c r="T65" s="4">
+        <f>VLOOKUP(E65,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>7</v>
+      </c>
+      <c r="U65" s="4">
+        <f>VLOOKUP(F65,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>8</v>
+      </c>
+      <c r="V65" s="4">
+        <f>VLOOKUP(G65,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>5</v>
+      </c>
+      <c r="W65" s="4" t="e">
+        <f>VLOOKUP(H65,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X65" s="4" t="e">
+        <f>VLOOKUP(I65,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y65" s="4" t="e">
+        <f>VLOOKUP(J65,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z65" s="4" t="e">
+        <f>VLOOKUP(K65,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA65" s="4" t="e">
+        <f>VLOOKUP(L65,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB65" s="4" t="e">
+        <f>VLOOKUP(M65,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC65" s="4" t="e">
+        <f>VLOOKUP(N65,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD65" s="4" t="e">
+        <f>VLOOKUP(O65,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE65" s="4" t="e">
+        <f>VLOOKUP(P65,{-1.1,5;2.1,6;3.1,7;4.1,8},{2,3},-2)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
@@ -27561,7 +27857,7 @@
       <c r="AD66" s="6"/>
       <c r="AE66" s="6"/>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
@@ -27593,7 +27889,7 @@
       <c r="AD67" s="6"/>
       <c r="AE67" s="6"/>
     </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
@@ -27625,7 +27921,7 @@
       <c r="AD68" s="6"/>
       <c r="AE68" s="6"/>
     </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
@@ -27657,7 +27953,7 @@
       <c r="AD69" s="6"/>
       <c r="AE69" s="6"/>
     </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
@@ -27689,7 +27985,7 @@
       <c r="AD70" s="6"/>
       <c r="AE70" s="6"/>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
@@ -27721,7 +28017,7 @@
       <c r="AD71" s="6"/>
       <c r="AE71" s="6"/>
     </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
@@ -27753,24 +28049,89 @@
       <c r="AD72" s="6"/>
       <c r="AE72" s="6"/>
     </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="6"/>
+      <c r="AB73" s="6"/>
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="6"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="6"/>
+      <c r="AB74" s="6"/>
+      <c r="AC74" s="6"/>
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="Q1:AV1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AG2:AV2"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A57:A59"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="A36:A44"/>
-    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A55"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -27781,7 +28142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -28482,7 +28843,7 @@
         <v>#REF!</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" ref="Q11:S11" si="9">_xlfn.SWITCH(B11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="Q11" si="9">_xlfn.SWITCH(B11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>3</v>
       </c>
       <c r="R11" s="4">
@@ -28538,7 +28899,7 @@
         <v>#NUM!</v>
       </c>
       <c r="AE11" s="4" t="e">
-        <f t="shared" ref="AE11:AF11" si="23">_xlfn.SWITCH(P11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="AE11" si="23">_xlfn.SWITCH(P11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>#REF!</v>
       </c>
       <c r="AF11" s="4" t="e">

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenzoarcidiacono/PycharmProjects/formulas/test/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B57584-BE92-FA43-B867-12CB1B7C475B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90890B43-7A9E-F747-9153-2880E8D2AD60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="770" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATH &amp; TRIG" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="429">
   <si>
     <t>ca</t>
   </si>
@@ -1336,6 +1336,9 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1499,6 +1502,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1805,7 +1809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -21254,8 +21258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BJ74"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AA2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -22523,6 +22527,13 @@
         <f t="array" ref="AR16:AR18">INDEX((B16:B18,C16:C18),D16:D18,1,D16:D18)</f>
         <v>#REF!</v>
       </c>
+      <c r="AS16" s="4" t="e">
+        <f t="array" ref="AS16:AT18">INDEX((B16:B17,C16:C17),1,1,D16:D17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AT16" s="4" t="e">
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A17" s="33"/>
@@ -22633,6 +22644,12 @@
       <c r="AR17" s="4">
         <v>1.1000000000000001</v>
       </c>
+      <c r="AS17" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="AT17" s="4">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A18" s="33"/>
@@ -22733,6 +22750,12 @@
       </c>
       <c r="AR18" s="4">
         <v>-1.1000000000000001</v>
+      </c>
+      <c r="AS18" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AT18" s="4" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.15">
@@ -28155,7 +28178,7 @@
     <col min="6" max="6" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -28163,32 +28186,25 @@
     <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="4" style="4" bestFit="1" customWidth="1"/>
@@ -28327,13 +28343,166 @@
       <c r="AV2" s="32"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>226</v>
       </c>
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="I3" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N3" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O3" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P3" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q3" s="4" t="b">
+        <f>AND(B3,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4" t="b">
+        <f t="shared" ref="R3:AE3" si="0">AND(C3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T3" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V3" s="4" t="b">
+        <f>AND(G3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="W3" s="4" t="b">
+        <f>AND(H3,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="X3" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z3" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA3" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB3" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC3" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD3" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE3" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF3" s="4" t="b">
+        <f>AND(B3:C3,B3)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4" t="e">
+        <f t="array" ref="AG3:AH3">AND(FALSE,B3:P3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH3" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI3" s="4" t="e">
+        <f t="array" ref="AI3:AJ3">AND(B3:O3,C3:P3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ3" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK3" s="4" t="b">
+        <f t="array" ref="AK3:AM3">AND(B3:C3,B3)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="4" t="b">
+        <f>AND(E3,B3)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="4" t="e">
+        <f>AND(TRUE,"0",#REF!)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP3" s="4" t="e">
+        <f>AND(TRUE,#REF!,"0")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AQ3" s="4" t="e">
+        <f>AND(G3:H3)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>227</v>
+      </c>
+      <c r="I4" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.15">
@@ -28389,7 +28558,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="6">
-        <f t="shared" ref="R5:AE5" si="0">IF(C5,1)</f>
+        <f t="shared" ref="R5:AE5" si="1">IF(C5,1)</f>
         <v>1</v>
       </c>
       <c r="S5" s="6" t="b">
@@ -28397,11 +28566,11 @@
         <v>0</v>
       </c>
       <c r="T5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V5" s="6">
@@ -28413,15 +28582,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="X5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Y5" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z5" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="AA5" s="6" t="e">
@@ -28429,19 +28598,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB5" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#NAME?</v>
       </c>
       <c r="AC5" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#NULL!</v>
       </c>
       <c r="AD5" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
       <c r="AE5" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="AF5" s="11" t="e">
@@ -28556,19 +28725,19 @@
         <v>0</v>
       </c>
       <c r="R6" s="4">
-        <f t="shared" ref="R6:U6" si="1">IFERROR(C6,D6)</f>
+        <f t="shared" ref="R6:U6" si="2">IFERROR(C6,D6)</f>
         <v>1</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="U6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="V6" s="4">
@@ -28576,11 +28745,11 @@
         <v>0</v>
       </c>
       <c r="W6" s="4" t="str">
-        <f t="shared" ref="W6" si="2">IFERROR(H6,I6)</f>
+        <f t="shared" ref="W6" si="3">IFERROR(H6,I6)</f>
         <v>ciao</v>
       </c>
       <c r="X6" s="4" t="b">
-        <f t="shared" ref="X6" si="3">IFERROR(I6,J6)</f>
+        <f t="shared" ref="X6" si="4">IFERROR(I6,J6)</f>
         <v>1</v>
       </c>
       <c r="Y6" s="4" t="e">
@@ -28588,27 +28757,27 @@
         <v>#N/A</v>
       </c>
       <c r="Z6" s="4" t="e">
-        <f t="shared" ref="Z6:AA6" si="4">IFERROR(K6,L6)</f>
+        <f t="shared" ref="Z6:AA6" si="5">IFERROR(K6,L6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA6" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#NAME?</v>
       </c>
       <c r="AB6" s="4" t="e">
-        <f t="shared" ref="AB6" si="5">IFERROR(M6,N6)</f>
+        <f t="shared" ref="AB6" si="6">IFERROR(M6,N6)</f>
         <v>#NULL!</v>
       </c>
       <c r="AC6" s="4" t="e">
-        <f t="shared" ref="AC6" si="6">IFERROR(N6,O6)</f>
+        <f t="shared" ref="AC6" si="7">IFERROR(N6,O6)</f>
         <v>#NUM!</v>
       </c>
       <c r="AD6" s="4" t="e">
-        <f t="shared" ref="AD6" si="7">IFERROR(O6,P6)</f>
+        <f t="shared" ref="AD6" si="8">IFERROR(O6,P6)</f>
         <v>#REF!</v>
       </c>
       <c r="AE6" s="4">
-        <f t="shared" ref="AE6" si="8">IFERROR(P6,Q6)</f>
+        <f t="shared" ref="AE6" si="9">IFERROR(P6,Q6)</f>
         <v>0</v>
       </c>
       <c r="AF6" s="4">
@@ -28785,13 +28954,318 @@
       <c r="AU8" s="6"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>232</v>
       </c>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="I9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L9" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N9" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O9" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P9" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q9" s="4" t="b">
+        <f>NOT(B9)</f>
+        <v>1</v>
+      </c>
+      <c r="R9" s="4" t="b">
+        <f t="shared" ref="R9:AE9" si="10">NOT(C9)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="4" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="4" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="4" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="4" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="W9" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X9" s="4" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z9" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA9" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB9" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC9" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD9" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE9" s="4" t="e">
+        <f t="shared" si="10"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF9" s="4" t="e">
+        <f>NOT(B9:F9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG9" s="4" t="b">
+        <f t="array" ref="AG9:AV9">NOT(B9:P9)</f>
+        <v>1</v>
+      </c>
+      <c r="AH9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP9" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ9" s="4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR9" s="4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS9" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT9" s="4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU9" s="4" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV9" s="4" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>233</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N10" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O10" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P10" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q10" s="4" t="b">
+        <f>OR(B10,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="b">
+        <f t="shared" ref="R10:AE10" si="11">OR(C10,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="4" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="T10" s="4" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="4" t="b">
+        <f>OR(G10,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="4" t="b">
+        <f>OR(H10,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="4" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y10" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z10" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA10" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB10" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC10" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD10" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE10" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF10" s="4" t="b">
+        <f>OR(B10:C10,B10)</f>
+        <v>1</v>
+      </c>
+      <c r="AG10" s="4" t="e">
+        <f t="array" ref="AG10:AH10">OR(FALSE,B10:P10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH10" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI10" s="4" t="e">
+        <f t="array" ref="AI10:AJ10">OR(B10:O10,C10:P10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ10" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK10" s="4" t="b">
+        <f t="array" ref="AK10:AM10">OR(B10:C10,B10)</f>
+        <v>1</v>
+      </c>
+      <c r="AL10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="4" t="b">
+        <f>OR(E10,B10)</f>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="4" t="e">
+        <f>OR(TRUE,"0",#REF!)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP10" s="4" t="e">
+        <f>OR(TRUE,#REF!,"0")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AQ10" s="4" t="e">
+        <f>OR(G10:H10)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.15">
@@ -28843,63 +29317,63 @@
         <v>#REF!</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" ref="Q11" si="9">_xlfn.SWITCH(B11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="Q11" si="12">_xlfn.SWITCH(B11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>3</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" ref="R11" si="10">_xlfn.SWITCH(C11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="R11" si="13">_xlfn.SWITCH(C11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>0</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" ref="S11" si="11">_xlfn.SWITCH(D11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="S11" si="14">_xlfn.SWITCH(D11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>5</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" ref="T11" si="12">_xlfn.SWITCH(E11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="T11" si="15">_xlfn.SWITCH(E11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>7</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" ref="U11" si="13">_xlfn.SWITCH(F11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="U11" si="16">_xlfn.SWITCH(F11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>6</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" ref="V11" si="14">_xlfn.SWITCH(G11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="V11" si="17">_xlfn.SWITCH(G11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>3</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" ref="W11" si="15">_xlfn.SWITCH(H11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="W11" si="18">_xlfn.SWITCH(H11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>99</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" ref="X11" si="16">_xlfn.SWITCH(I11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="X11" si="19">_xlfn.SWITCH(I11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>2</v>
       </c>
       <c r="Y11" s="4" t="e">
-        <f t="shared" ref="Y11" si="17">_xlfn.SWITCH(J11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="Y11" si="20">_xlfn.SWITCH(J11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z11" s="4" t="e">
-        <f t="shared" ref="Z11" si="18">_xlfn.SWITCH(K11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="Z11" si="21">_xlfn.SWITCH(K11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>#N/A</v>
       </c>
       <c r="AA11" s="4" t="e">
-        <f t="shared" ref="AA11" si="19">_xlfn.SWITCH(L11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="AA11" si="22">_xlfn.SWITCH(L11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB11" s="4" t="e">
-        <f t="shared" ref="AB11" si="20">_xlfn.SWITCH(M11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="AB11" si="23">_xlfn.SWITCH(M11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>#NAME?</v>
       </c>
       <c r="AC11" s="4" t="e">
-        <f t="shared" ref="AC11" si="21">_xlfn.SWITCH(N11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="AC11" si="24">_xlfn.SWITCH(N11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>#NULL!</v>
       </c>
       <c r="AD11" s="4" t="e">
-        <f t="shared" ref="AD11" si="22">_xlfn.SWITCH(O11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="AD11" si="25">_xlfn.SWITCH(O11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>#NUM!</v>
       </c>
       <c r="AE11" s="4" t="e">
-        <f t="shared" ref="AE11" si="23">_xlfn.SWITCH(P11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
+        <f t="shared" ref="AE11" si="26">_xlfn.SWITCH(P11,2,0,1,3,TRUE,2,1,1,-1,6,2.3,5,,3,"ciao",99,7)</f>
         <v>#REF!</v>
       </c>
       <c r="AF11" s="4" t="e">
@@ -28957,13 +29431,172 @@
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>235</v>
       </c>
+      <c r="I12" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>236</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N13" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O13" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P13" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q13" s="4" t="b">
+        <f>_xlfn.XOR(B13,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4" t="b">
+        <f t="shared" ref="R13:AE13" si="27">_xlfn.XOR(C13,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="4" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="4" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="4" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="4" t="b">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="4" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z13" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA13" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB13" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC13" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD13" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE13" s="4" t="e">
+        <f t="shared" si="27"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF13" s="4" t="b">
+        <f>_xlfn.XOR(B13:D13,B13)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4" t="e">
+        <f t="array" ref="AG13:AH13">_xlfn.XOR(FALSE,B13:P13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH13" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI13" s="4" t="e">
+        <f t="array" ref="AI13:AJ13">_xlfn.XOR(B13:O13,C13:P13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ13" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK13" s="4" t="b">
+        <f t="array" ref="AK13:AM13">_xlfn.XOR(B13:C13,B13)</f>
+        <v>1</v>
+      </c>
+      <c r="AL13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="4" t="b">
+        <f>_xlfn.XOR(E13,B13)</f>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="4" t="e">
+        <f>_xlfn.XOR(TRUE,"0",#REF!)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP13" s="4" t="e">
+        <f>_xlfn.XOR(TRUE,#REF!,"0")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AQ13" s="4" t="e">
+        <f>_xlfn.XOR(G13:H13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR13" s="4" t="b">
+        <f>_xlfn.XOR(B13:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="4" t="b">
+        <f>_xlfn.XOR(B13:C13,E13)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.15">

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenzoarcidiacono/PycharmProjects/formulas/test/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90890B43-7A9E-F747-9153-2880E8D2AD60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0630FE57-8A62-2740-B24F-AA257D4AE981}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="770" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATH &amp; TRIG" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="429">
   <si>
     <t>ca</t>
   </si>
@@ -1496,13 +1495,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1844,70 +1843,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -1917,22 +1916,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -1942,36 +1941,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -12206,7 +12205,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AT81">
+  <sortState ref="A3:AT81">
     <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="8">
@@ -12265,70 +12264,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
     </row>
     <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="26" t="s">
         <v>38</v>
       </c>
@@ -12338,22 +12337,22 @@
       <c r="I2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="26" t="s">
         <v>38</v>
       </c>
@@ -12363,36 +12362,36 @@
       <c r="X2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
       <c r="AF2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
     </row>
     <row r="3" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
@@ -14875,70 +14874,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="27" t="s">
         <v>38</v>
       </c>
@@ -14948,22 +14947,22 @@
       <c r="I2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="27" t="s">
         <v>38</v>
       </c>
@@ -14973,36 +14972,36 @@
       <c r="X2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
       <c r="AF2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -16749,70 +16748,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -16822,22 +16821,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -16847,36 +16846,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -17505,70 +17504,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -17578,22 +17577,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -17603,36 +17602,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -19448,7 +19447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AV113"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19459,7 +19458,7 @@
     <col min="3" max="6" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -19468,7 +19467,7 @@
     <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -19479,76 +19478,77 @@
     <col min="30" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="38" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="38" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="39" max="48" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="49" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -19558,22 +19558,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -19583,36 +19583,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -19782,8 +19782,165 @@
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>101</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N5" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O5" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P5" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>AVERAGEA(B5:C5,C5:D5,D5:E5)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" ref="R5:T5" si="1">AVERAGEA(C5:D5,D5:E5,E5:F5)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000002</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="U5" s="6">
+        <f>AVERAGEA(F5:G5,G5:H5,H5:I5)</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="V5" s="6" t="e">
+        <f>AVERAGEA(G4:G5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" s="6">
+        <f>AVERAGEA(H5,F5:G5)</f>
+        <v>-0.05</v>
+      </c>
+      <c r="X5" s="6">
+        <f>AVERAGEA(I5,G5:H5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y5" s="6" t="e">
+        <f>AVERAGEA(J5:K5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z5" s="6" t="e">
+        <f t="shared" ref="Z5:AE5" si="2">AVERAGEA(K5:L5)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF5" s="6">
+        <f>AVERAGEA(G5:I5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AG5" s="6">
+        <f t="array" ref="AG5:AL5">AVERAGEA(B5:I5)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AM5" s="6" t="e">
+        <f t="array" ref="AM5:AV5">AVERAGEA(I5:P5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU5" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV5" s="4" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.15">
@@ -20113,19 +20270,19 @@
         <v>0.3</v>
       </c>
       <c r="R61" s="6">
-        <f t="shared" ref="R61:U61" si="1">MAX(C61:D61,D61:E61,E61:F61)</f>
+        <f t="shared" ref="R61:U61" si="3">MAX(C61:D61,D61:E61,E61:F61)</f>
         <v>0.3</v>
       </c>
       <c r="S61" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="T61" s="6">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <f>MAX(G61)</f>
+        <v>0</v>
       </c>
       <c r="U61" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.1</v>
       </c>
       <c r="V61" s="6">
@@ -20145,27 +20302,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z61" s="6" t="e">
-        <f t="shared" ref="Z61:AE61" si="2">MAX(K61:L61)</f>
+        <f t="shared" ref="Z61:AE61" si="4">MAX(K61:L61)</f>
         <v>#N/A</v>
       </c>
       <c r="AA61" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB61" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#NAME?</v>
       </c>
       <c r="AC61" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#NULL!</v>
       </c>
       <c r="AD61" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AE61" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="AF61" s="6">
@@ -20224,8 +20381,165 @@
       </c>
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="17" t="s">
         <v>157</v>
+      </c>
+      <c r="B62" s="14">
+        <v>0</v>
+      </c>
+      <c r="C62" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D62" s="14">
+        <v>-2</v>
+      </c>
+      <c r="E62" s="14">
+        <v>-3</v>
+      </c>
+      <c r="F62" s="14">
+        <v>4</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K62" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L62" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M62" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N62" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O62" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P62" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q62" s="6">
+        <f>MAXA(B62:C62,C62:D62,D62:E62)</f>
+        <v>0.1</v>
+      </c>
+      <c r="R62" s="6">
+        <f>MAXA(C62:D62,D62:E62,E62:F62)</f>
+        <v>4</v>
+      </c>
+      <c r="S62" s="6">
+        <f>MAXA(D62,E62,I62)</f>
+        <v>1</v>
+      </c>
+      <c r="T62" s="6">
+        <f>MAXA(G62)</f>
+        <v>0</v>
+      </c>
+      <c r="U62" s="6">
+        <f>MAXA(F62,G62,H62)</f>
+        <v>4</v>
+      </c>
+      <c r="V62" s="6">
+        <f>MAXA(G62,H62,I62)</f>
+        <v>1</v>
+      </c>
+      <c r="W62" s="6">
+        <f>MAXA(H62,E62)</f>
+        <v>0</v>
+      </c>
+      <c r="X62" s="6">
+        <f>MAXA(G62,E62)</f>
+        <v>-3</v>
+      </c>
+      <c r="Y62" s="6" t="e">
+        <f>MAXA(J62:K62)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z62" s="6" t="e">
+        <f>MAXA(K62:L62)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA62" s="6" t="e">
+        <f>MAXA(L62:M62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB62" s="6" t="e">
+        <f t="shared" ref="AB62:AE62" si="5">MAXA(M62:N62)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC62" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD62" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE62" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF62" s="6">
+        <f>MAXA(G62:I62)</f>
+        <v>1</v>
+      </c>
+      <c r="AG62" s="6">
+        <f t="array" ref="AG62:AL62">MAXA(B62:I62)</f>
+        <v>4</v>
+      </c>
+      <c r="AH62" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI62" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ62" s="6">
+        <v>4</v>
+      </c>
+      <c r="AK62" s="6">
+        <v>4</v>
+      </c>
+      <c r="AL62" s="6">
+        <v>4</v>
+      </c>
+      <c r="AM62" s="6" t="e">
+        <f t="array" ref="AM62:AV62">MAXA(I62:P62)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN62" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO62" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP62" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ62" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR62" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS62" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT62" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU62" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV62" s="4" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.15">
@@ -20298,8 +20612,8 @@
         <v>-0.3</v>
       </c>
       <c r="T65" s="6">
-        <f>MIN(E65:F65,F65:G65,G65:H65)</f>
-        <v>-0.3</v>
+        <f>MIN(G65)</f>
+        <v>0</v>
       </c>
       <c r="U65" s="6">
         <f>MIN(F65:G65,G65:H65,H65:I65)</f>
@@ -20318,31 +20632,31 @@
         <v>0.1</v>
       </c>
       <c r="Y65" s="6" t="e">
-        <f t="shared" ref="Y65:AE65" si="3">MIN(J65:K65)</f>
+        <f t="shared" ref="Y65:AE65" si="6">MIN(J65:K65)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z65" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="AA65" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB65" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#NAME?</v>
       </c>
       <c r="AC65" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#NULL!</v>
       </c>
       <c r="AD65" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="AE65" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="AF65" s="6">
@@ -20406,8 +20720,165 @@
       </c>
     </row>
     <row r="67" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="17" t="s">
         <v>161</v>
+      </c>
+      <c r="B67" s="14">
+        <v>0</v>
+      </c>
+      <c r="C67" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="D67" s="14">
+        <v>2</v>
+      </c>
+      <c r="E67" s="14">
+        <v>3</v>
+      </c>
+      <c r="F67" s="14">
+        <v>4</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K67" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L67" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M67" s="9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N67" s="9" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O67" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P67" s="9" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q67" s="6">
+        <f>MINA(B67:C67,C67:D67,D67:E67)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="R67" s="6">
+        <f>MINA(C67:D67,D67:E67,E67:F67)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="S67" s="6">
+        <f>MINA(D67,E67,I67)</f>
+        <v>1</v>
+      </c>
+      <c r="T67" s="6">
+        <f>MINA(G67)</f>
+        <v>0</v>
+      </c>
+      <c r="U67" s="6">
+        <f>MINA(F67,G67,H67)</f>
+        <v>0</v>
+      </c>
+      <c r="V67" s="6">
+        <f>MINA(G67,H67,I67)</f>
+        <v>0</v>
+      </c>
+      <c r="W67" s="6">
+        <f>MINA(H67,F67)</f>
+        <v>0</v>
+      </c>
+      <c r="X67" s="6">
+        <f>MINA(I67,F67)</f>
+        <v>1</v>
+      </c>
+      <c r="Y67" s="6" t="e">
+        <f t="shared" ref="Y67:AE67" si="7">MINA(J67:K67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z67" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA67" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB67" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC67" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD67" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE67" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF67" s="6">
+        <f>MINA(G67:I67)</f>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="6">
+        <f t="array" ref="AG67:AL67">MINA(B67:I67)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="AH67" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="AI67" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="AJ67" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="AK67" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="AL67" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="AM67" s="6" t="e">
+        <f t="array" ref="AM67:AV67">MINA(I67:P67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN67" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO67" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP67" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ67" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR67" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS67" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT67" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU67" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV67" s="4" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="1:48" x14ac:dyDescent="0.15">
@@ -20698,70 +21169,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -20771,22 +21242,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -20796,36 +21267,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -21258,7 +21729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BJ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="AA2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
@@ -21307,70 +21778,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="19" t="s">
         <v>38</v>
       </c>
@@ -21380,22 +21851,22 @@
       <c r="I2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="19" t="s">
         <v>38</v>
       </c>
@@ -21405,36 +21876,36 @@
       <c r="X2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
       <c r="AF2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -21452,7 +21923,7 @@
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>334</v>
       </c>
       <c r="B6" s="22">
@@ -21618,7 +22089,7 @@
       </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -21748,7 +22219,7 @@
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -22000,7 +22471,7 @@
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>338</v>
       </c>
       <c r="B12" s="22">
@@ -22158,7 +22629,7 @@
       </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -22265,7 +22736,7 @@
       </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -22377,7 +22848,7 @@
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>340</v>
       </c>
       <c r="B16" s="22">
@@ -22445,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="4" t="str">
-        <f t="shared" ref="U16:AE16" si="15">INDEX(G16:I17,1,2)</f>
+        <f t="shared" ref="V16:AE16" si="15">INDEX(G16:I17,1,2)</f>
         <v>b</v>
       </c>
       <c r="W16" s="4" t="b">
@@ -22536,7 +23007,7 @@
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="22">
         <v>-2</v>
       </c>
@@ -22652,7 +23123,7 @@
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="22">
         <v>-2.9</v>
       </c>
@@ -22765,7 +23236,7 @@
       <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>342</v>
       </c>
       <c r="B20" s="22">
@@ -22927,7 +23398,7 @@
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -23058,7 +23529,7 @@
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A22" s="33"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -23189,7 +23660,7 @@
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -23320,7 +23791,7 @@
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -23451,7 +23922,7 @@
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -23582,7 +24053,7 @@
       </c>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -23713,7 +24184,7 @@
       </c>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -23844,7 +24315,7 @@
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -23974,7 +24445,7 @@
       </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="34" t="s">
         <v>352</v>
       </c>
       <c r="B29" s="22">
@@ -24099,7 +24570,7 @@
       <c r="AU29" s="6"/>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="22">
         <v>-2</v>
       </c>
@@ -24208,7 +24679,7 @@
       <c r="AG30" s="6"/>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="22">
         <v>-2</v>
       </c>
@@ -24317,7 +24788,7 @@
       <c r="AG31" s="6"/>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A32" s="33"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="22">
         <v>-2</v>
       </c>
@@ -24426,7 +24897,7 @@
       <c r="AG32" s="6"/>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="22">
         <v>-2</v>
       </c>
@@ -24535,7 +25006,7 @@
       <c r="AG33" s="6"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="22">
         <v>-2</v>
       </c>
@@ -24644,7 +25115,7 @@
       <c r="AG34" s="6"/>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="22">
         <v>-2</v>
       </c>
@@ -24753,7 +25224,7 @@
       <c r="AG35" s="6"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="22">
         <v>-2</v>
       </c>
@@ -24862,7 +25333,7 @@
       <c r="AG36" s="6"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="22">
         <v>-2</v>
       </c>
@@ -24971,7 +25442,7 @@
       <c r="AG37" s="6"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>351</v>
       </c>
       <c r="B38" s="22">
@@ -25096,7 +25567,7 @@
       <c r="AU38" s="6"/>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="22">
         <v>-2</v>
       </c>
@@ -25205,7 +25676,7 @@
       <c r="AG39" s="6"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A40" s="33"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="22">
         <v>-2</v>
       </c>
@@ -25314,7 +25785,7 @@
       <c r="AG40" s="6"/>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A41" s="33"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="22">
         <v>-2</v>
       </c>
@@ -25423,7 +25894,7 @@
       <c r="AG41" s="6"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A42" s="33"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="22">
         <v>-2</v>
       </c>
@@ -25532,7 +26003,7 @@
       <c r="AG42" s="6"/>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A43" s="33"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="22">
         <v>-2</v>
       </c>
@@ -25641,7 +26112,7 @@
       <c r="AG43" s="6"/>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A44" s="33"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="22">
         <v>-2</v>
       </c>
@@ -25750,7 +26221,7 @@
       <c r="AG44" s="6"/>
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A45" s="33"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="22">
         <v>-2</v>
       </c>
@@ -25859,7 +26330,7 @@
       <c r="AG45" s="6"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A46" s="33"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="22">
         <v>-2</v>
       </c>
@@ -25968,7 +26439,7 @@
       <c r="AG46" s="6"/>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="34" t="s">
         <v>353</v>
       </c>
       <c r="B47" s="22">
@@ -26093,7 +26564,7 @@
       <c r="AU47" s="6"/>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A48" s="33"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="22">
         <v>-2</v>
       </c>
@@ -26202,7 +26673,7 @@
       <c r="AG48" s="6"/>
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A49" s="33"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="22">
         <v>-2</v>
       </c>
@@ -26311,7 +26782,7 @@
       <c r="AG49" s="6"/>
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A50" s="33"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="22">
         <v>-2</v>
       </c>
@@ -26420,7 +26891,7 @@
       <c r="AG50" s="6"/>
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A51" s="33"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="22">
         <v>-2</v>
       </c>
@@ -26529,7 +27000,7 @@
       <c r="AG51" s="6"/>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A52" s="33"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="22">
         <v>-2</v>
       </c>
@@ -26638,7 +27109,7 @@
       <c r="AG52" s="6"/>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A53" s="33"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="22">
         <v>-2</v>
       </c>
@@ -26747,7 +27218,7 @@
       <c r="AG53" s="6"/>
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A54" s="33"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="22">
         <v>-2</v>
       </c>
@@ -26856,7 +27327,7 @@
       <c r="AG54" s="6"/>
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A55" s="33"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="22">
         <v>-2</v>
       </c>
@@ -26995,7 +27466,7 @@
       <c r="AE56" s="6"/>
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="34" t="s">
         <v>344</v>
       </c>
       <c r="B57" s="22">
@@ -27161,7 +27632,7 @@
       </c>
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A58" s="33"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -27291,7 +27762,7 @@
       </c>
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A59" s="33"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -27526,7 +27997,7 @@
       <c r="AE62" s="6"/>
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="34" t="s">
         <v>348</v>
       </c>
       <c r="B63" s="22">
@@ -27635,7 +28106,7 @@
       </c>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A64" s="33"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -27742,7 +28213,7 @@
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A65" s="33"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -28213,70 +28684,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -28286,22 +28757,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -28311,36 +28782,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
@@ -28362,7 +28833,7 @@
         <v>-1</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="32" t="s">
         <v>428</v>
       </c>
       <c r="I3" s="6" t="b">
@@ -28973,7 +29444,7 @@
         <v>-1</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="32" t="s">
         <v>428</v>
       </c>
       <c r="I9" s="6" t="b">

--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenzoarcidiacono/PycharmProjects/formulas/test/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0630FE57-8A62-2740-B24F-AA257D4AE981}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E26513-B695-1E42-B2A7-134ACFAF4A17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="770" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" tabRatio="770" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATH &amp; TRIG" sheetId="3" r:id="rId1"/>
     <sheet name="FINANCIAL" sheetId="9" r:id="rId2"/>
     <sheet name="TEXT" sheetId="11" r:id="rId3"/>
     <sheet name="STATISTICAL" sheetId="5" r:id="rId4"/>
-    <sheet name="INFORMATION" sheetId="6" r:id="rId5"/>
-    <sheet name="LOOKUP" sheetId="12" r:id="rId6"/>
-    <sheet name="LOGICAL" sheetId="8" r:id="rId7"/>
-    <sheet name="CORE" sheetId="1" r:id="rId8"/>
-    <sheet name="REF" sheetId="2" r:id="rId9"/>
-    <sheet name="OPERATORS" sheetId="13" r:id="rId10"/>
-    <sheet name="ENGINEERING" sheetId="15" r:id="rId11"/>
+    <sheet name="DATE &amp; TIME" sheetId="17" r:id="rId5"/>
+    <sheet name="INFORMATION" sheetId="6" r:id="rId6"/>
+    <sheet name="LOOKUP" sheetId="12" r:id="rId7"/>
+    <sheet name="LOGICAL" sheetId="8" r:id="rId8"/>
+    <sheet name="CORE" sheetId="1" r:id="rId9"/>
+    <sheet name="REF" sheetId="2" r:id="rId10"/>
+    <sheet name="OPERATORS" sheetId="13" r:id="rId11"/>
+    <sheet name="ENGINEERING" sheetId="15" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="a">CORE!$B$2:$C$3</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="460">
   <si>
     <t>ca</t>
   </si>
@@ -1338,14 +1339,109 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DATEDIF</t>
+  </si>
+  <si>
+    <t>DATEVALUE</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>DAYS</t>
+  </si>
+  <si>
+    <t>DAYS360</t>
+  </si>
+  <si>
+    <t>EDATE</t>
+  </si>
+  <si>
+    <t>EOMONTH</t>
+  </si>
+  <si>
+    <t>HOUR</t>
+  </si>
+  <si>
+    <t>ISOWEEKNUM</t>
+  </si>
+  <si>
+    <t>MINUTE</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>NETWORKDAYS</t>
+  </si>
+  <si>
+    <t>NETWORKDAYS.INTL</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>SECOND</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>TIMEVALUE</t>
+  </si>
+  <si>
+    <t>TODAY</t>
+  </si>
+  <si>
+    <t>WEEKDAY</t>
+  </si>
+  <si>
+    <t>WEEKNUM</t>
+  </si>
+  <si>
+    <t>WORKDAY</t>
+  </si>
+  <si>
+    <t>WORKDAY.INTL</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>YEARFRAC</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>26/8/1987 05:00 AM</t>
+  </si>
+  <si>
+    <t>26/8/1987 02:00 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="180" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="184" formatCode="0.000000000000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1442,7 +1538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1499,9 +1595,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1808,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV81"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1843,70 +1952,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -1916,22 +2025,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -1941,36 +2050,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AG2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -12224,6 +12333,41 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AV81"/>
   <sheetViews>
@@ -12264,70 +12408,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
     </row>
     <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="26" t="s">
         <v>38</v>
       </c>
@@ -12337,22 +12481,22 @@
       <c r="I2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="26" t="s">
         <v>38</v>
       </c>
@@ -12362,36 +12506,36 @@
       <c r="X2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
       <c r="AF2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AG2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
     </row>
     <row r="3" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
@@ -14823,7 +14967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BJ56"/>
   <sheetViews>
@@ -14874,70 +15018,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="27" t="s">
         <v>38</v>
       </c>
@@ -14947,22 +15091,22 @@
       <c r="I2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="27" t="s">
         <v>38</v>
       </c>
@@ -14972,36 +15116,36 @@
       <c r="X2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
       <c r="AF2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AG2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -16748,70 +16892,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -16821,22 +16965,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -16846,36 +16990,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AG2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -17504,70 +17648,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -17577,22 +17721,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -17602,36 +17746,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AG2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -19447,7 +19591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AV113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19485,70 +19629,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -19558,22 +19702,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -19583,36 +19727,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AG2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -21128,6 +21272,2209 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7D9E77-BF90-2E45-87C2-E9C169025282}">
+  <dimension ref="A1:AV113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="237" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="38" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="48" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A1" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+    </row>
+    <row r="2" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+    </row>
+    <row r="3" spans="1:48" s="7" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" s="36">
+        <v>1987</v>
+      </c>
+      <c r="C3" s="36">
+        <v>8</v>
+      </c>
+      <c r="D3" s="36">
+        <v>1</v>
+      </c>
+      <c r="E3" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="36">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="I3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="37" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N3" s="37" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O3" s="37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P3" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q3" s="11">
+        <f>DATE(B3,C3,D3)</f>
+        <v>31990</v>
+      </c>
+      <c r="R3" s="11">
+        <f>DATE(B3,C3,E3)</f>
+        <v>31989</v>
+      </c>
+      <c r="S3" s="11" t="e">
+        <f>DATE(0.9,0.9,0.9)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T3" s="11">
+        <f>DATE(0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="11">
+        <f>DATE(1,0,0)</f>
+        <v>335</v>
+      </c>
+      <c r="V3" s="11">
+        <f>DATE(B3,C3,G3)</f>
+        <v>31989</v>
+      </c>
+      <c r="W3" s="11">
+        <f>DATE(C3,D3,H3)</f>
+        <v>2921</v>
+      </c>
+      <c r="X3" s="11">
+        <f>DATE(D3,E3,I3)</f>
+        <v>336</v>
+      </c>
+      <c r="Y3" s="11" t="e">
+        <f>DATE(E3,F3,J3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z3" s="11" t="e">
+        <f t="shared" ref="Y3:AE3" si="0">DATE(F3,G3,K3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA3" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB3" s="11" t="e">
+        <f>DATE(H3,I3,M3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC3" s="11" t="e">
+        <f>DATE(I3,N3,J3)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD3" s="11" t="e">
+        <f>DATE(B3,O3,K3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE3" s="11" t="e">
+        <f>DATE(P3,J3,L3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF3" s="11">
+        <f t="array" ref="AF3">DATE(B3,C3,D3:G3)</f>
+        <v>31990</v>
+      </c>
+      <c r="AG3" s="11">
+        <f t="array" ref="AG3:AJ3">DATE(B3,C3,D3:F3)</f>
+        <v>31990</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>31989</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>31989</v>
+      </c>
+      <c r="AJ3" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK3" s="11">
+        <f t="array" ref="AK3:AM3">DATE(B3:D3,G3,C3:E3)</f>
+        <v>31754</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>2892</v>
+      </c>
+      <c r="AM3" s="11">
+        <v>335</v>
+      </c>
+      <c r="AN3" s="11" t="e">
+        <f t="array" ref="AN3:AV3">DATE(B3:H3,G3,J3:P3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO3" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP3" s="11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ3" s="11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AR3" s="11" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AS3" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AT3" s="11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AU3" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV3" s="38" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" s="7" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A4" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+    </row>
+    <row r="5" spans="1:48" s="7" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" s="36">
+        <v>1987</v>
+      </c>
+      <c r="C5" s="36">
+        <v>8</v>
+      </c>
+      <c r="D5" s="36">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="I5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="37" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N5" s="37" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O5" s="37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P5" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q5" s="11" t="e">
+        <f>DATEVALUE(B5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R5" s="11" t="e">
+        <f t="shared" ref="R5:AE5" si="1">DATEVALUE(C5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S5" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T5" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U5" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V5" s="11" t="e">
+        <f>DATEVALUE(G5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W5" s="11">
+        <f>DATEVALUE(H5)</f>
+        <v>32015</v>
+      </c>
+      <c r="X5" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y5" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z5" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA5" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB5" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC5" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD5" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE5" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF5" s="11">
+        <f t="array" ref="AF5">DATEVALUE(H5:I5)</f>
+        <v>32015</v>
+      </c>
+      <c r="AG5" s="11" t="e">
+        <f t="array" ref="AG5:AV5">DATEVALUE(B5:P5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH5" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI5" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ5" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK5" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL5" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM5" s="11">
+        <v>32015</v>
+      </c>
+      <c r="AN5" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO5" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP5" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ5" s="11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR5" s="11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS5" s="11" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT5" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU5" s="11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV5" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" s="36">
+        <v>1987</v>
+      </c>
+      <c r="C6" s="36">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="36">
+        <v>2958466</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="I6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="37" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N6" s="37" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O6" s="37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P6" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q6" s="11">
+        <f>DAY(B6)</f>
+        <v>9</v>
+      </c>
+      <c r="R6" s="11" t="e">
+        <f t="shared" ref="R6:AE6" si="2">DAY(C6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S6" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T6" s="11">
+        <f>DAY(E6)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="11">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="X6" s="11">
+        <f>DAY(I6)</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z6" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA6" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB6" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC6" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD6" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE6" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF6" s="11">
+        <f t="array" ref="AF6">DAY(H6:I6)</f>
+        <v>22</v>
+      </c>
+      <c r="AG6" s="11">
+        <f t="array" ref="AG6:AV6">DAY(B6:P6)</f>
+        <v>9</v>
+      </c>
+      <c r="AH6" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI6" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AJ6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="11">
+        <v>22</v>
+      </c>
+      <c r="AN6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP6" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ6" s="11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR6" s="11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS6" s="11" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT6" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU6" s="11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV6" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="39"/>
+    </row>
+    <row r="8" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="I11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="37" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N11" s="37" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O11" s="37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P11" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>HOUR(B11)</f>
+        <v>10</v>
+      </c>
+      <c r="R11" s="4" t="e">
+        <f t="shared" ref="R11:AE11" si="3">HOUR(C11)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="T11" s="4">
+        <f>HOUR(E11)</f>
+        <v>9</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z11" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA11" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB11" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC11" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD11" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE11" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF11" s="4">
+        <f t="array" ref="AF11">HOUR(H6:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11">
+        <f t="array" ref="AG11:AV11">HOUR(B11:P11)</f>
+        <v>10</v>
+      </c>
+      <c r="AH11" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>7</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>9</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP11" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ11" s="11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR11" s="11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS11" s="11" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT11" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU11" s="11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV11" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="I13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="37" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N13" s="37" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O13" s="37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P13" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>MINUTE(B13)</f>
+        <v>33</v>
+      </c>
+      <c r="R13" s="4" t="e">
+        <f t="shared" ref="R13:AE13" si="4">MINUTE(C13)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="T13" s="4">
+        <f>MINUTE(E13)</f>
+        <v>36</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z13" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA13" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB13" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC13" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD13" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE13" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF13" s="4">
+        <f t="array" ref="AF13">MINUTE(H8:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="11">
+        <f t="array" ref="AG13:AV13">MINUTE(B13:P13)</f>
+        <v>33</v>
+      </c>
+      <c r="AH13" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>55</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>36</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP13" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ13" s="11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR13" s="11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS13" s="11" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT13" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU13" s="11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV13" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="B14" s="36">
+        <v>1987</v>
+      </c>
+      <c r="C14" s="36">
+        <v>8</v>
+      </c>
+      <c r="D14" s="36">
+        <v>1</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="36">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="I14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="37" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N14" s="37" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O14" s="37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P14" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q14" s="11">
+        <f>MONTH(B14)</f>
+        <v>6</v>
+      </c>
+      <c r="R14" s="11">
+        <f t="shared" ref="R14:AE14" si="5">MONTH(C14)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T14" s="11">
+        <f>MONTH(E14)</f>
+        <v>1</v>
+      </c>
+      <c r="U14" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W14" s="11">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="X14" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="11" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z14" s="11" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA14" s="11" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB14" s="11" t="e">
+        <f t="shared" si="5"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC14" s="11" t="e">
+        <f t="shared" si="5"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD14" s="11" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE14" s="11" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF14" s="11">
+        <f t="array" ref="AF14">MONTH(H6:I6)</f>
+        <v>8</v>
+      </c>
+      <c r="AG14" s="11">
+        <f t="array" ref="AG14:AV14">MONTH(B14:P14)</f>
+        <v>6</v>
+      </c>
+      <c r="AH14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="11">
+        <v>8</v>
+      </c>
+      <c r="AN14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP14" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ14" s="11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR14" s="11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS14" s="11" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT14" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU14" s="11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV14" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A17" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14">
+        <f ca="1">IF(NOW(),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="I18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L18" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="37" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N18" s="37" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O18" s="37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P18" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>SECOND(B18)</f>
+        <v>36</v>
+      </c>
+      <c r="R18" s="4" t="e">
+        <f t="shared" ref="R18:AE18" si="6">SECOND(C18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z18" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA18" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB18" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC18" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD18" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE18" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF18" s="4">
+        <f t="array" ref="AF18">SECOND(H13:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="11">
+        <f t="array" ref="AG18:AV18">SECOND(B18:P18)</f>
+        <v>36</v>
+      </c>
+      <c r="AH18" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AI18" s="11">
+        <v>12</v>
+      </c>
+      <c r="AJ18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP18" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ18" s="11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR18" s="11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS18" s="11" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT18" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU18" s="11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV18" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="B19" s="36">
+        <v>32767.99</v>
+      </c>
+      <c r="C19" s="36">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="36">
+        <v>67</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="F19" s="36">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="41" t="s">
+        <v>455</v>
+      </c>
+      <c r="I19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K19" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L19" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="37" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N19" s="37" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O19" s="37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P19" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q19" s="11">
+        <f>TIME(B19,C19,D19)</f>
+        <v>0.29174768518510064</v>
+      </c>
+      <c r="R19" s="11">
+        <f>TIME(B19,C19,E19)</f>
+        <v>0.29097222222230812</v>
+      </c>
+      <c r="S19" s="11">
+        <f>TIME(0.9,0.9,0.9)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="42">
+        <f>TIME(0,1,0)</f>
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="U19" s="11">
+        <f>TIME(1,0,0)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="V19" s="11">
+        <f>TIME(B19,C19,G19)</f>
+        <v>0.29097222222230812</v>
+      </c>
+      <c r="W19" s="11">
+        <f>TIME(C19,D19,H19)</f>
+        <v>5.555555555555554E-3</v>
+      </c>
+      <c r="X19" s="11">
+        <f>TIME(D19,E19,I19)</f>
+        <v>0.79167824074074078</v>
+      </c>
+      <c r="Y19" s="11" t="e">
+        <f>TIME(E19,F19,J19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z19" s="11" t="e">
+        <f>TIME(F19,G19,K19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA19" s="11" t="e">
+        <f>TIME(G19,H19,L19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB19" s="11" t="e">
+        <f>TIME(H19,I19,M19)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC19" s="11" t="e">
+        <f>TIME(I19,N19,J19)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD19" s="11" t="e">
+        <f>TIME(B19,O19,K19)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE19" s="11" t="e">
+        <f>TIME(P19,J19,L19)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF19" s="11">
+        <f t="array" ref="AF19">TIME(B19,C19,D19:G19)</f>
+        <v>0.29174768518510064</v>
+      </c>
+      <c r="AG19" s="11">
+        <f t="array" ref="AG19:AJ19">TIME(B19,C19,D19:F19)</f>
+        <v>0.29174768518510064</v>
+      </c>
+      <c r="AH19" s="11">
+        <v>0.29097222222230812</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>0.29097222222230812</v>
+      </c>
+      <c r="AJ19" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK19" s="11">
+        <f t="array" ref="AK19:AM19">TIME(B19:D19,G19,C19:E19)</f>
+        <v>0.29165509259269129</v>
+      </c>
+      <c r="AL19" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AM19" s="11">
+        <v>0.79166666666666652</v>
+      </c>
+      <c r="AN19" s="11" t="e">
+        <f t="array" ref="AN19:AV19">TIME(B19:H19,G19,J19:P19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO19" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP19" s="11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ19" s="11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AR19" s="11" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AS19" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AT19" s="11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AU19" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV19" s="38" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="B20" s="36">
+        <v>1987</v>
+      </c>
+      <c r="C20" s="36">
+        <v>8</v>
+      </c>
+      <c r="D20" s="36">
+        <v>1</v>
+      </c>
+      <c r="E20" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="F20" s="36">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="I20" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L20" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="37" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N20" s="37" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O20" s="37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P20" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q20" s="11" t="e">
+        <f>TIMEVALUE(B20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R20" s="11" t="e">
+        <f t="shared" ref="R20:AE20" si="7">TIMEVALUE(C20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S20" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T20" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U20" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V20" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W20" s="11">
+        <f>TIMEVALUE(H20)</f>
+        <v>0.20833333333212067</v>
+      </c>
+      <c r="X20" s="11" t="e">
+        <f>TIMEVALUE(I20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y20" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z20" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA20" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB20" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC20" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD20" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE20" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF20" s="11">
+        <f t="array" ref="AF20">TIMEVALUE(H20:I20)</f>
+        <v>0.20833333333212067</v>
+      </c>
+      <c r="AG20" s="11" t="e">
+        <f t="array" ref="AG20:AV20">TIMEVALUE(B20:P20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH20" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI20" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ20" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK20" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL20" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM20" s="11">
+        <v>0.20833333333212067</v>
+      </c>
+      <c r="AN20" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO20" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP20" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ20" s="11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR20" s="11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS20" s="11" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT20" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU20" s="11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV20" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="V21" s="14">
+        <f ca="1">IF(TODAY(),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A22" s="16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A23" s="16" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A26" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="B26" s="36">
+        <v>1987</v>
+      </c>
+      <c r="C26" s="36">
+        <v>8</v>
+      </c>
+      <c r="D26" s="36">
+        <v>1</v>
+      </c>
+      <c r="E26" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="F26" s="36">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="I26" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="37" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N26" s="37" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O26" s="37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P26" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q26" s="11">
+        <f>YEAR(B26)</f>
+        <v>1905</v>
+      </c>
+      <c r="R26" s="11">
+        <f t="shared" ref="R26:AE26" si="8">YEAR(C26)</f>
+        <v>1900</v>
+      </c>
+      <c r="S26" s="11">
+        <f t="shared" si="8"/>
+        <v>1900</v>
+      </c>
+      <c r="T26" s="11">
+        <f t="shared" si="8"/>
+        <v>1900</v>
+      </c>
+      <c r="U26" s="11">
+        <f t="shared" si="8"/>
+        <v>1900</v>
+      </c>
+      <c r="V26" s="11">
+        <f t="shared" si="8"/>
+        <v>1900</v>
+      </c>
+      <c r="W26" s="11">
+        <f t="shared" si="8"/>
+        <v>1901</v>
+      </c>
+      <c r="X26" s="11">
+        <f t="shared" si="8"/>
+        <v>1900</v>
+      </c>
+      <c r="Y26" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z26" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB26" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="AC26" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="AD26" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AE26" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AF26" s="11">
+        <f t="array" ref="AF26">YEAR(H26:I26)</f>
+        <v>1901</v>
+      </c>
+      <c r="AG26" s="11">
+        <f t="array" ref="AG26:AV26">YEAR(B26:P26)</f>
+        <v>1905</v>
+      </c>
+      <c r="AH26" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AI26" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AJ26" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AK26" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AL26" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AM26" s="11">
+        <v>1901</v>
+      </c>
+      <c r="AN26" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AO26" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP26" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ26" s="11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR26" s="11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AS26" s="11" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="AT26" s="11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AU26" s="11" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV26" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A27" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="B27" s="36">
+        <v>1987</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="I27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L27" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="37" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N27" s="37" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O27" s="37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P27" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>YEARFRAC(B27,345,C27)</f>
+        <v>4.4965769055225921</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" ref="R27:U27" si="9">YEARFRAC(C27,345,D27)</f>
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="S27" s="4">
+        <f>YEARFRAC(D27,345,"3")</f>
+        <v>0.9397260273972603</v>
+      </c>
+      <c r="T27" s="4" t="e">
+        <f>YEARFRAC(E27,345,I27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U27" s="4">
+        <f>YEARFRAC(F27,345,G27)</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="V27" s="4" t="e">
+        <f>YEARFRAC(G27,345,H27)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W27" s="4">
+        <f>YEARFRAC(H27,345,F27)</f>
+        <v>86.711111111111109</v>
+      </c>
+      <c r="X27" s="4" t="e">
+        <f>YEARFRAC(I27,345,C27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y27" s="4" t="e">
+        <f>YEARFRAC(J27,345,K27)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z27" s="4" t="e">
+        <f>YEARFRAC(K27,345,L27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA27" s="4" t="e">
+        <f t="shared" ref="AA27" si="10">YEARFRAC(L27,345,M27)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AB27" s="4" t="e">
+        <f t="shared" ref="AB27:AC27" si="11">YEARFRAC(M27,345,N27)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="AC27" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AD27" s="4" t="e">
+        <f t="shared" ref="AD27" si="12">YEARFRAC(O27,345,P27)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AE27" s="4" t="e">
+        <f>YEARFRAC(P27,345,Q27)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF27" s="11" t="e">
+        <f t="array" ref="AF27">YEARFRAC(B27:C27,D27:E27,C27:D27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG27" s="4" t="e">
+        <f t="array" ref="AG27:AV27">YEARFRAC(B27:D27,C27:E27,D27:F27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV27" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A28" s="16"/>
+    </row>
+    <row r="29" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+    </row>
+    <row r="30" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A30" s="16"/>
+      <c r="B30" s="45"/>
+    </row>
+    <row r="31" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="A31" s="16"/>
+      <c r="B31" s="44"/>
+    </row>
+    <row r="32" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="B32" s="44"/>
+    </row>
+    <row r="33" spans="2:2" ht="11" x14ac:dyDescent="0.15">
+      <c r="B33" s="44"/>
+    </row>
+    <row r="34" spans="2:2" ht="11" x14ac:dyDescent="0.15">
+      <c r="B34" s="44"/>
+    </row>
+    <row r="35" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="11" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="11" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="Q1:AV1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AV2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AV22"/>
   <sheetViews>
@@ -21169,70 +23516,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -21242,22 +23589,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -21267,36 +23614,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AG2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -21725,7 +24072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BJ74"/>
   <sheetViews>
@@ -21778,70 +24125,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="19" t="s">
         <v>38</v>
       </c>
@@ -21851,22 +24198,22 @@
       <c r="I2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="19" t="s">
         <v>38</v>
       </c>
@@ -21876,36 +24223,36 @@
       <c r="X2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
       <c r="AF2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AG2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -21923,7 +24270,7 @@
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>334</v>
       </c>
       <c r="B6" s="22">
@@ -22089,7 +24436,7 @@
       </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -22219,7 +24566,7 @@
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -22471,7 +24818,7 @@
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="35" t="s">
         <v>338</v>
       </c>
       <c r="B12" s="22">
@@ -22629,7 +24976,7 @@
       </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -22736,7 +25083,7 @@
       </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -22848,7 +25195,7 @@
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="35" t="s">
         <v>340</v>
       </c>
       <c r="B16" s="22">
@@ -23007,7 +25354,7 @@
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="22">
         <v>-2</v>
       </c>
@@ -23123,7 +25470,7 @@
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="22">
         <v>-2.9</v>
       </c>
@@ -23236,7 +25583,7 @@
       <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="35" t="s">
         <v>342</v>
       </c>
       <c r="B20" s="22">
@@ -23398,7 +25745,7 @@
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -23529,7 +25876,7 @@
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A22" s="34"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -23660,7 +26007,7 @@
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A23" s="34"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -23791,7 +26138,7 @@
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -23922,7 +26269,7 @@
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A25" s="34"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -24053,7 +26400,7 @@
       </c>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -24184,7 +26531,7 @@
       </c>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -24315,7 +26662,7 @@
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A28" s="34"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -24445,7 +26792,7 @@
       </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="35" t="s">
         <v>352</v>
       </c>
       <c r="B29" s="22">
@@ -24570,7 +26917,7 @@
       <c r="AU29" s="6"/>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A30" s="34"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="22">
         <v>-2</v>
       </c>
@@ -24679,7 +27026,7 @@
       <c r="AG30" s="6"/>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A31" s="34"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="22">
         <v>-2</v>
       </c>
@@ -24788,7 +27135,7 @@
       <c r="AG31" s="6"/>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A32" s="34"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="22">
         <v>-2</v>
       </c>
@@ -24897,7 +27244,7 @@
       <c r="AG32" s="6"/>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A33" s="34"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="22">
         <v>-2</v>
       </c>
@@ -25006,7 +27353,7 @@
       <c r="AG33" s="6"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A34" s="34"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="22">
         <v>-2</v>
       </c>
@@ -25115,7 +27462,7 @@
       <c r="AG34" s="6"/>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A35" s="34"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="22">
         <v>-2</v>
       </c>
@@ -25224,7 +27571,7 @@
       <c r="AG35" s="6"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A36" s="34"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="22">
         <v>-2</v>
       </c>
@@ -25333,7 +27680,7 @@
       <c r="AG36" s="6"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A37" s="34"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="22">
         <v>-2</v>
       </c>
@@ -25442,7 +27789,7 @@
       <c r="AG37" s="6"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="35" t="s">
         <v>351</v>
       </c>
       <c r="B38" s="22">
@@ -25567,7 +27914,7 @@
       <c r="AU38" s="6"/>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A39" s="34"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="22">
         <v>-2</v>
       </c>
@@ -25676,7 +28023,7 @@
       <c r="AG39" s="6"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A40" s="34"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="22">
         <v>-2</v>
       </c>
@@ -25785,7 +28132,7 @@
       <c r="AG40" s="6"/>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A41" s="34"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="22">
         <v>-2</v>
       </c>
@@ -25894,7 +28241,7 @@
       <c r="AG41" s="6"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A42" s="34"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="22">
         <v>-2</v>
       </c>
@@ -26003,7 +28350,7 @@
       <c r="AG42" s="6"/>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A43" s="34"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="22">
         <v>-2</v>
       </c>
@@ -26112,7 +28459,7 @@
       <c r="AG43" s="6"/>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A44" s="34"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="22">
         <v>-2</v>
       </c>
@@ -26221,7 +28568,7 @@
       <c r="AG44" s="6"/>
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A45" s="34"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="22">
         <v>-2</v>
       </c>
@@ -26330,7 +28677,7 @@
       <c r="AG45" s="6"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A46" s="34"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="22">
         <v>-2</v>
       </c>
@@ -26439,7 +28786,7 @@
       <c r="AG46" s="6"/>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="35" t="s">
         <v>353</v>
       </c>
       <c r="B47" s="22">
@@ -26564,7 +28911,7 @@
       <c r="AU47" s="6"/>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A48" s="34"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="22">
         <v>-2</v>
       </c>
@@ -26673,7 +29020,7 @@
       <c r="AG48" s="6"/>
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A49" s="34"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="22">
         <v>-2</v>
       </c>
@@ -26782,7 +29129,7 @@
       <c r="AG49" s="6"/>
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A50" s="34"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="22">
         <v>-2</v>
       </c>
@@ -26891,7 +29238,7 @@
       <c r="AG50" s="6"/>
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A51" s="34"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="22">
         <v>-2</v>
       </c>
@@ -27000,7 +29347,7 @@
       <c r="AG51" s="6"/>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A52" s="34"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="22">
         <v>-2</v>
       </c>
@@ -27109,7 +29456,7 @@
       <c r="AG52" s="6"/>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A53" s="34"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="22">
         <v>-2</v>
       </c>
@@ -27218,7 +29565,7 @@
       <c r="AG53" s="6"/>
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A54" s="34"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="22">
         <v>-2</v>
       </c>
@@ -27327,7 +29674,7 @@
       <c r="AG54" s="6"/>
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A55" s="34"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="22">
         <v>-2</v>
       </c>
@@ -27466,7 +29813,7 @@
       <c r="AE56" s="6"/>
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="35" t="s">
         <v>344</v>
       </c>
       <c r="B57" s="22">
@@ -27632,7 +29979,7 @@
       </c>
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A58" s="34"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -27762,7 +30109,7 @@
       </c>
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A59" s="34"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -27997,7 +30344,7 @@
       <c r="AE62" s="6"/>
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="35" t="s">
         <v>348</v>
       </c>
       <c r="B63" s="22">
@@ -28106,7 +30453,7 @@
       </c>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A64" s="34"/>
+      <c r="A64" s="35"/>
       <c r="B64" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -28213,7 +30560,7 @@
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A65" s="34"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -28609,12 +30956,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Q1:AV1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AG2:AV2"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A57:A59"/>
@@ -28626,13 +30967,19 @@
     <mergeCell ref="A47:A55"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="Q1:AV1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AV2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BJ22"/>
   <sheetViews>
@@ -28684,70 +31031,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -28757,22 +31104,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -28782,36 +31129,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AG2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
@@ -30112,7 +32459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:T60"/>
   <sheetViews>
@@ -30604,39 +32951,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B2:B5"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/test/test_files/test.xlsx
+++ b/test/test_files/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenzoarcidiacono/PycharmProjects/formulas/test/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E26513-B695-1E42-B2A7-134ACFAF4A17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17503C1B-31BC-1B47-B861-08F606B83C7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" tabRatio="770" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,8 +1440,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="180" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="184" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1538,7 +1538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1595,12 +1595,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1609,8 +1603,16 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1952,70 +1954,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -2025,22 +2027,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -2050,36 +2052,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Y2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AG2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -12408,70 +12410,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
     </row>
     <row r="2" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="26" t="s">
         <v>38</v>
       </c>
@@ -12481,22 +12483,22 @@
       <c r="I2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
       <c r="V2" s="26" t="s">
         <v>38</v>
       </c>
@@ -12506,36 +12508,36 @@
       <c r="X2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Y2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
       <c r="AF2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AG2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
     </row>
     <row r="3" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
@@ -15018,70 +15020,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="27" t="s">
         <v>38</v>
       </c>
@@ -15091,22 +15093,22 @@
       <c r="I2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
       <c r="V2" s="27" t="s">
         <v>38</v>
       </c>
@@ -15116,36 +15118,36 @@
       <c r="X2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Y2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
       <c r="AF2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AG2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -16892,70 +16894,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -16965,22 +16967,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -16990,36 +16992,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Y2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AG2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -17648,70 +17650,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -17721,22 +17723,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -17746,36 +17748,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Y2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AG2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -19629,70 +19631,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -19702,22 +19704,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -19727,36 +19729,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Y2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AG2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -21273,13 +21275,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7D9E77-BF90-2E45-87C2-E9C169025282}">
-  <dimension ref="A1:AV113"/>
+  <dimension ref="A1:AV34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="237" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" zoomScale="237" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -21322,71 +21324,71 @@
     <col min="49" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-    </row>
-    <row r="2" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="33" t="s">
         <v>38</v>
       </c>
@@ -21396,22 +21398,22 @@
       <c r="I2" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
       <c r="V2" s="33" t="s">
         <v>38</v>
       </c>
@@ -21421,58 +21423,58 @@
       <c r="X2" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Y2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
       <c r="AF2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AG2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-    </row>
-    <row r="3" spans="1:48" s="7" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+    </row>
+    <row r="3" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="34">
         <v>1987</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="34">
         <v>8</v>
       </c>
-      <c r="D3" s="36">
-        <v>1</v>
-      </c>
-      <c r="E3" s="36">
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34">
         <v>0.7</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="34">
         <v>0</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="39" t="s">
         <v>454</v>
       </c>
       <c r="I3" s="11" t="b">
@@ -21484,19 +21486,19 @@
       <c r="K3" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L3" s="37" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="37" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N3" s="37" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O3" s="37" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P3" s="37" t="e">
+      <c r="L3" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="35" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N3" s="35" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O3" s="35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P3" s="35" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q3" s="11">
@@ -21536,7 +21538,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z3" s="11" t="e">
-        <f t="shared" ref="Y3:AE3" si="0">DATE(F3,G3,K3)</f>
+        <f t="shared" ref="Z3:AA3" si="0">DATE(F3,G3,K3)</f>
         <v>#N/A</v>
       </c>
       <c r="AA3" s="11" t="e">
@@ -21611,29 +21613,29 @@
       <c r="AU3" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AV3" s="38" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" s="7" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+      <c r="AV3" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -21666,27 +21668,27 @@
       <c r="AT4" s="11"/>
       <c r="AU4" s="11"/>
     </row>
-    <row r="5" spans="1:48" s="7" customFormat="1" ht="11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="34">
         <v>1987</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <v>8</v>
       </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-      <c r="E5" s="36">
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34">
         <v>0.7</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="34">
         <v>0</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="39" t="s">
         <v>459</v>
       </c>
       <c r="I5" s="11" t="b">
@@ -21698,19 +21700,19 @@
       <c r="K5" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L5" s="37" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="37" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N5" s="37" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O5" s="37" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P5" s="37" t="e">
+      <c r="L5" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="35" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N5" s="35" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O5" s="35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P5" s="35" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q5" s="11" t="e">
@@ -21827,27 +21829,27 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="34">
         <v>1987</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="34">
         <v>-1</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="34">
         <v>2958466</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="34">
         <v>0.7</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="34">
         <v>0</v>
       </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="39" t="s">
         <v>456</v>
       </c>
       <c r="I6" s="11" t="b">
@@ -21859,19 +21861,19 @@
       <c r="K6" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L6" s="37" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="37" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N6" s="37" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O6" s="37" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P6" s="37" t="e">
+      <c r="L6" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="35" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N6" s="35" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O6" s="35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P6" s="35" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q6" s="11">
@@ -21988,33 +21990,33 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="39"/>
-    </row>
-    <row r="8" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="B7" s="37"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="37"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="37"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
         <v>437</v>
       </c>
@@ -22033,7 +22035,7 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="41" t="s">
         <v>457</v>
       </c>
       <c r="I11" s="4" t="b">
@@ -22045,19 +22047,19 @@
       <c r="K11" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L11" s="37" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="37" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N11" s="37" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O11" s="37" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P11" s="37" t="e">
+      <c r="L11" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="35" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N11" s="35" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O11" s="35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P11" s="35" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q11" s="4">
@@ -22174,12 +22176,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>439</v>
       </c>
@@ -22198,7 +22200,7 @@
       <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="41" t="s">
         <v>457</v>
       </c>
       <c r="I13" s="4" t="b">
@@ -22210,19 +22212,19 @@
       <c r="K13" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L13" s="37" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="37" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N13" s="37" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O13" s="37" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P13" s="37" t="e">
+      <c r="L13" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="35" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N13" s="35" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O13" s="35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P13" s="35" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q13" s="4">
@@ -22339,27 +22341,27 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="34">
         <v>1987</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="34">
         <v>8</v>
       </c>
-      <c r="D14" s="36">
-        <v>1</v>
-      </c>
-      <c r="E14" s="36">
+      <c r="D14" s="34">
+        <v>1</v>
+      </c>
+      <c r="E14" s="34">
         <v>0.7</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="34">
         <v>0</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="39" t="s">
         <v>456</v>
       </c>
       <c r="I14" s="11" t="b">
@@ -22371,19 +22373,19 @@
       <c r="K14" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L14" s="37" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="37" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N14" s="37" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O14" s="37" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P14" s="37" t="e">
+      <c r="L14" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="35" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N14" s="35" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O14" s="35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P14" s="35" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q14" s="11">
@@ -22500,17 +22502,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="16" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>443</v>
       </c>
@@ -22520,7 +22522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>444</v>
       </c>
@@ -22539,7 +22541,7 @@
       <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="41" t="s">
         <v>457</v>
       </c>
       <c r="I18" s="4" t="b">
@@ -22551,19 +22553,19 @@
       <c r="K18" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L18" s="37" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="37" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N18" s="37" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O18" s="37" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P18" s="37" t="e">
+      <c r="L18" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="35" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N18" s="35" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O18" s="35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P18" s="35" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q18" s="4">
@@ -22680,27 +22682,27 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="34">
         <v>32767.99</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="34">
         <v>-1</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="34">
         <v>67</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="34">
         <v>0.7</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="34">
         <v>0</v>
       </c>
       <c r="G19" s="11"/>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="39" t="s">
         <v>455</v>
       </c>
       <c r="I19" s="11" t="b">
@@ -22712,19 +22714,19 @@
       <c r="K19" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L19" s="37" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="37" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N19" s="37" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O19" s="37" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P19" s="37" t="e">
+      <c r="L19" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="35" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N19" s="35" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O19" s="35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P19" s="35" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q19" s="11">
@@ -22739,7 +22741,7 @@
         <f>TIME(0.9,0.9,0.9)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="42">
+      <c r="T19" s="40">
         <f>TIME(0,1,0)</f>
         <v>6.9444444444444447E-4</v>
       </c>
@@ -22748,31 +22750,31 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="V19" s="11">
-        <f>TIME(B19,C19,G19)</f>
+        <f t="shared" ref="V19:AB19" si="7">TIME(B19,C19,G19)</f>
         <v>0.29097222222230812</v>
       </c>
       <c r="W19" s="11">
-        <f>TIME(C19,D19,H19)</f>
+        <f t="shared" si="7"/>
         <v>5.555555555555554E-3</v>
       </c>
       <c r="X19" s="11">
-        <f>TIME(D19,E19,I19)</f>
+        <f t="shared" si="7"/>
         <v>0.79167824074074078</v>
       </c>
       <c r="Y19" s="11" t="e">
-        <f>TIME(E19,F19,J19)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z19" s="11" t="e">
-        <f>TIME(F19,G19,K19)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="AA19" s="11" t="e">
-        <f>TIME(G19,H19,L19)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB19" s="11" t="e">
-        <f>TIME(H19,I19,M19)</f>
+        <f t="shared" si="7"/>
         <v>#NAME?</v>
       </c>
       <c r="AC19" s="11" t="e">
@@ -22839,31 +22841,31 @@
       <c r="AU19" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AV19" s="38" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="AV19" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="34">
         <v>1987</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="34">
         <v>8</v>
       </c>
-      <c r="D20" s="36">
-        <v>1</v>
-      </c>
-      <c r="E20" s="36">
+      <c r="D20" s="34">
+        <v>1</v>
+      </c>
+      <c r="E20" s="34">
         <v>0.7</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="34">
         <v>0</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="39" t="s">
         <v>458</v>
       </c>
       <c r="I20" s="11" t="b">
@@ -22875,19 +22877,19 @@
       <c r="K20" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L20" s="37" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="37" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N20" s="37" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O20" s="37" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P20" s="37" t="e">
+      <c r="L20" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="35" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N20" s="35" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O20" s="35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P20" s="35" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q20" s="11" t="e">
@@ -22895,23 +22897,23 @@
         <v>#VALUE!</v>
       </c>
       <c r="R20" s="11" t="e">
-        <f t="shared" ref="R20:AE20" si="7">TIMEVALUE(C20)</f>
+        <f t="shared" ref="R20:AE20" si="8">TIMEVALUE(C20)</f>
         <v>#VALUE!</v>
       </c>
       <c r="S20" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="T20" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="U20" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="V20" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="W20" s="11">
@@ -22923,31 +22925,31 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y20" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z20" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AA20" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB20" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NAME?</v>
       </c>
       <c r="AC20" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NULL!</v>
       </c>
       <c r="AD20" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="AE20" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="AF20" s="11">
@@ -23004,57 +23006,57 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="37"/>
       <c r="V21" s="14">
         <f ca="1">IF(TODAY(),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="23" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="24" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="26" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="34">
         <v>1987</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="34">
         <v>8</v>
       </c>
-      <c r="D26" s="36">
-        <v>1</v>
-      </c>
-      <c r="E26" s="36">
+      <c r="D26" s="34">
+        <v>1</v>
+      </c>
+      <c r="E26" s="34">
         <v>0.7</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="34">
         <v>0</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="39" t="s">
         <v>456</v>
       </c>
       <c r="I26" s="11" t="b">
@@ -23066,19 +23068,19 @@
       <c r="K26" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L26" s="37" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="37" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N26" s="37" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O26" s="37" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P26" s="37" t="e">
+      <c r="L26" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="35" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N26" s="35" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O26" s="35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P26" s="35" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q26" s="11">
@@ -23086,59 +23088,59 @@
         <v>1905</v>
       </c>
       <c r="R26" s="11">
-        <f t="shared" ref="R26:AE26" si="8">YEAR(C26)</f>
+        <f t="shared" ref="R26:AE26" si="9">YEAR(C26)</f>
         <v>1900</v>
       </c>
       <c r="S26" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1900</v>
       </c>
       <c r="T26" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1900</v>
       </c>
       <c r="U26" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1900</v>
       </c>
       <c r="V26" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1900</v>
       </c>
       <c r="W26" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1901</v>
       </c>
       <c r="X26" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1900</v>
       </c>
       <c r="Y26" s="11" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z26" s="11" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="AA26" s="11" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB26" s="11" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NAME?</v>
       </c>
       <c r="AC26" s="11" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NULL!</v>
       </c>
       <c r="AD26" s="11" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="AE26" s="11" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
       <c r="AF26" s="11">
@@ -23195,11 +23197,11 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="34">
         <v>1987</v>
       </c>
       <c r="C27" s="4">
@@ -23214,7 +23216,7 @@
       <c r="F27" s="4">
         <v>4</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="39" t="s">
         <v>458</v>
       </c>
       <c r="I27" s="4" t="b">
@@ -23226,19 +23228,19 @@
       <c r="K27" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L27" s="37" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="37" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="N27" s="37" t="e">
-        <v>#NULL!</v>
-      </c>
-      <c r="O27" s="37" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P27" s="37" t="e">
+      <c r="L27" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="35" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="N27" s="35" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="O27" s="35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P27" s="35" t="e">
         <v>#REF!</v>
       </c>
       <c r="Q27" s="4">
@@ -23246,7 +23248,7 @@
         <v>4.4965769055225921</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" ref="R27:U27" si="9">YEARFRAC(C27,345,D27)</f>
+        <f t="shared" ref="R27" si="10">YEARFRAC(C27,345,D27)</f>
         <v>0.9555555555555556</v>
       </c>
       <c r="S27" s="4">
@@ -23282,19 +23284,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AA27" s="4" t="e">
-        <f t="shared" ref="AA27" si="10">YEARFRAC(L27,345,M27)</f>
+        <f t="shared" ref="AA27" si="11">YEARFRAC(L27,345,M27)</f>
         <v>#NAME?</v>
       </c>
       <c r="AB27" s="4" t="e">
-        <f t="shared" ref="AB27:AC27" si="11">YEARFRAC(M27,345,N27)</f>
+        <f t="shared" ref="AB27:AC27" si="12">YEARFRAC(M27,345,N27)</f>
         <v>#NULL!</v>
       </c>
       <c r="AC27" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#NUM!</v>
       </c>
       <c r="AD27" s="4" t="e">
-        <f t="shared" ref="AD27" si="12">YEARFRAC(O27,345,P27)</f>
+        <f t="shared" ref="AD27" si="13">YEARFRAC(O27,345,P27)</f>
         <v>#REF!</v>
       </c>
       <c r="AE27" s="4" t="e">
@@ -23355,109 +23357,30 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
     </row>
-    <row r="29" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-    </row>
-    <row r="30" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
-      <c r="B30" s="45"/>
-    </row>
-    <row r="31" spans="1:48" ht="11" x14ac:dyDescent="0.15">
+      <c r="B30" s="43"/>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
-      <c r="B31" s="44"/>
-    </row>
-    <row r="32" spans="1:48" ht="11" x14ac:dyDescent="0.15">
-      <c r="B32" s="44"/>
-    </row>
-    <row r="33" spans="2:2" ht="11" x14ac:dyDescent="0.15">
-      <c r="B33" s="44"/>
-    </row>
-    <row r="34" spans="2:2" ht="11" x14ac:dyDescent="0.15">
-      <c r="B34" s="44"/>
-    </row>
-    <row r="35" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:2" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="11" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="11" x14ac:dyDescent="0.15"/>
+      <c r="B31" s="42"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B32" s="42"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="42"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="42"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:A2"/>
@@ -23516,70 +23439,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
@@ -23589,22 +23512,22 @@
       <c r="I2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
       <c r="V2" s="18" t="s">
         <v>38</v>
       </c>
@@ -23614,36 +23537,36 @@
       <c r="X2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Y2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
       <c r="AF2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AG2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -24076,8 +23999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BJ74"/>
   <sheetViews>
-    <sheetView topLeftCell="AA2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AO13" sqref="AO13"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -24125,70 +24048,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="19" t="s">
         <v>38</v>
       </c>
@@ -24198,22 +24121,22 @@
       <c r="I2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
       <c r="V2" s="19" t="s">
         <v>38</v>
       </c>
@@ -24223,36 +24146,36 @@
       <c r="X2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Y2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
       <c r="AF2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AG2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -24270,7 +24193,7 @@
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>334</v>
       </c>
       <c r="B6" s="22">
@@ -24436,7 +24359,7 @@
       </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -24566,7 +24489,7 @@
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -24818,7 +24741,7 @@
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="45" t="s">
         <v>338</v>
       </c>
       <c r="B12" s="22">
@@ -24976,7 +24899,7 @@
       </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -25083,7 +25006,7 @@
       </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -25195,7 +25118,7 @@
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="45" t="s">
         <v>340</v>
       </c>
       <c r="B16" s="22">
@@ -25354,7 +25277,7 @@
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="22">
         <v>-2</v>
       </c>
@@ -25470,7 +25393,7 @@
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="22">
         <v>-2.9</v>
       </c>
@@ -25583,7 +25506,7 @@
       <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="45" t="s">
         <v>342</v>
       </c>
       <c r="B20" s="22">
@@ -25745,7 +25668,7 @@
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -25876,7 +25799,7 @@
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -26007,7 +25930,7 @@
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -26138,7 +26061,7 @@
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -26269,7 +26192,7 @@
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -26400,7 +26323,7 @@
       </c>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -26531,7 +26454,7 @@
       </c>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -26662,7 +26585,7 @@
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -26792,7 +26715,7 @@
       </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="45" t="s">
         <v>352</v>
       </c>
       <c r="B29" s="22">
@@ -26917,7 +26840,7 @@
       <c r="AU29" s="6"/>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A30" s="35"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="22">
         <v>-2</v>
       </c>
@@ -27026,7 +26949,7 @@
       <c r="AG30" s="6"/>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="22">
         <v>-2</v>
       </c>
@@ -27135,7 +27058,7 @@
       <c r="AG31" s="6"/>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="22">
         <v>-2</v>
       </c>
@@ -27244,7 +27167,7 @@
       <c r="AG32" s="6"/>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="22">
         <v>-2</v>
       </c>
@@ -27353,7 +27276,7 @@
       <c r="AG33" s="6"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="22">
         <v>-2</v>
       </c>
@@ -27462,7 +27385,7 @@
       <c r="AG34" s="6"/>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="22">
         <v>-2</v>
       </c>
@@ -27571,7 +27494,7 @@
       <c r="AG35" s="6"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="22">
         <v>-2</v>
       </c>
@@ -27680,7 +27603,7 @@
       <c r="AG36" s="6"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A37" s="35"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="22">
         <v>-2</v>
       </c>
@@ -27789,7 +27712,7 @@
       <c r="AG37" s="6"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="45" t="s">
         <v>351</v>
       </c>
       <c r="B38" s="22">
@@ -27914,7 +27837,7 @@
       <c r="AU38" s="6"/>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A39" s="35"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="22">
         <v>-2</v>
       </c>
@@ -28023,7 +27946,7 @@
       <c r="AG39" s="6"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A40" s="35"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="22">
         <v>-2</v>
       </c>
@@ -28132,7 +28055,7 @@
       <c r="AG40" s="6"/>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A41" s="35"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="22">
         <v>-2</v>
       </c>
@@ -28241,7 +28164,7 @@
       <c r="AG41" s="6"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A42" s="35"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="22">
         <v>-2</v>
       </c>
@@ -28350,7 +28273,7 @@
       <c r="AG42" s="6"/>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A43" s="35"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="22">
         <v>-2</v>
       </c>
@@ -28459,7 +28382,7 @@
       <c r="AG43" s="6"/>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A44" s="35"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="22">
         <v>-2</v>
       </c>
@@ -28568,7 +28491,7 @@
       <c r="AG44" s="6"/>
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A45" s="35"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="22">
         <v>-2</v>
       </c>
@@ -28677,7 +28600,7 @@
       <c r="AG45" s="6"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A46" s="35"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="22">
         <v>-2</v>
       </c>
@@ -28786,7 +28709,7 @@
       <c r="AG46" s="6"/>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="45" t="s">
         <v>353</v>
       </c>
       <c r="B47" s="22">
@@ -28911,7 +28834,7 @@
       <c r="AU47" s="6"/>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A48" s="35"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="22">
         <v>-2</v>
       </c>
@@ -29020,7 +28943,7 @@
       <c r="AG48" s="6"/>
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A49" s="35"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="22">
         <v>-2</v>
       </c>
@@ -29129,7 +29052,7 @@
       <c r="AG49" s="6"/>
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A50" s="35"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="22">
         <v>-2</v>
       </c>
@@ -29238,7 +29161,7 @@
       <c r="AG50" s="6"/>
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A51" s="35"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="22">
         <v>-2</v>
       </c>
@@ -29347,7 +29270,7 @@
       <c r="AG51" s="6"/>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A52" s="35"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="22">
         <v>-2</v>
       </c>
@@ -29456,7 +29379,7 @@
       <c r="AG52" s="6"/>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A53" s="35"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="22">
         <v>-2</v>
       </c>
@@ -29565,7 +29488,7 @@
       <c r="AG53" s="6"/>
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A54" s="35"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="22">
         <v>-2</v>
       </c>
@@ -29674,7 +29597,7 @@
       <c r="AG54" s="6"/>
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A55" s="35"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="22">
         <v>-2</v>
       </c>
@@ -29813,7 +29736,7 @@
       <c r="AE56" s="6"/>
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="45" t="s">
         <v>344</v>
       </c>
       <c r="B57" s="22">
@@ -29979,7 +29902,7 @@
       </c>
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A58" s="35"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -30109,7 +30032,7 @@
       </c>
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A59" s="35"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -30344,7 +30267,7 @@
       <c r="AE62" s="6"/>
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="45" t="s">
         <v>348</v>
       </c>
       <c r="B63" s="22">
@@ -30453,7 +30376,7 @@
       </c>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="A64" s="35"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -30560,7 +30483,7 @@
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A65" s="35"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="22">
         <v>-1.1000000000000001</v>
       </c>
@@ -30956,6 +30879,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q1:AV1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AV2"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A57:A59"/>
@@ -30967,12 +30896,6 @@
     <mergeCell ref="A47:A55"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="Q1:AV1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AG2:AV2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -31031,70 +30954,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"